--- a/participants/participant_44/participant_44_conditions.xlsx
+++ b/participants/participant_44/participant_44_conditions.xlsx
@@ -7,29 +7,29 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="go_stims-16498731416549938" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet name="GNG_stims-16498731416689935" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet name="go_stims-16498731416709979" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet name="GNG_stims-16498731416859963" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet name="ZB-match_5-1649873141758992" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet name="ZB-match_9-16498731419585311" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet name="ZB-match_0-16498731420165653" sheetId="7" state="visible" r:id="rId7"/>
-    <sheet name="OB-16498731422375278" sheetId="8" state="visible" r:id="rId8"/>
-    <sheet name="OB-16498731422615297" sheetId="9" state="visible" r:id="rId9"/>
-    <sheet name="OB-1649873142351532" sheetId="10" state="visible" r:id="rId10"/>
-    <sheet name="TB-16498731426275303" sheetId="11" state="visible" r:id="rId11"/>
-    <sheet name="TB-16498731428175309" sheetId="12" state="visible" r:id="rId12"/>
-    <sheet name="TB-16498731429225338" sheetId="13" state="visible" r:id="rId13"/>
-    <sheet name="ZM_stims-1649873142945532" sheetId="14" state="visible" r:id="rId14"/>
-    <sheet name="MM_stims-1649873142969534" sheetId="15" state="visible" r:id="rId15"/>
-    <sheet name="ZM_stims-16498731429705284" sheetId="16" state="visible" r:id="rId16"/>
-    <sheet name="MM_stims-16498731429855275" sheetId="17" state="visible" r:id="rId17"/>
-    <sheet name="ZM_stims-16498731429865284" sheetId="18" state="visible" r:id="rId18"/>
-    <sheet name="MM_stims-16498731430005271" sheetId="19" state="visible" r:id="rId19"/>
-    <sheet name="SAT_stims-16498731430055296" sheetId="20" state="visible" r:id="rId20"/>
-    <sheet name="SAT_stims-16498731430165272" sheetId="21" state="visible" r:id="rId21"/>
-    <sheet name="vSAT_stims-16498731430325634" sheetId="22" state="visible" r:id="rId22"/>
-    <sheet name="vSAT_stims-1649873143048564" sheetId="23" state="visible" r:id="rId23"/>
+    <sheet name="go_stims-16502912759695675" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="GNG_stims-16502912759850729" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="go_stims-1650291275987072" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet name="GNG_stims-16502912760167515" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet name="ZB-match_2-16502912762733574" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet name="ZB-match_5-1650291276579719" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet name="ZB-match_9-16502912768953314" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet name="OB-16502912771418693" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet name="OB-1650291277588088" sheetId="9" state="visible" r:id="rId9"/>
+    <sheet name="OB-16502912776175034" sheetId="10" state="visible" r:id="rId10"/>
+    <sheet name="TB-1650291277728235" sheetId="11" state="visible" r:id="rId11"/>
+    <sheet name="TB-16502912779117632" sheetId="12" state="visible" r:id="rId12"/>
+    <sheet name="TB-16502912780572512" sheetId="13" state="visible" r:id="rId13"/>
+    <sheet name="ZM_stims-1650291278077617" sheetId="14" state="visible" r:id="rId14"/>
+    <sheet name="MM_stims-16502912780902958" sheetId="15" state="visible" r:id="rId15"/>
+    <sheet name="ZM_stims-16502912780912523" sheetId="16" state="visible" r:id="rId16"/>
+    <sheet name="MM_stims-16502912781132019" sheetId="17" state="visible" r:id="rId17"/>
+    <sheet name="ZM_stims-16502912781132019" sheetId="18" state="visible" r:id="rId18"/>
+    <sheet name="MM_stims-16502912781286247" sheetId="19" state="visible" r:id="rId19"/>
+    <sheet name="SAT_stims-16502912781339705" sheetId="20" state="visible" r:id="rId20"/>
+    <sheet name="SAT_stims-16502912781596005" sheetId="21" state="visible" r:id="rId21"/>
+    <sheet name="vSAT_stims-1650291278176647" sheetId="22" state="visible" r:id="rId22"/>
+    <sheet name="vSAT_stims-16502912782073038" sheetId="23" state="visible" r:id="rId23"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -486,7 +486,7 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>affective_go_stimuli\puppy_10.jpg</t>
+          <t>go_stimuli\puppy_27.jpg</t>
         </is>
       </c>
       <c r="D2" t="n">
@@ -503,11 +503,11 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>affective_go_stimuli\puppy_18.jpeg</t>
+          <t>go_stimuli\puppy_17.jpeg</t>
         </is>
       </c>
       <c r="D3" t="n">
@@ -524,11 +524,11 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>5.5</v>
+        <v>5</v>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>affective_go_stimuli\puppy_1.jpg</t>
+          <t>go_stimuli\puppy_28.jpg</t>
         </is>
       </c>
       <c r="D4" t="n">
@@ -545,11 +545,11 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>6.5</v>
+        <v>5</v>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>affective_go_stimuli\puppy_4.jpg</t>
+          <t>go_stimuli\puppy_18.jpeg</t>
         </is>
       </c>
       <c r="D5" t="n">
@@ -566,11 +566,11 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>affective_go_stimuli\puppy_6.jpg</t>
+          <t>go_stimuli\puppy_19.jpeg</t>
         </is>
       </c>
       <c r="D6" t="n">
@@ -587,11 +587,11 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>6</v>
+        <v>6.5</v>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>affective_go_stimuli\puppy_13.jpg</t>
+          <t>go_stimuli\puppy_5.jpg</t>
         </is>
       </c>
       <c r="D7" t="n">
@@ -608,11 +608,11 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>6.5</v>
+        <v>4.5</v>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>affective_go_stimuli\puppy_23.jpeg</t>
+          <t>go_stimuli\puppy_14.jpeg</t>
         </is>
       </c>
       <c r="D8" t="n">
@@ -629,11 +629,11 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>6.5</v>
+        <v>5.5</v>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>affective_go_stimuli\puppy_25.jpeg</t>
+          <t>go_stimuli\puppy_20.jpeg</t>
         </is>
       </c>
       <c r="D9" t="n">
@@ -650,11 +650,11 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>5</v>
+        <v>5.5</v>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>affective_go_stimuli\puppy_29.jpg</t>
+          <t>go_stimuli\puppy_10.jpg</t>
         </is>
       </c>
       <c r="D10" t="n">
@@ -671,11 +671,11 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>6.5</v>
+        <v>4.5</v>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>affective_go_stimuli\puppy_20.jpeg</t>
+          <t>go_stimuli\puppy_9.jpg</t>
         </is>
       </c>
       <c r="D11" t="n">
@@ -692,11 +692,11 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>4</v>
+        <v>5.5</v>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>affective_go_stimuli\puppy_8.jpg</t>
+          <t>go_stimuli\puppy_29.jpg</t>
         </is>
       </c>
       <c r="D12" t="n">
@@ -713,11 +713,11 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>5.5</v>
+        <v>6.5</v>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>affective_go_stimuli\puppy_14.jpeg</t>
+          <t>go_stimuli\puppy_1.jpg</t>
         </is>
       </c>
       <c r="D13" t="n">
@@ -734,11 +734,11 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>affective_go_stimuli\puppy_17.jpeg</t>
+          <t>go_stimuli\puppy_2.jpg</t>
         </is>
       </c>
       <c r="D14" t="n">
@@ -755,11 +755,11 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>6</v>
+        <v>6.5</v>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>affective_go_stimuli\puppy_3.jpg</t>
+          <t>go_stimuli\puppy_3.jpg</t>
         </is>
       </c>
       <c r="D15" t="n">
@@ -776,11 +776,11 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>5</v>
+        <v>6.5</v>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>affective_go_stimuli\puppy_22.jpeg</t>
+          <t>go_stimuli\puppy_26.jpeg</t>
         </is>
       </c>
       <c r="D16" t="n">
@@ -797,11 +797,11 @@
         <v>15</v>
       </c>
       <c r="B17" t="n">
-        <v>6.5</v>
+        <v>4.5</v>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>affective_go_stimuli\puppy_26.jpeg</t>
+          <t>go_stimuli\puppy_13.jpg</t>
         </is>
       </c>
       <c r="D17" t="n">
@@ -818,11 +818,11 @@
         <v>16</v>
       </c>
       <c r="B18" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>affective_go_stimuli\puppy_19.jpeg</t>
+          <t>go_stimuli\puppy_8.jpg</t>
         </is>
       </c>
       <c r="D18" t="n">
@@ -839,11 +839,11 @@
         <v>17</v>
       </c>
       <c r="B19" t="n">
-        <v>4.5</v>
+        <v>6.5</v>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>affective_go_stimuli\puppy_9.jpg</t>
+          <t>go_stimuli\puppy_6.jpg</t>
         </is>
       </c>
       <c r="D19" t="n">
@@ -860,11 +860,11 @@
         <v>18</v>
       </c>
       <c r="B20" t="n">
-        <v>5.5</v>
+        <v>6.5</v>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>affective_go_stimuli\puppy_21.jpeg</t>
+          <t>go_stimuli\puppy_25.jpeg</t>
         </is>
       </c>
       <c r="D20" t="n">
@@ -885,7 +885,7 @@
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>affective_go_stimuli\puppy_16.jpeg</t>
+          <t>go_stimuli\puppy_16.jpeg</t>
         </is>
       </c>
       <c r="D21" t="n">
@@ -938,7 +938,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
@@ -954,14 +954,14 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>left</t>
+          <t>right</t>
         </is>
       </c>
     </row>
@@ -970,7 +970,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -986,7 +986,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
         <v>0</v>
@@ -1002,14 +1002,14 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="C6" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>right</t>
+          <t>left</t>
         </is>
       </c>
     </row>
@@ -1034,14 +1034,14 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C8" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>right</t>
+          <t>left</t>
         </is>
       </c>
     </row>
@@ -1050,7 +1050,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C9" t="n">
         <v>1</v>
@@ -1066,14 +1066,14 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>left</t>
+          <t>right</t>
         </is>
       </c>
     </row>
@@ -1082,7 +1082,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C11" t="n">
         <v>0</v>
@@ -1098,7 +1098,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C12" t="n">
         <v>1</v>
@@ -1114,14 +1114,14 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>right</t>
+          <t>left</t>
         </is>
       </c>
     </row>
@@ -1130,14 +1130,14 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="C14" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>right</t>
+          <t>left</t>
         </is>
       </c>
     </row>
@@ -1146,7 +1146,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="C15" t="n">
         <v>1</v>
@@ -1162,7 +1162,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C16" t="n">
         <v>0</v>
@@ -1178,14 +1178,14 @@
         <v>15</v>
       </c>
       <c r="B17" t="n">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="C17" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>left</t>
+          <t>right</t>
         </is>
       </c>
     </row>
@@ -1194,7 +1194,7 @@
         <v>16</v>
       </c>
       <c r="B18" t="n">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="C18" t="n">
         <v>0</v>
@@ -1210,7 +1210,7 @@
         <v>17</v>
       </c>
       <c r="B19" t="n">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="C19" t="n">
         <v>1</v>
@@ -1226,7 +1226,7 @@
         <v>18</v>
       </c>
       <c r="B20" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C20" t="n">
         <v>0</v>
@@ -1242,14 +1242,14 @@
         <v>19</v>
       </c>
       <c r="B21" t="n">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="C21" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>left</t>
+          <t>right</t>
         </is>
       </c>
     </row>
@@ -1294,7 +1294,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
@@ -1310,7 +1310,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -1326,14 +1326,14 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>left</t>
+          <t>right</t>
         </is>
       </c>
     </row>
@@ -1342,7 +1342,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C5" t="n">
         <v>0</v>
@@ -1358,14 +1358,14 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="C6" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>left</t>
+          <t>right</t>
         </is>
       </c>
     </row>
@@ -1374,14 +1374,14 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>left</t>
+          <t>right</t>
         </is>
       </c>
     </row>
@@ -1390,14 +1390,14 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C8" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>right</t>
+          <t>left</t>
         </is>
       </c>
     </row>
@@ -1406,14 +1406,14 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C9" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>right</t>
+          <t>left</t>
         </is>
       </c>
     </row>
@@ -1422,7 +1422,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C10" t="n">
         <v>1</v>
@@ -1438,7 +1438,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="C11" t="n">
         <v>0</v>
@@ -1454,7 +1454,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C12" t="n">
         <v>1</v>
@@ -1470,14 +1470,14 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>left</t>
+          <t>right</t>
         </is>
       </c>
     </row>
@@ -1486,7 +1486,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="C14" t="n">
         <v>0</v>
@@ -1502,14 +1502,14 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="C15" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>left</t>
+          <t>right</t>
         </is>
       </c>
     </row>
@@ -1518,7 +1518,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="C16" t="n">
         <v>0</v>
@@ -1537,11 +1537,11 @@
         <v>7</v>
       </c>
       <c r="C17" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>right</t>
+          <t>left</t>
         </is>
       </c>
     </row>
@@ -1550,7 +1550,7 @@
         <v>16</v>
       </c>
       <c r="B18" t="n">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="C18" t="n">
         <v>0</v>
@@ -1566,14 +1566,14 @@
         <v>17</v>
       </c>
       <c r="B19" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C19" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>right</t>
+          <t>left</t>
         </is>
       </c>
     </row>
@@ -1582,14 +1582,14 @@
         <v>18</v>
       </c>
       <c r="B20" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="C20" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>right</t>
+          <t>left</t>
         </is>
       </c>
     </row>
@@ -1598,7 +1598,7 @@
         <v>19</v>
       </c>
       <c r="B21" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C21" t="n">
         <v>1</v>
@@ -1650,7 +1650,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
@@ -1666,7 +1666,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -1682,7 +1682,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -1698,7 +1698,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C5" t="n">
         <v>0</v>
@@ -1714,7 +1714,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="C6" t="n">
         <v>0</v>
@@ -1730,14 +1730,14 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>left</t>
+          <t>right</t>
         </is>
       </c>
     </row>
@@ -1746,7 +1746,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="C8" t="n">
         <v>1</v>
@@ -1762,14 +1762,14 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C9" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>right</t>
+          <t>left</t>
         </is>
       </c>
     </row>
@@ -1778,14 +1778,14 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>left</t>
+          <t>right</t>
         </is>
       </c>
     </row>
@@ -1794,7 +1794,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C11" t="n">
         <v>1</v>
@@ -1810,7 +1810,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="C12" t="n">
         <v>1</v>
@@ -1826,7 +1826,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="C13" t="n">
         <v>0</v>
@@ -1842,7 +1842,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="C14" t="n">
         <v>0</v>
@@ -1858,14 +1858,14 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="C15" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>right</t>
+          <t>left</t>
         </is>
       </c>
     </row>
@@ -1874,14 +1874,14 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="C16" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>right</t>
+          <t>left</t>
         </is>
       </c>
     </row>
@@ -1890,7 +1890,7 @@
         <v>15</v>
       </c>
       <c r="B17" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="C17" t="n">
         <v>0</v>
@@ -1906,7 +1906,7 @@
         <v>16</v>
       </c>
       <c r="B18" t="n">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="C18" t="n">
         <v>1</v>
@@ -1922,7 +1922,7 @@
         <v>17</v>
       </c>
       <c r="B19" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="C19" t="n">
         <v>1</v>
@@ -1938,7 +1938,7 @@
         <v>18</v>
       </c>
       <c r="B20" t="n">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="C20" t="n">
         <v>1</v>
@@ -1954,7 +1954,7 @@
         <v>19</v>
       </c>
       <c r="B21" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C21" t="n">
         <v>0</v>
@@ -2006,7 +2006,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
@@ -2022,7 +2022,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -2038,14 +2038,14 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>left</t>
+          <t>right</t>
         </is>
       </c>
     </row>
@@ -2054,7 +2054,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
         <v>1</v>
@@ -2070,14 +2070,14 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="C6" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>right</t>
+          <t>left</t>
         </is>
       </c>
     </row>
@@ -2086,14 +2086,14 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="C7" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>right</t>
+          <t>left</t>
         </is>
       </c>
     </row>
@@ -2102,7 +2102,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
         <v>1</v>
@@ -2118,14 +2118,14 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C9" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>left</t>
+          <t>right</t>
         </is>
       </c>
     </row>
@@ -2134,7 +2134,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="C10" t="n">
         <v>0</v>
@@ -2153,11 +2153,11 @@
         <v>4</v>
       </c>
       <c r="C11" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>right</t>
+          <t>left</t>
         </is>
       </c>
     </row>
@@ -2166,7 +2166,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="C12" t="n">
         <v>1</v>
@@ -2182,14 +2182,14 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>left</t>
+          <t>right</t>
         </is>
       </c>
     </row>
@@ -2198,7 +2198,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C14" t="n">
         <v>0</v>
@@ -2214,7 +2214,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="C15" t="n">
         <v>1</v>
@@ -2230,7 +2230,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C16" t="n">
         <v>1</v>
@@ -2246,7 +2246,7 @@
         <v>15</v>
       </c>
       <c r="B17" t="n">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="C17" t="n">
         <v>0</v>
@@ -2262,7 +2262,7 @@
         <v>16</v>
       </c>
       <c r="B18" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="C18" t="n">
         <v>0</v>
@@ -2278,7 +2278,7 @@
         <v>17</v>
       </c>
       <c r="B19" t="n">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="C19" t="n">
         <v>0</v>
@@ -2294,7 +2294,7 @@
         <v>18</v>
       </c>
       <c r="B20" t="n">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="C20" t="n">
         <v>0</v>
@@ -2310,14 +2310,14 @@
         <v>19</v>
       </c>
       <c r="B21" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C21" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>left</t>
+          <t>right</t>
         </is>
       </c>
     </row>
@@ -2363,7 +2363,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>zero_move_stimuli\zero_move_6.jpg</t>
+          <t>zero_move_stimuli\zero_move_1.jpg</t>
         </is>
       </c>
       <c r="C2" t="n">
@@ -2381,7 +2381,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>zero_move_stimuli\zero_move_2.jpg</t>
+          <t>zero_move_stimuli\zero_move_5.jpg</t>
         </is>
       </c>
       <c r="C3" t="n">
@@ -2399,7 +2399,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>zero_move_stimuli\zero_move_1.jpg</t>
+          <t>zero_move_stimuli\zero_move_6.jpg</t>
         </is>
       </c>
       <c r="C4" t="n">
@@ -2435,7 +2435,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>zero_move_stimuli\zero_move_4.jpg</t>
+          <t>zero_move_stimuli\zero_move_2.jpg</t>
         </is>
       </c>
       <c r="C6" t="n">
@@ -2453,7 +2453,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>zero_move_stimuli\zero_move_5.jpg</t>
+          <t>zero_move_stimuli\zero_move_4.jpg</t>
         </is>
       </c>
       <c r="C7" t="n">
@@ -2507,7 +2507,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>multi_move_stimuli\stim_not_two_move\stim_not_two_move_6.jpg</t>
+          <t>multi_move_stimuli\stim_not_two_move\stim_not_two_move_1.jpg</t>
         </is>
       </c>
       <c r="C2" t="n">
@@ -2525,15 +2525,15 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>multi_move_stimuli\stim_two_move\resting_state_task_order-16498622682547295.csv</t>
+          <t>multi_move_stimuli\stim_not_two_move\stim_not_two_move_6.jpg</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>right</t>
+          <t>left</t>
         </is>
       </c>
     </row>
@@ -2543,7 +2543,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>multi_move_stimuli\stim_two_move\NS_TO-1649871875179094.csv</t>
+          <t>multi_move_stimuli\stim_two_move\stim_two_move_3.jpg</t>
         </is>
       </c>
       <c r="C4" t="n">
@@ -2561,7 +2561,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>multi_move_stimuli\stim_two_move\stim_two_move_4.jpg</t>
+          <t>multi_move_stimuli\stim_two_move\stim_two_move_1.jpg</t>
         </is>
       </c>
       <c r="C5" t="n">
@@ -2579,7 +2579,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>multi_move_stimuli\stim_two_move\stim_two_move_3.jpg</t>
+          <t>multi_move_stimuli\stim_two_move\stim_two_move_4.jpg</t>
         </is>
       </c>
       <c r="C6" t="n">
@@ -2597,15 +2597,15 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>multi_move_stimuli\stim_two_move\stim_two_move_2.jpg</t>
+          <t>multi_move_stimuli\stim_not_two_move\stim_not_two_move_4.jpg</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>right</t>
+          <t>left</t>
         </is>
       </c>
     </row>
@@ -2651,7 +2651,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>zero_move_stimuli\zero_move_5.jpg</t>
+          <t>zero_move_stimuli\zero_move_1.jpg</t>
         </is>
       </c>
       <c r="C2" t="n">
@@ -2687,7 +2687,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>zero_move_stimuli\zero_move_4.jpg</t>
+          <t>zero_move_stimuli\zero_move_3.jpg</t>
         </is>
       </c>
       <c r="C4" t="n">
@@ -2705,7 +2705,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>zero_move_stimuli\zero_move_3.jpg</t>
+          <t>zero_move_stimuli\zero_move_6.jpg</t>
         </is>
       </c>
       <c r="C5" t="n">
@@ -2723,7 +2723,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>zero_move_stimuli\zero_move_6.jpg</t>
+          <t>zero_move_stimuli\zero_move_5.jpg</t>
         </is>
       </c>
       <c r="C6" t="n">
@@ -2741,7 +2741,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>zero_move_stimuli\zero_move_1.jpg</t>
+          <t>zero_move_stimuli\zero_move_4.jpg</t>
         </is>
       </c>
       <c r="C7" t="n">
@@ -2795,7 +2795,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>multi_move_stimuli\stim_not_two_move\stim_not_two_move_2.jpg</t>
+          <t>multi_move_stimuli\stim_not_two_move\stim_not_two_move_5.jpg</t>
         </is>
       </c>
       <c r="C2" t="n">
@@ -2813,15 +2813,15 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>multi_move_stimuli\stim_not_two_move\stim_not_two_move_1.jpg</t>
+          <t>multi_move_stimuli\stim_two_move\stim_two_move_1.jpg</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>left</t>
+          <t>right</t>
         </is>
       </c>
     </row>
@@ -2831,7 +2831,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>multi_move_stimuli\stim_not_two_move\stim_not_two_move_4.jpg</t>
+          <t>multi_move_stimuli\stim_not_two_move\stim_not_two_move_2.jpg</t>
         </is>
       </c>
       <c r="C4" t="n">
@@ -2849,15 +2849,15 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>multi_move_stimuli\stim_two_move\stim_two_move_4.jpg</t>
+          <t>multi_move_stimuli\stim_not_two_move\stim_not_two_move_1.jpg</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>right</t>
+          <t>left</t>
         </is>
       </c>
     </row>
@@ -2867,7 +2867,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>multi_move_stimuli\stim_two_move\stim_two_move_2.jpg</t>
+          <t>multi_move_stimuli\stim_two_move\stim_two_move_6.jpg</t>
         </is>
       </c>
       <c r="C6" t="n">
@@ -2885,7 +2885,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>multi_move_stimuli\stim_two_move\stim_two_move_6.jpg</t>
+          <t>multi_move_stimuli\stim_two_move\stim_two_move_4.jpg</t>
         </is>
       </c>
       <c r="C7" t="n">
@@ -2939,7 +2939,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>zero_move_stimuli\zero_move_4.jpg</t>
+          <t>zero_move_stimuli\zero_move_5.jpg</t>
         </is>
       </c>
       <c r="C2" t="n">
@@ -2957,7 +2957,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>zero_move_stimuli\zero_move_5.jpg</t>
+          <t>zero_move_stimuli\zero_move_1.jpg</t>
         </is>
       </c>
       <c r="C3" t="n">
@@ -2975,7 +2975,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>zero_move_stimuli\zero_move_3.jpg</t>
+          <t>zero_move_stimuli\zero_move_4.jpg</t>
         </is>
       </c>
       <c r="C4" t="n">
@@ -2993,7 +2993,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>zero_move_stimuli\zero_move_2.jpg</t>
+          <t>zero_move_stimuli\zero_move_3.jpg</t>
         </is>
       </c>
       <c r="C5" t="n">
@@ -3011,7 +3011,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>zero_move_stimuli\zero_move_1.jpg</t>
+          <t>zero_move_stimuli\zero_move_2.jpg</t>
         </is>
       </c>
       <c r="C6" t="n">
@@ -3083,7 +3083,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>multi_move_stimuli\stim_two_move\resting_state_task_order-1649862502378852.csv</t>
+          <t>multi_move_stimuli\stim_two_move\stim_two_move_3.jpg</t>
         </is>
       </c>
       <c r="C2" t="n">
@@ -3101,15 +3101,15 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>multi_move_stimuli\stim_two_move\stim_two_move_1.jpg</t>
+          <t>multi_move_stimuli\stim_not_two_move\stim_not_two_move_4.jpg</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>right</t>
+          <t>left</t>
         </is>
       </c>
     </row>
@@ -3119,15 +3119,15 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>multi_move_stimuli\stim_not_two_move\stim_not_two_move_3.jpg</t>
+          <t>multi_move_stimuli\stim_two_move\stim_two_move_2.jpg</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>left</t>
+          <t>right</t>
         </is>
       </c>
     </row>
@@ -3155,15 +3155,15 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>multi_move_stimuli\stim_two_move\stim_two_move_5.jpg</t>
+          <t>multi_move_stimuli\stim_not_two_move\stim_not_two_move_6.jpg</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>right</t>
+          <t>left</t>
         </is>
       </c>
     </row>
@@ -3173,15 +3173,15 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>multi_move_stimuli\stim_two_move\resting_state_task_order-16497937738825111.csv</t>
+          <t>multi_move_stimuli\stim_not_two_move\stim_not_two_move_3.jpg</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>right</t>
+          <t>left</t>
         </is>
       </c>
     </row>
@@ -3231,11 +3231,11 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>4.5</v>
+        <v>5</v>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>affective_no_go_stimuli\spider_4.jpeg</t>
+          <t>no_go_stimuli\spider_4.jpeg</t>
         </is>
       </c>
       <c r="D2" t="n">
@@ -3252,19 +3252,19 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>5.5</v>
+        <v>6.5</v>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>affective_go_stimuli\puppy_2.jpg</t>
+          <t>no_go_stimuli\spider_16.jpeg</t>
         </is>
       </c>
       <c r="D3" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>space</t>
+          <t>None</t>
         </is>
       </c>
     </row>
@@ -3273,11 +3273,11 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>5</v>
+        <v>4.5</v>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>affective_go_stimuli\puppy_24.jpeg</t>
+          <t>go_stimuli\puppy_20.jpeg</t>
         </is>
       </c>
       <c r="D4" t="n">
@@ -3294,19 +3294,19 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>5.5</v>
+        <v>4.5</v>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>affective_no_go_stimuli\spider_10.jpeg</t>
+          <t>go_stimuli\puppy_25.jpeg</t>
         </is>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>space</t>
         </is>
       </c>
     </row>
@@ -3315,11 +3315,11 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>5.5</v>
+        <v>4</v>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>affective_go_stimuli\puppy_23.jpeg</t>
+          <t>go_stimuli\puppy_19.jpeg</t>
         </is>
       </c>
       <c r="D6" t="n">
@@ -3340,15 +3340,15 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>affective_go_stimuli\puppy_8.jpg</t>
+          <t>no_go_stimuli\spider_21.jpg</t>
         </is>
       </c>
       <c r="D7" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>space</t>
+          <t>None</t>
         </is>
       </c>
     </row>
@@ -3357,19 +3357,19 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>6.5</v>
+        <v>6</v>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>affective_no_go_stimuli\spider_20.jpg</t>
+          <t>go_stimuli\puppy_14.jpeg</t>
         </is>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>space</t>
         </is>
       </c>
     </row>
@@ -3378,19 +3378,19 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>4</v>
+        <v>6.5</v>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>affective_go_stimuli\puppy_27.jpg</t>
+          <t>no_go_stimuli\spider_8.jpeg</t>
         </is>
       </c>
       <c r="D9" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>space</t>
+          <t>None</t>
         </is>
       </c>
     </row>
@@ -3399,11 +3399,11 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>6</v>
+        <v>6.5</v>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>affective_go_stimuli\puppy_11.jpeg</t>
+          <t>go_stimuli\puppy_26.jpeg</t>
         </is>
       </c>
       <c r="D10" t="n">
@@ -3420,19 +3420,19 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>4.5</v>
+        <v>5</v>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>affective_go_stimuli\puppy_19.jpeg</t>
+          <t>no_go_stimuli\spider_15.jpeg</t>
         </is>
       </c>
       <c r="D11" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>space</t>
+          <t>None</t>
         </is>
       </c>
     </row>
@@ -3441,11 +3441,11 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>4.5</v>
+        <v>5.5</v>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>affective_no_go_stimuli\spider_12.jpeg</t>
+          <t>no_go_stimuli\spider_3.jpeg</t>
         </is>
       </c>
       <c r="D12" t="n">
@@ -3462,19 +3462,19 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>affective_go_stimuli\puppy_20.jpeg</t>
+          <t>no_go_stimuli\spider_28.jpg</t>
         </is>
       </c>
       <c r="D13" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>space</t>
+          <t>None</t>
         </is>
       </c>
     </row>
@@ -3487,15 +3487,15 @@
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>affective_no_go_stimuli\spider_21.jpg</t>
+          <t>go_stimuli\puppy_21.jpeg</t>
         </is>
       </c>
       <c r="D14" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>space</t>
         </is>
       </c>
     </row>
@@ -3504,19 +3504,19 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>6.5</v>
+        <v>5</v>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>affective_go_stimuli\puppy_26.jpeg</t>
+          <t>no_go_stimuli\spider_5.jpeg</t>
         </is>
       </c>
       <c r="D15" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>space</t>
+          <t>None</t>
         </is>
       </c>
     </row>
@@ -3525,11 +3525,11 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>6.5</v>
+        <v>5.5</v>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>affective_no_go_stimuli\spider_6.jpeg</t>
+          <t>no_go_stimuli\spider_2.jpeg</t>
         </is>
       </c>
       <c r="D16" t="n">
@@ -3546,19 +3546,19 @@
         <v>15</v>
       </c>
       <c r="B17" t="n">
-        <v>4.5</v>
+        <v>5.5</v>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>affective_no_go_stimuli\spider_27.jpeg</t>
+          <t>go_stimuli\puppy_18.jpeg</t>
         </is>
       </c>
       <c r="D17" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>space</t>
         </is>
       </c>
     </row>
@@ -3571,15 +3571,15 @@
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>affective_no_go_stimuli\spider_11.jpeg</t>
+          <t>go_stimuli\puppy_2.jpg</t>
         </is>
       </c>
       <c r="D18" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>space</t>
         </is>
       </c>
     </row>
@@ -3592,7 +3592,7 @@
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>affective_no_go_stimuli\spider_18.jpg</t>
+          <t>no_go_stimuli\spider_7.jpeg</t>
         </is>
       </c>
       <c r="D19" t="n">
@@ -3609,11 +3609,11 @@
         <v>18</v>
       </c>
       <c r="B20" t="n">
-        <v>5</v>
+        <v>5.5</v>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>affective_go_stimuli\puppy_12.jpeg</t>
+          <t>go_stimuli\puppy_27.jpg</t>
         </is>
       </c>
       <c r="D20" t="n">
@@ -3630,19 +3630,19 @@
         <v>19</v>
       </c>
       <c r="B21" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>affective_no_go_stimuli\spider_5.jpeg</t>
+          <t>go_stimuli\puppy_29.jpg</t>
         </is>
       </c>
       <c r="D21" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>space</t>
         </is>
       </c>
     </row>
@@ -3702,7 +3702,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>0.05</v>
+        <v>0.017</v>
       </c>
       <c r="C2" t="n">
         <v>3</v>
@@ -3714,11 +3714,11 @@
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>left</t>
+          <t>right</t>
         </is>
       </c>
     </row>
@@ -3727,7 +3727,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>0.05</v>
+        <v>0.029</v>
       </c>
       <c r="C3" t="n">
         <v>1</v>
@@ -3739,11 +3739,11 @@
         <v>0</v>
       </c>
       <c r="F3" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>right</t>
+          <t>left</t>
         </is>
       </c>
     </row>
@@ -3755,7 +3755,7 @@
         <v>0.017</v>
       </c>
       <c r="C4" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
@@ -3764,11 +3764,11 @@
         <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>right</t>
+          <t>left</t>
         </is>
       </c>
     </row>
@@ -3777,7 +3777,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>0.029</v>
+        <v>0.017</v>
       </c>
       <c r="C5" t="n">
         <v>3</v>
@@ -3802,10 +3802,10 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>0.017</v>
+        <v>0.05</v>
       </c>
       <c r="C6" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D6" t="n">
         <v>0</v>
@@ -3855,7 +3855,7 @@
         <v>0.05</v>
       </c>
       <c r="C8" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D8" t="n">
         <v>0</v>
@@ -3864,11 +3864,11 @@
         <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>left</t>
+          <t>right</t>
         </is>
       </c>
     </row>
@@ -3902,10 +3902,10 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>0.05</v>
+        <v>0.029</v>
       </c>
       <c r="C10" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D10" t="n">
         <v>0</v>
@@ -3927,10 +3927,10 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>0.05</v>
+        <v>0.017</v>
       </c>
       <c r="C11" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D11" t="n">
         <v>0</v>
@@ -3939,11 +3939,11 @@
         <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>right</t>
+          <t>left</t>
         </is>
       </c>
     </row>
@@ -3952,10 +3952,10 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>0.029</v>
+        <v>0.05</v>
       </c>
       <c r="C12" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D12" t="n">
         <v>0</v>
@@ -3977,10 +3977,10 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>0.029</v>
+        <v>0.017</v>
       </c>
       <c r="C13" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D13" t="n">
         <v>0</v>
@@ -4002,10 +4002,10 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>0.029</v>
+        <v>0.05</v>
       </c>
       <c r="C14" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D14" t="n">
         <v>0</v>
@@ -4027,7 +4027,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>0.017</v>
+        <v>0.029</v>
       </c>
       <c r="C15" t="n">
         <v>3</v>
@@ -4039,11 +4039,11 @@
         <v>0</v>
       </c>
       <c r="F15" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>right</t>
+          <t>left</t>
         </is>
       </c>
     </row>
@@ -4052,10 +4052,10 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>0.05</v>
+        <v>0.029</v>
       </c>
       <c r="C16" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D16" t="n">
         <v>0</v>
@@ -4080,7 +4080,7 @@
         <v>0.05</v>
       </c>
       <c r="C17" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D17" t="n">
         <v>0</v>
@@ -4102,10 +4102,10 @@
         <v>16</v>
       </c>
       <c r="B18" t="n">
-        <v>0.029</v>
+        <v>0.017</v>
       </c>
       <c r="C18" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D18" t="n">
         <v>0</v>
@@ -4114,11 +4114,11 @@
         <v>0</v>
       </c>
       <c r="F18" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>right</t>
+          <t>left</t>
         </is>
       </c>
     </row>
@@ -4127,10 +4127,10 @@
         <v>17</v>
       </c>
       <c r="B19" t="n">
-        <v>0.017</v>
+        <v>0.05</v>
       </c>
       <c r="C19" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D19" t="n">
         <v>0</v>
@@ -4177,10 +4177,10 @@
         <v>19</v>
       </c>
       <c r="B21" t="n">
-        <v>0.017</v>
+        <v>0.05</v>
       </c>
       <c r="C21" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D21" t="n">
         <v>0</v>
@@ -4189,11 +4189,11 @@
         <v>0</v>
       </c>
       <c r="F21" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>right</t>
+          <t>left</t>
         </is>
       </c>
     </row>
@@ -4205,7 +4205,7 @@
         <v>0.05</v>
       </c>
       <c r="C22" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D22" t="n">
         <v>0</v>
@@ -4230,7 +4230,7 @@
         <v>0.029</v>
       </c>
       <c r="C23" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D23" t="n">
         <v>0</v>
@@ -4239,11 +4239,11 @@
         <v>0</v>
       </c>
       <c r="F23" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>left</t>
+          <t>right</t>
         </is>
       </c>
     </row>
@@ -4252,10 +4252,10 @@
         <v>22</v>
       </c>
       <c r="B24" t="n">
-        <v>0.017</v>
+        <v>0.05</v>
       </c>
       <c r="C24" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D24" t="n">
         <v>0</v>
@@ -4264,11 +4264,11 @@
         <v>0</v>
       </c>
       <c r="F24" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>right</t>
+          <t>left</t>
         </is>
       </c>
     </row>
@@ -4277,10 +4277,10 @@
         <v>23</v>
       </c>
       <c r="B25" t="n">
-        <v>0.017</v>
+        <v>0.05</v>
       </c>
       <c r="C25" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D25" t="n">
         <v>0</v>
@@ -4289,11 +4289,11 @@
         <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G25" t="inlineStr">
         <is>
-          <t>left</t>
+          <t>right</t>
         </is>
       </c>
     </row>
@@ -4302,10 +4302,10 @@
         <v>24</v>
       </c>
       <c r="B26" t="n">
-        <v>0.029</v>
+        <v>0.017</v>
       </c>
       <c r="C26" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D26" t="n">
         <v>0</v>
@@ -4314,11 +4314,11 @@
         <v>0</v>
       </c>
       <c r="F26" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G26" t="inlineStr">
         <is>
-          <t>left</t>
+          <t>right</t>
         </is>
       </c>
     </row>
@@ -4327,10 +4327,10 @@
         <v>25</v>
       </c>
       <c r="B27" t="n">
-        <v>0.017</v>
+        <v>0.05</v>
       </c>
       <c r="C27" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D27" t="n">
         <v>0</v>
@@ -4339,11 +4339,11 @@
         <v>0</v>
       </c>
       <c r="F27" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G27" t="inlineStr">
         <is>
-          <t>right</t>
+          <t>left</t>
         </is>
       </c>
     </row>
@@ -4352,10 +4352,10 @@
         <v>26</v>
       </c>
       <c r="B28" t="n">
-        <v>0.029</v>
+        <v>0.017</v>
       </c>
       <c r="C28" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D28" t="n">
         <v>0</v>
@@ -4377,10 +4377,10 @@
         <v>27</v>
       </c>
       <c r="B29" t="n">
-        <v>0.017</v>
+        <v>0.05</v>
       </c>
       <c r="C29" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D29" t="n">
         <v>0</v>
@@ -4402,10 +4402,10 @@
         <v>28</v>
       </c>
       <c r="B30" t="n">
-        <v>0.029</v>
+        <v>0.017</v>
       </c>
       <c r="C30" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D30" t="n">
         <v>0</v>
@@ -4427,7 +4427,7 @@
         <v>29</v>
       </c>
       <c r="B31" t="n">
-        <v>0.05</v>
+        <v>0.017</v>
       </c>
       <c r="C31" t="n">
         <v>3</v>
@@ -4439,11 +4439,11 @@
         <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G31" t="inlineStr">
         <is>
-          <t>left</t>
+          <t>right</t>
         </is>
       </c>
     </row>
@@ -4506,7 +4506,7 @@
         <v>0.029</v>
       </c>
       <c r="C2" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D2" t="n">
         <v>0</v>
@@ -4515,11 +4515,11 @@
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>right</t>
+          <t>left</t>
         </is>
       </c>
     </row>
@@ -4528,10 +4528,10 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>0.05</v>
+        <v>0.017</v>
       </c>
       <c r="C3" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
@@ -4540,11 +4540,11 @@
         <v>0</v>
       </c>
       <c r="F3" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>right</t>
+          <t>left</t>
         </is>
       </c>
     </row>
@@ -4553,10 +4553,10 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>0.017</v>
+        <v>0.029</v>
       </c>
       <c r="C4" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
@@ -4578,10 +4578,10 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>0.017</v>
+        <v>0.05</v>
       </c>
       <c r="C5" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D5" t="n">
         <v>0</v>
@@ -4603,10 +4603,10 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>0.017</v>
+        <v>0.05</v>
       </c>
       <c r="C6" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D6" t="n">
         <v>0</v>
@@ -4615,11 +4615,11 @@
         <v>0</v>
       </c>
       <c r="F6" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>right</t>
+          <t>left</t>
         </is>
       </c>
     </row>
@@ -4653,10 +4653,10 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>0.05</v>
+        <v>0.017</v>
       </c>
       <c r="C8" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D8" t="n">
         <v>0</v>
@@ -4665,11 +4665,11 @@
         <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>right</t>
+          <t>left</t>
         </is>
       </c>
     </row>
@@ -4706,7 +4706,7 @@
         <v>0.05</v>
       </c>
       <c r="C10" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D10" t="n">
         <v>0</v>
@@ -4728,10 +4728,10 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>0.017</v>
+        <v>0.05</v>
       </c>
       <c r="C11" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D11" t="n">
         <v>0</v>
@@ -4740,11 +4740,11 @@
         <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>left</t>
+          <t>right</t>
         </is>
       </c>
     </row>
@@ -4778,7 +4778,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>0.029</v>
+        <v>0.017</v>
       </c>
       <c r="C13" t="n">
         <v>3</v>
@@ -4806,7 +4806,7 @@
         <v>0.029</v>
       </c>
       <c r="C14" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D14" t="n">
         <v>0</v>
@@ -4840,11 +4840,11 @@
         <v>0</v>
       </c>
       <c r="F15" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>right</t>
+          <t>left</t>
         </is>
       </c>
     </row>
@@ -4853,7 +4853,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>0.05</v>
+        <v>0.017</v>
       </c>
       <c r="C16" t="n">
         <v>2</v>
@@ -4865,11 +4865,11 @@
         <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>left</t>
+          <t>right</t>
         </is>
       </c>
     </row>
@@ -4903,7 +4903,7 @@
         <v>16</v>
       </c>
       <c r="B18" t="n">
-        <v>0.017</v>
+        <v>0.05</v>
       </c>
       <c r="C18" t="n">
         <v>1</v>
@@ -4928,7 +4928,7 @@
         <v>17</v>
       </c>
       <c r="B19" t="n">
-        <v>0.029</v>
+        <v>0.05</v>
       </c>
       <c r="C19" t="n">
         <v>3</v>
@@ -4940,11 +4940,11 @@
         <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>left</t>
+          <t>right</t>
         </is>
       </c>
     </row>
@@ -4953,10 +4953,10 @@
         <v>18</v>
       </c>
       <c r="B20" t="n">
-        <v>0.05</v>
+        <v>0.017</v>
       </c>
       <c r="C20" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D20" t="n">
         <v>0</v>
@@ -4965,11 +4965,11 @@
         <v>0</v>
       </c>
       <c r="F20" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>left</t>
+          <t>right</t>
         </is>
       </c>
     </row>
@@ -4978,10 +4978,10 @@
         <v>19</v>
       </c>
       <c r="B21" t="n">
-        <v>0.05</v>
+        <v>0.017</v>
       </c>
       <c r="C21" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D21" t="n">
         <v>0</v>
@@ -5003,7 +5003,7 @@
         <v>20</v>
       </c>
       <c r="B22" t="n">
-        <v>0.05</v>
+        <v>0.029</v>
       </c>
       <c r="C22" t="n">
         <v>2</v>
@@ -5015,11 +5015,11 @@
         <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>right</t>
+          <t>left</t>
         </is>
       </c>
     </row>
@@ -5053,7 +5053,7 @@
         <v>22</v>
       </c>
       <c r="B24" t="n">
-        <v>0.029</v>
+        <v>0.017</v>
       </c>
       <c r="C24" t="n">
         <v>2</v>
@@ -5078,10 +5078,10 @@
         <v>23</v>
       </c>
       <c r="B25" t="n">
-        <v>0.029</v>
+        <v>0.05</v>
       </c>
       <c r="C25" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D25" t="n">
         <v>0</v>
@@ -5090,11 +5090,11 @@
         <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G25" t="inlineStr">
         <is>
-          <t>right</t>
+          <t>left</t>
         </is>
       </c>
     </row>
@@ -5103,7 +5103,7 @@
         <v>24</v>
       </c>
       <c r="B26" t="n">
-        <v>0.017</v>
+        <v>0.029</v>
       </c>
       <c r="C26" t="n">
         <v>2</v>
@@ -5128,10 +5128,10 @@
         <v>25</v>
       </c>
       <c r="B27" t="n">
-        <v>0.05</v>
+        <v>0.017</v>
       </c>
       <c r="C27" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D27" t="n">
         <v>0</v>
@@ -5140,11 +5140,11 @@
         <v>0</v>
       </c>
       <c r="F27" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G27" t="inlineStr">
         <is>
-          <t>right</t>
+          <t>left</t>
         </is>
       </c>
     </row>
@@ -5153,7 +5153,7 @@
         <v>26</v>
       </c>
       <c r="B28" t="n">
-        <v>0.017</v>
+        <v>0.05</v>
       </c>
       <c r="C28" t="n">
         <v>3</v>
@@ -5178,10 +5178,10 @@
         <v>27</v>
       </c>
       <c r="B29" t="n">
-        <v>0.017</v>
+        <v>0.029</v>
       </c>
       <c r="C29" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D29" t="n">
         <v>0</v>
@@ -5203,7 +5203,7 @@
         <v>28</v>
       </c>
       <c r="B30" t="n">
-        <v>0.017</v>
+        <v>0.05</v>
       </c>
       <c r="C30" t="n">
         <v>2</v>
@@ -5215,11 +5215,11 @@
         <v>0</v>
       </c>
       <c r="F30" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G30" t="inlineStr">
         <is>
-          <t>right</t>
+          <t>left</t>
         </is>
       </c>
     </row>
@@ -5307,20 +5307,20 @@
         <v>0.017</v>
       </c>
       <c r="C2" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D2" t="n">
-        <v>0.25</v>
+        <v>-0.25</v>
       </c>
       <c r="E2" t="n">
         <v>-0.25</v>
       </c>
       <c r="F2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>right</t>
+          <t>left</t>
         </is>
       </c>
     </row>
@@ -5329,23 +5329,23 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>0.017</v>
+        <v>0.05</v>
       </c>
       <c r="C3" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D3" t="n">
-        <v>0.25</v>
+        <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>-0.25</v>
+        <v>0</v>
       </c>
       <c r="F3" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>right</t>
+          <t>left</t>
         </is>
       </c>
     </row>
@@ -5354,10 +5354,10 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>0.05</v>
+        <v>0.017</v>
       </c>
       <c r="C4" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D4" t="n">
         <v>-0.25</v>
@@ -5388,14 +5388,14 @@
         <v>-0.25</v>
       </c>
       <c r="E5" t="n">
-        <v>0.25</v>
+        <v>-0.25</v>
       </c>
       <c r="F5" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>right</t>
+          <t>left</t>
         </is>
       </c>
     </row>
@@ -5404,7 +5404,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>0.029</v>
+        <v>0.05</v>
       </c>
       <c r="C6" t="n">
         <v>3</v>
@@ -5413,7 +5413,7 @@
         <v>0.25</v>
       </c>
       <c r="E6" t="n">
-        <v>0.25</v>
+        <v>-0.25</v>
       </c>
       <c r="F6" t="n">
         <v>1</v>
@@ -5438,14 +5438,14 @@
         <v>0.25</v>
       </c>
       <c r="E7" t="n">
-        <v>-0.25</v>
+        <v>0.25</v>
       </c>
       <c r="F7" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>right</t>
+          <t>left</t>
         </is>
       </c>
     </row>
@@ -5454,23 +5454,23 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>0.017</v>
+        <v>0.029</v>
       </c>
       <c r="C8" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D8" t="n">
-        <v>-0.25</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>-0.25</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>right</t>
+          <t>left</t>
         </is>
       </c>
     </row>
@@ -5479,13 +5479,13 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>0.017</v>
+        <v>0.05</v>
       </c>
       <c r="C9" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D9" t="n">
-        <v>-0.25</v>
+        <v>0.25</v>
       </c>
       <c r="E9" t="n">
         <v>0.25</v>
@@ -5504,23 +5504,23 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>0.05</v>
+        <v>0.029</v>
       </c>
       <c r="C10" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D10" t="n">
+        <v>-0.25</v>
+      </c>
+      <c r="E10" t="n">
         <v>0.25</v>
       </c>
-      <c r="E10" t="n">
-        <v>-0.25</v>
-      </c>
       <c r="F10" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>right</t>
+          <t>left</t>
         </is>
       </c>
     </row>
@@ -5529,23 +5529,23 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>0.05</v>
+        <v>0.017</v>
       </c>
       <c r="C11" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D11" t="n">
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="E11" t="n">
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="F11" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>right</t>
+          <t>left</t>
         </is>
       </c>
     </row>
@@ -5554,10 +5554,10 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>0.017</v>
+        <v>0.05</v>
       </c>
       <c r="C12" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D12" t="n">
         <v>0</v>
@@ -5566,11 +5566,11 @@
         <v>0</v>
       </c>
       <c r="F12" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>right</t>
+          <t>left</t>
         </is>
       </c>
     </row>
@@ -5585,17 +5585,17 @@
         <v>3</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>left</t>
+          <t>right</t>
         </is>
       </c>
     </row>
@@ -5604,13 +5604,13 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>0.05</v>
+        <v>0.017</v>
       </c>
       <c r="C14" t="n">
         <v>2</v>
       </c>
       <c r="D14" t="n">
-        <v>-0.25</v>
+        <v>0.25</v>
       </c>
       <c r="E14" t="n">
         <v>-0.25</v>
@@ -5632,13 +5632,13 @@
         <v>0.05</v>
       </c>
       <c r="C15" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D15" t="n">
+        <v>0.25</v>
+      </c>
+      <c r="E15" t="n">
         <v>-0.25</v>
-      </c>
-      <c r="E15" t="n">
-        <v>0.25</v>
       </c>
       <c r="F15" t="n">
         <v>1</v>
@@ -5654,10 +5654,10 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>0.05</v>
+        <v>0.017</v>
       </c>
       <c r="C16" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D16" t="n">
         <v>-0.25</v>
@@ -5666,11 +5666,11 @@
         <v>-0.25</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>left</t>
+          <t>right</t>
         </is>
       </c>
     </row>
@@ -5679,10 +5679,10 @@
         <v>15</v>
       </c>
       <c r="B17" t="n">
-        <v>0.05</v>
+        <v>0.029</v>
       </c>
       <c r="C17" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D17" t="n">
         <v>0.25</v>
@@ -5707,13 +5707,13 @@
         <v>0.05</v>
       </c>
       <c r="C18" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D18" t="n">
-        <v>0</v>
+        <v>-0.25</v>
       </c>
       <c r="E18" t="n">
-        <v>0</v>
+        <v>-0.25</v>
       </c>
       <c r="F18" t="n">
         <v>1</v>
@@ -5732,20 +5732,20 @@
         <v>0.029</v>
       </c>
       <c r="C19" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D19" t="n">
-        <v>0.25</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>-0.25</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>right</t>
+          <t>left</t>
         </is>
       </c>
     </row>
@@ -5754,23 +5754,23 @@
         <v>18</v>
       </c>
       <c r="B20" t="n">
-        <v>0.029</v>
+        <v>0.05</v>
       </c>
       <c r="C20" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D20" t="n">
+        <v>-0.25</v>
+      </c>
+      <c r="E20" t="n">
         <v>0.25</v>
       </c>
-      <c r="E20" t="n">
-        <v>-0.25</v>
-      </c>
       <c r="F20" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>right</t>
+          <t>left</t>
         </is>
       </c>
     </row>
@@ -5779,13 +5779,13 @@
         <v>19</v>
       </c>
       <c r="B21" t="n">
-        <v>0.05</v>
+        <v>0.017</v>
       </c>
       <c r="C21" t="n">
         <v>1</v>
       </c>
       <c r="D21" t="n">
-        <v>0.25</v>
+        <v>-0.25</v>
       </c>
       <c r="E21" t="n">
         <v>-0.25</v>
@@ -5807,20 +5807,20 @@
         <v>0.017</v>
       </c>
       <c r="C22" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D22" t="n">
+        <v>-0.25</v>
+      </c>
+      <c r="E22" t="n">
         <v>0.25</v>
       </c>
-      <c r="E22" t="n">
-        <v>-0.25</v>
-      </c>
       <c r="F22" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>right</t>
+          <t>left</t>
         </is>
       </c>
     </row>
@@ -5829,7 +5829,7 @@
         <v>21</v>
       </c>
       <c r="B23" t="n">
-        <v>0.05</v>
+        <v>0.017</v>
       </c>
       <c r="C23" t="n">
         <v>3</v>
@@ -5841,11 +5841,11 @@
         <v>-0.25</v>
       </c>
       <c r="F23" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>right</t>
+          <t>left</t>
         </is>
       </c>
     </row>
@@ -5854,23 +5854,23 @@
         <v>22</v>
       </c>
       <c r="B24" t="n">
-        <v>0.05</v>
+        <v>0.029</v>
       </c>
       <c r="C24" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D24" t="n">
         <v>-0.25</v>
       </c>
       <c r="E24" t="n">
-        <v>-0.25</v>
+        <v>0.25</v>
       </c>
       <c r="F24" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>right</t>
+          <t>left</t>
         </is>
       </c>
     </row>
@@ -5879,16 +5879,16 @@
         <v>23</v>
       </c>
       <c r="B25" t="n">
-        <v>0.05</v>
+        <v>0.029</v>
       </c>
       <c r="C25" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D25" t="n">
-        <v>-0.25</v>
+        <v>0.25</v>
       </c>
       <c r="E25" t="n">
-        <v>-0.25</v>
+        <v>0.25</v>
       </c>
       <c r="F25" t="n">
         <v>0</v>
@@ -5904,10 +5904,10 @@
         <v>24</v>
       </c>
       <c r="B26" t="n">
-        <v>0.05</v>
+        <v>0.017</v>
       </c>
       <c r="C26" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D26" t="n">
         <v>0</v>
@@ -5935,10 +5935,10 @@
         <v>1</v>
       </c>
       <c r="D27" t="n">
-        <v>0.25</v>
+        <v>0</v>
       </c>
       <c r="E27" t="n">
-        <v>-0.25</v>
+        <v>0</v>
       </c>
       <c r="F27" t="n">
         <v>0</v>
@@ -5954,23 +5954,23 @@
         <v>26</v>
       </c>
       <c r="B28" t="n">
-        <v>0.017</v>
+        <v>0.05</v>
       </c>
       <c r="C28" t="n">
         <v>2</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>-0.25</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="F28" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G28" t="inlineStr">
         <is>
-          <t>right</t>
+          <t>left</t>
         </is>
       </c>
     </row>
@@ -5979,7 +5979,7 @@
         <v>27</v>
       </c>
       <c r="B29" t="n">
-        <v>0.05</v>
+        <v>0.017</v>
       </c>
       <c r="C29" t="n">
         <v>3</v>
@@ -5991,11 +5991,11 @@
         <v>-0.25</v>
       </c>
       <c r="F29" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G29" t="inlineStr">
         <is>
-          <t>right</t>
+          <t>left</t>
         </is>
       </c>
     </row>
@@ -6013,7 +6013,7 @@
         <v>0.25</v>
       </c>
       <c r="E30" t="n">
-        <v>-0.25</v>
+        <v>0.25</v>
       </c>
       <c r="F30" t="n">
         <v>0</v>
@@ -6038,14 +6038,14 @@
         <v>-0.25</v>
       </c>
       <c r="E31" t="n">
-        <v>0.25</v>
+        <v>-0.25</v>
       </c>
       <c r="F31" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G31" t="inlineStr">
         <is>
-          <t>right</t>
+          <t>left</t>
         </is>
       </c>
     </row>
@@ -6105,23 +6105,23 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>0.017</v>
+        <v>0.029</v>
       </c>
       <c r="C2" t="n">
         <v>1</v>
       </c>
       <c r="D2" t="n">
-        <v>0.25</v>
+        <v>-0.25</v>
       </c>
       <c r="E2" t="n">
-        <v>0.25</v>
+        <v>-0.25</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>left</t>
+          <t>right</t>
         </is>
       </c>
     </row>
@@ -6130,23 +6130,23 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>0.05</v>
+        <v>0.029</v>
       </c>
       <c r="C3" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D3" t="n">
+        <v>-0.25</v>
+      </c>
+      <c r="E3" t="n">
         <v>0.25</v>
       </c>
-      <c r="E3" t="n">
-        <v>-0.25</v>
-      </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>left</t>
+          <t>right</t>
         </is>
       </c>
     </row>
@@ -6155,13 +6155,13 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>0.017</v>
+        <v>0.05</v>
       </c>
       <c r="C4" t="n">
         <v>1</v>
       </c>
       <c r="D4" t="n">
-        <v>-0.25</v>
+        <v>0.25</v>
       </c>
       <c r="E4" t="n">
         <v>0.25</v>
@@ -6183,7 +6183,7 @@
         <v>0.029</v>
       </c>
       <c r="C5" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D5" t="n">
         <v>-0.25</v>
@@ -6205,10 +6205,10 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>0.05</v>
+        <v>0.017</v>
       </c>
       <c r="C6" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D6" t="n">
         <v>0.25</v>
@@ -6217,11 +6217,11 @@
         <v>0.25</v>
       </c>
       <c r="F6" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>left</t>
+          <t>right</t>
         </is>
       </c>
     </row>
@@ -6230,23 +6230,23 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>0.029</v>
+        <v>0.05</v>
       </c>
       <c r="C7" t="n">
         <v>2</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="F7" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>right</t>
+          <t>left</t>
         </is>
       </c>
     </row>
@@ -6255,16 +6255,16 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>0.017</v>
+        <v>0.029</v>
       </c>
       <c r="C8" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D8" t="n">
-        <v>-0.25</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>-0.25</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
         <v>0</v>
@@ -6280,7 +6280,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>0.05</v>
+        <v>0.017</v>
       </c>
       <c r="C9" t="n">
         <v>1</v>
@@ -6305,13 +6305,13 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>0.029</v>
+        <v>0.017</v>
       </c>
       <c r="C10" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D10" t="n">
-        <v>-0.25</v>
+        <v>0.25</v>
       </c>
       <c r="E10" t="n">
         <v>0.25</v>
@@ -6330,23 +6330,23 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>0.017</v>
+        <v>0.05</v>
       </c>
       <c r="C11" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D11" t="n">
-        <v>-0.25</v>
+        <v>0.25</v>
       </c>
       <c r="E11" t="n">
         <v>-0.25</v>
       </c>
       <c r="F11" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>right</t>
+          <t>left</t>
         </is>
       </c>
     </row>
@@ -6355,16 +6355,16 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>0.029</v>
+        <v>0.017</v>
       </c>
       <c r="C12" t="n">
         <v>2</v>
       </c>
       <c r="D12" t="n">
+        <v>0.25</v>
+      </c>
+      <c r="E12" t="n">
         <v>-0.25</v>
-      </c>
-      <c r="E12" t="n">
-        <v>0.25</v>
       </c>
       <c r="F12" t="n">
         <v>1</v>
@@ -6380,13 +6380,13 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>0.029</v>
+        <v>0.017</v>
       </c>
       <c r="C13" t="n">
         <v>2</v>
       </c>
       <c r="D13" t="n">
-        <v>0.25</v>
+        <v>-0.25</v>
       </c>
       <c r="E13" t="n">
         <v>0.25</v>
@@ -6408,7 +6408,7 @@
         <v>0.017</v>
       </c>
       <c r="C14" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D14" t="n">
         <v>-0.25</v>
@@ -6417,11 +6417,11 @@
         <v>0.25</v>
       </c>
       <c r="F14" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>right</t>
+          <t>left</t>
         </is>
       </c>
     </row>
@@ -6430,10 +6430,10 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>0.05</v>
+        <v>0.029</v>
       </c>
       <c r="C15" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D15" t="n">
         <v>-0.25</v>
@@ -6455,23 +6455,23 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>0.017</v>
+        <v>0.029</v>
       </c>
       <c r="C16" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>left</t>
+          <t>right</t>
         </is>
       </c>
     </row>
@@ -6480,16 +6480,16 @@
         <v>15</v>
       </c>
       <c r="B17" t="n">
-        <v>0.017</v>
+        <v>0.029</v>
       </c>
       <c r="C17" t="n">
         <v>1</v>
       </c>
       <c r="D17" t="n">
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="E17" t="n">
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="F17" t="n">
         <v>1</v>
@@ -6505,23 +6505,23 @@
         <v>16</v>
       </c>
       <c r="B18" t="n">
-        <v>0.017</v>
+        <v>0.05</v>
       </c>
       <c r="C18" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D18" t="n">
         <v>-0.25</v>
       </c>
       <c r="E18" t="n">
-        <v>0.25</v>
+        <v>-0.25</v>
       </c>
       <c r="F18" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>right</t>
+          <t>left</t>
         </is>
       </c>
     </row>
@@ -6530,13 +6530,13 @@
         <v>17</v>
       </c>
       <c r="B19" t="n">
-        <v>0.05</v>
+        <v>0.017</v>
       </c>
       <c r="C19" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D19" t="n">
-        <v>0.25</v>
+        <v>-0.25</v>
       </c>
       <c r="E19" t="n">
         <v>0.25</v>
@@ -6561,17 +6561,17 @@
         <v>2</v>
       </c>
       <c r="D20" t="n">
+        <v>0.25</v>
+      </c>
+      <c r="E20" t="n">
         <v>-0.25</v>
       </c>
-      <c r="E20" t="n">
-        <v>0.25</v>
-      </c>
       <c r="F20" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>left</t>
+          <t>right</t>
         </is>
       </c>
     </row>
@@ -6580,7 +6580,7 @@
         <v>19</v>
       </c>
       <c r="B21" t="n">
-        <v>0.017</v>
+        <v>0.029</v>
       </c>
       <c r="C21" t="n">
         <v>2</v>
@@ -6605,16 +6605,16 @@
         <v>20</v>
       </c>
       <c r="B22" t="n">
-        <v>0.029</v>
+        <v>0.05</v>
       </c>
       <c r="C22" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D22" t="n">
-        <v>0.25</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>0.25</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
         <v>1</v>
@@ -6630,23 +6630,23 @@
         <v>21</v>
       </c>
       <c r="B23" t="n">
-        <v>0.05</v>
+        <v>0.029</v>
       </c>
       <c r="C23" t="n">
         <v>2</v>
       </c>
       <c r="D23" t="n">
+        <v>0.25</v>
+      </c>
+      <c r="E23" t="n">
         <v>-0.25</v>
       </c>
-      <c r="E23" t="n">
-        <v>0.25</v>
-      </c>
       <c r="F23" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>right</t>
+          <t>left</t>
         </is>
       </c>
     </row>
@@ -6655,16 +6655,16 @@
         <v>22</v>
       </c>
       <c r="B24" t="n">
-        <v>0.029</v>
+        <v>0.05</v>
       </c>
       <c r="C24" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D24" t="n">
-        <v>0.25</v>
+        <v>-0.25</v>
       </c>
       <c r="E24" t="n">
-        <v>0.25</v>
+        <v>-0.25</v>
       </c>
       <c r="F24" t="n">
         <v>0</v>
@@ -6683,20 +6683,20 @@
         <v>0.029</v>
       </c>
       <c r="C25" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D25" t="n">
-        <v>-0.25</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>0.25</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G25" t="inlineStr">
         <is>
-          <t>right</t>
+          <t>left</t>
         </is>
       </c>
     </row>
@@ -6705,23 +6705,23 @@
         <v>24</v>
       </c>
       <c r="B26" t="n">
-        <v>0.017</v>
+        <v>0.029</v>
       </c>
       <c r="C26" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D26" t="n">
-        <v>0</v>
+        <v>-0.25</v>
       </c>
       <c r="E26" t="n">
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="F26" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G26" t="inlineStr">
         <is>
-          <t>right</t>
+          <t>left</t>
         </is>
       </c>
     </row>
@@ -6730,16 +6730,16 @@
         <v>25</v>
       </c>
       <c r="B27" t="n">
-        <v>0.017</v>
+        <v>0.05</v>
       </c>
       <c r="C27" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D27" t="n">
+        <v>0.25</v>
+      </c>
+      <c r="E27" t="n">
         <v>-0.25</v>
-      </c>
-      <c r="E27" t="n">
-        <v>0.25</v>
       </c>
       <c r="F27" t="n">
         <v>1</v>
@@ -6755,23 +6755,23 @@
         <v>26</v>
       </c>
       <c r="B28" t="n">
-        <v>0.017</v>
+        <v>0.05</v>
       </c>
       <c r="C28" t="n">
         <v>1</v>
       </c>
       <c r="D28" t="n">
-        <v>-0.25</v>
+        <v>0.25</v>
       </c>
       <c r="E28" t="n">
         <v>-0.25</v>
       </c>
       <c r="F28" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G28" t="inlineStr">
         <is>
-          <t>right</t>
+          <t>left</t>
         </is>
       </c>
     </row>
@@ -6780,7 +6780,7 @@
         <v>27</v>
       </c>
       <c r="B29" t="n">
-        <v>0.05</v>
+        <v>0.017</v>
       </c>
       <c r="C29" t="n">
         <v>2</v>
@@ -6792,11 +6792,11 @@
         <v>0</v>
       </c>
       <c r="F29" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G29" t="inlineStr">
         <is>
-          <t>left</t>
+          <t>right</t>
         </is>
       </c>
     </row>
@@ -6805,10 +6805,10 @@
         <v>28</v>
       </c>
       <c r="B30" t="n">
-        <v>0.017</v>
+        <v>0.05</v>
       </c>
       <c r="C30" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D30" t="n">
         <v>0.25</v>
@@ -6817,11 +6817,11 @@
         <v>0.25</v>
       </c>
       <c r="F30" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G30" t="inlineStr">
         <is>
-          <t>left</t>
+          <t>right</t>
         </is>
       </c>
     </row>
@@ -6830,10 +6830,10 @@
         <v>29</v>
       </c>
       <c r="B31" t="n">
-        <v>0.05</v>
+        <v>0.017</v>
       </c>
       <c r="C31" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D31" t="n">
         <v>-0.25</v>
@@ -6842,11 +6842,11 @@
         <v>-0.25</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G31" t="inlineStr">
         <is>
-          <t>left</t>
+          <t>right</t>
         </is>
       </c>
     </row>
@@ -6900,7 +6900,7 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>affective_go_stimuli\puppy_6.jpg</t>
+          <t>go_stimuli\puppy_9.jpg</t>
         </is>
       </c>
       <c r="D2" t="n">
@@ -6921,7 +6921,7 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>affective_go_stimuli\puppy_4.jpg</t>
+          <t>go_stimuli\puppy_17.jpeg</t>
         </is>
       </c>
       <c r="D3" t="n">
@@ -6938,11 +6938,11 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>4</v>
+        <v>4.5</v>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>affective_go_stimuli\puppy_16.jpeg</t>
+          <t>go_stimuli\puppy_23.jpeg</t>
         </is>
       </c>
       <c r="D4" t="n">
@@ -6959,11 +6959,11 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>affective_go_stimuli\puppy_19.jpeg</t>
+          <t>go_stimuli\puppy_1.jpg</t>
         </is>
       </c>
       <c r="D5" t="n">
@@ -6980,11 +6980,11 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>4.5</v>
+        <v>6.5</v>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>affective_go_stimuli\puppy_22.jpeg</t>
+          <t>go_stimuli\puppy_8.jpg</t>
         </is>
       </c>
       <c r="D6" t="n">
@@ -7001,11 +7001,11 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>affective_go_stimuli\puppy_18.jpeg</t>
+          <t>go_stimuli\puppy_2.jpg</t>
         </is>
       </c>
       <c r="D7" t="n">
@@ -7022,11 +7022,11 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>4.5</v>
+        <v>5</v>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>affective_go_stimuli\puppy_10.jpg</t>
+          <t>go_stimuli\puppy_16.jpeg</t>
         </is>
       </c>
       <c r="D8" t="n">
@@ -7043,11 +7043,11 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>6.5</v>
+        <v>4.5</v>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>affective_go_stimuli\puppy_14.jpeg</t>
+          <t>go_stimuli\puppy_24.jpeg</t>
         </is>
       </c>
       <c r="D9" t="n">
@@ -7064,11 +7064,11 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>5.5</v>
+        <v>6</v>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>affective_go_stimuli\puppy_24.jpeg</t>
+          <t>go_stimuli\puppy_11.jpeg</t>
         </is>
       </c>
       <c r="D10" t="n">
@@ -7085,11 +7085,11 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>4.5</v>
+        <v>6.5</v>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>affective_go_stimuli\puppy_25.jpeg</t>
+          <t>go_stimuli\puppy_20.jpeg</t>
         </is>
       </c>
       <c r="D11" t="n">
@@ -7110,7 +7110,7 @@
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>affective_go_stimuli\puppy_30.jpg</t>
+          <t>go_stimuli\puppy_15.jpeg</t>
         </is>
       </c>
       <c r="D12" t="n">
@@ -7127,11 +7127,11 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>affective_go_stimuli\puppy_3.jpg</t>
+          <t>go_stimuli\puppy_6.jpg</t>
         </is>
       </c>
       <c r="D13" t="n">
@@ -7148,11 +7148,11 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>4.5</v>
+        <v>6</v>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>affective_go_stimuli\puppy_2.jpg</t>
+          <t>go_stimuli\puppy_7.jpg</t>
         </is>
       </c>
       <c r="D14" t="n">
@@ -7169,11 +7169,11 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>affective_go_stimuli\puppy_29.jpg</t>
+          <t>go_stimuli\puppy_19.jpeg</t>
         </is>
       </c>
       <c r="D15" t="n">
@@ -7190,11 +7190,11 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>6.5</v>
+        <v>6</v>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>affective_go_stimuli\puppy_1.jpg</t>
+          <t>go_stimuli\puppy_10.jpg</t>
         </is>
       </c>
       <c r="D16" t="n">
@@ -7211,11 +7211,11 @@
         <v>15</v>
       </c>
       <c r="B17" t="n">
-        <v>4</v>
+        <v>4.5</v>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>affective_go_stimuli\puppy_9.jpg</t>
+          <t>go_stimuli\puppy_22.jpeg</t>
         </is>
       </c>
       <c r="D17" t="n">
@@ -7232,11 +7232,11 @@
         <v>16</v>
       </c>
       <c r="B18" t="n">
-        <v>6.5</v>
+        <v>5.5</v>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>affective_go_stimuli\puppy_28.jpg</t>
+          <t>go_stimuli\puppy_30.jpg</t>
         </is>
       </c>
       <c r="D18" t="n">
@@ -7253,11 +7253,11 @@
         <v>17</v>
       </c>
       <c r="B19" t="n">
-        <v>4.5</v>
+        <v>6</v>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>affective_go_stimuli\puppy_20.jpeg</t>
+          <t>go_stimuli\puppy_27.jpg</t>
         </is>
       </c>
       <c r="D19" t="n">
@@ -7274,11 +7274,11 @@
         <v>18</v>
       </c>
       <c r="B20" t="n">
-        <v>6.5</v>
+        <v>5.5</v>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>affective_go_stimuli\puppy_7.jpg</t>
+          <t>go_stimuli\puppy_28.jpg</t>
         </is>
       </c>
       <c r="D20" t="n">
@@ -7295,11 +7295,11 @@
         <v>19</v>
       </c>
       <c r="B21" t="n">
-        <v>6.5</v>
+        <v>5</v>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>affective_go_stimuli\puppy_11.jpeg</t>
+          <t>go_stimuli\puppy_21.jpeg</t>
         </is>
       </c>
       <c r="D21" t="n">
@@ -7357,19 +7357,19 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>affective_no_go_stimuli\spider_15.jpeg</t>
+          <t>go_stimuli\puppy_11.jpeg</t>
         </is>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>space</t>
         </is>
       </c>
     </row>
@@ -7378,11 +7378,11 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>6.5</v>
+        <v>5</v>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>affective_go_stimuli\puppy_18.jpeg</t>
+          <t>go_stimuli\puppy_18.jpeg</t>
         </is>
       </c>
       <c r="D3" t="n">
@@ -7403,7 +7403,7 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>affective_no_go_stimuli\spider_2.jpeg</t>
+          <t>no_go_stimuli\spider_23.jpg</t>
         </is>
       </c>
       <c r="D4" t="n">
@@ -7420,11 +7420,11 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>6.5</v>
+        <v>4</v>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>affective_no_go_stimuli\spider_25.jpg</t>
+          <t>no_go_stimuli\spider_8.jpeg</t>
         </is>
       </c>
       <c r="D5" t="n">
@@ -7441,11 +7441,11 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>6.5</v>
+        <v>6</v>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>affective_go_stimuli\puppy_22.jpeg</t>
+          <t>go_stimuli\puppy_7.jpg</t>
         </is>
       </c>
       <c r="D6" t="n">
@@ -7466,15 +7466,15 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>affective_go_stimuli\puppy_28.jpg</t>
+          <t>no_go_stimuli\spider_29.jpg</t>
         </is>
       </c>
       <c r="D7" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>space</t>
+          <t>None</t>
         </is>
       </c>
     </row>
@@ -7483,11 +7483,11 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>4</v>
+        <v>4.5</v>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>affective_go_stimuli\puppy_29.jpg</t>
+          <t>go_stimuli\puppy_23.jpeg</t>
         </is>
       </c>
       <c r="D8" t="n">
@@ -7504,11 +7504,11 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>5.5</v>
+        <v>6.5</v>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>affective_no_go_stimuli\spider_9.jpeg</t>
+          <t>no_go_stimuli\spider_16.jpeg</t>
         </is>
       </c>
       <c r="D9" t="n">
@@ -7525,11 +7525,11 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>4</v>
+        <v>4.5</v>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>affective_no_go_stimuli\spider_29.jpg</t>
+          <t>no_go_stimuli\spider_7.jpeg</t>
         </is>
       </c>
       <c r="D10" t="n">
@@ -7550,7 +7550,7 @@
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>affective_go_stimuli\puppy_1.jpg</t>
+          <t>go_stimuli\puppy_27.jpg</t>
         </is>
       </c>
       <c r="D11" t="n">
@@ -7567,19 +7567,19 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>affective_go_stimuli\puppy_15.jpeg</t>
+          <t>no_go_stimuli\spider_22.jpg</t>
         </is>
       </c>
       <c r="D12" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>space</t>
+          <t>None</t>
         </is>
       </c>
     </row>
@@ -7588,11 +7588,11 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>4</v>
+        <v>5.5</v>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>affective_no_go_stimuli\spider_18.jpg</t>
+          <t>no_go_stimuli\spider_30.jpg</t>
         </is>
       </c>
       <c r="D13" t="n">
@@ -7609,19 +7609,19 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>affective_no_go_stimuli\spider_26.jpg</t>
+          <t>go_stimuli\puppy_12.jpeg</t>
         </is>
       </c>
       <c r="D14" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>space</t>
         </is>
       </c>
     </row>
@@ -7634,15 +7634,15 @@
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>affective_go_stimuli\puppy_20.jpeg</t>
+          <t>no_go_stimuli\spider_21.jpg</t>
         </is>
       </c>
       <c r="D15" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>space</t>
+          <t>None</t>
         </is>
       </c>
     </row>
@@ -7651,11 +7651,11 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>5.5</v>
+        <v>5</v>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>affective_no_go_stimuli\spider_21.jpg</t>
+          <t>no_go_stimuli\spider_2.jpeg</t>
         </is>
       </c>
       <c r="D16" t="n">
@@ -7676,15 +7676,15 @@
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>affective_no_go_stimuli\spider_11.jpeg</t>
+          <t>go_stimuli\puppy_6.jpg</t>
         </is>
       </c>
       <c r="D17" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>space</t>
         </is>
       </c>
     </row>
@@ -7693,11 +7693,11 @@
         <v>16</v>
       </c>
       <c r="B18" t="n">
-        <v>5.5</v>
+        <v>6</v>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>affective_go_stimuli\puppy_9.jpg</t>
+          <t>go_stimuli\puppy_1.jpg</t>
         </is>
       </c>
       <c r="D18" t="n">
@@ -7714,11 +7714,11 @@
         <v>17</v>
       </c>
       <c r="B19" t="n">
-        <v>4</v>
+        <v>6.5</v>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>affective_go_stimuli\puppy_11.jpeg</t>
+          <t>go_stimuli\puppy_21.jpeg</t>
         </is>
       </c>
       <c r="D19" t="n">
@@ -7739,15 +7739,15 @@
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>affective_go_stimuli\puppy_16.jpeg</t>
+          <t>no_go_stimuli\spider_28.jpg</t>
         </is>
       </c>
       <c r="D20" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>space</t>
+          <t>None</t>
         </is>
       </c>
     </row>
@@ -7756,19 +7756,19 @@
         <v>19</v>
       </c>
       <c r="B21" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>affective_no_go_stimuli\spider_27.jpeg</t>
+          <t>go_stimuli\puppy_3.jpg</t>
         </is>
       </c>
       <c r="D21" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>space</t>
         </is>
       </c>
     </row>
@@ -7818,17 +7818,17 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="C2" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>left</t>
+          <t>right</t>
         </is>
       </c>
     </row>
@@ -7837,10 +7837,10 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C3" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
@@ -7856,10 +7856,10 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="C4" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
@@ -7878,7 +7878,7 @@
         <v>6</v>
       </c>
       <c r="C5" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D5" t="n">
         <v>0</v>
@@ -7894,10 +7894,10 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="C6" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D6" t="n">
         <v>0</v>
@@ -7913,17 +7913,17 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C7" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D7" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>right</t>
+          <t>left</t>
         </is>
       </c>
     </row>
@@ -7932,17 +7932,17 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D8" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>right</t>
+          <t>left</t>
         </is>
       </c>
     </row>
@@ -7951,10 +7951,10 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C9" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D9" t="n">
         <v>0</v>
@@ -7970,10 +7970,10 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="C10" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D10" t="n">
         <v>0</v>
@@ -7992,7 +7992,7 @@
         <v>7</v>
       </c>
       <c r="C11" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D11" t="n">
         <v>0</v>
@@ -8008,17 +8008,17 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="C12" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D12" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>left</t>
+          <t>right</t>
         </is>
       </c>
     </row>
@@ -8027,10 +8027,10 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="C13" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D13" t="n">
         <v>1</v>
@@ -8046,10 +8046,10 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="C14" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D14" t="n">
         <v>1</v>
@@ -8068,14 +8068,14 @@
         <v>5</v>
       </c>
       <c r="C15" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D15" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>right</t>
+          <t>left</t>
         </is>
       </c>
     </row>
@@ -8087,14 +8087,14 @@
         <v>5</v>
       </c>
       <c r="C16" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D16" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>right</t>
+          <t>left</t>
         </is>
       </c>
     </row>
@@ -8103,17 +8103,17 @@
         <v>15</v>
       </c>
       <c r="B17" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C17" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D17" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>left</t>
+          <t>right</t>
         </is>
       </c>
     </row>
@@ -8122,10 +8122,10 @@
         <v>16</v>
       </c>
       <c r="B18" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="C18" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D18" t="n">
         <v>1</v>
@@ -8141,17 +8141,17 @@
         <v>17</v>
       </c>
       <c r="B19" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="C19" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>left</t>
+          <t>right</t>
         </is>
       </c>
     </row>
@@ -8160,10 +8160,10 @@
         <v>18</v>
       </c>
       <c r="B20" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="C20" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D20" t="n">
         <v>1</v>
@@ -8182,7 +8182,7 @@
         <v>0</v>
       </c>
       <c r="C21" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D21" t="n">
         <v>0</v>
@@ -8239,10 +8239,10 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="C2" t="n">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="D2" t="n">
         <v>0</v>
@@ -8258,10 +8258,10 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="C3" t="n">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
@@ -8277,10 +8277,10 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="C4" t="n">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="D4" t="n">
         <v>1</v>
@@ -8296,17 +8296,17 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="C5" t="n">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>left</t>
+          <t>right</t>
         </is>
       </c>
     </row>
@@ -8315,10 +8315,10 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="C6" t="n">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="D6" t="n">
         <v>0</v>
@@ -8334,17 +8334,17 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C7" t="n">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>left</t>
+          <t>right</t>
         </is>
       </c>
     </row>
@@ -8353,17 +8353,17 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="C8" t="n">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>left</t>
+          <t>right</t>
         </is>
       </c>
     </row>
@@ -8372,17 +8372,17 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="C9" t="n">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="D9" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>right</t>
+          <t>left</t>
         </is>
       </c>
     </row>
@@ -8391,10 +8391,10 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="C10" t="n">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="D10" t="n">
         <v>1</v>
@@ -8410,17 +8410,17 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C11" t="n">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="D11" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>right</t>
+          <t>left</t>
         </is>
       </c>
     </row>
@@ -8429,17 +8429,17 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="C12" t="n">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="D12" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>left</t>
+          <t>right</t>
         </is>
       </c>
     </row>
@@ -8448,10 +8448,10 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
+        <v>8</v>
+      </c>
+      <c r="C13" t="n">
         <v>5</v>
-      </c>
-      <c r="C13" t="n">
-        <v>9</v>
       </c>
       <c r="D13" t="n">
         <v>0</v>
@@ -8467,10 +8467,10 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
+        <v>6</v>
+      </c>
+      <c r="C14" t="n">
         <v>5</v>
-      </c>
-      <c r="C14" t="n">
-        <v>9</v>
       </c>
       <c r="D14" t="n">
         <v>0</v>
@@ -8486,17 +8486,17 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C15" t="n">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="D15" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>right</t>
+          <t>left</t>
         </is>
       </c>
     </row>
@@ -8505,17 +8505,17 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="C16" t="n">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>left</t>
+          <t>right</t>
         </is>
       </c>
     </row>
@@ -8524,10 +8524,10 @@
         <v>15</v>
       </c>
       <c r="B17" t="n">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="C17" t="n">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="D17" t="n">
         <v>0</v>
@@ -8543,10 +8543,10 @@
         <v>16</v>
       </c>
       <c r="B18" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="C18" t="n">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="D18" t="n">
         <v>0</v>
@@ -8562,17 +8562,17 @@
         <v>17</v>
       </c>
       <c r="B19" t="n">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="D19" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>right</t>
+          <t>left</t>
         </is>
       </c>
     </row>
@@ -8581,10 +8581,10 @@
         <v>18</v>
       </c>
       <c r="B20" t="n">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="C20" t="n">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="D20" t="n">
         <v>1</v>
@@ -8600,17 +8600,17 @@
         <v>19</v>
       </c>
       <c r="B21" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C21" t="n">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="D21" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>right</t>
+          <t>left</t>
         </is>
       </c>
     </row>
@@ -8660,17 +8660,17 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="D2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>right</t>
+          <t>left</t>
         </is>
       </c>
     </row>
@@ -8679,17 +8679,17 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>left</t>
+          <t>right</t>
         </is>
       </c>
     </row>
@@ -8698,10 +8698,10 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="D4" t="n">
         <v>1</v>
@@ -8717,17 +8717,17 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="D5" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>right</t>
+          <t>left</t>
         </is>
       </c>
     </row>
@@ -8736,17 +8736,17 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="C6" t="n">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="D6" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>left</t>
+          <t>right</t>
         </is>
       </c>
     </row>
@@ -8755,10 +8755,10 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="D7" t="n">
         <v>0</v>
@@ -8774,17 +8774,17 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>left</t>
+          <t>right</t>
         </is>
       </c>
     </row>
@@ -8793,17 +8793,17 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="C9" t="n">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="D9" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>left</t>
+          <t>right</t>
         </is>
       </c>
     </row>
@@ -8812,17 +8812,17 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>left</t>
+          <t>right</t>
         </is>
       </c>
     </row>
@@ -8831,17 +8831,17 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="C11" t="n">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="D11" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>right</t>
+          <t>left</t>
         </is>
       </c>
     </row>
@@ -8850,10 +8850,10 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C12" t="n">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="D12" t="n">
         <v>0</v>
@@ -8869,17 +8869,17 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="D13" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>right</t>
+          <t>left</t>
         </is>
       </c>
     </row>
@@ -8888,17 +8888,17 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C14" t="n">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="D14" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>right</t>
+          <t>left</t>
         </is>
       </c>
     </row>
@@ -8907,17 +8907,17 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="C15" t="n">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="D15" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>left</t>
+          <t>right</t>
         </is>
       </c>
     </row>
@@ -8926,17 +8926,17 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>left</t>
+          <t>right</t>
         </is>
       </c>
     </row>
@@ -8945,10 +8945,10 @@
         <v>15</v>
       </c>
       <c r="B17" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C17" t="n">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="D17" t="n">
         <v>0</v>
@@ -8964,10 +8964,10 @@
         <v>16</v>
       </c>
       <c r="B18" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C18" t="n">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="D18" t="n">
         <v>0</v>
@@ -8983,17 +8983,17 @@
         <v>17</v>
       </c>
       <c r="B19" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="D19" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>right</t>
+          <t>left</t>
         </is>
       </c>
     </row>
@@ -9002,17 +9002,17 @@
         <v>18</v>
       </c>
       <c r="B20" t="n">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="C20" t="n">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="D20" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>left</t>
+          <t>right</t>
         </is>
       </c>
     </row>
@@ -9021,17 +9021,17 @@
         <v>19</v>
       </c>
       <c r="B21" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="C21" t="n">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="D21" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>right</t>
+          <t>left</t>
         </is>
       </c>
     </row>
@@ -9076,7 +9076,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
@@ -9092,14 +9092,14 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>left</t>
+          <t>right</t>
         </is>
       </c>
     </row>
@@ -9108,7 +9108,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -9124,7 +9124,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="C5" t="n">
         <v>0</v>
@@ -9140,14 +9140,14 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="C6" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>left</t>
+          <t>right</t>
         </is>
       </c>
     </row>
@@ -9156,7 +9156,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="C7" t="n">
         <v>0</v>
@@ -9172,7 +9172,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="C8" t="n">
         <v>0</v>
@@ -9188,14 +9188,14 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="C9" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>right</t>
+          <t>left</t>
         </is>
       </c>
     </row>
@@ -9204,7 +9204,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="C10" t="n">
         <v>0</v>
@@ -9220,14 +9220,14 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="C11" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>left</t>
+          <t>right</t>
         </is>
       </c>
     </row>
@@ -9236,14 +9236,14 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="C12" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>right</t>
+          <t>left</t>
         </is>
       </c>
     </row>
@@ -9252,14 +9252,14 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="C13" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>right</t>
+          <t>left</t>
         </is>
       </c>
     </row>
@@ -9268,7 +9268,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C14" t="n">
         <v>0</v>
@@ -9284,7 +9284,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C15" t="n">
         <v>1</v>
@@ -9300,7 +9300,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C16" t="n">
         <v>1</v>
@@ -9316,7 +9316,7 @@
         <v>15</v>
       </c>
       <c r="B17" t="n">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C17" t="n">
         <v>1</v>
@@ -9332,7 +9332,7 @@
         <v>16</v>
       </c>
       <c r="B18" t="n">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C18" t="n">
         <v>1</v>
@@ -9348,14 +9348,14 @@
         <v>17</v>
       </c>
       <c r="B19" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C19" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>right</t>
+          <t>left</t>
         </is>
       </c>
     </row>
@@ -9364,7 +9364,7 @@
         <v>18</v>
       </c>
       <c r="B20" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C20" t="n">
         <v>0</v>
@@ -9380,14 +9380,14 @@
         <v>19</v>
       </c>
       <c r="B21" t="n">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="C21" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>left</t>
+          <t>right</t>
         </is>
       </c>
     </row>
@@ -9432,7 +9432,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
@@ -9448,7 +9448,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -9464,14 +9464,14 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C4" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>right</t>
+          <t>left</t>
         </is>
       </c>
     </row>
@@ -9480,7 +9480,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C5" t="n">
         <v>1</v>
@@ -9496,7 +9496,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C6" t="n">
         <v>1</v>
@@ -9515,11 +9515,11 @@
         <v>6</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>left</t>
+          <t>right</t>
         </is>
       </c>
     </row>
@@ -9528,7 +9528,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="C8" t="n">
         <v>0</v>
@@ -9544,7 +9544,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="C9" t="n">
         <v>1</v>
@@ -9560,14 +9560,14 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>left</t>
+          <t>right</t>
         </is>
       </c>
     </row>
@@ -9576,14 +9576,14 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="C11" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>right</t>
+          <t>left</t>
         </is>
       </c>
     </row>
@@ -9592,7 +9592,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="C12" t="n">
         <v>0</v>
@@ -9611,11 +9611,11 @@
         <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>right</t>
+          <t>left</t>
         </is>
       </c>
     </row>
@@ -9624,14 +9624,14 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="C14" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>left</t>
+          <t>right</t>
         </is>
       </c>
     </row>
@@ -9640,14 +9640,14 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C15" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>left</t>
+          <t>right</t>
         </is>
       </c>
     </row>
@@ -9656,7 +9656,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="C16" t="n">
         <v>0</v>
@@ -9672,7 +9672,7 @@
         <v>15</v>
       </c>
       <c r="B17" t="n">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="C17" t="n">
         <v>0</v>
@@ -9688,14 +9688,14 @@
         <v>16</v>
       </c>
       <c r="B18" t="n">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="C18" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>right</t>
+          <t>left</t>
         </is>
       </c>
     </row>
@@ -9704,7 +9704,7 @@
         <v>17</v>
       </c>
       <c r="B19" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C19" t="n">
         <v>0</v>
@@ -9720,14 +9720,14 @@
         <v>18</v>
       </c>
       <c r="B20" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="C20" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>right</t>
+          <t>left</t>
         </is>
       </c>
     </row>
@@ -9736,14 +9736,14 @@
         <v>19</v>
       </c>
       <c r="B21" t="n">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="C21" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>left</t>
+          <t>right</t>
         </is>
       </c>
     </row>

--- a/participants/participant_44/participant_44_conditions.xlsx
+++ b/participants/participant_44/participant_44_conditions.xlsx
@@ -7,29 +7,29 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="go_stims-16502912759695675" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet name="GNG_stims-16502912759850729" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet name="go_stims-1650291275987072" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet name="GNG_stims-16502912760167515" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet name="ZB-match_2-16502912762733574" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet name="ZB-match_5-1650291276579719" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet name="ZB-match_9-16502912768953314" sheetId="7" state="visible" r:id="rId7"/>
-    <sheet name="OB-16502912771418693" sheetId="8" state="visible" r:id="rId8"/>
-    <sheet name="OB-1650291277588088" sheetId="9" state="visible" r:id="rId9"/>
-    <sheet name="OB-16502912776175034" sheetId="10" state="visible" r:id="rId10"/>
-    <sheet name="TB-1650291277728235" sheetId="11" state="visible" r:id="rId11"/>
-    <sheet name="TB-16502912779117632" sheetId="12" state="visible" r:id="rId12"/>
-    <sheet name="TB-16502912780572512" sheetId="13" state="visible" r:id="rId13"/>
-    <sheet name="ZM_stims-1650291278077617" sheetId="14" state="visible" r:id="rId14"/>
-    <sheet name="MM_stims-16502912780902958" sheetId="15" state="visible" r:id="rId15"/>
-    <sheet name="ZM_stims-16502912780912523" sheetId="16" state="visible" r:id="rId16"/>
-    <sheet name="MM_stims-16502912781132019" sheetId="17" state="visible" r:id="rId17"/>
-    <sheet name="ZM_stims-16502912781132019" sheetId="18" state="visible" r:id="rId18"/>
-    <sheet name="MM_stims-16502912781286247" sheetId="19" state="visible" r:id="rId19"/>
-    <sheet name="SAT_stims-16502912781339705" sheetId="20" state="visible" r:id="rId20"/>
-    <sheet name="SAT_stims-16502912781596005" sheetId="21" state="visible" r:id="rId21"/>
-    <sheet name="vSAT_stims-1650291278176647" sheetId="22" state="visible" r:id="rId22"/>
-    <sheet name="vSAT_stims-16502912782073038" sheetId="23" state="visible" r:id="rId23"/>
+    <sheet name="go_stims-16504778869734414" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="GNG_stims-16504778869964385" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="go_stims-1650477886997439" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet name="GNG_stims-16504778870120165" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet name="ZB-match_5-16504778870340207" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet name="ZB-match_3-16504778871070518" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet name="ZB-match_5-16504778872350192" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet name="OB-16504778872720516" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet name="OB-16504778873950171" sheetId="9" state="visible" r:id="rId9"/>
+    <sheet name="OB-1650477887459022" sheetId="10" state="visible" r:id="rId10"/>
+    <sheet name="TB-16504778875240204" sheetId="11" state="visible" r:id="rId11"/>
+    <sheet name="TB-16504778875820217" sheetId="12" state="visible" r:id="rId12"/>
+    <sheet name="TB-16504778876550527" sheetId="13" state="visible" r:id="rId13"/>
+    <sheet name="ZM_stims-16504778876800177" sheetId="14" state="visible" r:id="rId14"/>
+    <sheet name="MM_stims-16504778876920488" sheetId="15" state="visible" r:id="rId15"/>
+    <sheet name="ZM_stims-16504778876930199" sheetId="16" state="visible" r:id="rId16"/>
+    <sheet name="MM_stims-16504778877080512" sheetId="17" state="visible" r:id="rId17"/>
+    <sheet name="ZM_stims-16504778877090197" sheetId="18" state="visible" r:id="rId18"/>
+    <sheet name="MM_stims-16504778877240498" sheetId="19" state="visible" r:id="rId19"/>
+    <sheet name="SAT_stims-16504778877280247" sheetId="20" state="visible" r:id="rId20"/>
+    <sheet name="SAT_stims-1650477887740017" sheetId="21" state="visible" r:id="rId21"/>
+    <sheet name="vSAT_stims-16504778877560515" sheetId="22" state="visible" r:id="rId22"/>
+    <sheet name="vSAT_stims-16504778877720494" sheetId="23" state="visible" r:id="rId23"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -482,11 +482,11 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>5.5</v>
+        <v>4.5</v>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>go_stimuli\puppy_27.jpg</t>
+          <t>go_stimuli\puppy_18.jpeg</t>
         </is>
       </c>
       <c r="D2" t="n">
@@ -503,11 +503,11 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>5</v>
+        <v>4.5</v>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>go_stimuli\puppy_17.jpeg</t>
+          <t>go_stimuli\puppy_1.jpg</t>
         </is>
       </c>
       <c r="D3" t="n">
@@ -528,7 +528,7 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>go_stimuli\puppy_28.jpg</t>
+          <t>go_stimuli\puppy_2.jpg</t>
         </is>
       </c>
       <c r="D4" t="n">
@@ -545,11 +545,11 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>5</v>
+        <v>5.5</v>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>go_stimuli\puppy_18.jpeg</t>
+          <t>go_stimuli\puppy_28.jpg</t>
         </is>
       </c>
       <c r="D5" t="n">
@@ -566,11 +566,11 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>4</v>
+        <v>4.5</v>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>go_stimuli\puppy_19.jpeg</t>
+          <t>go_stimuli\puppy_24.jpeg</t>
         </is>
       </c>
       <c r="D6" t="n">
@@ -587,11 +587,11 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>6.5</v>
+        <v>6</v>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>go_stimuli\puppy_5.jpg</t>
+          <t>go_stimuli\puppy_7.jpg</t>
         </is>
       </c>
       <c r="D7" t="n">
@@ -608,11 +608,11 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>4.5</v>
+        <v>4</v>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>go_stimuli\puppy_14.jpeg</t>
+          <t>go_stimuli\puppy_26.jpeg</t>
         </is>
       </c>
       <c r="D8" t="n">
@@ -629,11 +629,11 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>5.5</v>
+        <v>4</v>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>go_stimuli\puppy_20.jpeg</t>
+          <t>go_stimuli\puppy_13.jpg</t>
         </is>
       </c>
       <c r="D9" t="n">
@@ -650,11 +650,11 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>5.5</v>
+        <v>6</v>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>go_stimuli\puppy_10.jpg</t>
+          <t>go_stimuli\puppy_17.jpeg</t>
         </is>
       </c>
       <c r="D10" t="n">
@@ -671,11 +671,11 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>4.5</v>
+        <v>5</v>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>go_stimuli\puppy_9.jpg</t>
+          <t>go_stimuli\puppy_25.jpeg</t>
         </is>
       </c>
       <c r="D11" t="n">
@@ -696,7 +696,7 @@
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>go_stimuli\puppy_29.jpg</t>
+          <t>go_stimuli\puppy_12.jpeg</t>
         </is>
       </c>
       <c r="D12" t="n">
@@ -713,11 +713,11 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>6.5</v>
+        <v>6</v>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>go_stimuli\puppy_1.jpg</t>
+          <t>go_stimuli\puppy_3.jpg</t>
         </is>
       </c>
       <c r="D13" t="n">
@@ -738,7 +738,7 @@
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>go_stimuli\puppy_2.jpg</t>
+          <t>go_stimuli\puppy_30.jpg</t>
         </is>
       </c>
       <c r="D14" t="n">
@@ -755,11 +755,11 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>6.5</v>
+        <v>5.5</v>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>go_stimuli\puppy_3.jpg</t>
+          <t>go_stimuli\puppy_16.jpeg</t>
         </is>
       </c>
       <c r="D15" t="n">
@@ -776,11 +776,11 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>6.5</v>
+        <v>4</v>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>go_stimuli\puppy_26.jpeg</t>
+          <t>go_stimuli\puppy_22.jpeg</t>
         </is>
       </c>
       <c r="D16" t="n">
@@ -801,7 +801,7 @@
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>go_stimuli\puppy_13.jpg</t>
+          <t>go_stimuli\puppy_4.jpg</t>
         </is>
       </c>
       <c r="D17" t="n">
@@ -818,11 +818,11 @@
         <v>16</v>
       </c>
       <c r="B18" t="n">
-        <v>4</v>
+        <v>4.5</v>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>go_stimuli\puppy_8.jpg</t>
+          <t>go_stimuli\puppy_20.jpeg</t>
         </is>
       </c>
       <c r="D18" t="n">
@@ -839,11 +839,11 @@
         <v>17</v>
       </c>
       <c r="B19" t="n">
-        <v>6.5</v>
+        <v>5</v>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>go_stimuli\puppy_6.jpg</t>
+          <t>go_stimuli\puppy_9.jpg</t>
         </is>
       </c>
       <c r="D19" t="n">
@@ -864,7 +864,7 @@
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>go_stimuli\puppy_25.jpeg</t>
+          <t>go_stimuli\puppy_23.jpeg</t>
         </is>
       </c>
       <c r="D20" t="n">
@@ -885,7 +885,7 @@
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>go_stimuli\puppy_16.jpeg</t>
+          <t>go_stimuli\puppy_10.jpg</t>
         </is>
       </c>
       <c r="D21" t="n">
@@ -938,7 +938,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
@@ -954,14 +954,14 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C3" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>right</t>
+          <t>left</t>
         </is>
       </c>
     </row>
@@ -970,7 +970,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -986,7 +986,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="C5" t="n">
         <v>0</v>
@@ -1002,14 +1002,14 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="C6" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>left</t>
+          <t>right</t>
         </is>
       </c>
     </row>
@@ -1018,14 +1018,14 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>left</t>
+          <t>right</t>
         </is>
       </c>
     </row>
@@ -1034,7 +1034,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C8" t="n">
         <v>0</v>
@@ -1050,7 +1050,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C9" t="n">
         <v>1</v>
@@ -1066,14 +1066,14 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="C10" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>right</t>
+          <t>left</t>
         </is>
       </c>
     </row>
@@ -1082,14 +1082,14 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="C11" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>left</t>
+          <t>right</t>
         </is>
       </c>
     </row>
@@ -1098,14 +1098,14 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="C12" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>right</t>
+          <t>left</t>
         </is>
       </c>
     </row>
@@ -1114,7 +1114,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="C13" t="n">
         <v>0</v>
@@ -1130,14 +1130,14 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C14" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>left</t>
+          <t>right</t>
         </is>
       </c>
     </row>
@@ -1146,7 +1146,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C15" t="n">
         <v>1</v>
@@ -1162,7 +1162,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C16" t="n">
         <v>0</v>
@@ -1178,14 +1178,14 @@
         <v>15</v>
       </c>
       <c r="B17" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="C17" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>right</t>
+          <t>left</t>
         </is>
       </c>
     </row>
@@ -1194,14 +1194,14 @@
         <v>16</v>
       </c>
       <c r="B18" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C18" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>left</t>
+          <t>right</t>
         </is>
       </c>
     </row>
@@ -1210,7 +1210,7 @@
         <v>17</v>
       </c>
       <c r="B19" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C19" t="n">
         <v>1</v>
@@ -1226,7 +1226,7 @@
         <v>18</v>
       </c>
       <c r="B20" t="n">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="C20" t="n">
         <v>0</v>
@@ -1242,14 +1242,14 @@
         <v>19</v>
       </c>
       <c r="B21" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="C21" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>right</t>
+          <t>left</t>
         </is>
       </c>
     </row>
@@ -1294,7 +1294,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
@@ -1326,14 +1326,14 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C4" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>right</t>
+          <t>left</t>
         </is>
       </c>
     </row>
@@ -1342,14 +1342,14 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>left</t>
+          <t>right</t>
         </is>
       </c>
     </row>
@@ -1358,14 +1358,14 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="C6" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>right</t>
+          <t>left</t>
         </is>
       </c>
     </row>
@@ -1374,7 +1374,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="C7" t="n">
         <v>1</v>
@@ -1390,7 +1390,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="C8" t="n">
         <v>0</v>
@@ -1406,14 +1406,14 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C9" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>left</t>
+          <t>right</t>
         </is>
       </c>
     </row>
@@ -1422,7 +1422,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="C10" t="n">
         <v>1</v>
@@ -1438,7 +1438,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="C11" t="n">
         <v>0</v>
@@ -1454,14 +1454,14 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="C12" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>right</t>
+          <t>left</t>
         </is>
       </c>
     </row>
@@ -1470,7 +1470,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="C13" t="n">
         <v>1</v>
@@ -1489,11 +1489,11 @@
         <v>9</v>
       </c>
       <c r="C14" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>left</t>
+          <t>right</t>
         </is>
       </c>
     </row>
@@ -1502,14 +1502,14 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C15" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>right</t>
+          <t>left</t>
         </is>
       </c>
     </row>
@@ -1518,7 +1518,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C16" t="n">
         <v>0</v>
@@ -1534,7 +1534,7 @@
         <v>15</v>
       </c>
       <c r="B17" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C17" t="n">
         <v>0</v>
@@ -1550,14 +1550,14 @@
         <v>16</v>
       </c>
       <c r="B18" t="n">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="C18" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>left</t>
+          <t>right</t>
         </is>
       </c>
     </row>
@@ -1566,7 +1566,7 @@
         <v>17</v>
       </c>
       <c r="B19" t="n">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="C19" t="n">
         <v>0</v>
@@ -1582,7 +1582,7 @@
         <v>18</v>
       </c>
       <c r="B20" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C20" t="n">
         <v>0</v>
@@ -1598,7 +1598,7 @@
         <v>19</v>
       </c>
       <c r="B21" t="n">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="C21" t="n">
         <v>1</v>
@@ -1650,7 +1650,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
@@ -1666,7 +1666,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -1682,14 +1682,14 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>left</t>
+          <t>right</t>
         </is>
       </c>
     </row>
@@ -1698,7 +1698,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="C5" t="n">
         <v>0</v>
@@ -1714,14 +1714,14 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C6" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>left</t>
+          <t>right</t>
         </is>
       </c>
     </row>
@@ -1730,7 +1730,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="C7" t="n">
         <v>1</v>
@@ -1746,14 +1746,14 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C8" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>right</t>
+          <t>left</t>
         </is>
       </c>
     </row>
@@ -1762,7 +1762,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C9" t="n">
         <v>0</v>
@@ -1778,14 +1778,14 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="C10" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>right</t>
+          <t>left</t>
         </is>
       </c>
     </row>
@@ -1794,7 +1794,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C11" t="n">
         <v>1</v>
@@ -1810,14 +1810,14 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C12" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>right</t>
+          <t>left</t>
         </is>
       </c>
     </row>
@@ -1826,14 +1826,14 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>left</t>
+          <t>right</t>
         </is>
       </c>
     </row>
@@ -1842,14 +1842,14 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="C14" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>left</t>
+          <t>right</t>
         </is>
       </c>
     </row>
@@ -1874,14 +1874,14 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>left</t>
+          <t>right</t>
         </is>
       </c>
     </row>
@@ -1890,14 +1890,14 @@
         <v>15</v>
       </c>
       <c r="B17" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C17" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>left</t>
+          <t>right</t>
         </is>
       </c>
     </row>
@@ -1909,11 +1909,11 @@
         <v>3</v>
       </c>
       <c r="C18" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>right</t>
+          <t>left</t>
         </is>
       </c>
     </row>
@@ -1922,14 +1922,14 @@
         <v>17</v>
       </c>
       <c r="B19" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C19" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>right</t>
+          <t>left</t>
         </is>
       </c>
     </row>
@@ -1938,14 +1938,14 @@
         <v>18</v>
       </c>
       <c r="B20" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="C20" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>right</t>
+          <t>left</t>
         </is>
       </c>
     </row>
@@ -1954,7 +1954,7 @@
         <v>19</v>
       </c>
       <c r="B21" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C21" t="n">
         <v>0</v>
@@ -2006,7 +2006,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
@@ -2022,7 +2022,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -2038,14 +2038,14 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="C4" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>right</t>
+          <t>left</t>
         </is>
       </c>
     </row>
@@ -2054,7 +2054,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="C5" t="n">
         <v>1</v>
@@ -2070,14 +2070,14 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="C6" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>left</t>
+          <t>right</t>
         </is>
       </c>
     </row>
@@ -2086,14 +2086,14 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>left</t>
+          <t>right</t>
         </is>
       </c>
     </row>
@@ -2102,14 +2102,14 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="C8" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>right</t>
+          <t>left</t>
         </is>
       </c>
     </row>
@@ -2118,7 +2118,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="C9" t="n">
         <v>1</v>
@@ -2134,7 +2134,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="C10" t="n">
         <v>0</v>
@@ -2150,14 +2150,14 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="C11" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>left</t>
+          <t>right</t>
         </is>
       </c>
     </row>
@@ -2166,7 +2166,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="C12" t="n">
         <v>1</v>
@@ -2182,14 +2182,14 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="C13" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>right</t>
+          <t>left</t>
         </is>
       </c>
     </row>
@@ -2198,7 +2198,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C14" t="n">
         <v>0</v>
@@ -2214,7 +2214,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="C15" t="n">
         <v>1</v>
@@ -2230,14 +2230,14 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C16" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>right</t>
+          <t>left</t>
         </is>
       </c>
     </row>
@@ -2246,7 +2246,7 @@
         <v>15</v>
       </c>
       <c r="B17" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C17" t="n">
         <v>0</v>
@@ -2262,7 +2262,7 @@
         <v>16</v>
       </c>
       <c r="B18" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="C18" t="n">
         <v>0</v>
@@ -2278,7 +2278,7 @@
         <v>17</v>
       </c>
       <c r="B19" t="n">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="C19" t="n">
         <v>0</v>
@@ -2294,14 +2294,14 @@
         <v>18</v>
       </c>
       <c r="B20" t="n">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="C20" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>left</t>
+          <t>right</t>
         </is>
       </c>
     </row>
@@ -2310,7 +2310,7 @@
         <v>19</v>
       </c>
       <c r="B21" t="n">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="C21" t="n">
         <v>1</v>
@@ -2363,7 +2363,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>zero_move_stimuli\zero_move_1.jpg</t>
+          <t>zero_move_stimuli\zero_move_5.jpg</t>
         </is>
       </c>
       <c r="C2" t="n">
@@ -2381,7 +2381,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>zero_move_stimuli\zero_move_5.jpg</t>
+          <t>zero_move_stimuli\zero_move_1.jpg</t>
         </is>
       </c>
       <c r="C3" t="n">
@@ -2399,7 +2399,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>zero_move_stimuli\zero_move_6.jpg</t>
+          <t>zero_move_stimuli\zero_move_3.jpg</t>
         </is>
       </c>
       <c r="C4" t="n">
@@ -2417,7 +2417,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>zero_move_stimuli\zero_move_3.jpg</t>
+          <t>zero_move_stimuli\zero_move_2.jpg</t>
         </is>
       </c>
       <c r="C5" t="n">
@@ -2435,7 +2435,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>zero_move_stimuli\zero_move_2.jpg</t>
+          <t>zero_move_stimuli\zero_move_6.jpg</t>
         </is>
       </c>
       <c r="C6" t="n">
@@ -2507,7 +2507,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>multi_move_stimuli\stim_not_two_move\stim_not_two_move_1.jpg</t>
+          <t>multi_move_stimuli\stim_not_two_move\stim_not_two_move_6.jpg</t>
         </is>
       </c>
       <c r="C2" t="n">
@@ -2525,15 +2525,15 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>multi_move_stimuli\stim_not_two_move\stim_not_two_move_6.jpg</t>
+          <t>multi_move_stimuli\stim_two_move\stim_two_move_4.jpg</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>left</t>
+          <t>right</t>
         </is>
       </c>
     </row>
@@ -2543,15 +2543,15 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>multi_move_stimuli\stim_two_move\stim_two_move_3.jpg</t>
+          <t>multi_move_stimuli\stim_not_two_move\stim_not_two_move_4.jpg</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>right</t>
+          <t>left</t>
         </is>
       </c>
     </row>
@@ -2561,15 +2561,15 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>multi_move_stimuli\stim_two_move\stim_two_move_1.jpg</t>
+          <t>multi_move_stimuli\stim_not_two_move\stim_not_two_move_3.jpg</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>right</t>
+          <t>left</t>
         </is>
       </c>
     </row>
@@ -2579,7 +2579,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>multi_move_stimuli\stim_two_move\stim_two_move_4.jpg</t>
+          <t>multi_move_stimuli\stim_two_move\stim_two_move_2.jpg</t>
         </is>
       </c>
       <c r="C6" t="n">
@@ -2597,15 +2597,15 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>multi_move_stimuli\stim_not_two_move\stim_not_two_move_4.jpg</t>
+          <t>multi_move_stimuli\stim_two_move\stim_two_move_1.jpg</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>left</t>
+          <t>right</t>
         </is>
       </c>
     </row>
@@ -2651,7 +2651,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>zero_move_stimuli\zero_move_1.jpg</t>
+          <t>zero_move_stimuli\zero_move_3.jpg</t>
         </is>
       </c>
       <c r="C2" t="n">
@@ -2687,7 +2687,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>zero_move_stimuli\zero_move_3.jpg</t>
+          <t>zero_move_stimuli\zero_move_1.jpg</t>
         </is>
       </c>
       <c r="C4" t="n">
@@ -2705,7 +2705,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>zero_move_stimuli\zero_move_6.jpg</t>
+          <t>zero_move_stimuli\zero_move_5.jpg</t>
         </is>
       </c>
       <c r="C5" t="n">
@@ -2723,7 +2723,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>zero_move_stimuli\zero_move_5.jpg</t>
+          <t>zero_move_stimuli\zero_move_6.jpg</t>
         </is>
       </c>
       <c r="C6" t="n">
@@ -2795,7 +2795,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>multi_move_stimuli\stim_not_two_move\stim_not_two_move_5.jpg</t>
+          <t>multi_move_stimuli\stim_not_two_move\stim_not_two_move_3.jpg</t>
         </is>
       </c>
       <c r="C2" t="n">
@@ -2813,15 +2813,15 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>multi_move_stimuli\stim_two_move\stim_two_move_1.jpg</t>
+          <t>multi_move_stimuli\stim_not_two_move\stim_not_two_move_1.jpg</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>right</t>
+          <t>left</t>
         </is>
       </c>
     </row>
@@ -2831,15 +2831,15 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>multi_move_stimuli\stim_not_two_move\stim_not_two_move_2.jpg</t>
+          <t>multi_move_stimuli\stim_two_move\stim_two_move_2.jpg</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>left</t>
+          <t>right</t>
         </is>
       </c>
     </row>
@@ -2849,15 +2849,15 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>multi_move_stimuli\stim_not_two_move\stim_not_two_move_1.jpg</t>
+          <t>multi_move_stimuli\stim_two_move\stim_two_move_3.jpg</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>left</t>
+          <t>right</t>
         </is>
       </c>
     </row>
@@ -2867,7 +2867,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>multi_move_stimuli\stim_two_move\stim_two_move_6.jpg</t>
+          <t>multi_move_stimuli\stim_two_move\stim_two_move_1.jpg</t>
         </is>
       </c>
       <c r="C6" t="n">
@@ -2885,15 +2885,15 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>multi_move_stimuli\stim_two_move\stim_two_move_4.jpg</t>
+          <t>multi_move_stimuli\stim_not_two_move\stim_not_two_move_4.jpg</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>right</t>
+          <t>left</t>
         </is>
       </c>
     </row>
@@ -2939,7 +2939,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>zero_move_stimuli\zero_move_5.jpg</t>
+          <t>zero_move_stimuli\zero_move_3.jpg</t>
         </is>
       </c>
       <c r="C2" t="n">
@@ -2957,7 +2957,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>zero_move_stimuli\zero_move_1.jpg</t>
+          <t>zero_move_stimuli\zero_move_6.jpg</t>
         </is>
       </c>
       <c r="C3" t="n">
@@ -2975,7 +2975,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>zero_move_stimuli\zero_move_4.jpg</t>
+          <t>zero_move_stimuli\zero_move_2.jpg</t>
         </is>
       </c>
       <c r="C4" t="n">
@@ -2993,7 +2993,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>zero_move_stimuli\zero_move_3.jpg</t>
+          <t>zero_move_stimuli\zero_move_4.jpg</t>
         </is>
       </c>
       <c r="C5" t="n">
@@ -3011,7 +3011,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>zero_move_stimuli\zero_move_2.jpg</t>
+          <t>zero_move_stimuli\zero_move_5.jpg</t>
         </is>
       </c>
       <c r="C6" t="n">
@@ -3029,7 +3029,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>zero_move_stimuli\zero_move_6.jpg</t>
+          <t>zero_move_stimuli\zero_move_1.jpg</t>
         </is>
       </c>
       <c r="C7" t="n">
@@ -3083,15 +3083,15 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>multi_move_stimuli\stim_two_move\stim_two_move_3.jpg</t>
+          <t>multi_move_stimuli\stim_not_two_move\stim_not_two_move_2.jpg</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>right</t>
+          <t>left</t>
         </is>
       </c>
     </row>
@@ -3101,15 +3101,15 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>multi_move_stimuli\stim_not_two_move\stim_not_two_move_4.jpg</t>
+          <t>multi_move_stimuli\stim_two_move\stim_two_move_2.jpg</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>left</t>
+          <t>right</t>
         </is>
       </c>
     </row>
@@ -3119,7 +3119,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>multi_move_stimuli\stim_two_move\stim_two_move_2.jpg</t>
+          <t>multi_move_stimuli\stim_two_move\stim_two_move_1.jpg</t>
         </is>
       </c>
       <c r="C4" t="n">
@@ -3137,15 +3137,15 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>multi_move_stimuli\stim_two_move\stim_two_move_4.jpg</t>
+          <t>multi_move_stimuli\stim_not_two_move\stim_not_two_move_1.jpg</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>right</t>
+          <t>left</t>
         </is>
       </c>
     </row>
@@ -3155,7 +3155,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>multi_move_stimuli\stim_not_two_move\stim_not_two_move_6.jpg</t>
+          <t>multi_move_stimuli\stim_not_two_move\stim_not_two_move_5.jpg</t>
         </is>
       </c>
       <c r="C6" t="n">
@@ -3173,15 +3173,15 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>multi_move_stimuli\stim_not_two_move\stim_not_two_move_3.jpg</t>
+          <t>multi_move_stimuli\stim_two_move\stim_two_move_5.jpg</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>left</t>
+          <t>right</t>
         </is>
       </c>
     </row>
@@ -3231,11 +3231,11 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>5</v>
+        <v>4.5</v>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>no_go_stimuli\spider_4.jpeg</t>
+          <t>no_go_stimuli\spider_2.jpeg</t>
         </is>
       </c>
       <c r="D2" t="n">
@@ -3252,19 +3252,19 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>6.5</v>
+        <v>6</v>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>no_go_stimuli\spider_16.jpeg</t>
+          <t>go_stimuli\puppy_1.jpg</t>
         </is>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>space</t>
         </is>
       </c>
     </row>
@@ -3273,19 +3273,19 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>4.5</v>
+        <v>6.5</v>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>go_stimuli\puppy_20.jpeg</t>
+          <t>no_go_stimuli\spider_24.jpeg</t>
         </is>
       </c>
       <c r="D4" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>space</t>
+          <t>None</t>
         </is>
       </c>
     </row>
@@ -3294,19 +3294,19 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>4.5</v>
+        <v>6.5</v>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>go_stimuli\puppy_25.jpeg</t>
+          <t>no_go_stimuli\spider_10.jpeg</t>
         </is>
       </c>
       <c r="D5" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>space</t>
+          <t>None</t>
         </is>
       </c>
     </row>
@@ -3315,11 +3315,11 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>4</v>
+        <v>5.5</v>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>go_stimuli\puppy_19.jpeg</t>
+          <t>go_stimuli\puppy_22.jpeg</t>
         </is>
       </c>
       <c r="D6" t="n">
@@ -3340,7 +3340,7 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>no_go_stimuli\spider_21.jpg</t>
+          <t>no_go_stimuli\spider_15.jpeg</t>
         </is>
       </c>
       <c r="D7" t="n">
@@ -3357,19 +3357,19 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>6</v>
+        <v>5.5</v>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>go_stimuli\puppy_14.jpeg</t>
+          <t>no_go_stimuli\spider_7.jpeg</t>
         </is>
       </c>
       <c r="D8" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>space</t>
+          <t>None</t>
         </is>
       </c>
     </row>
@@ -3378,19 +3378,19 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>6.5</v>
+        <v>5.5</v>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>no_go_stimuli\spider_8.jpeg</t>
+          <t>go_stimuli\puppy_18.jpeg</t>
         </is>
       </c>
       <c r="D9" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>space</t>
         </is>
       </c>
     </row>
@@ -3399,11 +3399,11 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>6.5</v>
+        <v>4.5</v>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>go_stimuli\puppy_26.jpeg</t>
+          <t>go_stimuli\puppy_2.jpg</t>
         </is>
       </c>
       <c r="D10" t="n">
@@ -3420,11 +3420,11 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>5</v>
+        <v>5.5</v>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>no_go_stimuli\spider_15.jpeg</t>
+          <t>no_go_stimuli\spider_30.jpg</t>
         </is>
       </c>
       <c r="D11" t="n">
@@ -3441,11 +3441,11 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>5.5</v>
+        <v>5</v>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>no_go_stimuli\spider_3.jpeg</t>
+          <t>no_go_stimuli\spider_11.jpeg</t>
         </is>
       </c>
       <c r="D12" t="n">
@@ -3462,19 +3462,19 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>4</v>
+        <v>6.5</v>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>no_go_stimuli\spider_28.jpg</t>
+          <t>go_stimuli\puppy_29.jpg</t>
         </is>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>space</t>
         </is>
       </c>
     </row>
@@ -3483,11 +3483,11 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>6.5</v>
+        <v>5</v>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>go_stimuli\puppy_21.jpeg</t>
+          <t>go_stimuli\puppy_11.jpeg</t>
         </is>
       </c>
       <c r="D14" t="n">
@@ -3504,11 +3504,11 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>no_go_stimuli\spider_5.jpeg</t>
+          <t>no_go_stimuli\spider_20.jpg</t>
         </is>
       </c>
       <c r="D15" t="n">
@@ -3529,15 +3529,15 @@
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>no_go_stimuli\spider_2.jpeg</t>
+          <t>go_stimuli\puppy_17.jpeg</t>
         </is>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>space</t>
         </is>
       </c>
     </row>
@@ -3546,19 +3546,19 @@
         <v>15</v>
       </c>
       <c r="B17" t="n">
-        <v>5.5</v>
+        <v>4.5</v>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>go_stimuli\puppy_18.jpeg</t>
+          <t>no_go_stimuli\spider_23.jpg</t>
         </is>
       </c>
       <c r="D17" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>space</t>
+          <t>None</t>
         </is>
       </c>
     </row>
@@ -3567,11 +3567,11 @@
         <v>16</v>
       </c>
       <c r="B18" t="n">
-        <v>6.5</v>
+        <v>4</v>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>go_stimuli\puppy_2.jpg</t>
+          <t>go_stimuli\puppy_14.jpeg</t>
         </is>
       </c>
       <c r="D18" t="n">
@@ -3592,7 +3592,7 @@
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>no_go_stimuli\spider_7.jpeg</t>
+          <t>no_go_stimuli\spider_18.jpg</t>
         </is>
       </c>
       <c r="D19" t="n">
@@ -3609,11 +3609,11 @@
         <v>18</v>
       </c>
       <c r="B20" t="n">
-        <v>5.5</v>
+        <v>4.5</v>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>go_stimuli\puppy_27.jpg</t>
+          <t>go_stimuli\puppy_6.jpg</t>
         </is>
       </c>
       <c r="D20" t="n">
@@ -3630,11 +3630,11 @@
         <v>19</v>
       </c>
       <c r="B21" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>go_stimuli\puppy_29.jpg</t>
+          <t>go_stimuli\puppy_16.jpeg</t>
         </is>
       </c>
       <c r="D21" t="n">
@@ -3702,10 +3702,10 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>0.017</v>
+        <v>0.029</v>
       </c>
       <c r="C2" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D2" t="n">
         <v>0</v>
@@ -3714,11 +3714,11 @@
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>right</t>
+          <t>left</t>
         </is>
       </c>
     </row>
@@ -3730,7 +3730,7 @@
         <v>0.029</v>
       </c>
       <c r="C3" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
@@ -3764,11 +3764,11 @@
         <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>left</t>
+          <t>right</t>
         </is>
       </c>
     </row>
@@ -3777,10 +3777,10 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>0.017</v>
+        <v>0.029</v>
       </c>
       <c r="C5" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D5" t="n">
         <v>0</v>
@@ -3789,11 +3789,11 @@
         <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>right</t>
+          <t>left</t>
         </is>
       </c>
     </row>
@@ -3802,10 +3802,10 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>0.05</v>
+        <v>0.029</v>
       </c>
       <c r="C6" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D6" t="n">
         <v>0</v>
@@ -3827,10 +3827,10 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>0.017</v>
+        <v>0.029</v>
       </c>
       <c r="C7" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D7" t="n">
         <v>0</v>
@@ -3852,10 +3852,10 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>0.05</v>
+        <v>0.029</v>
       </c>
       <c r="C8" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D8" t="n">
         <v>0</v>
@@ -3877,10 +3877,10 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>0.017</v>
+        <v>0.029</v>
       </c>
       <c r="C9" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D9" t="n">
         <v>0</v>
@@ -3889,11 +3889,11 @@
         <v>0</v>
       </c>
       <c r="F9" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>left</t>
+          <t>right</t>
         </is>
       </c>
     </row>
@@ -3902,7 +3902,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>0.029</v>
+        <v>0.017</v>
       </c>
       <c r="C10" t="n">
         <v>2</v>
@@ -3927,7 +3927,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>0.017</v>
+        <v>0.05</v>
       </c>
       <c r="C11" t="n">
         <v>1</v>
@@ -3955,7 +3955,7 @@
         <v>0.05</v>
       </c>
       <c r="C12" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D12" t="n">
         <v>0</v>
@@ -3964,11 +3964,11 @@
         <v>0</v>
       </c>
       <c r="F12" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>right</t>
+          <t>left</t>
         </is>
       </c>
     </row>
@@ -3977,10 +3977,10 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>0.017</v>
+        <v>0.029</v>
       </c>
       <c r="C13" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D13" t="n">
         <v>0</v>
@@ -3989,11 +3989,11 @@
         <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>left</t>
+          <t>right</t>
         </is>
       </c>
     </row>
@@ -4002,10 +4002,10 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>0.05</v>
+        <v>0.017</v>
       </c>
       <c r="C14" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D14" t="n">
         <v>0</v>
@@ -4030,7 +4030,7 @@
         <v>0.029</v>
       </c>
       <c r="C15" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D15" t="n">
         <v>0</v>
@@ -4052,7 +4052,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>0.029</v>
+        <v>0.05</v>
       </c>
       <c r="C16" t="n">
         <v>3</v>
@@ -4064,11 +4064,11 @@
         <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>left</t>
+          <t>right</t>
         </is>
       </c>
     </row>
@@ -4077,10 +4077,10 @@
         <v>15</v>
       </c>
       <c r="B17" t="n">
-        <v>0.05</v>
+        <v>0.029</v>
       </c>
       <c r="C17" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D17" t="n">
         <v>0</v>
@@ -4089,11 +4089,11 @@
         <v>0</v>
       </c>
       <c r="F17" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>left</t>
+          <t>right</t>
         </is>
       </c>
     </row>
@@ -4102,10 +4102,10 @@
         <v>16</v>
       </c>
       <c r="B18" t="n">
-        <v>0.017</v>
+        <v>0.05</v>
       </c>
       <c r="C18" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D18" t="n">
         <v>0</v>
@@ -4114,11 +4114,11 @@
         <v>0</v>
       </c>
       <c r="F18" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>left</t>
+          <t>right</t>
         </is>
       </c>
     </row>
@@ -4127,10 +4127,10 @@
         <v>17</v>
       </c>
       <c r="B19" t="n">
-        <v>0.05</v>
+        <v>0.017</v>
       </c>
       <c r="C19" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D19" t="n">
         <v>0</v>
@@ -4139,11 +4139,11 @@
         <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>left</t>
+          <t>right</t>
         </is>
       </c>
     </row>
@@ -4152,7 +4152,7 @@
         <v>18</v>
       </c>
       <c r="B20" t="n">
-        <v>0.05</v>
+        <v>0.017</v>
       </c>
       <c r="C20" t="n">
         <v>2</v>
@@ -4164,11 +4164,11 @@
         <v>0</v>
       </c>
       <c r="F20" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>right</t>
+          <t>left</t>
         </is>
       </c>
     </row>
@@ -4177,7 +4177,7 @@
         <v>19</v>
       </c>
       <c r="B21" t="n">
-        <v>0.05</v>
+        <v>0.017</v>
       </c>
       <c r="C21" t="n">
         <v>1</v>
@@ -4205,7 +4205,7 @@
         <v>0.05</v>
       </c>
       <c r="C22" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D22" t="n">
         <v>0</v>
@@ -4230,7 +4230,7 @@
         <v>0.029</v>
       </c>
       <c r="C23" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D23" t="n">
         <v>0</v>
@@ -4239,11 +4239,11 @@
         <v>0</v>
       </c>
       <c r="F23" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>right</t>
+          <t>left</t>
         </is>
       </c>
     </row>
@@ -4252,7 +4252,7 @@
         <v>22</v>
       </c>
       <c r="B24" t="n">
-        <v>0.05</v>
+        <v>0.017</v>
       </c>
       <c r="C24" t="n">
         <v>1</v>
@@ -4264,11 +4264,11 @@
         <v>0</v>
       </c>
       <c r="F24" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>left</t>
+          <t>right</t>
         </is>
       </c>
     </row>
@@ -4277,10 +4277,10 @@
         <v>23</v>
       </c>
       <c r="B25" t="n">
-        <v>0.05</v>
+        <v>0.029</v>
       </c>
       <c r="C25" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D25" t="n">
         <v>0</v>
@@ -4302,10 +4302,10 @@
         <v>24</v>
       </c>
       <c r="B26" t="n">
-        <v>0.017</v>
+        <v>0.05</v>
       </c>
       <c r="C26" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D26" t="n">
         <v>0</v>
@@ -4314,11 +4314,11 @@
         <v>0</v>
       </c>
       <c r="F26" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G26" t="inlineStr">
         <is>
-          <t>right</t>
+          <t>left</t>
         </is>
       </c>
     </row>
@@ -4339,11 +4339,11 @@
         <v>0</v>
       </c>
       <c r="F27" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G27" t="inlineStr">
         <is>
-          <t>left</t>
+          <t>right</t>
         </is>
       </c>
     </row>
@@ -4352,10 +4352,10 @@
         <v>26</v>
       </c>
       <c r="B28" t="n">
-        <v>0.017</v>
+        <v>0.05</v>
       </c>
       <c r="C28" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D28" t="n">
         <v>0</v>
@@ -4364,11 +4364,11 @@
         <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G28" t="inlineStr">
         <is>
-          <t>left</t>
+          <t>right</t>
         </is>
       </c>
     </row>
@@ -4377,7 +4377,7 @@
         <v>27</v>
       </c>
       <c r="B29" t="n">
-        <v>0.05</v>
+        <v>0.029</v>
       </c>
       <c r="C29" t="n">
         <v>2</v>
@@ -4402,7 +4402,7 @@
         <v>28</v>
       </c>
       <c r="B30" t="n">
-        <v>0.017</v>
+        <v>0.05</v>
       </c>
       <c r="C30" t="n">
         <v>1</v>
@@ -4427,10 +4427,10 @@
         <v>29</v>
       </c>
       <c r="B31" t="n">
-        <v>0.017</v>
+        <v>0.05</v>
       </c>
       <c r="C31" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D31" t="n">
         <v>0</v>
@@ -4439,11 +4439,11 @@
         <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G31" t="inlineStr">
         <is>
-          <t>right</t>
+          <t>left</t>
         </is>
       </c>
     </row>
@@ -4503,10 +4503,10 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>0.029</v>
+        <v>0.05</v>
       </c>
       <c r="C2" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D2" t="n">
         <v>0</v>
@@ -4553,10 +4553,10 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>0.029</v>
+        <v>0.05</v>
       </c>
       <c r="C4" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
@@ -4565,11 +4565,11 @@
         <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>left</t>
+          <t>right</t>
         </is>
       </c>
     </row>
@@ -4581,7 +4581,7 @@
         <v>0.05</v>
       </c>
       <c r="C5" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D5" t="n">
         <v>0</v>
@@ -4590,11 +4590,11 @@
         <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>right</t>
+          <t>left</t>
         </is>
       </c>
     </row>
@@ -4603,10 +4603,10 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>0.05</v>
+        <v>0.017</v>
       </c>
       <c r="C6" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D6" t="n">
         <v>0</v>
@@ -4656,7 +4656,7 @@
         <v>0.017</v>
       </c>
       <c r="C8" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D8" t="n">
         <v>0</v>
@@ -4681,7 +4681,7 @@
         <v>0.05</v>
       </c>
       <c r="C9" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D9" t="n">
         <v>0</v>
@@ -4690,11 +4690,11 @@
         <v>0</v>
       </c>
       <c r="F9" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>right</t>
+          <t>left</t>
         </is>
       </c>
     </row>
@@ -4706,7 +4706,7 @@
         <v>0.05</v>
       </c>
       <c r="C10" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D10" t="n">
         <v>0</v>
@@ -4715,11 +4715,11 @@
         <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>left</t>
+          <t>right</t>
         </is>
       </c>
     </row>
@@ -4728,10 +4728,10 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>0.05</v>
+        <v>0.017</v>
       </c>
       <c r="C11" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D11" t="n">
         <v>0</v>
@@ -4740,11 +4740,11 @@
         <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>right</t>
+          <t>left</t>
         </is>
       </c>
     </row>
@@ -4753,10 +4753,10 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>0.017</v>
+        <v>0.05</v>
       </c>
       <c r="C12" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D12" t="n">
         <v>0</v>
@@ -4765,11 +4765,11 @@
         <v>0</v>
       </c>
       <c r="F12" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>right</t>
+          <t>left</t>
         </is>
       </c>
     </row>
@@ -4778,10 +4778,10 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>0.017</v>
+        <v>0.05</v>
       </c>
       <c r="C13" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D13" t="n">
         <v>0</v>
@@ -4790,11 +4790,11 @@
         <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>right</t>
+          <t>left</t>
         </is>
       </c>
     </row>
@@ -4803,10 +4803,10 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>0.029</v>
+        <v>0.05</v>
       </c>
       <c r="C14" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D14" t="n">
         <v>0</v>
@@ -4815,11 +4815,11 @@
         <v>0</v>
       </c>
       <c r="F14" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>left</t>
+          <t>right</t>
         </is>
       </c>
     </row>
@@ -4831,7 +4831,7 @@
         <v>0.05</v>
       </c>
       <c r="C15" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D15" t="n">
         <v>0</v>
@@ -4840,11 +4840,11 @@
         <v>0</v>
       </c>
       <c r="F15" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>left</t>
+          <t>right</t>
         </is>
       </c>
     </row>
@@ -4853,10 +4853,10 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>0.017</v>
+        <v>0.029</v>
       </c>
       <c r="C16" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D16" t="n">
         <v>0</v>
@@ -4878,7 +4878,7 @@
         <v>15</v>
       </c>
       <c r="B17" t="n">
-        <v>0.029</v>
+        <v>0.017</v>
       </c>
       <c r="C17" t="n">
         <v>1</v>
@@ -4890,11 +4890,11 @@
         <v>0</v>
       </c>
       <c r="F17" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>right</t>
+          <t>left</t>
         </is>
       </c>
     </row>
@@ -4903,10 +4903,10 @@
         <v>16</v>
       </c>
       <c r="B18" t="n">
-        <v>0.05</v>
+        <v>0.029</v>
       </c>
       <c r="C18" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D18" t="n">
         <v>0</v>
@@ -4928,10 +4928,10 @@
         <v>17</v>
       </c>
       <c r="B19" t="n">
-        <v>0.05</v>
+        <v>0.017</v>
       </c>
       <c r="C19" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D19" t="n">
         <v>0</v>
@@ -4953,10 +4953,10 @@
         <v>18</v>
       </c>
       <c r="B20" t="n">
-        <v>0.017</v>
+        <v>0.029</v>
       </c>
       <c r="C20" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D20" t="n">
         <v>0</v>
@@ -4978,10 +4978,10 @@
         <v>19</v>
       </c>
       <c r="B21" t="n">
-        <v>0.017</v>
+        <v>0.05</v>
       </c>
       <c r="C21" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D21" t="n">
         <v>0</v>
@@ -5006,7 +5006,7 @@
         <v>0.029</v>
       </c>
       <c r="C22" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D22" t="n">
         <v>0</v>
@@ -5015,11 +5015,11 @@
         <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>left</t>
+          <t>right</t>
         </is>
       </c>
     </row>
@@ -5028,7 +5028,7 @@
         <v>21</v>
       </c>
       <c r="B23" t="n">
-        <v>0.05</v>
+        <v>0.029</v>
       </c>
       <c r="C23" t="n">
         <v>2</v>
@@ -5053,10 +5053,10 @@
         <v>22</v>
       </c>
       <c r="B24" t="n">
-        <v>0.017</v>
+        <v>0.05</v>
       </c>
       <c r="C24" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D24" t="n">
         <v>0</v>
@@ -5078,7 +5078,7 @@
         <v>23</v>
       </c>
       <c r="B25" t="n">
-        <v>0.05</v>
+        <v>0.017</v>
       </c>
       <c r="C25" t="n">
         <v>1</v>
@@ -5090,11 +5090,11 @@
         <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G25" t="inlineStr">
         <is>
-          <t>left</t>
+          <t>right</t>
         </is>
       </c>
     </row>
@@ -5103,7 +5103,7 @@
         <v>24</v>
       </c>
       <c r="B26" t="n">
-        <v>0.029</v>
+        <v>0.017</v>
       </c>
       <c r="C26" t="n">
         <v>2</v>
@@ -5140,11 +5140,11 @@
         <v>0</v>
       </c>
       <c r="F27" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G27" t="inlineStr">
         <is>
-          <t>left</t>
+          <t>right</t>
         </is>
       </c>
     </row>
@@ -5153,10 +5153,10 @@
         <v>26</v>
       </c>
       <c r="B28" t="n">
-        <v>0.05</v>
+        <v>0.017</v>
       </c>
       <c r="C28" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D28" t="n">
         <v>0</v>
@@ -5165,11 +5165,11 @@
         <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G28" t="inlineStr">
         <is>
-          <t>right</t>
+          <t>left</t>
         </is>
       </c>
     </row>
@@ -5178,10 +5178,10 @@
         <v>27</v>
       </c>
       <c r="B29" t="n">
-        <v>0.029</v>
+        <v>0.017</v>
       </c>
       <c r="C29" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D29" t="n">
         <v>0</v>
@@ -5190,11 +5190,11 @@
         <v>0</v>
       </c>
       <c r="F29" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G29" t="inlineStr">
         <is>
-          <t>left</t>
+          <t>right</t>
         </is>
       </c>
     </row>
@@ -5206,7 +5206,7 @@
         <v>0.05</v>
       </c>
       <c r="C30" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D30" t="n">
         <v>0</v>
@@ -5231,7 +5231,7 @@
         <v>0.05</v>
       </c>
       <c r="C31" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D31" t="n">
         <v>0</v>
@@ -5304,16 +5304,16 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>0.017</v>
+        <v>0.05</v>
       </c>
       <c r="C2" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D2" t="n">
-        <v>-0.25</v>
+        <v>0.25</v>
       </c>
       <c r="E2" t="n">
-        <v>-0.25</v>
+        <v>0.25</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
@@ -5332,13 +5332,13 @@
         <v>0.05</v>
       </c>
       <c r="C3" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>-0.25</v>
       </c>
       <c r="E3" t="n">
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -5357,7 +5357,7 @@
         <v>0.017</v>
       </c>
       <c r="C4" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D4" t="n">
         <v>-0.25</v>
@@ -5382,13 +5382,13 @@
         <v>0.05</v>
       </c>
       <c r="C5" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D5" t="n">
-        <v>-0.25</v>
+        <v>0.25</v>
       </c>
       <c r="E5" t="n">
-        <v>-0.25</v>
+        <v>0.25</v>
       </c>
       <c r="F5" t="n">
         <v>0</v>
@@ -5404,23 +5404,23 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>0.05</v>
+        <v>0.017</v>
       </c>
       <c r="C6" t="n">
         <v>3</v>
       </c>
       <c r="D6" t="n">
+        <v>-0.25</v>
+      </c>
+      <c r="E6" t="n">
         <v>0.25</v>
       </c>
-      <c r="E6" t="n">
-        <v>-0.25</v>
-      </c>
       <c r="F6" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>right</t>
+          <t>left</t>
         </is>
       </c>
     </row>
@@ -5429,23 +5429,23 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>0.029</v>
+        <v>0.05</v>
       </c>
       <c r="C7" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D7" t="n">
-        <v>0.25</v>
+        <v>-0.25</v>
       </c>
       <c r="E7" t="n">
         <v>0.25</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>left</t>
+          <t>right</t>
         </is>
       </c>
     </row>
@@ -5454,23 +5454,23 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>0.029</v>
+        <v>0.017</v>
       </c>
       <c r="C8" t="n">
         <v>3</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>-0.25</v>
       </c>
       <c r="F8" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>left</t>
+          <t>right</t>
         </is>
       </c>
     </row>
@@ -5479,13 +5479,13 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>0.05</v>
+        <v>0.029</v>
       </c>
       <c r="C9" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D9" t="n">
-        <v>0.25</v>
+        <v>-0.25</v>
       </c>
       <c r="E9" t="n">
         <v>0.25</v>
@@ -5504,7 +5504,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>0.029</v>
+        <v>0.017</v>
       </c>
       <c r="C10" t="n">
         <v>1</v>
@@ -5513,14 +5513,14 @@
         <v>-0.25</v>
       </c>
       <c r="E10" t="n">
-        <v>0.25</v>
+        <v>-0.25</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>left</t>
+          <t>right</t>
         </is>
       </c>
     </row>
@@ -5529,16 +5529,16 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>0.017</v>
+        <v>0.05</v>
       </c>
       <c r="C11" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D11" t="n">
-        <v>0.25</v>
+        <v>-0.25</v>
       </c>
       <c r="E11" t="n">
-        <v>0.25</v>
+        <v>-0.25</v>
       </c>
       <c r="F11" t="n">
         <v>0</v>
@@ -5557,13 +5557,13 @@
         <v>0.05</v>
       </c>
       <c r="C12" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D12" t="n">
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="E12" t="n">
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="F12" t="n">
         <v>0</v>
@@ -5579,7 +5579,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>0.017</v>
+        <v>0.029</v>
       </c>
       <c r="C13" t="n">
         <v>3</v>
@@ -5588,7 +5588,7 @@
         <v>0.25</v>
       </c>
       <c r="E13" t="n">
-        <v>0.25</v>
+        <v>-0.25</v>
       </c>
       <c r="F13" t="n">
         <v>1</v>
@@ -5604,16 +5604,16 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>0.017</v>
+        <v>0.029</v>
       </c>
       <c r="C14" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D14" t="n">
-        <v>0.25</v>
+        <v>0</v>
       </c>
       <c r="E14" t="n">
-        <v>-0.25</v>
+        <v>0</v>
       </c>
       <c r="F14" t="n">
         <v>0</v>
@@ -5629,23 +5629,23 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>0.05</v>
+        <v>0.017</v>
       </c>
       <c r="C15" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D15" t="n">
+        <v>-0.25</v>
+      </c>
+      <c r="E15" t="n">
         <v>0.25</v>
       </c>
-      <c r="E15" t="n">
-        <v>-0.25</v>
-      </c>
       <c r="F15" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>right</t>
+          <t>left</t>
         </is>
       </c>
     </row>
@@ -5654,10 +5654,10 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>0.017</v>
+        <v>0.029</v>
       </c>
       <c r="C16" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D16" t="n">
         <v>-0.25</v>
@@ -5679,10 +5679,10 @@
         <v>15</v>
       </c>
       <c r="B17" t="n">
-        <v>0.029</v>
+        <v>0.05</v>
       </c>
       <c r="C17" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D17" t="n">
         <v>0.25</v>
@@ -5704,23 +5704,23 @@
         <v>16</v>
       </c>
       <c r="B18" t="n">
-        <v>0.05</v>
+        <v>0.017</v>
       </c>
       <c r="C18" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D18" t="n">
-        <v>-0.25</v>
+        <v>0.25</v>
       </c>
       <c r="E18" t="n">
         <v>-0.25</v>
       </c>
       <c r="F18" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>right</t>
+          <t>left</t>
         </is>
       </c>
     </row>
@@ -5729,23 +5729,23 @@
         <v>17</v>
       </c>
       <c r="B19" t="n">
-        <v>0.029</v>
+        <v>0.05</v>
       </c>
       <c r="C19" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>left</t>
+          <t>right</t>
         </is>
       </c>
     </row>
@@ -5754,7 +5754,7 @@
         <v>18</v>
       </c>
       <c r="B20" t="n">
-        <v>0.05</v>
+        <v>0.017</v>
       </c>
       <c r="C20" t="n">
         <v>2</v>
@@ -5763,7 +5763,7 @@
         <v>-0.25</v>
       </c>
       <c r="E20" t="n">
-        <v>0.25</v>
+        <v>-0.25</v>
       </c>
       <c r="F20" t="n">
         <v>0</v>
@@ -5782,20 +5782,20 @@
         <v>0.017</v>
       </c>
       <c r="C21" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D21" t="n">
         <v>-0.25</v>
       </c>
       <c r="E21" t="n">
-        <v>-0.25</v>
+        <v>0.25</v>
       </c>
       <c r="F21" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>left</t>
+          <t>right</t>
         </is>
       </c>
     </row>
@@ -5807,13 +5807,13 @@
         <v>0.017</v>
       </c>
       <c r="C22" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D22" t="n">
+        <v>0.25</v>
+      </c>
+      <c r="E22" t="n">
         <v>-0.25</v>
-      </c>
-      <c r="E22" t="n">
-        <v>0.25</v>
       </c>
       <c r="F22" t="n">
         <v>0</v>
@@ -5829,23 +5829,23 @@
         <v>21</v>
       </c>
       <c r="B23" t="n">
-        <v>0.017</v>
+        <v>0.05</v>
       </c>
       <c r="C23" t="n">
         <v>3</v>
       </c>
       <c r="D23" t="n">
-        <v>0.25</v>
+        <v>-0.25</v>
       </c>
       <c r="E23" t="n">
         <v>-0.25</v>
       </c>
       <c r="F23" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>left</t>
+          <t>right</t>
         </is>
       </c>
     </row>
@@ -5854,10 +5854,10 @@
         <v>22</v>
       </c>
       <c r="B24" t="n">
-        <v>0.029</v>
+        <v>0.05</v>
       </c>
       <c r="C24" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D24" t="n">
         <v>-0.25</v>
@@ -5879,16 +5879,16 @@
         <v>23</v>
       </c>
       <c r="B25" t="n">
-        <v>0.029</v>
+        <v>0.017</v>
       </c>
       <c r="C25" t="n">
         <v>1</v>
       </c>
       <c r="D25" t="n">
-        <v>0.25</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>0.25</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
         <v>0</v>
@@ -5907,7 +5907,7 @@
         <v>0.017</v>
       </c>
       <c r="C26" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D26" t="n">
         <v>0</v>
@@ -5935,17 +5935,17 @@
         <v>1</v>
       </c>
       <c r="D27" t="n">
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="E27" t="n">
-        <v>0</v>
+        <v>-0.25</v>
       </c>
       <c r="F27" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G27" t="inlineStr">
         <is>
-          <t>left</t>
+          <t>right</t>
         </is>
       </c>
     </row>
@@ -5963,7 +5963,7 @@
         <v>-0.25</v>
       </c>
       <c r="E28" t="n">
-        <v>0.25</v>
+        <v>-0.25</v>
       </c>
       <c r="F28" t="n">
         <v>0</v>
@@ -5979,23 +5979,23 @@
         <v>27</v>
       </c>
       <c r="B29" t="n">
-        <v>0.017</v>
+        <v>0.029</v>
       </c>
       <c r="C29" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D29" t="n">
+        <v>-0.25</v>
+      </c>
+      <c r="E29" t="n">
         <v>0.25</v>
       </c>
-      <c r="E29" t="n">
-        <v>-0.25</v>
-      </c>
       <c r="F29" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G29" t="inlineStr">
         <is>
-          <t>left</t>
+          <t>right</t>
         </is>
       </c>
     </row>
@@ -6004,23 +6004,23 @@
         <v>28</v>
       </c>
       <c r="B30" t="n">
-        <v>0.05</v>
+        <v>0.017</v>
       </c>
       <c r="C30" t="n">
         <v>3</v>
       </c>
       <c r="D30" t="n">
-        <v>0.25</v>
+        <v>0</v>
       </c>
       <c r="E30" t="n">
-        <v>0.25</v>
+        <v>0</v>
       </c>
       <c r="F30" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G30" t="inlineStr">
         <is>
-          <t>left</t>
+          <t>right</t>
         </is>
       </c>
     </row>
@@ -6029,10 +6029,10 @@
         <v>29</v>
       </c>
       <c r="B31" t="n">
-        <v>0.029</v>
+        <v>0.05</v>
       </c>
       <c r="C31" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D31" t="n">
         <v>-0.25</v>
@@ -6041,11 +6041,11 @@
         <v>-0.25</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G31" t="inlineStr">
         <is>
-          <t>left</t>
+          <t>right</t>
         </is>
       </c>
     </row>
@@ -6105,16 +6105,16 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>0.029</v>
+        <v>0.05</v>
       </c>
       <c r="C2" t="n">
         <v>1</v>
       </c>
       <c r="D2" t="n">
-        <v>-0.25</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>-0.25</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
         <v>1</v>
@@ -6133,20 +6133,20 @@
         <v>0.029</v>
       </c>
       <c r="C3" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D3" t="n">
         <v>-0.25</v>
       </c>
       <c r="E3" t="n">
-        <v>0.25</v>
+        <v>-0.25</v>
       </c>
       <c r="F3" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>right</t>
+          <t>left</t>
         </is>
       </c>
     </row>
@@ -6155,23 +6155,23 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>0.05</v>
+        <v>0.017</v>
       </c>
       <c r="C4" t="n">
         <v>1</v>
       </c>
       <c r="D4" t="n">
-        <v>0.25</v>
+        <v>-0.25</v>
       </c>
       <c r="E4" t="n">
-        <v>0.25</v>
+        <v>-0.25</v>
       </c>
       <c r="F4" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>right</t>
+          <t>left</t>
         </is>
       </c>
     </row>
@@ -6183,20 +6183,20 @@
         <v>0.029</v>
       </c>
       <c r="C5" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D5" t="n">
-        <v>-0.25</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>0.25</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>left</t>
+          <t>right</t>
         </is>
       </c>
     </row>
@@ -6211,10 +6211,10 @@
         <v>1</v>
       </c>
       <c r="D6" t="n">
-        <v>0.25</v>
+        <v>-0.25</v>
       </c>
       <c r="E6" t="n">
-        <v>0.25</v>
+        <v>-0.25</v>
       </c>
       <c r="F6" t="n">
         <v>1</v>
@@ -6242,11 +6242,11 @@
         <v>0.25</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>left</t>
+          <t>right</t>
         </is>
       </c>
     </row>
@@ -6255,23 +6255,23 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>0.029</v>
+        <v>0.05</v>
       </c>
       <c r="C8" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>-0.25</v>
       </c>
       <c r="F8" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>left</t>
+          <t>right</t>
         </is>
       </c>
     </row>
@@ -6283,7 +6283,7 @@
         <v>0.017</v>
       </c>
       <c r="C9" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D9" t="n">
         <v>-0.25</v>
@@ -6305,7 +6305,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>0.017</v>
+        <v>0.029</v>
       </c>
       <c r="C10" t="n">
         <v>3</v>
@@ -6317,11 +6317,11 @@
         <v>0.25</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>left</t>
+          <t>right</t>
         </is>
       </c>
     </row>
@@ -6330,16 +6330,16 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>0.05</v>
+        <v>0.017</v>
       </c>
       <c r="C11" t="n">
         <v>2</v>
       </c>
       <c r="D11" t="n">
-        <v>0.25</v>
+        <v>0</v>
       </c>
       <c r="E11" t="n">
-        <v>-0.25</v>
+        <v>0</v>
       </c>
       <c r="F11" t="n">
         <v>0</v>
@@ -6355,13 +6355,13 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>0.017</v>
+        <v>0.029</v>
       </c>
       <c r="C12" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D12" t="n">
-        <v>0.25</v>
+        <v>-0.25</v>
       </c>
       <c r="E12" t="n">
         <v>-0.25</v>
@@ -6380,23 +6380,23 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>0.017</v>
+        <v>0.029</v>
       </c>
       <c r="C13" t="n">
         <v>2</v>
       </c>
       <c r="D13" t="n">
-        <v>-0.25</v>
+        <v>0.25</v>
       </c>
       <c r="E13" t="n">
         <v>0.25</v>
       </c>
       <c r="F13" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>right</t>
+          <t>left</t>
         </is>
       </c>
     </row>
@@ -6405,23 +6405,23 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>0.017</v>
+        <v>0.029</v>
       </c>
       <c r="C14" t="n">
         <v>2</v>
       </c>
       <c r="D14" t="n">
-        <v>-0.25</v>
+        <v>0.25</v>
       </c>
       <c r="E14" t="n">
         <v>0.25</v>
       </c>
       <c r="F14" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>left</t>
+          <t>right</t>
         </is>
       </c>
     </row>
@@ -6430,16 +6430,16 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>0.029</v>
+        <v>0.017</v>
       </c>
       <c r="C15" t="n">
         <v>2</v>
       </c>
       <c r="D15" t="n">
+        <v>0.25</v>
+      </c>
+      <c r="E15" t="n">
         <v>-0.25</v>
-      </c>
-      <c r="E15" t="n">
-        <v>0.25</v>
       </c>
       <c r="F15" t="n">
         <v>1</v>
@@ -6455,10 +6455,10 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>0.029</v>
+        <v>0.017</v>
       </c>
       <c r="C16" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D16" t="n">
         <v>0.25</v>
@@ -6486,10 +6486,10 @@
         <v>1</v>
       </c>
       <c r="D17" t="n">
-        <v>0.25</v>
+        <v>0</v>
       </c>
       <c r="E17" t="n">
-        <v>0.25</v>
+        <v>0</v>
       </c>
       <c r="F17" t="n">
         <v>1</v>
@@ -6505,23 +6505,23 @@
         <v>16</v>
       </c>
       <c r="B18" t="n">
-        <v>0.05</v>
+        <v>0.029</v>
       </c>
       <c r="C18" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D18" t="n">
-        <v>-0.25</v>
+        <v>0</v>
       </c>
       <c r="E18" t="n">
-        <v>-0.25</v>
+        <v>0</v>
       </c>
       <c r="F18" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>left</t>
+          <t>right</t>
         </is>
       </c>
     </row>
@@ -6533,20 +6533,20 @@
         <v>0.017</v>
       </c>
       <c r="C19" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D19" t="n">
-        <v>-0.25</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>0.25</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>right</t>
+          <t>left</t>
         </is>
       </c>
     </row>
@@ -6555,16 +6555,16 @@
         <v>18</v>
       </c>
       <c r="B20" t="n">
-        <v>0.05</v>
+        <v>0.029</v>
       </c>
       <c r="C20" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D20" t="n">
-        <v>0.25</v>
+        <v>0</v>
       </c>
       <c r="E20" t="n">
-        <v>-0.25</v>
+        <v>0</v>
       </c>
       <c r="F20" t="n">
         <v>1</v>
@@ -6586,17 +6586,17 @@
         <v>2</v>
       </c>
       <c r="D21" t="n">
-        <v>-0.25</v>
+        <v>0.25</v>
       </c>
       <c r="E21" t="n">
-        <v>-0.25</v>
+        <v>0.25</v>
       </c>
       <c r="F21" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>left</t>
+          <t>right</t>
         </is>
       </c>
     </row>
@@ -6605,23 +6605,23 @@
         <v>20</v>
       </c>
       <c r="B22" t="n">
-        <v>0.05</v>
+        <v>0.029</v>
       </c>
       <c r="C22" t="n">
         <v>2</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>-0.25</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="F22" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>right</t>
+          <t>left</t>
         </is>
       </c>
     </row>
@@ -6630,23 +6630,23 @@
         <v>21</v>
       </c>
       <c r="B23" t="n">
-        <v>0.029</v>
+        <v>0.05</v>
       </c>
       <c r="C23" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D23" t="n">
         <v>0.25</v>
       </c>
       <c r="E23" t="n">
-        <v>-0.25</v>
+        <v>0.25</v>
       </c>
       <c r="F23" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>left</t>
+          <t>right</t>
         </is>
       </c>
     </row>
@@ -6655,16 +6655,16 @@
         <v>22</v>
       </c>
       <c r="B24" t="n">
-        <v>0.05</v>
+        <v>0.029</v>
       </c>
       <c r="C24" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D24" t="n">
-        <v>-0.25</v>
+        <v>0</v>
       </c>
       <c r="E24" t="n">
-        <v>-0.25</v>
+        <v>0</v>
       </c>
       <c r="F24" t="n">
         <v>0</v>
@@ -6680,23 +6680,23 @@
         <v>23</v>
       </c>
       <c r="B25" t="n">
-        <v>0.029</v>
+        <v>0.017</v>
       </c>
       <c r="C25" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>-0.25</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G25" t="inlineStr">
         <is>
-          <t>left</t>
+          <t>right</t>
         </is>
       </c>
     </row>
@@ -6705,13 +6705,13 @@
         <v>24</v>
       </c>
       <c r="B26" t="n">
-        <v>0.029</v>
+        <v>0.05</v>
       </c>
       <c r="C26" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D26" t="n">
-        <v>-0.25</v>
+        <v>0.25</v>
       </c>
       <c r="E26" t="n">
         <v>0.25</v>
@@ -6730,10 +6730,10 @@
         <v>25</v>
       </c>
       <c r="B27" t="n">
-        <v>0.05</v>
+        <v>0.029</v>
       </c>
       <c r="C27" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D27" t="n">
         <v>0.25</v>
@@ -6742,11 +6742,11 @@
         <v>-0.25</v>
       </c>
       <c r="F27" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G27" t="inlineStr">
         <is>
-          <t>right</t>
+          <t>left</t>
         </is>
       </c>
     </row>
@@ -6758,13 +6758,13 @@
         <v>0.05</v>
       </c>
       <c r="C28" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D28" t="n">
         <v>0.25</v>
       </c>
       <c r="E28" t="n">
-        <v>-0.25</v>
+        <v>0.25</v>
       </c>
       <c r="F28" t="n">
         <v>0</v>
@@ -6786,17 +6786,17 @@
         <v>2</v>
       </c>
       <c r="D29" t="n">
-        <v>0</v>
+        <v>-0.25</v>
       </c>
       <c r="E29" t="n">
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="F29" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G29" t="inlineStr">
         <is>
-          <t>right</t>
+          <t>left</t>
         </is>
       </c>
     </row>
@@ -6805,7 +6805,7 @@
         <v>28</v>
       </c>
       <c r="B30" t="n">
-        <v>0.05</v>
+        <v>0.029</v>
       </c>
       <c r="C30" t="n">
         <v>3</v>
@@ -6814,7 +6814,7 @@
         <v>0.25</v>
       </c>
       <c r="E30" t="n">
-        <v>0.25</v>
+        <v>-0.25</v>
       </c>
       <c r="F30" t="n">
         <v>1</v>
@@ -6833,10 +6833,10 @@
         <v>0.017</v>
       </c>
       <c r="C31" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D31" t="n">
-        <v>-0.25</v>
+        <v>0.25</v>
       </c>
       <c r="E31" t="n">
         <v>-0.25</v>
@@ -6896,11 +6896,11 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>6.5</v>
+        <v>4.5</v>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>go_stimuli\puppy_9.jpg</t>
+          <t>go_stimuli\puppy_6.jpg</t>
         </is>
       </c>
       <c r="D2" t="n">
@@ -6917,11 +6917,11 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>4</v>
+        <v>5.5</v>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>go_stimuli\puppy_17.jpeg</t>
+          <t>go_stimuli\puppy_19.jpeg</t>
         </is>
       </c>
       <c r="D3" t="n">
@@ -6938,11 +6938,11 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>4.5</v>
+        <v>5.5</v>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>go_stimuli\puppy_23.jpeg</t>
+          <t>go_stimuli\puppy_9.jpg</t>
         </is>
       </c>
       <c r="D4" t="n">
@@ -6959,11 +6959,11 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>6</v>
+        <v>6.5</v>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>go_stimuli\puppy_1.jpg</t>
+          <t>go_stimuli\puppy_30.jpg</t>
         </is>
       </c>
       <c r="D5" t="n">
@@ -6980,11 +6980,11 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>6.5</v>
+        <v>4</v>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>go_stimuli\puppy_8.jpg</t>
+          <t>go_stimuli\puppy_14.jpeg</t>
         </is>
       </c>
       <c r="D6" t="n">
@@ -7001,11 +7001,11 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>go_stimuli\puppy_2.jpg</t>
+          <t>go_stimuli\puppy_10.jpg</t>
         </is>
       </c>
       <c r="D7" t="n">
@@ -7026,7 +7026,7 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>go_stimuli\puppy_16.jpeg</t>
+          <t>go_stimuli\puppy_7.jpg</t>
         </is>
       </c>
       <c r="D8" t="n">
@@ -7043,11 +7043,11 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>4.5</v>
+        <v>5</v>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>go_stimuli\puppy_24.jpeg</t>
+          <t>go_stimuli\puppy_29.jpg</t>
         </is>
       </c>
       <c r="D9" t="n">
@@ -7064,11 +7064,11 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>go_stimuli\puppy_11.jpeg</t>
+          <t>go_stimuli\puppy_18.jpeg</t>
         </is>
       </c>
       <c r="D10" t="n">
@@ -7085,11 +7085,11 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>6.5</v>
+        <v>6</v>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>go_stimuli\puppy_20.jpeg</t>
+          <t>go_stimuli\puppy_26.jpeg</t>
         </is>
       </c>
       <c r="D11" t="n">
@@ -7110,7 +7110,7 @@
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>go_stimuli\puppy_15.jpeg</t>
+          <t>go_stimuli\puppy_4.jpg</t>
         </is>
       </c>
       <c r="D12" t="n">
@@ -7127,11 +7127,11 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>go_stimuli\puppy_6.jpg</t>
+          <t>go_stimuli\puppy_17.jpeg</t>
         </is>
       </c>
       <c r="D13" t="n">
@@ -7148,11 +7148,11 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>6</v>
+        <v>5.5</v>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>go_stimuli\puppy_7.jpg</t>
+          <t>go_stimuli\puppy_27.jpg</t>
         </is>
       </c>
       <c r="D14" t="n">
@@ -7169,11 +7169,11 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>go_stimuli\puppy_19.jpeg</t>
+          <t>go_stimuli\puppy_24.jpeg</t>
         </is>
       </c>
       <c r="D15" t="n">
@@ -7190,11 +7190,11 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>6</v>
+        <v>5.5</v>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>go_stimuli\puppy_10.jpg</t>
+          <t>go_stimuli\puppy_1.jpg</t>
         </is>
       </c>
       <c r="D16" t="n">
@@ -7211,11 +7211,11 @@
         <v>15</v>
       </c>
       <c r="B17" t="n">
-        <v>4.5</v>
+        <v>5.5</v>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>go_stimuli\puppy_22.jpeg</t>
+          <t>go_stimuli\puppy_15.jpeg</t>
         </is>
       </c>
       <c r="D17" t="n">
@@ -7232,11 +7232,11 @@
         <v>16</v>
       </c>
       <c r="B18" t="n">
-        <v>5.5</v>
+        <v>4.5</v>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>go_stimuli\puppy_30.jpg</t>
+          <t>go_stimuli\puppy_22.jpeg</t>
         </is>
       </c>
       <c r="D18" t="n">
@@ -7253,11 +7253,11 @@
         <v>17</v>
       </c>
       <c r="B19" t="n">
-        <v>6</v>
+        <v>5.5</v>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>go_stimuli\puppy_27.jpg</t>
+          <t>go_stimuli\puppy_13.jpg</t>
         </is>
       </c>
       <c r="D19" t="n">
@@ -7274,7 +7274,7 @@
         <v>18</v>
       </c>
       <c r="B20" t="n">
-        <v>5.5</v>
+        <v>4</v>
       </c>
       <c r="C20" t="inlineStr">
         <is>
@@ -7295,11 +7295,11 @@
         <v>19</v>
       </c>
       <c r="B21" t="n">
-        <v>5</v>
+        <v>6.5</v>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>go_stimuli\puppy_21.jpeg</t>
+          <t>go_stimuli\puppy_16.jpeg</t>
         </is>
       </c>
       <c r="D21" t="n">
@@ -7357,11 +7357,11 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>go_stimuli\puppy_11.jpeg</t>
+          <t>go_stimuli\puppy_29.jpg</t>
         </is>
       </c>
       <c r="D2" t="n">
@@ -7378,11 +7378,11 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>go_stimuli\puppy_18.jpeg</t>
+          <t>go_stimuli\puppy_10.jpg</t>
         </is>
       </c>
       <c r="D3" t="n">
@@ -7399,11 +7399,11 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>6.5</v>
+        <v>4.5</v>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>no_go_stimuli\spider_23.jpg</t>
+          <t>no_go_stimuli\spider_13.jpeg</t>
         </is>
       </c>
       <c r="D4" t="n">
@@ -7420,19 +7420,19 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>4</v>
+        <v>6.5</v>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>no_go_stimuli\spider_8.jpeg</t>
+          <t>go_stimuli\puppy_26.jpeg</t>
         </is>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>space</t>
         </is>
       </c>
     </row>
@@ -7441,11 +7441,11 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>6</v>
+        <v>5.5</v>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>go_stimuli\puppy_7.jpg</t>
+          <t>go_stimuli\puppy_25.jpeg</t>
         </is>
       </c>
       <c r="D6" t="n">
@@ -7462,11 +7462,11 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>5.5</v>
+        <v>4.5</v>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>no_go_stimuli\spider_29.jpg</t>
+          <t>no_go_stimuli\spider_24.jpeg</t>
         </is>
       </c>
       <c r="D7" t="n">
@@ -7483,19 +7483,19 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>4.5</v>
+        <v>4</v>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>go_stimuli\puppy_23.jpeg</t>
+          <t>no_go_stimuli\spider_23.jpg</t>
         </is>
       </c>
       <c r="D8" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>space</t>
+          <t>None</t>
         </is>
       </c>
     </row>
@@ -7504,19 +7504,19 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>6.5</v>
+        <v>5.5</v>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>no_go_stimuli\spider_16.jpeg</t>
+          <t>go_stimuli\puppy_21.jpeg</t>
         </is>
       </c>
       <c r="D9" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>space</t>
         </is>
       </c>
     </row>
@@ -7525,11 +7525,11 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>4.5</v>
+        <v>6.5</v>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>no_go_stimuli\spider_7.jpeg</t>
+          <t>no_go_stimuli\spider_18.jpg</t>
         </is>
       </c>
       <c r="D10" t="n">
@@ -7546,11 +7546,11 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>5</v>
+        <v>5.5</v>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>go_stimuli\puppy_27.jpg</t>
+          <t>go_stimuli\puppy_5.jpg</t>
         </is>
       </c>
       <c r="D11" t="n">
@@ -7567,11 +7567,11 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>no_go_stimuli\spider_22.jpg</t>
+          <t>no_go_stimuli\spider_26.jpg</t>
         </is>
       </c>
       <c r="D12" t="n">
@@ -7588,19 +7588,19 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>5.5</v>
+        <v>4.5</v>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>no_go_stimuli\spider_30.jpg</t>
+          <t>go_stimuli\puppy_2.jpg</t>
         </is>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>space</t>
         </is>
       </c>
     </row>
@@ -7609,11 +7609,11 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>5</v>
+        <v>6.5</v>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>go_stimuli\puppy_12.jpeg</t>
+          <t>go_stimuli\puppy_23.jpeg</t>
         </is>
       </c>
       <c r="D14" t="n">
@@ -7630,19 +7630,19 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>4</v>
+        <v>4.5</v>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>no_go_stimuli\spider_21.jpg</t>
+          <t>go_stimuli\puppy_15.jpeg</t>
         </is>
       </c>
       <c r="D15" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>space</t>
         </is>
       </c>
     </row>
@@ -7651,11 +7651,11 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>5</v>
+        <v>5.5</v>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>no_go_stimuli\spider_2.jpeg</t>
+          <t>no_go_stimuli\spider_3.jpeg</t>
         </is>
       </c>
       <c r="D16" t="n">
@@ -7676,15 +7676,15 @@
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>go_stimuli\puppy_6.jpg</t>
+          <t>no_go_stimuli\spider_14.jpeg</t>
         </is>
       </c>
       <c r="D17" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>space</t>
+          <t>None</t>
         </is>
       </c>
     </row>
@@ -7693,11 +7693,11 @@
         <v>16</v>
       </c>
       <c r="B18" t="n">
-        <v>6</v>
+        <v>6.5</v>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>go_stimuli\puppy_1.jpg</t>
+          <t>go_stimuli\puppy_22.jpeg</t>
         </is>
       </c>
       <c r="D18" t="n">
@@ -7714,19 +7714,19 @@
         <v>17</v>
       </c>
       <c r="B19" t="n">
-        <v>6.5</v>
+        <v>5.5</v>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>go_stimuli\puppy_21.jpeg</t>
+          <t>no_go_stimuli\spider_20.jpg</t>
         </is>
       </c>
       <c r="D19" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>space</t>
+          <t>None</t>
         </is>
       </c>
     </row>
@@ -7735,11 +7735,11 @@
         <v>18</v>
       </c>
       <c r="B20" t="n">
-        <v>4</v>
+        <v>6.5</v>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>no_go_stimuli\spider_28.jpg</t>
+          <t>no_go_stimuli\spider_21.jpg</t>
         </is>
       </c>
       <c r="D20" t="n">
@@ -7760,15 +7760,15 @@
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>go_stimuli\puppy_3.jpg</t>
+          <t>no_go_stimuli\spider_22.jpg</t>
         </is>
       </c>
       <c r="D21" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>space</t>
+          <t>None</t>
         </is>
       </c>
     </row>
@@ -7818,10 +7818,10 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="C2" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D2" t="n">
         <v>1</v>
@@ -7837,10 +7837,10 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="C3" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
@@ -7856,10 +7856,10 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C4" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
@@ -7875,10 +7875,10 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C5" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D5" t="n">
         <v>0</v>
@@ -7894,10 +7894,10 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="C6" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D6" t="n">
         <v>0</v>
@@ -7913,17 +7913,17 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C7" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>left</t>
+          <t>right</t>
         </is>
       </c>
     </row>
@@ -7932,17 +7932,17 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="C8" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>left</t>
+          <t>right</t>
         </is>
       </c>
     </row>
@@ -7951,10 +7951,10 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="C9" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D9" t="n">
         <v>0</v>
@@ -7970,17 +7970,17 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="C10" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>left</t>
+          <t>right</t>
         </is>
       </c>
     </row>
@@ -7989,17 +7989,17 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C11" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D11" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>left</t>
+          <t>right</t>
         </is>
       </c>
     </row>
@@ -8008,17 +8008,17 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C12" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D12" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>right</t>
+          <t>left</t>
         </is>
       </c>
     </row>
@@ -8027,10 +8027,10 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="C13" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D13" t="n">
         <v>1</v>
@@ -8049,14 +8049,14 @@
         <v>2</v>
       </c>
       <c r="C14" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D14" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>right</t>
+          <t>left</t>
         </is>
       </c>
     </row>
@@ -8065,10 +8065,10 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C15" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D15" t="n">
         <v>0</v>
@@ -8084,10 +8084,10 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D16" t="n">
         <v>0</v>
@@ -8103,10 +8103,10 @@
         <v>15</v>
       </c>
       <c r="B17" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="C17" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D17" t="n">
         <v>1</v>
@@ -8122,10 +8122,10 @@
         <v>16</v>
       </c>
       <c r="B18" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="C18" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D18" t="n">
         <v>1</v>
@@ -8141,17 +8141,17 @@
         <v>17</v>
       </c>
       <c r="B19" t="n">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="C19" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D19" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>right</t>
+          <t>left</t>
         </is>
       </c>
     </row>
@@ -8160,17 +8160,17 @@
         <v>18</v>
       </c>
       <c r="B20" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C20" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D20" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>right</t>
+          <t>left</t>
         </is>
       </c>
     </row>
@@ -8179,10 +8179,10 @@
         <v>19</v>
       </c>
       <c r="B21" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="C21" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D21" t="n">
         <v>0</v>
@@ -8239,17 +8239,17 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="C2" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>left</t>
+          <t>right</t>
         </is>
       </c>
     </row>
@@ -8258,10 +8258,10 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="C3" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
@@ -8277,17 +8277,17 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C4" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D4" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>right</t>
+          <t>left</t>
         </is>
       </c>
     </row>
@@ -8296,17 +8296,17 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C5" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D5" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>right</t>
+          <t>left</t>
         </is>
       </c>
     </row>
@@ -8315,10 +8315,10 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="C6" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D6" t="n">
         <v>0</v>
@@ -8334,10 +8334,10 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C7" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D7" t="n">
         <v>1</v>
@@ -8353,10 +8353,10 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C8" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D8" t="n">
         <v>1</v>
@@ -8372,17 +8372,17 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C9" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D9" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>left</t>
+          <t>right</t>
         </is>
       </c>
     </row>
@@ -8391,10 +8391,10 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C10" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D10" t="n">
         <v>1</v>
@@ -8410,10 +8410,10 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C11" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D11" t="n">
         <v>0</v>
@@ -8429,10 +8429,10 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C12" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D12" t="n">
         <v>1</v>
@@ -8448,17 +8448,17 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="C13" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>left</t>
+          <t>right</t>
         </is>
       </c>
     </row>
@@ -8467,17 +8467,17 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="C14" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D14" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>left</t>
+          <t>right</t>
         </is>
       </c>
     </row>
@@ -8486,10 +8486,10 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="C15" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D15" t="n">
         <v>0</v>
@@ -8505,17 +8505,17 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="C16" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D16" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>right</t>
+          <t>left</t>
         </is>
       </c>
     </row>
@@ -8524,10 +8524,10 @@
         <v>15</v>
       </c>
       <c r="B17" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C17" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D17" t="n">
         <v>0</v>
@@ -8543,10 +8543,10 @@
         <v>16</v>
       </c>
       <c r="B18" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="C18" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D18" t="n">
         <v>0</v>
@@ -8562,10 +8562,10 @@
         <v>17</v>
       </c>
       <c r="B19" t="n">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="C19" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D19" t="n">
         <v>0</v>
@@ -8581,10 +8581,10 @@
         <v>18</v>
       </c>
       <c r="B20" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C20" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D20" t="n">
         <v>1</v>
@@ -8600,10 +8600,10 @@
         <v>19</v>
       </c>
       <c r="B21" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C21" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D21" t="n">
         <v>0</v>
@@ -8660,17 +8660,17 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C2" t="n">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>left</t>
+          <t>right</t>
         </is>
       </c>
     </row>
@@ -8679,10 +8679,10 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="C3" t="n">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="D3" t="n">
         <v>1</v>
@@ -8698,17 +8698,17 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C4" t="n">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="D4" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>right</t>
+          <t>left</t>
         </is>
       </c>
     </row>
@@ -8717,17 +8717,17 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="C5" t="n">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>left</t>
+          <t>right</t>
         </is>
       </c>
     </row>
@@ -8736,17 +8736,17 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="C6" t="n">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="D6" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>right</t>
+          <t>left</t>
         </is>
       </c>
     </row>
@@ -8755,10 +8755,10 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="C7" t="n">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="D7" t="n">
         <v>0</v>
@@ -8774,10 +8774,10 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="C8" t="n">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="D8" t="n">
         <v>1</v>
@@ -8793,17 +8793,17 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="C9" t="n">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="D9" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>right</t>
+          <t>left</t>
         </is>
       </c>
     </row>
@@ -8812,10 +8812,10 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="C10" t="n">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="D10" t="n">
         <v>1</v>
@@ -8831,17 +8831,17 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="C11" t="n">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="D11" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>left</t>
+          <t>right</t>
         </is>
       </c>
     </row>
@@ -8850,17 +8850,17 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="C12" t="n">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="D12" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>left</t>
+          <t>right</t>
         </is>
       </c>
     </row>
@@ -8869,10 +8869,10 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="C13" t="n">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="D13" t="n">
         <v>0</v>
@@ -8888,17 +8888,17 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="C14" t="n">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="D14" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>left</t>
+          <t>right</t>
         </is>
       </c>
     </row>
@@ -8907,17 +8907,17 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="C15" t="n">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="D15" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>right</t>
+          <t>left</t>
         </is>
       </c>
     </row>
@@ -8926,17 +8926,17 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C16" t="n">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="D16" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>right</t>
+          <t>left</t>
         </is>
       </c>
     </row>
@@ -8945,10 +8945,10 @@
         <v>15</v>
       </c>
       <c r="B17" t="n">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="C17" t="n">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="D17" t="n">
         <v>0</v>
@@ -8967,7 +8967,7 @@
         <v>8</v>
       </c>
       <c r="C18" t="n">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="D18" t="n">
         <v>0</v>
@@ -8983,10 +8983,10 @@
         <v>17</v>
       </c>
       <c r="B19" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="C19" t="n">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="D19" t="n">
         <v>0</v>
@@ -9002,17 +9002,17 @@
         <v>18</v>
       </c>
       <c r="B20" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C20" t="n">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="D20" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>right</t>
+          <t>left</t>
         </is>
       </c>
     </row>
@@ -9021,10 +9021,10 @@
         <v>19</v>
       </c>
       <c r="B21" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C21" t="n">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="D21" t="n">
         <v>0</v>
@@ -9076,7 +9076,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
@@ -9092,7 +9092,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="C3" t="n">
         <v>1</v>
@@ -9108,7 +9108,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -9140,14 +9140,14 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="C6" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>right</t>
+          <t>left</t>
         </is>
       </c>
     </row>
@@ -9156,7 +9156,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C7" t="n">
         <v>0</v>
@@ -9172,7 +9172,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C8" t="n">
         <v>0</v>
@@ -9188,14 +9188,14 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="C9" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>left</t>
+          <t>right</t>
         </is>
       </c>
     </row>
@@ -9204,14 +9204,14 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>left</t>
+          <t>right</t>
         </is>
       </c>
     </row>
@@ -9220,14 +9220,14 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="C11" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>right</t>
+          <t>left</t>
         </is>
       </c>
     </row>
@@ -9236,7 +9236,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C12" t="n">
         <v>0</v>
@@ -9252,14 +9252,14 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>left</t>
+          <t>right</t>
         </is>
       </c>
     </row>
@@ -9268,14 +9268,14 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C14" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>left</t>
+          <t>right</t>
         </is>
       </c>
     </row>
@@ -9284,7 +9284,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C15" t="n">
         <v>1</v>
@@ -9300,14 +9300,14 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C16" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>right</t>
+          <t>left</t>
         </is>
       </c>
     </row>
@@ -9316,14 +9316,14 @@
         <v>15</v>
       </c>
       <c r="B17" t="n">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="C17" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>right</t>
+          <t>left</t>
         </is>
       </c>
     </row>
@@ -9332,7 +9332,7 @@
         <v>16</v>
       </c>
       <c r="B18" t="n">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="C18" t="n">
         <v>1</v>
@@ -9348,7 +9348,7 @@
         <v>17</v>
       </c>
       <c r="B19" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C19" t="n">
         <v>0</v>
@@ -9364,7 +9364,7 @@
         <v>18</v>
       </c>
       <c r="B20" t="n">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="C20" t="n">
         <v>0</v>
@@ -9380,7 +9380,7 @@
         <v>19</v>
       </c>
       <c r="B21" t="n">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="C21" t="n">
         <v>1</v>
@@ -9432,7 +9432,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
@@ -9448,14 +9448,14 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>left</t>
+          <t>right</t>
         </is>
       </c>
     </row>
@@ -9464,7 +9464,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -9480,14 +9480,14 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="C5" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>right</t>
+          <t>left</t>
         </is>
       </c>
     </row>
@@ -9496,14 +9496,14 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C6" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>right</t>
+          <t>left</t>
         </is>
       </c>
     </row>
@@ -9512,7 +9512,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C7" t="n">
         <v>1</v>
@@ -9528,14 +9528,14 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>left</t>
+          <t>right</t>
         </is>
       </c>
     </row>
@@ -9544,14 +9544,14 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="C9" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>right</t>
+          <t>left</t>
         </is>
       </c>
     </row>
@@ -9560,14 +9560,14 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="C10" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>right</t>
+          <t>left</t>
         </is>
       </c>
     </row>
@@ -9576,7 +9576,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="C11" t="n">
         <v>0</v>
@@ -9592,14 +9592,14 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="C12" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>left</t>
+          <t>right</t>
         </is>
       </c>
     </row>
@@ -9608,14 +9608,14 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>left</t>
+          <t>right</t>
         </is>
       </c>
     </row>
@@ -9627,11 +9627,11 @@
         <v>0</v>
       </c>
       <c r="C14" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>right</t>
+          <t>left</t>
         </is>
       </c>
     </row>
@@ -9640,14 +9640,14 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="C15" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>right</t>
+          <t>left</t>
         </is>
       </c>
     </row>
@@ -9656,14 +9656,14 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>left</t>
+          <t>right</t>
         </is>
       </c>
     </row>
@@ -9675,11 +9675,11 @@
         <v>7</v>
       </c>
       <c r="C17" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>left</t>
+          <t>right</t>
         </is>
       </c>
     </row>
@@ -9688,7 +9688,7 @@
         <v>16</v>
       </c>
       <c r="B18" t="n">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="C18" t="n">
         <v>0</v>
@@ -9704,7 +9704,7 @@
         <v>17</v>
       </c>
       <c r="B19" t="n">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="C19" t="n">
         <v>0</v>
@@ -9720,14 +9720,14 @@
         <v>18</v>
       </c>
       <c r="B20" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C20" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>left</t>
+          <t>right</t>
         </is>
       </c>
     </row>
@@ -9739,11 +9739,11 @@
         <v>2</v>
       </c>
       <c r="C21" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>right</t>
+          <t>left</t>
         </is>
       </c>
     </row>

--- a/participants/participant_44/participant_44_conditions.xlsx
+++ b/participants/participant_44/participant_44_conditions.xlsx
@@ -7,29 +7,29 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="go_stims-16504778869734414" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet name="GNG_stims-16504778869964385" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet name="go_stims-1650477886997439" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet name="GNG_stims-16504778870120165" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet name="ZB-match_5-16504778870340207" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet name="ZB-match_3-16504778871070518" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet name="ZB-match_5-16504778872350192" sheetId="7" state="visible" r:id="rId7"/>
-    <sheet name="OB-16504778872720516" sheetId="8" state="visible" r:id="rId8"/>
-    <sheet name="OB-16504778873950171" sheetId="9" state="visible" r:id="rId9"/>
-    <sheet name="OB-1650477887459022" sheetId="10" state="visible" r:id="rId10"/>
-    <sheet name="TB-16504778875240204" sheetId="11" state="visible" r:id="rId11"/>
-    <sheet name="TB-16504778875820217" sheetId="12" state="visible" r:id="rId12"/>
-    <sheet name="TB-16504778876550527" sheetId="13" state="visible" r:id="rId13"/>
-    <sheet name="ZM_stims-16504778876800177" sheetId="14" state="visible" r:id="rId14"/>
-    <sheet name="MM_stims-16504778876920488" sheetId="15" state="visible" r:id="rId15"/>
-    <sheet name="ZM_stims-16504778876930199" sheetId="16" state="visible" r:id="rId16"/>
-    <sheet name="MM_stims-16504778877080512" sheetId="17" state="visible" r:id="rId17"/>
-    <sheet name="ZM_stims-16504778877090197" sheetId="18" state="visible" r:id="rId18"/>
-    <sheet name="MM_stims-16504778877240498" sheetId="19" state="visible" r:id="rId19"/>
-    <sheet name="SAT_stims-16504778877280247" sheetId="20" state="visible" r:id="rId20"/>
-    <sheet name="SAT_stims-1650477887740017" sheetId="21" state="visible" r:id="rId21"/>
-    <sheet name="vSAT_stims-16504778877560515" sheetId="22" state="visible" r:id="rId22"/>
-    <sheet name="vSAT_stims-16504778877720494" sheetId="23" state="visible" r:id="rId23"/>
+    <sheet name="go_stims-16509961855647092" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="GNG_stims-16509961855807104" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="go_stims-16509961855807104" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet name="GNG_stims-1650996185596717" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet name="ZB-match_1-16509961856127052" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet name="ZB-match_8-16509961857648528" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet name="ZB-match_0-16509961862128587" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet name="OB-16509961865088506" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet name="OB-16509961867968934" sheetId="9" state="visible" r:id="rId9"/>
+    <sheet name="OB-16509961871088865" sheetId="10" state="visible" r:id="rId10"/>
+    <sheet name="TB-16509961878848526" sheetId="11" state="visible" r:id="rId11"/>
+    <sheet name="TB-16509961879648504" sheetId="12" state="visible" r:id="rId12"/>
+    <sheet name="TB-16509961881968522" sheetId="13" state="visible" r:id="rId13"/>
+    <sheet name="ZM_stims-16509961882208536" sheetId="14" state="visible" r:id="rId14"/>
+    <sheet name="MM_stims-16509961882448866" sheetId="15" state="visible" r:id="rId15"/>
+    <sheet name="ZM_stims-16509961882448866" sheetId="16" state="visible" r:id="rId16"/>
+    <sheet name="MM_stims-16509961882608871" sheetId="17" state="visible" r:id="rId17"/>
+    <sheet name="ZM_stims-16509961882608871" sheetId="18" state="visible" r:id="rId18"/>
+    <sheet name="MM_stims-16509961882848895" sheetId="19" state="visible" r:id="rId19"/>
+    <sheet name="SAT_stims-16509961882848895" sheetId="20" state="visible" r:id="rId20"/>
+    <sheet name="SAT_stims-16509961883008556" sheetId="21" state="visible" r:id="rId21"/>
+    <sheet name="vSAT_stims-16509961883168945" sheetId="22" state="visible" r:id="rId22"/>
+    <sheet name="vSAT_stims-1650996188332888" sheetId="23" state="visible" r:id="rId23"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -463,7 +463,7 @@
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
-          <t>go_stim</t>
+          <t>GNG_stim</t>
         </is>
       </c>
       <c r="D1" s="1" t="inlineStr">
@@ -482,11 +482,11 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>4.5</v>
+        <v>6</v>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>go_stimuli\puppy_18.jpeg</t>
+          <t>go_stimuli\puppy_26.jpeg</t>
         </is>
       </c>
       <c r="D2" t="n">
@@ -503,11 +503,11 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>4.5</v>
+        <v>6.5</v>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>go_stimuli\puppy_1.jpg</t>
+          <t>go_stimuli\puppy_24.jpeg</t>
         </is>
       </c>
       <c r="D3" t="n">
@@ -524,11 +524,11 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>go_stimuli\puppy_2.jpg</t>
+          <t>go_stimuli\puppy_17.jpeg</t>
         </is>
       </c>
       <c r="D4" t="n">
@@ -545,11 +545,11 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>5.5</v>
+        <v>4.5</v>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>go_stimuli\puppy_28.jpg</t>
+          <t>go_stimuli\puppy_11.jpeg</t>
         </is>
       </c>
       <c r="D5" t="n">
@@ -566,11 +566,11 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>4.5</v>
+        <v>4</v>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>go_stimuli\puppy_24.jpeg</t>
+          <t>go_stimuli\puppy_25.jpeg</t>
         </is>
       </c>
       <c r="D6" t="n">
@@ -587,11 +587,11 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>6</v>
+        <v>6.5</v>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>go_stimuli\puppy_7.jpg</t>
+          <t>go_stimuli\puppy_10.jpg</t>
         </is>
       </c>
       <c r="D7" t="n">
@@ -608,11 +608,11 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>4</v>
+        <v>5.5</v>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>go_stimuli\puppy_26.jpeg</t>
+          <t>go_stimuli\puppy_28.jpg</t>
         </is>
       </c>
       <c r="D8" t="n">
@@ -629,11 +629,11 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>4</v>
+        <v>5.5</v>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>go_stimuli\puppy_13.jpg</t>
+          <t>go_stimuli\puppy_6.jpg</t>
         </is>
       </c>
       <c r="D9" t="n">
@@ -654,7 +654,7 @@
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>go_stimuli\puppy_17.jpeg</t>
+          <t>go_stimuli\puppy_12.jpeg</t>
         </is>
       </c>
       <c r="D10" t="n">
@@ -671,11 +671,11 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>5</v>
+        <v>6.5</v>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>go_stimuli\puppy_25.jpeg</t>
+          <t>go_stimuli\puppy_1.jpg</t>
         </is>
       </c>
       <c r="D11" t="n">
@@ -696,7 +696,7 @@
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>go_stimuli\puppy_12.jpeg</t>
+          <t>go_stimuli\puppy_2.jpg</t>
         </is>
       </c>
       <c r="D12" t="n">
@@ -713,11 +713,11 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>go_stimuli\puppy_3.jpg</t>
+          <t>go_stimuli\puppy_23.jpeg</t>
         </is>
       </c>
       <c r="D13" t="n">
@@ -734,11 +734,11 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>5</v>
+        <v>6.5</v>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>go_stimuli\puppy_30.jpg</t>
+          <t>go_stimuli\puppy_9.jpg</t>
         </is>
       </c>
       <c r="D14" t="n">
@@ -755,11 +755,11 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>5.5</v>
+        <v>6</v>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>go_stimuli\puppy_16.jpeg</t>
+          <t>go_stimuli\puppy_18.jpeg</t>
         </is>
       </c>
       <c r="D15" t="n">
@@ -776,11 +776,11 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>4</v>
+        <v>5.5</v>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>go_stimuli\puppy_22.jpeg</t>
+          <t>go_stimuli\puppy_19.jpeg</t>
         </is>
       </c>
       <c r="D16" t="n">
@@ -797,11 +797,11 @@
         <v>15</v>
       </c>
       <c r="B17" t="n">
-        <v>4.5</v>
+        <v>6</v>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>go_stimuli\puppy_4.jpg</t>
+          <t>go_stimuli\puppy_14.jpeg</t>
         </is>
       </c>
       <c r="D17" t="n">
@@ -818,11 +818,11 @@
         <v>16</v>
       </c>
       <c r="B18" t="n">
-        <v>4.5</v>
+        <v>5.5</v>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>go_stimuli\puppy_20.jpeg</t>
+          <t>go_stimuli\puppy_22.jpeg</t>
         </is>
       </c>
       <c r="D18" t="n">
@@ -839,11 +839,11 @@
         <v>17</v>
       </c>
       <c r="B19" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>go_stimuli\puppy_9.jpg</t>
+          <t>go_stimuli\puppy_7.jpg</t>
         </is>
       </c>
       <c r="D19" t="n">
@@ -860,11 +860,11 @@
         <v>18</v>
       </c>
       <c r="B20" t="n">
-        <v>6.5</v>
+        <v>4.5</v>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>go_stimuli\puppy_23.jpeg</t>
+          <t>go_stimuli\puppy_3.jpg</t>
         </is>
       </c>
       <c r="D20" t="n">
@@ -885,7 +885,7 @@
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>go_stimuli\puppy_10.jpg</t>
+          <t>go_stimuli\puppy_15.jpeg</t>
         </is>
       </c>
       <c r="D21" t="n">
@@ -938,7 +938,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
@@ -954,7 +954,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -970,14 +970,14 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>left</t>
+          <t>right</t>
         </is>
       </c>
     </row>
@@ -986,14 +986,14 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>left</t>
+          <t>right</t>
         </is>
       </c>
     </row>
@@ -1002,7 +1002,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="C6" t="n">
         <v>1</v>
@@ -1018,7 +1018,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="C7" t="n">
         <v>1</v>
@@ -1034,7 +1034,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C8" t="n">
         <v>0</v>
@@ -1050,14 +1050,14 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="C9" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>right</t>
+          <t>left</t>
         </is>
       </c>
     </row>
@@ -1066,14 +1066,14 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>left</t>
+          <t>right</t>
         </is>
       </c>
     </row>
@@ -1085,11 +1085,11 @@
         <v>8</v>
       </c>
       <c r="C11" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>right</t>
+          <t>left</t>
         </is>
       </c>
     </row>
@@ -1098,7 +1098,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C12" t="n">
         <v>0</v>
@@ -1114,7 +1114,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C13" t="n">
         <v>0</v>
@@ -1130,7 +1130,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C14" t="n">
         <v>1</v>
@@ -1149,11 +1149,11 @@
         <v>6</v>
       </c>
       <c r="C15" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>right</t>
+          <t>left</t>
         </is>
       </c>
     </row>
@@ -1162,7 +1162,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="C16" t="n">
         <v>0</v>
@@ -1181,11 +1181,11 @@
         <v>5</v>
       </c>
       <c r="C17" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>left</t>
+          <t>right</t>
         </is>
       </c>
     </row>
@@ -1210,14 +1210,14 @@
         <v>17</v>
       </c>
       <c r="B19" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C19" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>right</t>
+          <t>left</t>
         </is>
       </c>
     </row>
@@ -1226,7 +1226,7 @@
         <v>18</v>
       </c>
       <c r="B20" t="n">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="C20" t="n">
         <v>0</v>
@@ -1242,7 +1242,7 @@
         <v>19</v>
       </c>
       <c r="B21" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="C21" t="n">
         <v>0</v>
@@ -1294,7 +1294,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
@@ -1310,7 +1310,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -1326,14 +1326,14 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>left</t>
+          <t>right</t>
         </is>
       </c>
     </row>
@@ -1342,14 +1342,14 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C5" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>right</t>
+          <t>left</t>
         </is>
       </c>
     </row>
@@ -1358,7 +1358,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C6" t="n">
         <v>0</v>
@@ -1374,14 +1374,14 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="C7" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>right</t>
+          <t>left</t>
         </is>
       </c>
     </row>
@@ -1390,14 +1390,14 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>left</t>
+          <t>right</t>
         </is>
       </c>
     </row>
@@ -1409,11 +1409,11 @@
         <v>1</v>
       </c>
       <c r="C9" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>right</t>
+          <t>left</t>
         </is>
       </c>
     </row>
@@ -1422,7 +1422,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="C10" t="n">
         <v>1</v>
@@ -1438,14 +1438,14 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="C11" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>left</t>
+          <t>right</t>
         </is>
       </c>
     </row>
@@ -1454,14 +1454,14 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="C12" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>left</t>
+          <t>right</t>
         </is>
       </c>
     </row>
@@ -1470,14 +1470,14 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="C13" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>right</t>
+          <t>left</t>
         </is>
       </c>
     </row>
@@ -1486,7 +1486,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="C14" t="n">
         <v>1</v>
@@ -1502,14 +1502,14 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C15" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>left</t>
+          <t>right</t>
         </is>
       </c>
     </row>
@@ -1518,7 +1518,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="C16" t="n">
         <v>0</v>
@@ -1534,7 +1534,7 @@
         <v>15</v>
       </c>
       <c r="B17" t="n">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="C17" t="n">
         <v>0</v>
@@ -1550,14 +1550,14 @@
         <v>16</v>
       </c>
       <c r="B18" t="n">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="C18" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>right</t>
+          <t>left</t>
         </is>
       </c>
     </row>
@@ -1566,14 +1566,14 @@
         <v>17</v>
       </c>
       <c r="B19" t="n">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>left</t>
+          <t>right</t>
         </is>
       </c>
     </row>
@@ -1582,7 +1582,7 @@
         <v>18</v>
       </c>
       <c r="B20" t="n">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="C20" t="n">
         <v>0</v>
@@ -1598,14 +1598,14 @@
         <v>19</v>
       </c>
       <c r="B21" t="n">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="C21" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>right</t>
+          <t>left</t>
         </is>
       </c>
     </row>
@@ -1650,7 +1650,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
@@ -1666,7 +1666,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -1682,7 +1682,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="C4" t="n">
         <v>1</v>
@@ -1698,14 +1698,14 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>left</t>
+          <t>right</t>
         </is>
       </c>
     </row>
@@ -1717,11 +1717,11 @@
         <v>4</v>
       </c>
       <c r="C6" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>right</t>
+          <t>left</t>
         </is>
       </c>
     </row>
@@ -1730,14 +1730,14 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C7" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>right</t>
+          <t>left</t>
         </is>
       </c>
     </row>
@@ -1746,7 +1746,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C8" t="n">
         <v>0</v>
@@ -1762,14 +1762,14 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C9" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>left</t>
+          <t>right</t>
         </is>
       </c>
     </row>
@@ -1778,14 +1778,14 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>left</t>
+          <t>right</t>
         </is>
       </c>
     </row>
@@ -1794,14 +1794,14 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C11" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>right</t>
+          <t>left</t>
         </is>
       </c>
     </row>
@@ -1826,14 +1826,14 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C13" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>right</t>
+          <t>left</t>
         </is>
       </c>
     </row>
@@ -1842,14 +1842,14 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="C14" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>right</t>
+          <t>left</t>
         </is>
       </c>
     </row>
@@ -1858,14 +1858,14 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C15" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>left</t>
+          <t>right</t>
         </is>
       </c>
     </row>
@@ -1874,7 +1874,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="C16" t="n">
         <v>1</v>
@@ -1890,14 +1890,14 @@
         <v>15</v>
       </c>
       <c r="B17" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C17" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>right</t>
+          <t>left</t>
         </is>
       </c>
     </row>
@@ -1906,14 +1906,14 @@
         <v>16</v>
       </c>
       <c r="B18" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="C18" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>left</t>
+          <t>right</t>
         </is>
       </c>
     </row>
@@ -1922,7 +1922,7 @@
         <v>17</v>
       </c>
       <c r="B19" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C19" t="n">
         <v>0</v>
@@ -1938,14 +1938,14 @@
         <v>18</v>
       </c>
       <c r="B20" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C20" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>left</t>
+          <t>right</t>
         </is>
       </c>
     </row>
@@ -1954,7 +1954,7 @@
         <v>19</v>
       </c>
       <c r="B21" t="n">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="C21" t="n">
         <v>0</v>
@@ -2006,7 +2006,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
@@ -2022,7 +2022,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -2038,7 +2038,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -2054,7 +2054,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="C5" t="n">
         <v>1</v>
@@ -2070,7 +2070,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C6" t="n">
         <v>1</v>
@@ -2086,14 +2086,14 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C7" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>right</t>
+          <t>left</t>
         </is>
       </c>
     </row>
@@ -2118,14 +2118,14 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C9" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>right</t>
+          <t>left</t>
         </is>
       </c>
     </row>
@@ -2134,14 +2134,14 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>left</t>
+          <t>right</t>
         </is>
       </c>
     </row>
@@ -2150,7 +2150,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C11" t="n">
         <v>1</v>
@@ -2166,14 +2166,14 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="C12" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>right</t>
+          <t>left</t>
         </is>
       </c>
     </row>
@@ -2182,7 +2182,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C13" t="n">
         <v>0</v>
@@ -2198,14 +2198,14 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C14" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>left</t>
+          <t>right</t>
         </is>
       </c>
     </row>
@@ -2214,7 +2214,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C15" t="n">
         <v>1</v>
@@ -2230,7 +2230,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="C16" t="n">
         <v>0</v>
@@ -2246,7 +2246,7 @@
         <v>15</v>
       </c>
       <c r="B17" t="n">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="C17" t="n">
         <v>0</v>
@@ -2262,14 +2262,14 @@
         <v>16</v>
       </c>
       <c r="B18" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="C18" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>left</t>
+          <t>right</t>
         </is>
       </c>
     </row>
@@ -2278,14 +2278,14 @@
         <v>17</v>
       </c>
       <c r="B19" t="n">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>left</t>
+          <t>right</t>
         </is>
       </c>
     </row>
@@ -2294,14 +2294,14 @@
         <v>18</v>
       </c>
       <c r="B20" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="C20" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>right</t>
+          <t>left</t>
         </is>
       </c>
     </row>
@@ -2310,14 +2310,14 @@
         <v>19</v>
       </c>
       <c r="B21" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C21" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>right</t>
+          <t>left</t>
         </is>
       </c>
     </row>
@@ -2363,7 +2363,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>zero_move_stimuli\zero_move_5.jpg</t>
+          <t>zero_move_stimuli\zero_move_1.jpg</t>
         </is>
       </c>
       <c r="C2" t="n">
@@ -2381,7 +2381,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>zero_move_stimuli\zero_move_1.jpg</t>
+          <t>zero_move_stimuli\zero_move_6.jpg</t>
         </is>
       </c>
       <c r="C3" t="n">
@@ -2399,7 +2399,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>zero_move_stimuli\zero_move_3.jpg</t>
+          <t>zero_move_stimuli\zero_move_2.jpg</t>
         </is>
       </c>
       <c r="C4" t="n">
@@ -2417,7 +2417,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>zero_move_stimuli\zero_move_2.jpg</t>
+          <t>zero_move_stimuli\zero_move_5.jpg</t>
         </is>
       </c>
       <c r="C5" t="n">
@@ -2435,7 +2435,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>zero_move_stimuli\zero_move_6.jpg</t>
+          <t>zero_move_stimuli\zero_move_4.jpg</t>
         </is>
       </c>
       <c r="C6" t="n">
@@ -2453,7 +2453,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>zero_move_stimuli\zero_move_4.jpg</t>
+          <t>zero_move_stimuli\zero_move_3.jpg</t>
         </is>
       </c>
       <c r="C7" t="n">
@@ -2507,7 +2507,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>multi_move_stimuli\stim_not_two_move\stim_not_two_move_6.jpg</t>
+          <t>multi_move_stimuli\stim_not_two_move\stim_not_two_move_5.jpg</t>
         </is>
       </c>
       <c r="C2" t="n">
@@ -2525,7 +2525,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>multi_move_stimuli\stim_two_move\stim_two_move_4.jpg</t>
+          <t>multi_move_stimuli\stim_two_move\stim_two_move_1.jpg</t>
         </is>
       </c>
       <c r="C3" t="n">
@@ -2543,15 +2543,15 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>multi_move_stimuli\stim_not_two_move\stim_not_two_move_4.jpg</t>
+          <t>multi_move_stimuli\stim_two_move\stim_two_move_5.jpg</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>left</t>
+          <t>right</t>
         </is>
       </c>
     </row>
@@ -2561,7 +2561,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>multi_move_stimuli\stim_not_two_move\stim_not_two_move_3.jpg</t>
+          <t>multi_move_stimuli\stim_not_two_move\stim_not_two_move_4.jpg</t>
         </is>
       </c>
       <c r="C5" t="n">
@@ -2579,15 +2579,15 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>multi_move_stimuli\stim_two_move\stim_two_move_2.jpg</t>
+          <t>multi_move_stimuli\stim_not_two_move\stim_not_two_move_3.jpg</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>right</t>
+          <t>left</t>
         </is>
       </c>
     </row>
@@ -2597,7 +2597,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>multi_move_stimuli\stim_two_move\stim_two_move_1.jpg</t>
+          <t>multi_move_stimuli\stim_two_move\stim_two_move_3.jpg</t>
         </is>
       </c>
       <c r="C7" t="n">
@@ -2651,7 +2651,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>zero_move_stimuli\zero_move_3.jpg</t>
+          <t>zero_move_stimuli\zero_move_4.jpg</t>
         </is>
       </c>
       <c r="C2" t="n">
@@ -2669,7 +2669,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>zero_move_stimuli\zero_move_2.jpg</t>
+          <t>zero_move_stimuli\zero_move_5.jpg</t>
         </is>
       </c>
       <c r="C3" t="n">
@@ -2687,7 +2687,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>zero_move_stimuli\zero_move_1.jpg</t>
+          <t>zero_move_stimuli\zero_move_2.jpg</t>
         </is>
       </c>
       <c r="C4" t="n">
@@ -2705,7 +2705,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>zero_move_stimuli\zero_move_5.jpg</t>
+          <t>zero_move_stimuli\zero_move_3.jpg</t>
         </is>
       </c>
       <c r="C5" t="n">
@@ -2723,7 +2723,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>zero_move_stimuli\zero_move_6.jpg</t>
+          <t>zero_move_stimuli\zero_move_1.jpg</t>
         </is>
       </c>
       <c r="C6" t="n">
@@ -2741,7 +2741,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>zero_move_stimuli\zero_move_4.jpg</t>
+          <t>zero_move_stimuli\zero_move_6.jpg</t>
         </is>
       </c>
       <c r="C7" t="n">
@@ -2795,15 +2795,15 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>multi_move_stimuli\stim_not_two_move\stim_not_two_move_3.jpg</t>
+          <t>multi_move_stimuli\stim_two_move\stim_two_move_1.jpg</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>left</t>
+          <t>right</t>
         </is>
       </c>
     </row>
@@ -2813,7 +2813,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>multi_move_stimuli\stim_not_two_move\stim_not_two_move_1.jpg</t>
+          <t>multi_move_stimuli\stim_not_two_move\stim_not_two_move_3.jpg</t>
         </is>
       </c>
       <c r="C3" t="n">
@@ -2831,7 +2831,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>multi_move_stimuli\stim_two_move\stim_two_move_2.jpg</t>
+          <t>multi_move_stimuli\stim_two_move\stim_two_move_3.jpg</t>
         </is>
       </c>
       <c r="C4" t="n">
@@ -2849,15 +2849,15 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>multi_move_stimuli\stim_two_move\stim_two_move_3.jpg</t>
+          <t>multi_move_stimuli\stim_not_two_move\stim_not_two_move_5.jpg</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>right</t>
+          <t>left</t>
         </is>
       </c>
     </row>
@@ -2867,15 +2867,15 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>multi_move_stimuli\stim_two_move\stim_two_move_1.jpg</t>
+          <t>multi_move_stimuli\stim_not_two_move\stim_not_two_move_6.jpg</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>right</t>
+          <t>left</t>
         </is>
       </c>
     </row>
@@ -2885,15 +2885,15 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>multi_move_stimuli\stim_not_two_move\stim_not_two_move_4.jpg</t>
+          <t>multi_move_stimuli\stim_two_move\stim_two_move_2.jpg</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>left</t>
+          <t>right</t>
         </is>
       </c>
     </row>
@@ -2939,7 +2939,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>zero_move_stimuli\zero_move_3.jpg</t>
+          <t>zero_move_stimuli\zero_move_2.jpg</t>
         </is>
       </c>
       <c r="C2" t="n">
@@ -2957,7 +2957,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>zero_move_stimuli\zero_move_6.jpg</t>
+          <t>zero_move_stimuli\zero_move_3.jpg</t>
         </is>
       </c>
       <c r="C3" t="n">
@@ -2975,7 +2975,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>zero_move_stimuli\zero_move_2.jpg</t>
+          <t>zero_move_stimuli\zero_move_6.jpg</t>
         </is>
       </c>
       <c r="C4" t="n">
@@ -2993,7 +2993,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>zero_move_stimuli\zero_move_4.jpg</t>
+          <t>zero_move_stimuli\zero_move_1.jpg</t>
         </is>
       </c>
       <c r="C5" t="n">
@@ -3011,7 +3011,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>zero_move_stimuli\zero_move_5.jpg</t>
+          <t>zero_move_stimuli\zero_move_4.jpg</t>
         </is>
       </c>
       <c r="C6" t="n">
@@ -3029,7 +3029,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>zero_move_stimuli\zero_move_1.jpg</t>
+          <t>zero_move_stimuli\zero_move_5.jpg</t>
         </is>
       </c>
       <c r="C7" t="n">
@@ -3083,7 +3083,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>multi_move_stimuli\stim_not_two_move\stim_not_two_move_2.jpg</t>
+          <t>multi_move_stimuli\stim_not_two_move\stim_not_two_move_5.jpg</t>
         </is>
       </c>
       <c r="C2" t="n">
@@ -3101,15 +3101,15 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>multi_move_stimuli\stim_two_move\stim_two_move_2.jpg</t>
+          <t>multi_move_stimuli\stim_not_two_move\stim_not_two_move_1.jpg</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>right</t>
+          <t>left</t>
         </is>
       </c>
     </row>
@@ -3119,7 +3119,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>multi_move_stimuli\stim_two_move\stim_two_move_1.jpg</t>
+          <t>multi_move_stimuli\stim_two_move\stim_two_move_6.jpg</t>
         </is>
       </c>
       <c r="C4" t="n">
@@ -3137,7 +3137,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>multi_move_stimuli\stim_not_two_move\stim_not_two_move_1.jpg</t>
+          <t>multi_move_stimuli\stim_not_two_move\stim_not_two_move_2.jpg</t>
         </is>
       </c>
       <c r="C5" t="n">
@@ -3155,15 +3155,15 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>multi_move_stimuli\stim_not_two_move\stim_not_two_move_5.jpg</t>
+          <t>multi_move_stimuli\stim_two_move\stim_two_move_3.jpg</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>left</t>
+          <t>right</t>
         </is>
       </c>
     </row>
@@ -3173,7 +3173,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>multi_move_stimuli\stim_two_move\stim_two_move_5.jpg</t>
+          <t>multi_move_stimuli\stim_two_move\stim_two_move_1.jpg</t>
         </is>
       </c>
       <c r="C7" t="n">
@@ -3231,11 +3231,11 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>4.5</v>
+        <v>5.5</v>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>no_go_stimuli\spider_2.jpeg</t>
+          <t>no_go_stimuli\spider_5.jpeg</t>
         </is>
       </c>
       <c r="D2" t="n">
@@ -3252,19 +3252,19 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>6</v>
+        <v>5.5</v>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>go_stimuli\puppy_1.jpg</t>
+          <t>no_go_stimuli\spider_15.jpeg</t>
         </is>
       </c>
       <c r="D3" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>space</t>
+          <t>None</t>
         </is>
       </c>
     </row>
@@ -3273,11 +3273,11 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>6.5</v>
+        <v>4</v>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>no_go_stimuli\spider_24.jpeg</t>
+          <t>no_go_stimuli\spider_18.jpg</t>
         </is>
       </c>
       <c r="D4" t="n">
@@ -3294,19 +3294,19 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>6.5</v>
+        <v>4.5</v>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>no_go_stimuli\spider_10.jpeg</t>
+          <t>go_stimuli\puppy_26.jpeg</t>
         </is>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>space</t>
         </is>
       </c>
     </row>
@@ -3315,11 +3315,11 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>5.5</v>
+        <v>5</v>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>go_stimuli\puppy_22.jpeg</t>
+          <t>go_stimuli\puppy_16.jpeg</t>
         </is>
       </c>
       <c r="D6" t="n">
@@ -3336,19 +3336,19 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>4.5</v>
+        <v>4</v>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>no_go_stimuli\spider_15.jpeg</t>
+          <t>go_stimuli\puppy_27.jpg</t>
         </is>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>space</t>
         </is>
       </c>
     </row>
@@ -3357,19 +3357,19 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>5.5</v>
+        <v>6</v>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>no_go_stimuli\spider_7.jpeg</t>
+          <t>go_stimuli\puppy_9.jpg</t>
         </is>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>space</t>
         </is>
       </c>
     </row>
@@ -3378,11 +3378,11 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>5.5</v>
+        <v>5</v>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>go_stimuli\puppy_18.jpeg</t>
+          <t>go_stimuli\puppy_17.jpeg</t>
         </is>
       </c>
       <c r="D9" t="n">
@@ -3399,11 +3399,11 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>4.5</v>
+        <v>4</v>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>go_stimuli\puppy_2.jpg</t>
+          <t>go_stimuli\puppy_24.jpeg</t>
         </is>
       </c>
       <c r="D10" t="n">
@@ -3420,11 +3420,11 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>5.5</v>
+        <v>4.5</v>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>no_go_stimuli\spider_30.jpg</t>
+          <t>no_go_stimuli\spider_11.jpeg</t>
         </is>
       </c>
       <c r="D11" t="n">
@@ -3441,19 +3441,19 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>no_go_stimuli\spider_11.jpeg</t>
+          <t>go_stimuli\puppy_6.jpg</t>
         </is>
       </c>
       <c r="D12" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>space</t>
         </is>
       </c>
     </row>
@@ -3462,19 +3462,19 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>6.5</v>
+        <v>6</v>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>go_stimuli\puppy_29.jpg</t>
+          <t>no_go_stimuli\spider_4.jpeg</t>
         </is>
       </c>
       <c r="D13" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>space</t>
+          <t>None</t>
         </is>
       </c>
     </row>
@@ -3483,11 +3483,11 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>5</v>
+        <v>6.5</v>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>go_stimuli\puppy_11.jpeg</t>
+          <t>go_stimuli\puppy_10.jpg</t>
         </is>
       </c>
       <c r="D14" t="n">
@@ -3504,11 +3504,11 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>no_go_stimuli\spider_20.jpg</t>
+          <t>no_go_stimuli\spider_12.jpeg</t>
         </is>
       </c>
       <c r="D15" t="n">
@@ -3529,15 +3529,15 @@
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>go_stimuli\puppy_17.jpeg</t>
+          <t>no_go_stimuli\spider_28.jpg</t>
         </is>
       </c>
       <c r="D16" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>space</t>
+          <t>None</t>
         </is>
       </c>
     </row>
@@ -3550,7 +3550,7 @@
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>no_go_stimuli\spider_23.jpg</t>
+          <t>no_go_stimuli\spider_7.jpeg</t>
         </is>
       </c>
       <c r="D17" t="n">
@@ -3567,19 +3567,19 @@
         <v>16</v>
       </c>
       <c r="B18" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>go_stimuli\puppy_14.jpeg</t>
+          <t>no_go_stimuli\spider_23.jpg</t>
         </is>
       </c>
       <c r="D18" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>space</t>
+          <t>None</t>
         </is>
       </c>
     </row>
@@ -3592,15 +3592,15 @@
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>no_go_stimuli\spider_18.jpg</t>
+          <t>go_stimuli\puppy_18.jpeg</t>
         </is>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>space</t>
         </is>
       </c>
     </row>
@@ -3609,19 +3609,19 @@
         <v>18</v>
       </c>
       <c r="B20" t="n">
-        <v>4.5</v>
+        <v>4</v>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>go_stimuli\puppy_6.jpg</t>
+          <t>no_go_stimuli\spider_3.jpeg</t>
         </is>
       </c>
       <c r="D20" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>space</t>
+          <t>None</t>
         </is>
       </c>
     </row>
@@ -3634,7 +3634,7 @@
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>go_stimuli\puppy_16.jpeg</t>
+          <t>go_stimuli\puppy_4.jpg</t>
         </is>
       </c>
       <c r="D21" t="n">
@@ -3702,7 +3702,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>0.029</v>
+        <v>0.017</v>
       </c>
       <c r="C2" t="n">
         <v>2</v>
@@ -3714,11 +3714,11 @@
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>left</t>
+          <t>right</t>
         </is>
       </c>
     </row>
@@ -3730,7 +3730,7 @@
         <v>0.029</v>
       </c>
       <c r="C3" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
@@ -3752,10 +3752,10 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>0.017</v>
+        <v>0.029</v>
       </c>
       <c r="C4" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
@@ -3764,11 +3764,11 @@
         <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>right</t>
+          <t>left</t>
         </is>
       </c>
     </row>
@@ -3802,7 +3802,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>0.029</v>
+        <v>0.017</v>
       </c>
       <c r="C6" t="n">
         <v>1</v>
@@ -3827,10 +3827,10 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>0.029</v>
+        <v>0.05</v>
       </c>
       <c r="C7" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D7" t="n">
         <v>0</v>
@@ -3839,11 +3839,11 @@
         <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>left</t>
+          <t>right</t>
         </is>
       </c>
     </row>
@@ -3852,10 +3852,10 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>0.029</v>
+        <v>0.05</v>
       </c>
       <c r="C8" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D8" t="n">
         <v>0</v>
@@ -3877,7 +3877,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>0.029</v>
+        <v>0.017</v>
       </c>
       <c r="C9" t="n">
         <v>1</v>
@@ -3889,11 +3889,11 @@
         <v>0</v>
       </c>
       <c r="F9" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>right</t>
+          <t>left</t>
         </is>
       </c>
     </row>
@@ -3905,7 +3905,7 @@
         <v>0.017</v>
       </c>
       <c r="C10" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D10" t="n">
         <v>0</v>
@@ -3914,11 +3914,11 @@
         <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>right</t>
+          <t>left</t>
         </is>
       </c>
     </row>
@@ -3930,7 +3930,7 @@
         <v>0.05</v>
       </c>
       <c r="C11" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D11" t="n">
         <v>0</v>
@@ -3952,7 +3952,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>0.05</v>
+        <v>0.029</v>
       </c>
       <c r="C12" t="n">
         <v>2</v>
@@ -3964,11 +3964,11 @@
         <v>0</v>
       </c>
       <c r="F12" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>left</t>
+          <t>right</t>
         </is>
       </c>
     </row>
@@ -3980,7 +3980,7 @@
         <v>0.029</v>
       </c>
       <c r="C13" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D13" t="n">
         <v>0</v>
@@ -4030,7 +4030,7 @@
         <v>0.029</v>
       </c>
       <c r="C15" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D15" t="n">
         <v>0</v>
@@ -4039,11 +4039,11 @@
         <v>0</v>
       </c>
       <c r="F15" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>left</t>
+          <t>right</t>
         </is>
       </c>
     </row>
@@ -4052,7 +4052,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>0.05</v>
+        <v>0.017</v>
       </c>
       <c r="C16" t="n">
         <v>3</v>
@@ -4064,11 +4064,11 @@
         <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>right</t>
+          <t>left</t>
         </is>
       </c>
     </row>
@@ -4077,10 +4077,10 @@
         <v>15</v>
       </c>
       <c r="B17" t="n">
-        <v>0.029</v>
+        <v>0.05</v>
       </c>
       <c r="C17" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D17" t="n">
         <v>0</v>
@@ -4089,11 +4089,11 @@
         <v>0</v>
       </c>
       <c r="F17" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>right</t>
+          <t>left</t>
         </is>
       </c>
     </row>
@@ -4105,7 +4105,7 @@
         <v>0.05</v>
       </c>
       <c r="C18" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D18" t="n">
         <v>0</v>
@@ -4114,11 +4114,11 @@
         <v>0</v>
       </c>
       <c r="F18" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>right</t>
+          <t>left</t>
         </is>
       </c>
     </row>
@@ -4127,10 +4127,10 @@
         <v>17</v>
       </c>
       <c r="B19" t="n">
-        <v>0.017</v>
+        <v>0.05</v>
       </c>
       <c r="C19" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D19" t="n">
         <v>0</v>
@@ -4152,10 +4152,10 @@
         <v>18</v>
       </c>
       <c r="B20" t="n">
-        <v>0.017</v>
+        <v>0.029</v>
       </c>
       <c r="C20" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D20" t="n">
         <v>0</v>
@@ -4177,10 +4177,10 @@
         <v>19</v>
       </c>
       <c r="B21" t="n">
-        <v>0.017</v>
+        <v>0.029</v>
       </c>
       <c r="C21" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D21" t="n">
         <v>0</v>
@@ -4202,10 +4202,10 @@
         <v>20</v>
       </c>
       <c r="B22" t="n">
-        <v>0.05</v>
+        <v>0.017</v>
       </c>
       <c r="C22" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D22" t="n">
         <v>0</v>
@@ -4227,10 +4227,10 @@
         <v>21</v>
       </c>
       <c r="B23" t="n">
-        <v>0.029</v>
+        <v>0.017</v>
       </c>
       <c r="C23" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D23" t="n">
         <v>0</v>
@@ -4239,11 +4239,11 @@
         <v>0</v>
       </c>
       <c r="F23" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>left</t>
+          <t>right</t>
         </is>
       </c>
     </row>
@@ -4252,10 +4252,10 @@
         <v>22</v>
       </c>
       <c r="B24" t="n">
-        <v>0.017</v>
+        <v>0.029</v>
       </c>
       <c r="C24" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D24" t="n">
         <v>0</v>
@@ -4277,10 +4277,10 @@
         <v>23</v>
       </c>
       <c r="B25" t="n">
-        <v>0.029</v>
+        <v>0.017</v>
       </c>
       <c r="C25" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D25" t="n">
         <v>0</v>
@@ -4289,11 +4289,11 @@
         <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G25" t="inlineStr">
         <is>
-          <t>right</t>
+          <t>left</t>
         </is>
       </c>
     </row>
@@ -4302,7 +4302,7 @@
         <v>24</v>
       </c>
       <c r="B26" t="n">
-        <v>0.05</v>
+        <v>0.017</v>
       </c>
       <c r="C26" t="n">
         <v>3</v>
@@ -4327,7 +4327,7 @@
         <v>25</v>
       </c>
       <c r="B27" t="n">
-        <v>0.05</v>
+        <v>0.017</v>
       </c>
       <c r="C27" t="n">
         <v>2</v>
@@ -4339,11 +4339,11 @@
         <v>0</v>
       </c>
       <c r="F27" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G27" t="inlineStr">
         <is>
-          <t>right</t>
+          <t>left</t>
         </is>
       </c>
     </row>
@@ -4352,7 +4352,7 @@
         <v>26</v>
       </c>
       <c r="B28" t="n">
-        <v>0.05</v>
+        <v>0.029</v>
       </c>
       <c r="C28" t="n">
         <v>2</v>
@@ -4377,7 +4377,7 @@
         <v>27</v>
       </c>
       <c r="B29" t="n">
-        <v>0.029</v>
+        <v>0.05</v>
       </c>
       <c r="C29" t="n">
         <v>2</v>
@@ -4405,7 +4405,7 @@
         <v>0.05</v>
       </c>
       <c r="C30" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D30" t="n">
         <v>0</v>
@@ -4427,10 +4427,10 @@
         <v>29</v>
       </c>
       <c r="B31" t="n">
-        <v>0.05</v>
+        <v>0.029</v>
       </c>
       <c r="C31" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D31" t="n">
         <v>0</v>
@@ -4439,11 +4439,11 @@
         <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G31" t="inlineStr">
         <is>
-          <t>left</t>
+          <t>right</t>
         </is>
       </c>
     </row>
@@ -4503,7 +4503,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>0.05</v>
+        <v>0.017</v>
       </c>
       <c r="C2" t="n">
         <v>3</v>
@@ -4528,10 +4528,10 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>0.017</v>
+        <v>0.029</v>
       </c>
       <c r="C3" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
@@ -4553,10 +4553,10 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>0.05</v>
+        <v>0.029</v>
       </c>
       <c r="C4" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
@@ -4565,11 +4565,11 @@
         <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>right</t>
+          <t>left</t>
         </is>
       </c>
     </row>
@@ -4578,7 +4578,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>0.05</v>
+        <v>0.029</v>
       </c>
       <c r="C5" t="n">
         <v>1</v>
@@ -4590,11 +4590,11 @@
         <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>left</t>
+          <t>right</t>
         </is>
       </c>
     </row>
@@ -4603,10 +4603,10 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>0.017</v>
+        <v>0.05</v>
       </c>
       <c r="C6" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D6" t="n">
         <v>0</v>
@@ -4631,7 +4631,7 @@
         <v>0.029</v>
       </c>
       <c r="C7" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D7" t="n">
         <v>0</v>
@@ -4653,7 +4653,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>0.017</v>
+        <v>0.05</v>
       </c>
       <c r="C8" t="n">
         <v>3</v>
@@ -4665,11 +4665,11 @@
         <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>left</t>
+          <t>right</t>
         </is>
       </c>
     </row>
@@ -4690,11 +4690,11 @@
         <v>0</v>
       </c>
       <c r="F9" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>left</t>
+          <t>right</t>
         </is>
       </c>
     </row>
@@ -4703,10 +4703,10 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>0.05</v>
+        <v>0.029</v>
       </c>
       <c r="C10" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D10" t="n">
         <v>0</v>
@@ -4715,11 +4715,11 @@
         <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>right</t>
+          <t>left</t>
         </is>
       </c>
     </row>
@@ -4728,10 +4728,10 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>0.017</v>
+        <v>0.029</v>
       </c>
       <c r="C11" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D11" t="n">
         <v>0</v>
@@ -4740,11 +4740,11 @@
         <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>left</t>
+          <t>right</t>
         </is>
       </c>
     </row>
@@ -4756,7 +4756,7 @@
         <v>0.05</v>
       </c>
       <c r="C12" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D12" t="n">
         <v>0</v>
@@ -4781,7 +4781,7 @@
         <v>0.05</v>
       </c>
       <c r="C13" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D13" t="n">
         <v>0</v>
@@ -4790,11 +4790,11 @@
         <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>left</t>
+          <t>right</t>
         </is>
       </c>
     </row>
@@ -4803,10 +4803,10 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>0.05</v>
+        <v>0.029</v>
       </c>
       <c r="C14" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D14" t="n">
         <v>0</v>
@@ -4831,7 +4831,7 @@
         <v>0.05</v>
       </c>
       <c r="C15" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D15" t="n">
         <v>0</v>
@@ -4853,10 +4853,10 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>0.029</v>
+        <v>0.05</v>
       </c>
       <c r="C16" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D16" t="n">
         <v>0</v>
@@ -4878,7 +4878,7 @@
         <v>15</v>
       </c>
       <c r="B17" t="n">
-        <v>0.017</v>
+        <v>0.029</v>
       </c>
       <c r="C17" t="n">
         <v>1</v>
@@ -4890,11 +4890,11 @@
         <v>0</v>
       </c>
       <c r="F17" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>left</t>
+          <t>right</t>
         </is>
       </c>
     </row>
@@ -4903,10 +4903,10 @@
         <v>16</v>
       </c>
       <c r="B18" t="n">
-        <v>0.029</v>
+        <v>0.017</v>
       </c>
       <c r="C18" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D18" t="n">
         <v>0</v>
@@ -4931,7 +4931,7 @@
         <v>0.017</v>
       </c>
       <c r="C19" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D19" t="n">
         <v>0</v>
@@ -4940,11 +4940,11 @@
         <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>right</t>
+          <t>left</t>
         </is>
       </c>
     </row>
@@ -4953,7 +4953,7 @@
         <v>18</v>
       </c>
       <c r="B20" t="n">
-        <v>0.029</v>
+        <v>0.017</v>
       </c>
       <c r="C20" t="n">
         <v>2</v>
@@ -4965,11 +4965,11 @@
         <v>0</v>
       </c>
       <c r="F20" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>right</t>
+          <t>left</t>
         </is>
       </c>
     </row>
@@ -4978,7 +4978,7 @@
         <v>19</v>
       </c>
       <c r="B21" t="n">
-        <v>0.05</v>
+        <v>0.029</v>
       </c>
       <c r="C21" t="n">
         <v>1</v>
@@ -4990,11 +4990,11 @@
         <v>0</v>
       </c>
       <c r="F21" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>right</t>
+          <t>left</t>
         </is>
       </c>
     </row>
@@ -5003,10 +5003,10 @@
         <v>20</v>
       </c>
       <c r="B22" t="n">
-        <v>0.029</v>
+        <v>0.05</v>
       </c>
       <c r="C22" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D22" t="n">
         <v>0</v>
@@ -5031,7 +5031,7 @@
         <v>0.029</v>
       </c>
       <c r="C23" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D23" t="n">
         <v>0</v>
@@ -5040,11 +5040,11 @@
         <v>0</v>
       </c>
       <c r="F23" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>right</t>
+          <t>left</t>
         </is>
       </c>
     </row>
@@ -5053,7 +5053,7 @@
         <v>22</v>
       </c>
       <c r="B24" t="n">
-        <v>0.05</v>
+        <v>0.029</v>
       </c>
       <c r="C24" t="n">
         <v>3</v>
@@ -5065,11 +5065,11 @@
         <v>0</v>
       </c>
       <c r="F24" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>left</t>
+          <t>right</t>
         </is>
       </c>
     </row>
@@ -5103,7 +5103,7 @@
         <v>24</v>
       </c>
       <c r="B26" t="n">
-        <v>0.017</v>
+        <v>0.029</v>
       </c>
       <c r="C26" t="n">
         <v>2</v>
@@ -5128,7 +5128,7 @@
         <v>25</v>
       </c>
       <c r="B27" t="n">
-        <v>0.017</v>
+        <v>0.029</v>
       </c>
       <c r="C27" t="n">
         <v>2</v>
@@ -5140,11 +5140,11 @@
         <v>0</v>
       </c>
       <c r="F27" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G27" t="inlineStr">
         <is>
-          <t>right</t>
+          <t>left</t>
         </is>
       </c>
     </row>
@@ -5153,10 +5153,10 @@
         <v>26</v>
       </c>
       <c r="B28" t="n">
-        <v>0.017</v>
+        <v>0.029</v>
       </c>
       <c r="C28" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D28" t="n">
         <v>0</v>
@@ -5178,10 +5178,10 @@
         <v>27</v>
       </c>
       <c r="B29" t="n">
-        <v>0.017</v>
+        <v>0.029</v>
       </c>
       <c r="C29" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D29" t="n">
         <v>0</v>
@@ -5190,11 +5190,11 @@
         <v>0</v>
       </c>
       <c r="F29" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G29" t="inlineStr">
         <is>
-          <t>right</t>
+          <t>left</t>
         </is>
       </c>
     </row>
@@ -5215,11 +5215,11 @@
         <v>0</v>
       </c>
       <c r="F30" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G30" t="inlineStr">
         <is>
-          <t>left</t>
+          <t>right</t>
         </is>
       </c>
     </row>
@@ -5228,10 +5228,10 @@
         <v>29</v>
       </c>
       <c r="B31" t="n">
-        <v>0.05</v>
+        <v>0.029</v>
       </c>
       <c r="C31" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D31" t="n">
         <v>0</v>
@@ -5307,7 +5307,7 @@
         <v>0.05</v>
       </c>
       <c r="C2" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D2" t="n">
         <v>0.25</v>
@@ -5316,11 +5316,11 @@
         <v>0.25</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>left</t>
+          <t>right</t>
         </is>
       </c>
     </row>
@@ -5329,16 +5329,16 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>0.05</v>
+        <v>0.017</v>
       </c>
       <c r="C3" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D3" t="n">
+        <v>0.25</v>
+      </c>
+      <c r="E3" t="n">
         <v>-0.25</v>
-      </c>
-      <c r="E3" t="n">
-        <v>0.25</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -5360,17 +5360,17 @@
         <v>1</v>
       </c>
       <c r="D4" t="n">
-        <v>-0.25</v>
+        <v>0.25</v>
       </c>
       <c r="E4" t="n">
-        <v>-0.25</v>
+        <v>0.25</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>left</t>
+          <t>right</t>
         </is>
       </c>
     </row>
@@ -5379,13 +5379,13 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>0.05</v>
+        <v>0.017</v>
       </c>
       <c r="C5" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D5" t="n">
-        <v>0.25</v>
+        <v>-0.25</v>
       </c>
       <c r="E5" t="n">
         <v>0.25</v>
@@ -5407,20 +5407,20 @@
         <v>0.017</v>
       </c>
       <c r="C6" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D6" t="n">
-        <v>-0.25</v>
+        <v>0</v>
       </c>
       <c r="E6" t="n">
-        <v>0.25</v>
+        <v>0</v>
       </c>
       <c r="F6" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>left</t>
+          <t>right</t>
         </is>
       </c>
     </row>
@@ -5429,23 +5429,23 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>0.05</v>
+        <v>0.017</v>
       </c>
       <c r="C7" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D7" t="n">
-        <v>-0.25</v>
+        <v>0.25</v>
       </c>
       <c r="E7" t="n">
         <v>0.25</v>
       </c>
       <c r="F7" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>right</t>
+          <t>left</t>
         </is>
       </c>
     </row>
@@ -5454,7 +5454,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>0.017</v>
+        <v>0.05</v>
       </c>
       <c r="C8" t="n">
         <v>3</v>
@@ -5479,23 +5479,23 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>0.029</v>
+        <v>0.017</v>
       </c>
       <c r="C9" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D9" t="n">
-        <v>-0.25</v>
+        <v>0</v>
       </c>
       <c r="E9" t="n">
-        <v>0.25</v>
+        <v>0</v>
       </c>
       <c r="F9" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>right</t>
+          <t>left</t>
         </is>
       </c>
     </row>
@@ -5504,23 +5504,23 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>0.017</v>
+        <v>0.05</v>
       </c>
       <c r="C10" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D10" t="n">
-        <v>-0.25</v>
+        <v>0.25</v>
       </c>
       <c r="E10" t="n">
-        <v>-0.25</v>
+        <v>0.25</v>
       </c>
       <c r="F10" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>right</t>
+          <t>left</t>
         </is>
       </c>
     </row>
@@ -5532,20 +5532,20 @@
         <v>0.05</v>
       </c>
       <c r="C11" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D11" t="n">
-        <v>-0.25</v>
+        <v>0</v>
       </c>
       <c r="E11" t="n">
-        <v>-0.25</v>
+        <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>left</t>
+          <t>right</t>
         </is>
       </c>
     </row>
@@ -5554,16 +5554,16 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>0.05</v>
+        <v>0.029</v>
       </c>
       <c r="C12" t="n">
         <v>2</v>
       </c>
       <c r="D12" t="n">
-        <v>0.25</v>
+        <v>0</v>
       </c>
       <c r="E12" t="n">
-        <v>0.25</v>
+        <v>0</v>
       </c>
       <c r="F12" t="n">
         <v>0</v>
@@ -5585,17 +5585,17 @@
         <v>3</v>
       </c>
       <c r="D13" t="n">
-        <v>0.25</v>
+        <v>-0.25</v>
       </c>
       <c r="E13" t="n">
         <v>-0.25</v>
       </c>
       <c r="F13" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>right</t>
+          <t>left</t>
         </is>
       </c>
     </row>
@@ -5604,16 +5604,16 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>0.029</v>
+        <v>0.017</v>
       </c>
       <c r="C14" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D14" t="n">
-        <v>0</v>
+        <v>-0.25</v>
       </c>
       <c r="E14" t="n">
-        <v>0</v>
+        <v>-0.25</v>
       </c>
       <c r="F14" t="n">
         <v>0</v>
@@ -5629,16 +5629,16 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>0.017</v>
+        <v>0.05</v>
       </c>
       <c r="C15" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D15" t="n">
-        <v>-0.25</v>
+        <v>0</v>
       </c>
       <c r="E15" t="n">
-        <v>0.25</v>
+        <v>0</v>
       </c>
       <c r="F15" t="n">
         <v>0</v>
@@ -5654,16 +5654,16 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>0.029</v>
+        <v>0.05</v>
       </c>
       <c r="C16" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D16" t="n">
         <v>-0.25</v>
       </c>
       <c r="E16" t="n">
-        <v>-0.25</v>
+        <v>0.25</v>
       </c>
       <c r="F16" t="n">
         <v>1</v>
@@ -5682,7 +5682,7 @@
         <v>0.05</v>
       </c>
       <c r="C17" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D17" t="n">
         <v>0.25</v>
@@ -5691,11 +5691,11 @@
         <v>-0.25</v>
       </c>
       <c r="F17" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>right</t>
+          <t>left</t>
         </is>
       </c>
     </row>
@@ -5704,13 +5704,13 @@
         <v>16</v>
       </c>
       <c r="B18" t="n">
-        <v>0.017</v>
+        <v>0.05</v>
       </c>
       <c r="C18" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D18" t="n">
-        <v>0.25</v>
+        <v>-0.25</v>
       </c>
       <c r="E18" t="n">
         <v>-0.25</v>
@@ -5729,7 +5729,7 @@
         <v>17</v>
       </c>
       <c r="B19" t="n">
-        <v>0.05</v>
+        <v>0.029</v>
       </c>
       <c r="C19" t="n">
         <v>1</v>
@@ -5738,7 +5738,7 @@
         <v>0.25</v>
       </c>
       <c r="E19" t="n">
-        <v>0.25</v>
+        <v>-0.25</v>
       </c>
       <c r="F19" t="n">
         <v>1</v>
@@ -5754,23 +5754,23 @@
         <v>18</v>
       </c>
       <c r="B20" t="n">
-        <v>0.017</v>
+        <v>0.05</v>
       </c>
       <c r="C20" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D20" t="n">
-        <v>-0.25</v>
+        <v>0</v>
       </c>
       <c r="E20" t="n">
-        <v>-0.25</v>
+        <v>0</v>
       </c>
       <c r="F20" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>left</t>
+          <t>right</t>
         </is>
       </c>
     </row>
@@ -5779,23 +5779,23 @@
         <v>19</v>
       </c>
       <c r="B21" t="n">
-        <v>0.017</v>
+        <v>0.05</v>
       </c>
       <c r="C21" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D21" t="n">
-        <v>-0.25</v>
+        <v>0</v>
       </c>
       <c r="E21" t="n">
-        <v>0.25</v>
+        <v>0</v>
       </c>
       <c r="F21" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>right</t>
+          <t>left</t>
         </is>
       </c>
     </row>
@@ -5804,10 +5804,10 @@
         <v>20</v>
       </c>
       <c r="B22" t="n">
-        <v>0.017</v>
+        <v>0.05</v>
       </c>
       <c r="C22" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D22" t="n">
         <v>0.25</v>
@@ -5829,16 +5829,16 @@
         <v>21</v>
       </c>
       <c r="B23" t="n">
-        <v>0.05</v>
+        <v>0.017</v>
       </c>
       <c r="C23" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D23" t="n">
-        <v>-0.25</v>
+        <v>0.25</v>
       </c>
       <c r="E23" t="n">
-        <v>-0.25</v>
+        <v>0.25</v>
       </c>
       <c r="F23" t="n">
         <v>1</v>
@@ -5860,17 +5860,17 @@
         <v>3</v>
       </c>
       <c r="D24" t="n">
+        <v>0.25</v>
+      </c>
+      <c r="E24" t="n">
         <v>-0.25</v>
       </c>
-      <c r="E24" t="n">
-        <v>0.25</v>
-      </c>
       <c r="F24" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>left</t>
+          <t>right</t>
         </is>
       </c>
     </row>
@@ -5882,13 +5882,13 @@
         <v>0.017</v>
       </c>
       <c r="C25" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>-0.25</v>
       </c>
       <c r="F25" t="n">
         <v>0</v>
@@ -5916,11 +5916,11 @@
         <v>0</v>
       </c>
       <c r="F26" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G26" t="inlineStr">
         <is>
-          <t>right</t>
+          <t>left</t>
         </is>
       </c>
     </row>
@@ -5932,20 +5932,20 @@
         <v>0.017</v>
       </c>
       <c r="C27" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D27" t="n">
-        <v>0.25</v>
+        <v>-0.25</v>
       </c>
       <c r="E27" t="n">
         <v>-0.25</v>
       </c>
       <c r="F27" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G27" t="inlineStr">
         <is>
-          <t>right</t>
+          <t>left</t>
         </is>
       </c>
     </row>
@@ -5954,23 +5954,23 @@
         <v>26</v>
       </c>
       <c r="B28" t="n">
-        <v>0.05</v>
+        <v>0.029</v>
       </c>
       <c r="C28" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D28" t="n">
         <v>-0.25</v>
       </c>
       <c r="E28" t="n">
-        <v>-0.25</v>
+        <v>0.25</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G28" t="inlineStr">
         <is>
-          <t>left</t>
+          <t>right</t>
         </is>
       </c>
     </row>
@@ -5982,13 +5982,13 @@
         <v>0.029</v>
       </c>
       <c r="C29" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D29" t="n">
+        <v>0.25</v>
+      </c>
+      <c r="E29" t="n">
         <v>-0.25</v>
-      </c>
-      <c r="E29" t="n">
-        <v>0.25</v>
       </c>
       <c r="F29" t="n">
         <v>1</v>
@@ -6004,23 +6004,23 @@
         <v>28</v>
       </c>
       <c r="B30" t="n">
-        <v>0.017</v>
+        <v>0.029</v>
       </c>
       <c r="C30" t="n">
         <v>3</v>
       </c>
       <c r="D30" t="n">
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="E30" t="n">
-        <v>0</v>
+        <v>-0.25</v>
       </c>
       <c r="F30" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G30" t="inlineStr">
         <is>
-          <t>right</t>
+          <t>left</t>
         </is>
       </c>
     </row>
@@ -6032,13 +6032,13 @@
         <v>0.05</v>
       </c>
       <c r="C31" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D31" t="n">
         <v>-0.25</v>
       </c>
       <c r="E31" t="n">
-        <v>-0.25</v>
+        <v>0.25</v>
       </c>
       <c r="F31" t="n">
         <v>1</v>
@@ -6105,16 +6105,16 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>0.05</v>
+        <v>0.029</v>
       </c>
       <c r="C2" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>-0.25</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="F2" t="n">
         <v>1</v>
@@ -6133,10 +6133,10 @@
         <v>0.029</v>
       </c>
       <c r="C3" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D3" t="n">
-        <v>-0.25</v>
+        <v>0.25</v>
       </c>
       <c r="E3" t="n">
         <v>-0.25</v>
@@ -6158,20 +6158,20 @@
         <v>0.017</v>
       </c>
       <c r="C4" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D4" t="n">
         <v>-0.25</v>
       </c>
       <c r="E4" t="n">
-        <v>-0.25</v>
+        <v>0.25</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>left</t>
+          <t>right</t>
         </is>
       </c>
     </row>
@@ -6180,16 +6180,16 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>0.029</v>
+        <v>0.05</v>
       </c>
       <c r="C5" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="F5" t="n">
         <v>1</v>
@@ -6205,23 +6205,23 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>0.017</v>
+        <v>0.029</v>
       </c>
       <c r="C6" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D6" t="n">
-        <v>-0.25</v>
+        <v>0.25</v>
       </c>
       <c r="E6" t="n">
-        <v>-0.25</v>
+        <v>0.25</v>
       </c>
       <c r="F6" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>right</t>
+          <t>left</t>
         </is>
       </c>
     </row>
@@ -6239,7 +6239,7 @@
         <v>0.25</v>
       </c>
       <c r="E7" t="n">
-        <v>0.25</v>
+        <v>-0.25</v>
       </c>
       <c r="F7" t="n">
         <v>1</v>
@@ -6255,23 +6255,23 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>0.05</v>
+        <v>0.017</v>
       </c>
       <c r="C8" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D8" t="n">
+        <v>-0.25</v>
+      </c>
+      <c r="E8" t="n">
         <v>0.25</v>
       </c>
-      <c r="E8" t="n">
-        <v>-0.25</v>
-      </c>
       <c r="F8" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>right</t>
+          <t>left</t>
         </is>
       </c>
     </row>
@@ -6280,7 +6280,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>0.017</v>
+        <v>0.029</v>
       </c>
       <c r="C9" t="n">
         <v>2</v>
@@ -6292,11 +6292,11 @@
         <v>0.25</v>
       </c>
       <c r="F9" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>left</t>
+          <t>right</t>
         </is>
       </c>
     </row>
@@ -6308,7 +6308,7 @@
         <v>0.029</v>
       </c>
       <c r="C10" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D10" t="n">
         <v>0.25</v>
@@ -6317,11 +6317,11 @@
         <v>0.25</v>
       </c>
       <c r="F10" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>right</t>
+          <t>left</t>
         </is>
       </c>
     </row>
@@ -6330,23 +6330,23 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>0.017</v>
+        <v>0.05</v>
       </c>
       <c r="C11" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D11" t="n">
-        <v>0</v>
+        <v>-0.25</v>
       </c>
       <c r="E11" t="n">
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="F11" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>left</t>
+          <t>right</t>
         </is>
       </c>
     </row>
@@ -6358,13 +6358,13 @@
         <v>0.029</v>
       </c>
       <c r="C12" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D12" t="n">
-        <v>-0.25</v>
+        <v>0</v>
       </c>
       <c r="E12" t="n">
-        <v>-0.25</v>
+        <v>0</v>
       </c>
       <c r="F12" t="n">
         <v>1</v>
@@ -6380,10 +6380,10 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>0.029</v>
+        <v>0.017</v>
       </c>
       <c r="C13" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D13" t="n">
         <v>0.25</v>
@@ -6392,11 +6392,11 @@
         <v>0.25</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>left</t>
+          <t>right</t>
         </is>
       </c>
     </row>
@@ -6405,23 +6405,23 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>0.029</v>
+        <v>0.017</v>
       </c>
       <c r="C14" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D14" t="n">
-        <v>0.25</v>
+        <v>-0.25</v>
       </c>
       <c r="E14" t="n">
         <v>0.25</v>
       </c>
       <c r="F14" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>right</t>
+          <t>left</t>
         </is>
       </c>
     </row>
@@ -6436,10 +6436,10 @@
         <v>2</v>
       </c>
       <c r="D15" t="n">
+        <v>-0.25</v>
+      </c>
+      <c r="E15" t="n">
         <v>0.25</v>
-      </c>
-      <c r="E15" t="n">
-        <v>-0.25</v>
       </c>
       <c r="F15" t="n">
         <v>1</v>
@@ -6455,16 +6455,16 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>0.017</v>
+        <v>0.05</v>
       </c>
       <c r="C16" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D16" t="n">
         <v>0.25</v>
       </c>
       <c r="E16" t="n">
-        <v>0.25</v>
+        <v>-0.25</v>
       </c>
       <c r="F16" t="n">
         <v>1</v>
@@ -6480,23 +6480,23 @@
         <v>15</v>
       </c>
       <c r="B17" t="n">
-        <v>0.029</v>
+        <v>0.017</v>
       </c>
       <c r="C17" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D17" t="n">
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="E17" t="n">
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="F17" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>right</t>
+          <t>left</t>
         </is>
       </c>
     </row>
@@ -6511,17 +6511,17 @@
         <v>1</v>
       </c>
       <c r="D18" t="n">
-        <v>0</v>
+        <v>-0.25</v>
       </c>
       <c r="E18" t="n">
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="F18" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>right</t>
+          <t>left</t>
         </is>
       </c>
     </row>
@@ -6530,16 +6530,16 @@
         <v>17</v>
       </c>
       <c r="B19" t="n">
-        <v>0.017</v>
+        <v>0.029</v>
       </c>
       <c r="C19" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="F19" t="n">
         <v>0</v>
@@ -6555,16 +6555,16 @@
         <v>18</v>
       </c>
       <c r="B20" t="n">
-        <v>0.029</v>
+        <v>0.017</v>
       </c>
       <c r="C20" t="n">
         <v>1</v>
       </c>
       <c r="D20" t="n">
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="E20" t="n">
-        <v>0</v>
+        <v>-0.25</v>
       </c>
       <c r="F20" t="n">
         <v>1</v>
@@ -6580,23 +6580,23 @@
         <v>19</v>
       </c>
       <c r="B21" t="n">
-        <v>0.029</v>
+        <v>0.05</v>
       </c>
       <c r="C21" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D21" t="n">
         <v>0.25</v>
       </c>
       <c r="E21" t="n">
-        <v>0.25</v>
+        <v>-0.25</v>
       </c>
       <c r="F21" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>right</t>
+          <t>left</t>
         </is>
       </c>
     </row>
@@ -6608,20 +6608,20 @@
         <v>0.029</v>
       </c>
       <c r="C22" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D22" t="n">
         <v>-0.25</v>
       </c>
       <c r="E22" t="n">
-        <v>0.25</v>
+        <v>-0.25</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>left</t>
+          <t>right</t>
         </is>
       </c>
     </row>
@@ -6630,23 +6630,23 @@
         <v>21</v>
       </c>
       <c r="B23" t="n">
-        <v>0.05</v>
+        <v>0.017</v>
       </c>
       <c r="C23" t="n">
         <v>1</v>
       </c>
       <c r="D23" t="n">
-        <v>0.25</v>
+        <v>-0.25</v>
       </c>
       <c r="E23" t="n">
-        <v>0.25</v>
+        <v>-0.25</v>
       </c>
       <c r="F23" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>right</t>
+          <t>left</t>
         </is>
       </c>
     </row>
@@ -6658,13 +6658,13 @@
         <v>0.029</v>
       </c>
       <c r="C24" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D24" t="n">
-        <v>0</v>
+        <v>-0.25</v>
       </c>
       <c r="E24" t="n">
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="F24" t="n">
         <v>0</v>
@@ -6680,23 +6680,23 @@
         <v>23</v>
       </c>
       <c r="B25" t="n">
-        <v>0.017</v>
+        <v>0.05</v>
       </c>
       <c r="C25" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D25" t="n">
-        <v>0.25</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>-0.25</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G25" t="inlineStr">
         <is>
-          <t>right</t>
+          <t>left</t>
         </is>
       </c>
     </row>
@@ -6705,13 +6705,13 @@
         <v>24</v>
       </c>
       <c r="B26" t="n">
-        <v>0.05</v>
+        <v>0.029</v>
       </c>
       <c r="C26" t="n">
         <v>2</v>
       </c>
       <c r="D26" t="n">
-        <v>0.25</v>
+        <v>-0.25</v>
       </c>
       <c r="E26" t="n">
         <v>0.25</v>
@@ -6730,23 +6730,23 @@
         <v>25</v>
       </c>
       <c r="B27" t="n">
-        <v>0.029</v>
+        <v>0.017</v>
       </c>
       <c r="C27" t="n">
         <v>2</v>
       </c>
       <c r="D27" t="n">
+        <v>-0.25</v>
+      </c>
+      <c r="E27" t="n">
         <v>0.25</v>
       </c>
-      <c r="E27" t="n">
-        <v>-0.25</v>
-      </c>
       <c r="F27" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G27" t="inlineStr">
         <is>
-          <t>left</t>
+          <t>right</t>
         </is>
       </c>
     </row>
@@ -6755,23 +6755,23 @@
         <v>26</v>
       </c>
       <c r="B28" t="n">
-        <v>0.05</v>
+        <v>0.017</v>
       </c>
       <c r="C28" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D28" t="n">
-        <v>0.25</v>
+        <v>-0.25</v>
       </c>
       <c r="E28" t="n">
-        <v>0.25</v>
+        <v>-0.25</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G28" t="inlineStr">
         <is>
-          <t>left</t>
+          <t>right</t>
         </is>
       </c>
     </row>
@@ -6780,23 +6780,23 @@
         <v>27</v>
       </c>
       <c r="B29" t="n">
-        <v>0.017</v>
+        <v>0.05</v>
       </c>
       <c r="C29" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D29" t="n">
-        <v>-0.25</v>
+        <v>0.25</v>
       </c>
       <c r="E29" t="n">
         <v>0.25</v>
       </c>
       <c r="F29" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G29" t="inlineStr">
         <is>
-          <t>left</t>
+          <t>right</t>
         </is>
       </c>
     </row>
@@ -6805,23 +6805,23 @@
         <v>28</v>
       </c>
       <c r="B30" t="n">
-        <v>0.029</v>
+        <v>0.05</v>
       </c>
       <c r="C30" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D30" t="n">
-        <v>0.25</v>
+        <v>-0.25</v>
       </c>
       <c r="E30" t="n">
         <v>-0.25</v>
       </c>
       <c r="F30" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G30" t="inlineStr">
         <is>
-          <t>right</t>
+          <t>left</t>
         </is>
       </c>
     </row>
@@ -6830,13 +6830,13 @@
         <v>29</v>
       </c>
       <c r="B31" t="n">
-        <v>0.017</v>
+        <v>0.029</v>
       </c>
       <c r="C31" t="n">
         <v>3</v>
       </c>
       <c r="D31" t="n">
-        <v>0.25</v>
+        <v>-0.25</v>
       </c>
       <c r="E31" t="n">
         <v>-0.25</v>
@@ -6877,7 +6877,7 @@
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
-          <t>go_stim</t>
+          <t>GNG_stim</t>
         </is>
       </c>
       <c r="D1" s="1" t="inlineStr">
@@ -6896,11 +6896,11 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>4.5</v>
+        <v>6.5</v>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>go_stimuli\puppy_6.jpg</t>
+          <t>go_stimuli\puppy_10.jpg</t>
         </is>
       </c>
       <c r="D2" t="n">
@@ -6917,11 +6917,11 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>5.5</v>
+        <v>6.5</v>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>go_stimuli\puppy_19.jpeg</t>
+          <t>go_stimuli\puppy_22.jpeg</t>
         </is>
       </c>
       <c r="D3" t="n">
@@ -6938,11 +6938,11 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>5.5</v>
+        <v>4</v>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>go_stimuli\puppy_9.jpg</t>
+          <t>go_stimuli\puppy_8.jpg</t>
         </is>
       </c>
       <c r="D4" t="n">
@@ -6959,11 +6959,11 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>6.5</v>
+        <v>5</v>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>go_stimuli\puppy_30.jpg</t>
+          <t>go_stimuli\puppy_18.jpeg</t>
         </is>
       </c>
       <c r="D5" t="n">
@@ -6984,7 +6984,7 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>go_stimuli\puppy_14.jpeg</t>
+          <t>go_stimuli\puppy_1.jpg</t>
         </is>
       </c>
       <c r="D6" t="n">
@@ -7005,7 +7005,7 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>go_stimuli\puppy_10.jpg</t>
+          <t>go_stimuli\puppy_21.jpeg</t>
         </is>
       </c>
       <c r="D7" t="n">
@@ -7022,11 +7022,11 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>5</v>
+        <v>4.5</v>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>go_stimuli\puppy_7.jpg</t>
+          <t>go_stimuli\puppy_24.jpeg</t>
         </is>
       </c>
       <c r="D8" t="n">
@@ -7043,11 +7043,11 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>5</v>
+        <v>6.5</v>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>go_stimuli\puppy_29.jpg</t>
+          <t>go_stimuli\puppy_17.jpeg</t>
         </is>
       </c>
       <c r="D9" t="n">
@@ -7068,7 +7068,7 @@
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>go_stimuli\puppy_18.jpeg</t>
+          <t>go_stimuli\puppy_12.jpeg</t>
         </is>
       </c>
       <c r="D10" t="n">
@@ -7085,11 +7085,11 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>6</v>
+        <v>5.5</v>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>go_stimuli\puppy_26.jpeg</t>
+          <t>go_stimuli\puppy_5.jpg</t>
         </is>
       </c>
       <c r="D11" t="n">
@@ -7106,11 +7106,11 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>go_stimuli\puppy_4.jpg</t>
+          <t>go_stimuli\puppy_30.jpg</t>
         </is>
       </c>
       <c r="D12" t="n">
@@ -7127,11 +7127,11 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>go_stimuli\puppy_17.jpeg</t>
+          <t>go_stimuli\puppy_29.jpg</t>
         </is>
       </c>
       <c r="D13" t="n">
@@ -7148,11 +7148,11 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>5.5</v>
+        <v>4</v>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>go_stimuli\puppy_27.jpg</t>
+          <t>go_stimuli\puppy_25.jpeg</t>
         </is>
       </c>
       <c r="D14" t="n">
@@ -7173,7 +7173,7 @@
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>go_stimuli\puppy_24.jpeg</t>
+          <t>go_stimuli\puppy_20.jpeg</t>
         </is>
       </c>
       <c r="D15" t="n">
@@ -7190,11 +7190,11 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>5.5</v>
+        <v>4.5</v>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>go_stimuli\puppy_1.jpg</t>
+          <t>go_stimuli\puppy_16.jpeg</t>
         </is>
       </c>
       <c r="D16" t="n">
@@ -7211,11 +7211,11 @@
         <v>15</v>
       </c>
       <c r="B17" t="n">
-        <v>5.5</v>
+        <v>4</v>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>go_stimuli\puppy_15.jpeg</t>
+          <t>go_stimuli\puppy_14.jpeg</t>
         </is>
       </c>
       <c r="D17" t="n">
@@ -7232,11 +7232,11 @@
         <v>16</v>
       </c>
       <c r="B18" t="n">
-        <v>4.5</v>
+        <v>5.5</v>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>go_stimuli\puppy_22.jpeg</t>
+          <t>go_stimuli\puppy_19.jpeg</t>
         </is>
       </c>
       <c r="D18" t="n">
@@ -7257,7 +7257,7 @@
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>go_stimuli\puppy_13.jpg</t>
+          <t>go_stimuli\puppy_9.jpg</t>
         </is>
       </c>
       <c r="D19" t="n">
@@ -7274,11 +7274,11 @@
         <v>18</v>
       </c>
       <c r="B20" t="n">
-        <v>4</v>
+        <v>5.5</v>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>go_stimuli\puppy_28.jpg</t>
+          <t>go_stimuli\puppy_7.jpg</t>
         </is>
       </c>
       <c r="D20" t="n">
@@ -7295,11 +7295,11 @@
         <v>19</v>
       </c>
       <c r="B21" t="n">
-        <v>6.5</v>
+        <v>5</v>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>go_stimuli\puppy_16.jpeg</t>
+          <t>go_stimuli\puppy_2.jpg</t>
         </is>
       </c>
       <c r="D21" t="n">
@@ -7357,19 +7357,19 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>4</v>
+        <v>6.5</v>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>go_stimuli\puppy_29.jpg</t>
+          <t>no_go_stimuli\spider_25.jpg</t>
         </is>
       </c>
       <c r="D2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>space</t>
+          <t>None</t>
         </is>
       </c>
     </row>
@@ -7378,11 +7378,11 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>go_stimuli\puppy_10.jpg</t>
+          <t>go_stimuli\puppy_12.jpeg</t>
         </is>
       </c>
       <c r="D3" t="n">
@@ -7399,19 +7399,19 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>4.5</v>
+        <v>6</v>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>no_go_stimuli\spider_13.jpeg</t>
+          <t>go_stimuli\puppy_14.jpeg</t>
         </is>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>space</t>
         </is>
       </c>
     </row>
@@ -7420,19 +7420,19 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>6.5</v>
+        <v>5</v>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>go_stimuli\puppy_26.jpeg</t>
+          <t>no_go_stimuli\spider_8.jpeg</t>
         </is>
       </c>
       <c r="D5" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>space</t>
+          <t>None</t>
         </is>
       </c>
     </row>
@@ -7441,11 +7441,11 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>5.5</v>
+        <v>6.5</v>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>go_stimuli\puppy_25.jpeg</t>
+          <t>go_stimuli\puppy_11.jpeg</t>
         </is>
       </c>
       <c r="D6" t="n">
@@ -7462,11 +7462,11 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>4.5</v>
+        <v>5</v>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>no_go_stimuli\spider_24.jpeg</t>
+          <t>no_go_stimuli\spider_1.jpeg</t>
         </is>
       </c>
       <c r="D7" t="n">
@@ -7483,11 +7483,11 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>4</v>
+        <v>5.5</v>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>no_go_stimuli\spider_23.jpg</t>
+          <t>no_go_stimuli\spider_6.jpeg</t>
         </is>
       </c>
       <c r="D8" t="n">
@@ -7504,19 +7504,19 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>5.5</v>
+        <v>4</v>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>go_stimuli\puppy_21.jpeg</t>
+          <t>no_go_stimuli\spider_11.jpeg</t>
         </is>
       </c>
       <c r="D9" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>space</t>
+          <t>None</t>
         </is>
       </c>
     </row>
@@ -7525,11 +7525,11 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>6.5</v>
+        <v>4.5</v>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>no_go_stimuli\spider_18.jpg</t>
+          <t>no_go_stimuli\spider_13.jpeg</t>
         </is>
       </c>
       <c r="D10" t="n">
@@ -7550,7 +7550,7 @@
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>go_stimuli\puppy_5.jpg</t>
+          <t>go_stimuli\puppy_17.jpeg</t>
         </is>
       </c>
       <c r="D11" t="n">
@@ -7567,19 +7567,19 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>no_go_stimuli\spider_26.jpg</t>
+          <t>go_stimuli\puppy_10.jpg</t>
         </is>
       </c>
       <c r="D12" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>space</t>
         </is>
       </c>
     </row>
@@ -7588,19 +7588,19 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>4.5</v>
+        <v>6</v>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>go_stimuli\puppy_2.jpg</t>
+          <t>no_go_stimuli\spider_19.jpg</t>
         </is>
       </c>
       <c r="D13" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>space</t>
+          <t>None</t>
         </is>
       </c>
     </row>
@@ -7609,19 +7609,19 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>6.5</v>
+        <v>6</v>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>go_stimuli\puppy_23.jpeg</t>
+          <t>no_go_stimuli\spider_10.jpeg</t>
         </is>
       </c>
       <c r="D14" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>space</t>
+          <t>None</t>
         </is>
       </c>
     </row>
@@ -7630,19 +7630,19 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>4.5</v>
+        <v>5.5</v>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>go_stimuli\puppy_15.jpeg</t>
+          <t>no_go_stimuli\spider_7.jpeg</t>
         </is>
       </c>
       <c r="D15" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>space</t>
+          <t>None</t>
         </is>
       </c>
     </row>
@@ -7651,19 +7651,19 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>5.5</v>
+        <v>6</v>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>no_go_stimuli\spider_3.jpeg</t>
+          <t>go_stimuli\puppy_7.jpg</t>
         </is>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>space</t>
         </is>
       </c>
     </row>
@@ -7672,19 +7672,19 @@
         <v>15</v>
       </c>
       <c r="B17" t="n">
-        <v>5</v>
+        <v>5.5</v>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>no_go_stimuli\spider_14.jpeg</t>
+          <t>go_stimuli\puppy_15.jpeg</t>
         </is>
       </c>
       <c r="D17" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>space</t>
         </is>
       </c>
     </row>
@@ -7693,11 +7693,11 @@
         <v>16</v>
       </c>
       <c r="B18" t="n">
-        <v>6.5</v>
+        <v>5.5</v>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>go_stimuli\puppy_22.jpeg</t>
+          <t>go_stimuli\puppy_16.jpeg</t>
         </is>
       </c>
       <c r="D18" t="n">
@@ -7714,11 +7714,11 @@
         <v>17</v>
       </c>
       <c r="B19" t="n">
-        <v>5.5</v>
+        <v>5</v>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>no_go_stimuli\spider_20.jpg</t>
+          <t>no_go_stimuli\spider_9.jpeg</t>
         </is>
       </c>
       <c r="D19" t="n">
@@ -7735,19 +7735,19 @@
         <v>18</v>
       </c>
       <c r="B20" t="n">
-        <v>6.5</v>
+        <v>5.5</v>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>no_go_stimuli\spider_21.jpg</t>
+          <t>go_stimuli\puppy_23.jpeg</t>
         </is>
       </c>
       <c r="D20" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>space</t>
         </is>
       </c>
     </row>
@@ -7756,19 +7756,19 @@
         <v>19</v>
       </c>
       <c r="B21" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>no_go_stimuli\spider_22.jpg</t>
+          <t>go_stimuli\puppy_26.jpeg</t>
         </is>
       </c>
       <c r="D21" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>space</t>
         </is>
       </c>
     </row>
@@ -7818,17 +7818,17 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="D2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>right</t>
+          <t>left</t>
         </is>
       </c>
     </row>
@@ -7837,17 +7837,17 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C3" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>left</t>
+          <t>right</t>
         </is>
       </c>
     </row>
@@ -7856,10 +7856,10 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="C4" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
@@ -7875,10 +7875,10 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="C5" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="D5" t="n">
         <v>0</v>
@@ -7894,17 +7894,17 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C6" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="D6" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>left</t>
+          <t>right</t>
         </is>
       </c>
     </row>
@@ -7913,10 +7913,10 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="C7" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="D7" t="n">
         <v>1</v>
@@ -7932,17 +7932,17 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="C8" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="D8" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>right</t>
+          <t>left</t>
         </is>
       </c>
     </row>
@@ -7954,7 +7954,7 @@
         <v>0</v>
       </c>
       <c r="C9" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="D9" t="n">
         <v>0</v>
@@ -7970,10 +7970,10 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="C10" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="D10" t="n">
         <v>1</v>
@@ -7989,17 +7989,17 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="C11" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="D11" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>right</t>
+          <t>left</t>
         </is>
       </c>
     </row>
@@ -8008,17 +8008,17 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C12" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="D12" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>left</t>
+          <t>right</t>
         </is>
       </c>
     </row>
@@ -8027,10 +8027,10 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="C13" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="D13" t="n">
         <v>1</v>
@@ -8046,10 +8046,10 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C14" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="D14" t="n">
         <v>0</v>
@@ -8065,17 +8065,17 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="C15" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="D15" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>left</t>
+          <t>right</t>
         </is>
       </c>
     </row>
@@ -8084,10 +8084,10 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="C16" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="D16" t="n">
         <v>0</v>
@@ -8103,17 +8103,17 @@
         <v>15</v>
       </c>
       <c r="B17" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="C17" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="D17" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>right</t>
+          <t>left</t>
         </is>
       </c>
     </row>
@@ -8122,17 +8122,17 @@
         <v>16</v>
       </c>
       <c r="B18" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="C18" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="D18" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>right</t>
+          <t>left</t>
         </is>
       </c>
     </row>
@@ -8141,10 +8141,10 @@
         <v>17</v>
       </c>
       <c r="B19" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C19" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="D19" t="n">
         <v>0</v>
@@ -8160,17 +8160,17 @@
         <v>18</v>
       </c>
       <c r="B20" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C20" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="D20" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>left</t>
+          <t>right</t>
         </is>
       </c>
     </row>
@@ -8179,10 +8179,10 @@
         <v>19</v>
       </c>
       <c r="B21" t="n">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="C21" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="D21" t="n">
         <v>0</v>
@@ -8239,17 +8239,17 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="C2" t="n">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="D2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>right</t>
+          <t>left</t>
         </is>
       </c>
     </row>
@@ -8258,17 +8258,17 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="C3" t="n">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>left</t>
+          <t>right</t>
         </is>
       </c>
     </row>
@@ -8277,17 +8277,17 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C4" t="n">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>left</t>
+          <t>right</t>
         </is>
       </c>
     </row>
@@ -8296,17 +8296,17 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="C5" t="n">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>left</t>
+          <t>right</t>
         </is>
       </c>
     </row>
@@ -8315,10 +8315,10 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C6" t="n">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="D6" t="n">
         <v>0</v>
@@ -8334,17 +8334,17 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="C7" t="n">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="D7" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>right</t>
+          <t>left</t>
         </is>
       </c>
     </row>
@@ -8353,17 +8353,17 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="C8" t="n">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="D8" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>right</t>
+          <t>left</t>
         </is>
       </c>
     </row>
@@ -8372,10 +8372,10 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="C9" t="n">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="D9" t="n">
         <v>1</v>
@@ -8391,10 +8391,10 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="C10" t="n">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="D10" t="n">
         <v>1</v>
@@ -8410,17 +8410,17 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C11" t="n">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="D11" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>left</t>
+          <t>right</t>
         </is>
       </c>
     </row>
@@ -8429,10 +8429,10 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="C12" t="n">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="D12" t="n">
         <v>1</v>
@@ -8448,10 +8448,10 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="C13" t="n">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="D13" t="n">
         <v>1</v>
@@ -8467,17 +8467,17 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C14" t="n">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="D14" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>right</t>
+          <t>left</t>
         </is>
       </c>
     </row>
@@ -8486,10 +8486,10 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="C15" t="n">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="D15" t="n">
         <v>0</v>
@@ -8505,10 +8505,10 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="C16" t="n">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="D16" t="n">
         <v>0</v>
@@ -8524,10 +8524,10 @@
         <v>15</v>
       </c>
       <c r="B17" t="n">
+        <v>5</v>
+      </c>
+      <c r="C17" t="n">
         <v>8</v>
-      </c>
-      <c r="C17" t="n">
-        <v>3</v>
       </c>
       <c r="D17" t="n">
         <v>0</v>
@@ -8543,10 +8543,10 @@
         <v>16</v>
       </c>
       <c r="B18" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="C18" t="n">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="D18" t="n">
         <v>0</v>
@@ -8562,10 +8562,10 @@
         <v>17</v>
       </c>
       <c r="B19" t="n">
+        <v>6</v>
+      </c>
+      <c r="C19" t="n">
         <v>8</v>
-      </c>
-      <c r="C19" t="n">
-        <v>3</v>
       </c>
       <c r="D19" t="n">
         <v>0</v>
@@ -8581,17 +8581,17 @@
         <v>18</v>
       </c>
       <c r="B20" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="C20" t="n">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="D20" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>right</t>
+          <t>left</t>
         </is>
       </c>
     </row>
@@ -8600,10 +8600,10 @@
         <v>19</v>
       </c>
       <c r="B21" t="n">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="C21" t="n">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="D21" t="n">
         <v>0</v>
@@ -8660,17 +8660,17 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C2" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>right</t>
+          <t>left</t>
         </is>
       </c>
     </row>
@@ -8679,17 +8679,17 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="C3" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>right</t>
+          <t>left</t>
         </is>
       </c>
     </row>
@@ -8698,10 +8698,10 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="C4" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
@@ -8717,10 +8717,10 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
         <v>1</v>
@@ -8736,10 +8736,10 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="C6" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="D6" t="n">
         <v>0</v>
@@ -8755,10 +8755,10 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C7" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
         <v>0</v>
@@ -8774,10 +8774,10 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
         <v>1</v>
@@ -8793,10 +8793,10 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="C9" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="D9" t="n">
         <v>0</v>
@@ -8812,17 +8812,17 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="C10" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>right</t>
+          <t>left</t>
         </is>
       </c>
     </row>
@@ -8831,10 +8831,10 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="C11" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="D11" t="n">
         <v>1</v>
@@ -8850,10 +8850,10 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="C12" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="D12" t="n">
         <v>1</v>
@@ -8869,17 +8869,17 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>left</t>
+          <t>right</t>
         </is>
       </c>
     </row>
@@ -8888,10 +8888,10 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="C14" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="D14" t="n">
         <v>1</v>
@@ -8907,10 +8907,10 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="C15" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="D15" t="n">
         <v>0</v>
@@ -8926,10 +8926,10 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C16" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
         <v>0</v>
@@ -8945,17 +8945,17 @@
         <v>15</v>
       </c>
       <c r="B17" t="n">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="C17" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="D17" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>left</t>
+          <t>right</t>
         </is>
       </c>
     </row>
@@ -8964,17 +8964,17 @@
         <v>16</v>
       </c>
       <c r="B18" t="n">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="C18" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="D18" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>left</t>
+          <t>right</t>
         </is>
       </c>
     </row>
@@ -8983,10 +8983,10 @@
         <v>17</v>
       </c>
       <c r="B19" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="C19" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="D19" t="n">
         <v>0</v>
@@ -9005,7 +9005,7 @@
         <v>8</v>
       </c>
       <c r="C20" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="D20" t="n">
         <v>0</v>
@@ -9024,7 +9024,7 @@
         <v>4</v>
       </c>
       <c r="C21" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="D21" t="n">
         <v>0</v>
@@ -9076,7 +9076,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
@@ -9092,14 +9092,14 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="C3" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>right</t>
+          <t>left</t>
         </is>
       </c>
     </row>
@@ -9108,14 +9108,14 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>left</t>
+          <t>right</t>
         </is>
       </c>
     </row>
@@ -9124,7 +9124,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="C5" t="n">
         <v>0</v>
@@ -9140,7 +9140,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="C6" t="n">
         <v>0</v>
@@ -9172,14 +9172,14 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>left</t>
+          <t>right</t>
         </is>
       </c>
     </row>
@@ -9188,7 +9188,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="C9" t="n">
         <v>1</v>
@@ -9204,14 +9204,14 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="C10" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>right</t>
+          <t>left</t>
         </is>
       </c>
     </row>
@@ -9220,7 +9220,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="C11" t="n">
         <v>0</v>
@@ -9236,14 +9236,14 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="C12" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>left</t>
+          <t>right</t>
         </is>
       </c>
     </row>
@@ -9252,14 +9252,14 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="C13" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>right</t>
+          <t>left</t>
         </is>
       </c>
     </row>
@@ -9268,7 +9268,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="C14" t="n">
         <v>1</v>
@@ -9287,11 +9287,11 @@
         <v>6</v>
       </c>
       <c r="C15" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>right</t>
+          <t>left</t>
         </is>
       </c>
     </row>
@@ -9300,14 +9300,14 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>left</t>
+          <t>right</t>
         </is>
       </c>
     </row>
@@ -9316,7 +9316,7 @@
         <v>15</v>
       </c>
       <c r="B17" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="C17" t="n">
         <v>0</v>
@@ -9332,14 +9332,14 @@
         <v>16</v>
       </c>
       <c r="B18" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="C18" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>right</t>
+          <t>left</t>
         </is>
       </c>
     </row>
@@ -9348,14 +9348,14 @@
         <v>17</v>
       </c>
       <c r="B19" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>left</t>
+          <t>right</t>
         </is>
       </c>
     </row>
@@ -9364,7 +9364,7 @@
         <v>18</v>
       </c>
       <c r="B20" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C20" t="n">
         <v>0</v>
@@ -9380,7 +9380,7 @@
         <v>19</v>
       </c>
       <c r="B21" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C21" t="n">
         <v>1</v>
@@ -9432,7 +9432,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
@@ -9448,14 +9448,14 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C3" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>right</t>
+          <t>left</t>
         </is>
       </c>
     </row>
@@ -9464,14 +9464,14 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>left</t>
+          <t>right</t>
         </is>
       </c>
     </row>
@@ -9480,7 +9480,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C5" t="n">
         <v>0</v>
@@ -9496,7 +9496,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="C6" t="n">
         <v>0</v>
@@ -9512,14 +9512,14 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="C7" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>right</t>
+          <t>left</t>
         </is>
       </c>
     </row>
@@ -9528,7 +9528,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="C8" t="n">
         <v>1</v>
@@ -9544,14 +9544,14 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C9" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>left</t>
+          <t>right</t>
         </is>
       </c>
     </row>
@@ -9560,14 +9560,14 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>left</t>
+          <t>right</t>
         </is>
       </c>
     </row>
@@ -9576,7 +9576,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C11" t="n">
         <v>0</v>
@@ -9592,14 +9592,14 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="C12" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>right</t>
+          <t>left</t>
         </is>
       </c>
     </row>
@@ -9608,7 +9608,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="C13" t="n">
         <v>1</v>
@@ -9624,7 +9624,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C14" t="n">
         <v>0</v>
@@ -9640,7 +9640,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C15" t="n">
         <v>0</v>
@@ -9656,14 +9656,14 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C16" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>right</t>
+          <t>left</t>
         </is>
       </c>
     </row>
@@ -9672,14 +9672,14 @@
         <v>15</v>
       </c>
       <c r="B17" t="n">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="C17" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>right</t>
+          <t>left</t>
         </is>
       </c>
     </row>
@@ -9704,14 +9704,14 @@
         <v>17</v>
       </c>
       <c r="B19" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>left</t>
+          <t>right</t>
         </is>
       </c>
     </row>
@@ -9720,7 +9720,7 @@
         <v>18</v>
       </c>
       <c r="B20" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="C20" t="n">
         <v>1</v>
@@ -9736,14 +9736,14 @@
         <v>19</v>
       </c>
       <c r="B21" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="C21" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>left</t>
+          <t>right</t>
         </is>
       </c>
     </row>

--- a/participants/participant_44/participant_44_conditions.xlsx
+++ b/participants/participant_44/participant_44_conditions.xlsx
@@ -7,29 +7,29 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="go_stims-16509961855647092" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet name="GNG_stims-16509961855807104" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet name="go_stims-16509961855807104" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet name="GNG_stims-1650996185596717" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet name="ZB-match_1-16509961856127052" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet name="ZB-match_8-16509961857648528" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet name="ZB-match_0-16509961862128587" sheetId="7" state="visible" r:id="rId7"/>
-    <sheet name="OB-16509961865088506" sheetId="8" state="visible" r:id="rId8"/>
-    <sheet name="OB-16509961867968934" sheetId="9" state="visible" r:id="rId9"/>
-    <sheet name="OB-16509961871088865" sheetId="10" state="visible" r:id="rId10"/>
-    <sheet name="TB-16509961878848526" sheetId="11" state="visible" r:id="rId11"/>
-    <sheet name="TB-16509961879648504" sheetId="12" state="visible" r:id="rId12"/>
-    <sheet name="TB-16509961881968522" sheetId="13" state="visible" r:id="rId13"/>
-    <sheet name="ZM_stims-16509961882208536" sheetId="14" state="visible" r:id="rId14"/>
-    <sheet name="MM_stims-16509961882448866" sheetId="15" state="visible" r:id="rId15"/>
-    <sheet name="ZM_stims-16509961882448866" sheetId="16" state="visible" r:id="rId16"/>
-    <sheet name="MM_stims-16509961882608871" sheetId="17" state="visible" r:id="rId17"/>
-    <sheet name="ZM_stims-16509961882608871" sheetId="18" state="visible" r:id="rId18"/>
-    <sheet name="MM_stims-16509961882848895" sheetId="19" state="visible" r:id="rId19"/>
-    <sheet name="SAT_stims-16509961882848895" sheetId="20" state="visible" r:id="rId20"/>
-    <sheet name="SAT_stims-16509961883008556" sheetId="21" state="visible" r:id="rId21"/>
-    <sheet name="vSAT_stims-16509961883168945" sheetId="22" state="visible" r:id="rId22"/>
-    <sheet name="vSAT_stims-1650996188332888" sheetId="23" state="visible" r:id="rId23"/>
+    <sheet name="go_stims-1651168788470268" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="GNG_stims-16511687884864688" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="go_stims-1651168788488522" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet name="GNG_stims-16511687885020905" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet name="ZB-match_0-16511687887473655" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet name="ZB-match_1-16511687889557023" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet name="ZB-match_6-16511687890541265" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet name="OB-16511687894708748" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet name="OB-16511687895888684" sheetId="9" state="visible" r:id="rId9"/>
+    <sheet name="OB-16511687896532602" sheetId="10" state="visible" r:id="rId10"/>
+    <sheet name="TB-16511687902622168" sheetId="11" state="visible" r:id="rId11"/>
+    <sheet name="TB-16511687906133595" sheetId="12" state="visible" r:id="rId12"/>
+    <sheet name="TB-1651168790827463" sheetId="13" state="visible" r:id="rId13"/>
+    <sheet name="ZM_stims-16511687908504066" sheetId="14" state="visible" r:id="rId14"/>
+    <sheet name="MM_stims-1651168790863413" sheetId="15" state="visible" r:id="rId15"/>
+    <sheet name="ZM_stims-16511687908644133" sheetId="16" state="visible" r:id="rId16"/>
+    <sheet name="MM_stims-16511687908790789" sheetId="17" state="visible" r:id="rId17"/>
+    <sheet name="ZM_stims-16511687908800852" sheetId="18" state="visible" r:id="rId18"/>
+    <sheet name="MM_stims-16511687909010339" sheetId="19" state="visible" r:id="rId19"/>
+    <sheet name="SAT_stims-16511687909067614" sheetId="20" state="visible" r:id="rId20"/>
+    <sheet name="SAT_stims-16511687909327872" sheetId="21" state="visible" r:id="rId21"/>
+    <sheet name="vSAT_stims-1651168790948446" sheetId="22" state="visible" r:id="rId22"/>
+    <sheet name="vSAT_stims-16511687909793124" sheetId="23" state="visible" r:id="rId23"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -482,11 +482,11 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>6</v>
+        <v>4.5</v>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>go_stimuli\puppy_26.jpeg</t>
+          <t>go_stimuli\puppy_10.jpg</t>
         </is>
       </c>
       <c r="D2" t="n">
@@ -503,11 +503,11 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>6.5</v>
+        <v>4.5</v>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>go_stimuli\puppy_24.jpeg</t>
+          <t>go_stimuli\puppy_30.jpg</t>
         </is>
       </c>
       <c r="D3" t="n">
@@ -524,11 +524,11 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>go_stimuli\puppy_17.jpeg</t>
+          <t>go_stimuli\puppy_5.jpg</t>
         </is>
       </c>
       <c r="D4" t="n">
@@ -549,7 +549,7 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>go_stimuli\puppy_11.jpeg</t>
+          <t>go_stimuli\puppy_24.jpeg</t>
         </is>
       </c>
       <c r="D5" t="n">
@@ -566,11 +566,11 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>4</v>
+        <v>6.5</v>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>go_stimuli\puppy_25.jpeg</t>
+          <t>go_stimuli\puppy_1.jpg</t>
         </is>
       </c>
       <c r="D6" t="n">
@@ -587,11 +587,11 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>6.5</v>
+        <v>6</v>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>go_stimuli\puppy_10.jpg</t>
+          <t>go_stimuli\puppy_25.jpeg</t>
         </is>
       </c>
       <c r="D7" t="n">
@@ -608,11 +608,11 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>5.5</v>
+        <v>4.5</v>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>go_stimuli\puppy_28.jpg</t>
+          <t>go_stimuli\puppy_27.jpg</t>
         </is>
       </c>
       <c r="D8" t="n">
@@ -629,11 +629,11 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>5.5</v>
+        <v>4.5</v>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>go_stimuli\puppy_6.jpg</t>
+          <t>go_stimuli\puppy_29.jpg</t>
         </is>
       </c>
       <c r="D9" t="n">
@@ -650,11 +650,11 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>6</v>
+        <v>5.5</v>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>go_stimuli\puppy_12.jpeg</t>
+          <t>go_stimuli\puppy_4.jpg</t>
         </is>
       </c>
       <c r="D10" t="n">
@@ -671,11 +671,11 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>6.5</v>
+        <v>6</v>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>go_stimuli\puppy_1.jpg</t>
+          <t>go_stimuli\puppy_7.jpg</t>
         </is>
       </c>
       <c r="D11" t="n">
@@ -692,11 +692,11 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>5.5</v>
+        <v>5</v>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>go_stimuli\puppy_2.jpg</t>
+          <t>go_stimuli\puppy_19.jpeg</t>
         </is>
       </c>
       <c r="D12" t="n">
@@ -713,11 +713,11 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>5</v>
+        <v>4.5</v>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>go_stimuli\puppy_23.jpeg</t>
+          <t>go_stimuli\puppy_28.jpg</t>
         </is>
       </c>
       <c r="D13" t="n">
@@ -734,11 +734,11 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>6.5</v>
+        <v>5</v>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>go_stimuli\puppy_9.jpg</t>
+          <t>go_stimuli\puppy_13.jpg</t>
         </is>
       </c>
       <c r="D14" t="n">
@@ -755,7 +755,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>6</v>
+        <v>4.5</v>
       </c>
       <c r="C15" t="inlineStr">
         <is>
@@ -776,11 +776,11 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>5.5</v>
+        <v>4.5</v>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>go_stimuli\puppy_19.jpeg</t>
+          <t>go_stimuli\puppy_8.jpg</t>
         </is>
       </c>
       <c r="D16" t="n">
@@ -797,11 +797,11 @@
         <v>15</v>
       </c>
       <c r="B17" t="n">
-        <v>6</v>
+        <v>5.5</v>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>go_stimuli\puppy_14.jpeg</t>
+          <t>go_stimuli\puppy_23.jpeg</t>
         </is>
       </c>
       <c r="D17" t="n">
@@ -818,11 +818,11 @@
         <v>16</v>
       </c>
       <c r="B18" t="n">
-        <v>5.5</v>
+        <v>6.5</v>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>go_stimuli\puppy_22.jpeg</t>
+          <t>go_stimuli\puppy_3.jpg</t>
         </is>
       </c>
       <c r="D18" t="n">
@@ -839,11 +839,11 @@
         <v>17</v>
       </c>
       <c r="B19" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>go_stimuli\puppy_7.jpg</t>
+          <t>go_stimuli\puppy_11.jpeg</t>
         </is>
       </c>
       <c r="D19" t="n">
@@ -860,11 +860,11 @@
         <v>18</v>
       </c>
       <c r="B20" t="n">
-        <v>4.5</v>
+        <v>5.5</v>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>go_stimuli\puppy_3.jpg</t>
+          <t>go_stimuli\puppy_9.jpg</t>
         </is>
       </c>
       <c r="D20" t="n">
@@ -881,11 +881,11 @@
         <v>19</v>
       </c>
       <c r="B21" t="n">
-        <v>6</v>
+        <v>6.5</v>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>go_stimuli\puppy_15.jpeg</t>
+          <t>go_stimuli\puppy_14.jpeg</t>
         </is>
       </c>
       <c r="D21" t="n">
@@ -938,7 +938,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
@@ -954,7 +954,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -970,14 +970,14 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="C4" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>right</t>
+          <t>left</t>
         </is>
       </c>
     </row>
@@ -986,7 +986,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="C5" t="n">
         <v>1</v>
@@ -1002,14 +1002,14 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="C6" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>right</t>
+          <t>left</t>
         </is>
       </c>
     </row>
@@ -1018,14 +1018,14 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C7" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>right</t>
+          <t>left</t>
         </is>
       </c>
     </row>
@@ -1034,14 +1034,14 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>left</t>
+          <t>right</t>
         </is>
       </c>
     </row>
@@ -1050,14 +1050,14 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C9" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>left</t>
+          <t>right</t>
         </is>
       </c>
     </row>
@@ -1066,7 +1066,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C10" t="n">
         <v>1</v>
@@ -1082,14 +1082,14 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C11" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>left</t>
+          <t>right</t>
         </is>
       </c>
     </row>
@@ -1098,14 +1098,14 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="C12" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>left</t>
+          <t>right</t>
         </is>
       </c>
     </row>
@@ -1114,7 +1114,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
         <v>0</v>
@@ -1130,14 +1130,14 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="C14" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>right</t>
+          <t>left</t>
         </is>
       </c>
     </row>
@@ -1146,14 +1146,14 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="C15" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>left</t>
+          <t>right</t>
         </is>
       </c>
     </row>
@@ -1162,7 +1162,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="C16" t="n">
         <v>0</v>
@@ -1178,14 +1178,14 @@
         <v>15</v>
       </c>
       <c r="B17" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C17" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>right</t>
+          <t>left</t>
         </is>
       </c>
     </row>
@@ -1194,14 +1194,14 @@
         <v>16</v>
       </c>
       <c r="B18" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="C18" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>right</t>
+          <t>left</t>
         </is>
       </c>
     </row>
@@ -1210,7 +1210,7 @@
         <v>17</v>
       </c>
       <c r="B19" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="C19" t="n">
         <v>0</v>
@@ -1226,14 +1226,14 @@
         <v>18</v>
       </c>
       <c r="B20" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C20" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>left</t>
+          <t>right</t>
         </is>
       </c>
     </row>
@@ -1242,14 +1242,14 @@
         <v>19</v>
       </c>
       <c r="B21" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="C21" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>left</t>
+          <t>right</t>
         </is>
       </c>
     </row>
@@ -1294,7 +1294,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
@@ -1310,7 +1310,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -1326,14 +1326,14 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="C4" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>right</t>
+          <t>left</t>
         </is>
       </c>
     </row>
@@ -1342,14 +1342,14 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>left</t>
+          <t>right</t>
         </is>
       </c>
     </row>
@@ -1358,7 +1358,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="C6" t="n">
         <v>0</v>
@@ -1374,7 +1374,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C7" t="n">
         <v>0</v>
@@ -1390,14 +1390,14 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C8" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>right</t>
+          <t>left</t>
         </is>
       </c>
     </row>
@@ -1406,7 +1406,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C9" t="n">
         <v>0</v>
@@ -1422,7 +1422,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C10" t="n">
         <v>1</v>
@@ -1438,7 +1438,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C11" t="n">
         <v>1</v>
@@ -1454,7 +1454,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C12" t="n">
         <v>1</v>
@@ -1470,14 +1470,14 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>left</t>
+          <t>right</t>
         </is>
       </c>
     </row>
@@ -1486,14 +1486,14 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C14" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>right</t>
+          <t>left</t>
         </is>
       </c>
     </row>
@@ -1502,14 +1502,14 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C15" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>right</t>
+          <t>left</t>
         </is>
       </c>
     </row>
@@ -1518,7 +1518,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="C16" t="n">
         <v>0</v>
@@ -1534,14 +1534,14 @@
         <v>15</v>
       </c>
       <c r="B17" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C17" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>left</t>
+          <t>right</t>
         </is>
       </c>
     </row>
@@ -1550,14 +1550,14 @@
         <v>16</v>
       </c>
       <c r="B18" t="n">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="C18" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>left</t>
+          <t>right</t>
         </is>
       </c>
     </row>
@@ -1566,14 +1566,14 @@
         <v>17</v>
       </c>
       <c r="B19" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>right</t>
+          <t>left</t>
         </is>
       </c>
     </row>
@@ -1582,7 +1582,7 @@
         <v>18</v>
       </c>
       <c r="B20" t="n">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="C20" t="n">
         <v>0</v>
@@ -1601,11 +1601,11 @@
         <v>0</v>
       </c>
       <c r="C21" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>left</t>
+          <t>right</t>
         </is>
       </c>
     </row>
@@ -1650,7 +1650,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
@@ -1666,7 +1666,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -1682,14 +1682,14 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="C4" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>right</t>
+          <t>left</t>
         </is>
       </c>
     </row>
@@ -1698,14 +1698,14 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="C5" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>right</t>
+          <t>left</t>
         </is>
       </c>
     </row>
@@ -1714,7 +1714,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C6" t="n">
         <v>0</v>
@@ -1730,7 +1730,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="C7" t="n">
         <v>0</v>
@@ -1746,7 +1746,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
         <v>0</v>
@@ -1762,7 +1762,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="C9" t="n">
         <v>1</v>
@@ -1778,7 +1778,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
         <v>1</v>
@@ -1794,14 +1794,14 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="C11" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>left</t>
+          <t>right</t>
         </is>
       </c>
     </row>
@@ -1810,7 +1810,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="C12" t="n">
         <v>0</v>
@@ -1826,14 +1826,14 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>left</t>
+          <t>right</t>
         </is>
       </c>
     </row>
@@ -1842,7 +1842,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C14" t="n">
         <v>0</v>
@@ -1858,7 +1858,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="C15" t="n">
         <v>1</v>
@@ -1874,7 +1874,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C16" t="n">
         <v>1</v>
@@ -1890,14 +1890,14 @@
         <v>15</v>
       </c>
       <c r="B17" t="n">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="C17" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>left</t>
+          <t>right</t>
         </is>
       </c>
     </row>
@@ -1906,7 +1906,7 @@
         <v>16</v>
       </c>
       <c r="B18" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C18" t="n">
         <v>1</v>
@@ -1922,7 +1922,7 @@
         <v>17</v>
       </c>
       <c r="B19" t="n">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C19" t="n">
         <v>0</v>
@@ -1938,14 +1938,14 @@
         <v>18</v>
       </c>
       <c r="B20" t="n">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="C20" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>right</t>
+          <t>left</t>
         </is>
       </c>
     </row>
@@ -1954,7 +1954,7 @@
         <v>19</v>
       </c>
       <c r="B21" t="n">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="C21" t="n">
         <v>0</v>
@@ -2006,7 +2006,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
@@ -2022,7 +2022,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -2038,7 +2038,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -2054,14 +2054,14 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>right</t>
+          <t>left</t>
         </is>
       </c>
     </row>
@@ -2070,14 +2070,14 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="C6" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>right</t>
+          <t>left</t>
         </is>
       </c>
     </row>
@@ -2086,14 +2086,14 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>left</t>
+          <t>right</t>
         </is>
       </c>
     </row>
@@ -2102,7 +2102,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="C8" t="n">
         <v>0</v>
@@ -2118,7 +2118,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="C9" t="n">
         <v>0</v>
@@ -2134,14 +2134,14 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="C10" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>right</t>
+          <t>left</t>
         </is>
       </c>
     </row>
@@ -2150,7 +2150,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="C11" t="n">
         <v>1</v>
@@ -2166,14 +2166,14 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C12" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>left</t>
+          <t>right</t>
         </is>
       </c>
     </row>
@@ -2182,7 +2182,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C13" t="n">
         <v>0</v>
@@ -2198,7 +2198,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C14" t="n">
         <v>1</v>
@@ -2214,7 +2214,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C15" t="n">
         <v>1</v>
@@ -2230,14 +2230,14 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>left</t>
+          <t>right</t>
         </is>
       </c>
     </row>
@@ -2246,7 +2246,7 @@
         <v>15</v>
       </c>
       <c r="B17" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C17" t="n">
         <v>0</v>
@@ -2262,7 +2262,7 @@
         <v>16</v>
       </c>
       <c r="B18" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="C18" t="n">
         <v>1</v>
@@ -2278,14 +2278,14 @@
         <v>17</v>
       </c>
       <c r="B19" t="n">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="C19" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>right</t>
+          <t>left</t>
         </is>
       </c>
     </row>
@@ -2294,14 +2294,14 @@
         <v>18</v>
       </c>
       <c r="B20" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C20" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>left</t>
+          <t>right</t>
         </is>
       </c>
     </row>
@@ -2310,7 +2310,7 @@
         <v>19</v>
       </c>
       <c r="B21" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C21" t="n">
         <v>0</v>
@@ -2363,7 +2363,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>zero_move_stimuli\zero_move_1.jpg</t>
+          <t>zero_move_stimuli\zero_move_6.jpg</t>
         </is>
       </c>
       <c r="C2" t="n">
@@ -2381,7 +2381,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>zero_move_stimuli\zero_move_6.jpg</t>
+          <t>zero_move_stimuli\zero_move_4.jpg</t>
         </is>
       </c>
       <c r="C3" t="n">
@@ -2417,7 +2417,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>zero_move_stimuli\zero_move_5.jpg</t>
+          <t>zero_move_stimuli\zero_move_1.jpg</t>
         </is>
       </c>
       <c r="C5" t="n">
@@ -2435,7 +2435,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>zero_move_stimuli\zero_move_4.jpg</t>
+          <t>zero_move_stimuli\zero_move_5.jpg</t>
         </is>
       </c>
       <c r="C6" t="n">
@@ -2507,15 +2507,15 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>multi_move_stimuli\stim_not_two_move\stim_not_two_move_5.jpg</t>
+          <t>multi_move_stimuli\stim_two_move\stim_two_move_4.jpg</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>left</t>
+          <t>right</t>
         </is>
       </c>
     </row>
@@ -2525,15 +2525,15 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>multi_move_stimuli\stim_two_move\stim_two_move_1.jpg</t>
+          <t>multi_move_stimuli\stim_not_two_move\stim_not_two_move_2.jpg</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>right</t>
+          <t>left</t>
         </is>
       </c>
     </row>
@@ -2543,15 +2543,15 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>multi_move_stimuli\stim_two_move\stim_two_move_5.jpg</t>
+          <t>multi_move_stimuli\stim_not_two_move\stim_not_two_move_3.jpg</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>right</t>
+          <t>left</t>
         </is>
       </c>
     </row>
@@ -2561,7 +2561,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>multi_move_stimuli\stim_not_two_move\stim_not_two_move_4.jpg</t>
+          <t>multi_move_stimuli\stim_not_two_move\stim_not_two_move_5.jpg</t>
         </is>
       </c>
       <c r="C5" t="n">
@@ -2579,15 +2579,15 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>multi_move_stimuli\stim_not_two_move\stim_not_two_move_3.jpg</t>
+          <t>multi_move_stimuli\stim_two_move\stim_two_move_1.jpg</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>left</t>
+          <t>right</t>
         </is>
       </c>
     </row>
@@ -2597,7 +2597,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>multi_move_stimuli\stim_two_move\stim_two_move_3.jpg</t>
+          <t>multi_move_stimuli\stim_two_move\stim_two_move_2.jpg</t>
         </is>
       </c>
       <c r="C7" t="n">
@@ -2651,7 +2651,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>zero_move_stimuli\zero_move_4.jpg</t>
+          <t>zero_move_stimuli\zero_move_3.jpg</t>
         </is>
       </c>
       <c r="C2" t="n">
@@ -2669,7 +2669,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>zero_move_stimuli\zero_move_5.jpg</t>
+          <t>zero_move_stimuli\zero_move_6.jpg</t>
         </is>
       </c>
       <c r="C3" t="n">
@@ -2687,7 +2687,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>zero_move_stimuli\zero_move_2.jpg</t>
+          <t>zero_move_stimuli\zero_move_5.jpg</t>
         </is>
       </c>
       <c r="C4" t="n">
@@ -2705,7 +2705,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>zero_move_stimuli\zero_move_3.jpg</t>
+          <t>zero_move_stimuli\zero_move_2.jpg</t>
         </is>
       </c>
       <c r="C5" t="n">
@@ -2723,7 +2723,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>zero_move_stimuli\zero_move_1.jpg</t>
+          <t>zero_move_stimuli\zero_move_4.jpg</t>
         </is>
       </c>
       <c r="C6" t="n">
@@ -2741,7 +2741,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>zero_move_stimuli\zero_move_6.jpg</t>
+          <t>zero_move_stimuli\zero_move_1.jpg</t>
         </is>
       </c>
       <c r="C7" t="n">
@@ -2795,7 +2795,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>multi_move_stimuli\stim_two_move\stim_two_move_1.jpg</t>
+          <t>multi_move_stimuli\stim_two_move\stim_two_move_6.jpg</t>
         </is>
       </c>
       <c r="C2" t="n">
@@ -2813,7 +2813,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>multi_move_stimuli\stim_not_two_move\stim_not_two_move_3.jpg</t>
+          <t>multi_move_stimuli\stim_not_two_move\stim_not_two_move_6.jpg</t>
         </is>
       </c>
       <c r="C3" t="n">
@@ -2831,7 +2831,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>multi_move_stimuli\stim_two_move\stim_two_move_3.jpg</t>
+          <t>multi_move_stimuli\stim_two_move\stim_two_move_4.jpg</t>
         </is>
       </c>
       <c r="C4" t="n">
@@ -2849,7 +2849,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>multi_move_stimuli\stim_not_two_move\stim_not_two_move_5.jpg</t>
+          <t>multi_move_stimuli\stim_not_two_move\stim_not_two_move_2.jpg</t>
         </is>
       </c>
       <c r="C5" t="n">
@@ -2867,7 +2867,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>multi_move_stimuli\stim_not_two_move\stim_not_two_move_6.jpg</t>
+          <t>multi_move_stimuli\stim_not_two_move\stim_not_two_move_4.jpg</t>
         </is>
       </c>
       <c r="C6" t="n">
@@ -2885,7 +2885,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>multi_move_stimuli\stim_two_move\stim_two_move_2.jpg</t>
+          <t>multi_move_stimuli\stim_two_move\stim_two_move_3.jpg</t>
         </is>
       </c>
       <c r="C7" t="n">
@@ -2939,7 +2939,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>zero_move_stimuli\zero_move_2.jpg</t>
+          <t>zero_move_stimuli\zero_move_3.jpg</t>
         </is>
       </c>
       <c r="C2" t="n">
@@ -2957,7 +2957,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>zero_move_stimuli\zero_move_3.jpg</t>
+          <t>zero_move_stimuli\zero_move_1.jpg</t>
         </is>
       </c>
       <c r="C3" t="n">
@@ -2975,7 +2975,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>zero_move_stimuli\zero_move_6.jpg</t>
+          <t>zero_move_stimuli\zero_move_5.jpg</t>
         </is>
       </c>
       <c r="C4" t="n">
@@ -2993,7 +2993,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>zero_move_stimuli\zero_move_1.jpg</t>
+          <t>zero_move_stimuli\zero_move_4.jpg</t>
         </is>
       </c>
       <c r="C5" t="n">
@@ -3011,7 +3011,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>zero_move_stimuli\zero_move_4.jpg</t>
+          <t>zero_move_stimuli\zero_move_2.jpg</t>
         </is>
       </c>
       <c r="C6" t="n">
@@ -3029,7 +3029,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>zero_move_stimuli\zero_move_5.jpg</t>
+          <t>zero_move_stimuli\zero_move_6.jpg</t>
         </is>
       </c>
       <c r="C7" t="n">
@@ -3083,7 +3083,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>multi_move_stimuli\stim_not_two_move\stim_not_two_move_5.jpg</t>
+          <t>multi_move_stimuli\stim_not_two_move\stim_not_two_move_1.jpg</t>
         </is>
       </c>
       <c r="C2" t="n">
@@ -3101,7 +3101,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>multi_move_stimuli\stim_not_two_move\stim_not_two_move_1.jpg</t>
+          <t>multi_move_stimuli\stim_not_two_move\stim_not_two_move_6.jpg</t>
         </is>
       </c>
       <c r="C3" t="n">
@@ -3119,7 +3119,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>multi_move_stimuli\stim_two_move\stim_two_move_6.jpg</t>
+          <t>multi_move_stimuli\stim_two_move\stim_two_move_2.jpg</t>
         </is>
       </c>
       <c r="C4" t="n">
@@ -3137,15 +3137,15 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>multi_move_stimuli\stim_not_two_move\stim_not_two_move_2.jpg</t>
+          <t>multi_move_stimuli\stim_two_move\stim_two_move_5.jpg</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>left</t>
+          <t>right</t>
         </is>
       </c>
     </row>
@@ -3155,15 +3155,15 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>multi_move_stimuli\stim_two_move\stim_two_move_3.jpg</t>
+          <t>multi_move_stimuli\stim_not_two_move\stim_not_two_move_5.jpg</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>right</t>
+          <t>left</t>
         </is>
       </c>
     </row>
@@ -3231,19 +3231,19 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>5.5</v>
+        <v>6</v>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>no_go_stimuli\spider_5.jpeg</t>
+          <t>go_stimuli\puppy_12.jpeg</t>
         </is>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>space</t>
         </is>
       </c>
     </row>
@@ -3256,7 +3256,7 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>no_go_stimuli\spider_15.jpeg</t>
+          <t>no_go_stimuli\spider_3.jpeg</t>
         </is>
       </c>
       <c r="D3" t="n">
@@ -3273,19 +3273,19 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>no_go_stimuli\spider_18.jpg</t>
+          <t>go_stimuli\puppy_10.jpg</t>
         </is>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>space</t>
         </is>
       </c>
     </row>
@@ -3298,15 +3298,15 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>go_stimuli\puppy_26.jpeg</t>
+          <t>no_go_stimuli\spider_8.jpeg</t>
         </is>
       </c>
       <c r="D5" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>space</t>
+          <t>None</t>
         </is>
       </c>
     </row>
@@ -3315,11 +3315,11 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>5</v>
+        <v>5.5</v>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>go_stimuli\puppy_16.jpeg</t>
+          <t>go_stimuli\puppy_13.jpg</t>
         </is>
       </c>
       <c r="D6" t="n">
@@ -3336,19 +3336,19 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>go_stimuli\puppy_27.jpg</t>
+          <t>no_go_stimuli\spider_29.jpg</t>
         </is>
       </c>
       <c r="D7" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>space</t>
+          <t>None</t>
         </is>
       </c>
     </row>
@@ -3361,15 +3361,15 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>go_stimuli\puppy_9.jpg</t>
+          <t>no_go_stimuli\spider_22.jpg</t>
         </is>
       </c>
       <c r="D8" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>space</t>
+          <t>None</t>
         </is>
       </c>
     </row>
@@ -3382,15 +3382,15 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>go_stimuli\puppy_17.jpeg</t>
+          <t>no_go_stimuli\spider_9.jpeg</t>
         </is>
       </c>
       <c r="D9" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>space</t>
+          <t>None</t>
         </is>
       </c>
     </row>
@@ -3399,19 +3399,19 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>4</v>
+        <v>4.5</v>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>go_stimuli\puppy_24.jpeg</t>
+          <t>no_go_stimuli\spider_18.jpg</t>
         </is>
       </c>
       <c r="D10" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>space</t>
+          <t>None</t>
         </is>
       </c>
     </row>
@@ -3420,11 +3420,11 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>4.5</v>
+        <v>5</v>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>no_go_stimuli\spider_11.jpeg</t>
+          <t>no_go_stimuli\spider_30.jpg</t>
         </is>
       </c>
       <c r="D11" t="n">
@@ -3441,19 +3441,19 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>go_stimuli\puppy_6.jpg</t>
+          <t>no_go_stimuli\spider_7.jpeg</t>
         </is>
       </c>
       <c r="D12" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>space</t>
+          <t>None</t>
         </is>
       </c>
     </row>
@@ -3466,15 +3466,15 @@
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>no_go_stimuli\spider_4.jpeg</t>
+          <t>go_stimuli\puppy_1.jpg</t>
         </is>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>space</t>
         </is>
       </c>
     </row>
@@ -3483,11 +3483,11 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>6.5</v>
+        <v>5</v>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>go_stimuli\puppy_10.jpg</t>
+          <t>go_stimuli\puppy_5.jpg</t>
         </is>
       </c>
       <c r="D14" t="n">
@@ -3504,19 +3504,19 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>5</v>
+        <v>6.5</v>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>no_go_stimuli\spider_12.jpeg</t>
+          <t>go_stimuli\puppy_9.jpg</t>
         </is>
       </c>
       <c r="D15" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>space</t>
         </is>
       </c>
     </row>
@@ -3529,15 +3529,15 @@
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>no_go_stimuli\spider_28.jpg</t>
+          <t>go_stimuli\puppy_27.jpg</t>
         </is>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>space</t>
         </is>
       </c>
     </row>
@@ -3546,11 +3546,11 @@
         <v>15</v>
       </c>
       <c r="B17" t="n">
-        <v>4.5</v>
+        <v>4</v>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>no_go_stimuli\spider_7.jpeg</t>
+          <t>no_go_stimuli\spider_28.jpg</t>
         </is>
       </c>
       <c r="D17" t="n">
@@ -3571,15 +3571,15 @@
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>no_go_stimuli\spider_23.jpg</t>
+          <t>go_stimuli\puppy_23.jpeg</t>
         </is>
       </c>
       <c r="D18" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>space</t>
         </is>
       </c>
     </row>
@@ -3588,19 +3588,19 @@
         <v>17</v>
       </c>
       <c r="B19" t="n">
-        <v>4.5</v>
+        <v>5</v>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>go_stimuli\puppy_18.jpeg</t>
+          <t>no_go_stimuli\spider_17.jpeg</t>
         </is>
       </c>
       <c r="D19" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>space</t>
+          <t>None</t>
         </is>
       </c>
     </row>
@@ -3609,19 +3609,19 @@
         <v>18</v>
       </c>
       <c r="B20" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>no_go_stimuli\spider_3.jpeg</t>
+          <t>go_stimuli\puppy_28.jpg</t>
         </is>
       </c>
       <c r="D20" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>space</t>
         </is>
       </c>
     </row>
@@ -3630,11 +3630,11 @@
         <v>19</v>
       </c>
       <c r="B21" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>go_stimuli\puppy_4.jpg</t>
+          <t>go_stimuli\puppy_8.jpg</t>
         </is>
       </c>
       <c r="D21" t="n">
@@ -3702,7 +3702,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>0.017</v>
+        <v>0.05</v>
       </c>
       <c r="C2" t="n">
         <v>2</v>
@@ -3727,10 +3727,10 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>0.029</v>
+        <v>0.017</v>
       </c>
       <c r="C3" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
@@ -3752,10 +3752,10 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>0.029</v>
+        <v>0.05</v>
       </c>
       <c r="C4" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
@@ -3764,11 +3764,11 @@
         <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>left</t>
+          <t>right</t>
         </is>
       </c>
     </row>
@@ -3780,7 +3780,7 @@
         <v>0.029</v>
       </c>
       <c r="C5" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D5" t="n">
         <v>0</v>
@@ -3789,11 +3789,11 @@
         <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>left</t>
+          <t>right</t>
         </is>
       </c>
     </row>
@@ -3802,10 +3802,10 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>0.017</v>
+        <v>0.029</v>
       </c>
       <c r="C6" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D6" t="n">
         <v>0</v>
@@ -3839,11 +3839,11 @@
         <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>right</t>
+          <t>left</t>
         </is>
       </c>
     </row>
@@ -3852,10 +3852,10 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>0.05</v>
+        <v>0.029</v>
       </c>
       <c r="C8" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D8" t="n">
         <v>0</v>
@@ -3864,11 +3864,11 @@
         <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>right</t>
+          <t>left</t>
         </is>
       </c>
     </row>
@@ -3877,10 +3877,10 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>0.017</v>
+        <v>0.029</v>
       </c>
       <c r="C9" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D9" t="n">
         <v>0</v>
@@ -3889,11 +3889,11 @@
         <v>0</v>
       </c>
       <c r="F9" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>left</t>
+          <t>right</t>
         </is>
       </c>
     </row>
@@ -3902,10 +3902,10 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>0.017</v>
+        <v>0.029</v>
       </c>
       <c r="C10" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D10" t="n">
         <v>0</v>
@@ -3930,7 +3930,7 @@
         <v>0.05</v>
       </c>
       <c r="C11" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D11" t="n">
         <v>0</v>
@@ -3952,10 +3952,10 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>0.029</v>
+        <v>0.05</v>
       </c>
       <c r="C12" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D12" t="n">
         <v>0</v>
@@ -3964,11 +3964,11 @@
         <v>0</v>
       </c>
       <c r="F12" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>right</t>
+          <t>left</t>
         </is>
       </c>
     </row>
@@ -3977,10 +3977,10 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>0.029</v>
+        <v>0.05</v>
       </c>
       <c r="C13" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D13" t="n">
         <v>0</v>
@@ -4002,10 +4002,10 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>0.017</v>
+        <v>0.05</v>
       </c>
       <c r="C14" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D14" t="n">
         <v>0</v>
@@ -4027,10 +4027,10 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>0.029</v>
+        <v>0.017</v>
       </c>
       <c r="C15" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D15" t="n">
         <v>0</v>
@@ -4055,7 +4055,7 @@
         <v>0.017</v>
       </c>
       <c r="C16" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D16" t="n">
         <v>0</v>
@@ -4064,11 +4064,11 @@
         <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>left</t>
+          <t>right</t>
         </is>
       </c>
     </row>
@@ -4077,7 +4077,7 @@
         <v>15</v>
       </c>
       <c r="B17" t="n">
-        <v>0.05</v>
+        <v>0.017</v>
       </c>
       <c r="C17" t="n">
         <v>3</v>
@@ -4089,11 +4089,11 @@
         <v>0</v>
       </c>
       <c r="F17" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>left</t>
+          <t>right</t>
         </is>
       </c>
     </row>
@@ -4102,10 +4102,10 @@
         <v>16</v>
       </c>
       <c r="B18" t="n">
-        <v>0.05</v>
+        <v>0.029</v>
       </c>
       <c r="C18" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D18" t="n">
         <v>0</v>
@@ -4114,11 +4114,11 @@
         <v>0</v>
       </c>
       <c r="F18" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>left</t>
+          <t>right</t>
         </is>
       </c>
     </row>
@@ -4127,10 +4127,10 @@
         <v>17</v>
       </c>
       <c r="B19" t="n">
-        <v>0.05</v>
+        <v>0.029</v>
       </c>
       <c r="C19" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D19" t="n">
         <v>0</v>
@@ -4152,7 +4152,7 @@
         <v>18</v>
       </c>
       <c r="B20" t="n">
-        <v>0.029</v>
+        <v>0.05</v>
       </c>
       <c r="C20" t="n">
         <v>3</v>
@@ -4164,11 +4164,11 @@
         <v>0</v>
       </c>
       <c r="F20" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>left</t>
+          <t>right</t>
         </is>
       </c>
     </row>
@@ -4177,7 +4177,7 @@
         <v>19</v>
       </c>
       <c r="B21" t="n">
-        <v>0.029</v>
+        <v>0.05</v>
       </c>
       <c r="C21" t="n">
         <v>2</v>
@@ -4189,11 +4189,11 @@
         <v>0</v>
       </c>
       <c r="F21" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>left</t>
+          <t>right</t>
         </is>
       </c>
     </row>
@@ -4202,10 +4202,10 @@
         <v>20</v>
       </c>
       <c r="B22" t="n">
-        <v>0.017</v>
+        <v>0.029</v>
       </c>
       <c r="C22" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D22" t="n">
         <v>0</v>
@@ -4214,11 +4214,11 @@
         <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>right</t>
+          <t>left</t>
         </is>
       </c>
     </row>
@@ -4230,7 +4230,7 @@
         <v>0.017</v>
       </c>
       <c r="C23" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D23" t="n">
         <v>0</v>
@@ -4239,11 +4239,11 @@
         <v>0</v>
       </c>
       <c r="F23" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>right</t>
+          <t>left</t>
         </is>
       </c>
     </row>
@@ -4252,10 +4252,10 @@
         <v>22</v>
       </c>
       <c r="B24" t="n">
-        <v>0.029</v>
+        <v>0.05</v>
       </c>
       <c r="C24" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D24" t="n">
         <v>0</v>
@@ -4264,11 +4264,11 @@
         <v>0</v>
       </c>
       <c r="F24" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>right</t>
+          <t>left</t>
         </is>
       </c>
     </row>
@@ -4277,10 +4277,10 @@
         <v>23</v>
       </c>
       <c r="B25" t="n">
-        <v>0.017</v>
+        <v>0.05</v>
       </c>
       <c r="C25" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D25" t="n">
         <v>0</v>
@@ -4289,11 +4289,11 @@
         <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G25" t="inlineStr">
         <is>
-          <t>left</t>
+          <t>right</t>
         </is>
       </c>
     </row>
@@ -4302,7 +4302,7 @@
         <v>24</v>
       </c>
       <c r="B26" t="n">
-        <v>0.017</v>
+        <v>0.05</v>
       </c>
       <c r="C26" t="n">
         <v>3</v>
@@ -4314,11 +4314,11 @@
         <v>0</v>
       </c>
       <c r="F26" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G26" t="inlineStr">
         <is>
-          <t>left</t>
+          <t>right</t>
         </is>
       </c>
     </row>
@@ -4327,10 +4327,10 @@
         <v>25</v>
       </c>
       <c r="B27" t="n">
-        <v>0.017</v>
+        <v>0.029</v>
       </c>
       <c r="C27" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D27" t="n">
         <v>0</v>
@@ -4364,11 +4364,11 @@
         <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G28" t="inlineStr">
         <is>
-          <t>right</t>
+          <t>left</t>
         </is>
       </c>
     </row>
@@ -4402,10 +4402,10 @@
         <v>28</v>
       </c>
       <c r="B30" t="n">
-        <v>0.05</v>
+        <v>0.017</v>
       </c>
       <c r="C30" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D30" t="n">
         <v>0</v>
@@ -4427,10 +4427,10 @@
         <v>29</v>
       </c>
       <c r="B31" t="n">
-        <v>0.029</v>
+        <v>0.05</v>
       </c>
       <c r="C31" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D31" t="n">
         <v>0</v>
@@ -4439,11 +4439,11 @@
         <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G31" t="inlineStr">
         <is>
-          <t>right</t>
+          <t>left</t>
         </is>
       </c>
     </row>
@@ -4503,7 +4503,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>0.017</v>
+        <v>0.05</v>
       </c>
       <c r="C2" t="n">
         <v>3</v>
@@ -4528,10 +4528,10 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>0.029</v>
+        <v>0.05</v>
       </c>
       <c r="C3" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
@@ -4553,10 +4553,10 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>0.029</v>
+        <v>0.017</v>
       </c>
       <c r="C4" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
@@ -4578,7 +4578,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>0.029</v>
+        <v>0.017</v>
       </c>
       <c r="C5" t="n">
         <v>1</v>
@@ -4603,10 +4603,10 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>0.05</v>
+        <v>0.017</v>
       </c>
       <c r="C6" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D6" t="n">
         <v>0</v>
@@ -4615,11 +4615,11 @@
         <v>0</v>
       </c>
       <c r="F6" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>left</t>
+          <t>right</t>
         </is>
       </c>
     </row>
@@ -4631,7 +4631,7 @@
         <v>0.029</v>
       </c>
       <c r="C7" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D7" t="n">
         <v>0</v>
@@ -4640,11 +4640,11 @@
         <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>left</t>
+          <t>right</t>
         </is>
       </c>
     </row>
@@ -4653,10 +4653,10 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>0.05</v>
+        <v>0.029</v>
       </c>
       <c r="C8" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D8" t="n">
         <v>0</v>
@@ -4665,11 +4665,11 @@
         <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>right</t>
+          <t>left</t>
         </is>
       </c>
     </row>
@@ -4678,10 +4678,10 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>0.05</v>
+        <v>0.029</v>
       </c>
       <c r="C9" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D9" t="n">
         <v>0</v>
@@ -4706,7 +4706,7 @@
         <v>0.029</v>
       </c>
       <c r="C10" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D10" t="n">
         <v>0</v>
@@ -4731,7 +4731,7 @@
         <v>0.029</v>
       </c>
       <c r="C11" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D11" t="n">
         <v>0</v>
@@ -4753,10 +4753,10 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>0.05</v>
+        <v>0.017</v>
       </c>
       <c r="C12" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D12" t="n">
         <v>0</v>
@@ -4781,7 +4781,7 @@
         <v>0.05</v>
       </c>
       <c r="C13" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D13" t="n">
         <v>0</v>
@@ -4790,11 +4790,11 @@
         <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>right</t>
+          <t>left</t>
         </is>
       </c>
     </row>
@@ -4803,10 +4803,10 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>0.029</v>
+        <v>0.05</v>
       </c>
       <c r="C14" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D14" t="n">
         <v>0</v>
@@ -4831,7 +4831,7 @@
         <v>0.05</v>
       </c>
       <c r="C15" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D15" t="n">
         <v>0</v>
@@ -4840,11 +4840,11 @@
         <v>0</v>
       </c>
       <c r="F15" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>right</t>
+          <t>left</t>
         </is>
       </c>
     </row>
@@ -4853,7 +4853,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>0.05</v>
+        <v>0.017</v>
       </c>
       <c r="C16" t="n">
         <v>2</v>
@@ -4881,7 +4881,7 @@
         <v>0.029</v>
       </c>
       <c r="C17" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D17" t="n">
         <v>0</v>
@@ -4906,7 +4906,7 @@
         <v>0.017</v>
       </c>
       <c r="C18" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D18" t="n">
         <v>0</v>
@@ -4931,7 +4931,7 @@
         <v>0.017</v>
       </c>
       <c r="C19" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D19" t="n">
         <v>0</v>
@@ -4978,10 +4978,10 @@
         <v>19</v>
       </c>
       <c r="B21" t="n">
-        <v>0.029</v>
+        <v>0.017</v>
       </c>
       <c r="C21" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D21" t="n">
         <v>0</v>
@@ -5006,7 +5006,7 @@
         <v>0.05</v>
       </c>
       <c r="C22" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D22" t="n">
         <v>0</v>
@@ -5015,11 +5015,11 @@
         <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>right</t>
+          <t>left</t>
         </is>
       </c>
     </row>
@@ -5040,11 +5040,11 @@
         <v>0</v>
       </c>
       <c r="F23" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>left</t>
+          <t>right</t>
         </is>
       </c>
     </row>
@@ -5056,7 +5056,7 @@
         <v>0.029</v>
       </c>
       <c r="C24" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D24" t="n">
         <v>0</v>
@@ -5065,11 +5065,11 @@
         <v>0</v>
       </c>
       <c r="F24" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>right</t>
+          <t>left</t>
         </is>
       </c>
     </row>
@@ -5081,7 +5081,7 @@
         <v>0.017</v>
       </c>
       <c r="C25" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D25" t="n">
         <v>0</v>
@@ -5106,7 +5106,7 @@
         <v>0.029</v>
       </c>
       <c r="C26" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D26" t="n">
         <v>0</v>
@@ -5115,11 +5115,11 @@
         <v>0</v>
       </c>
       <c r="F26" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G26" t="inlineStr">
         <is>
-          <t>left</t>
+          <t>right</t>
         </is>
       </c>
     </row>
@@ -5131,7 +5131,7 @@
         <v>0.029</v>
       </c>
       <c r="C27" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D27" t="n">
         <v>0</v>
@@ -5140,11 +5140,11 @@
         <v>0</v>
       </c>
       <c r="F27" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G27" t="inlineStr">
         <is>
-          <t>left</t>
+          <t>right</t>
         </is>
       </c>
     </row>
@@ -5178,7 +5178,7 @@
         <v>27</v>
       </c>
       <c r="B29" t="n">
-        <v>0.029</v>
+        <v>0.017</v>
       </c>
       <c r="C29" t="n">
         <v>1</v>
@@ -5215,11 +5215,11 @@
         <v>0</v>
       </c>
       <c r="F30" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G30" t="inlineStr">
         <is>
-          <t>right</t>
+          <t>left</t>
         </is>
       </c>
     </row>
@@ -5304,16 +5304,16 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>0.05</v>
+        <v>0.017</v>
       </c>
       <c r="C2" t="n">
         <v>2</v>
       </c>
       <c r="D2" t="n">
-        <v>0.25</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>0.25</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
         <v>1</v>
@@ -5329,23 +5329,23 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>0.017</v>
+        <v>0.029</v>
       </c>
       <c r="C3" t="n">
         <v>1</v>
       </c>
       <c r="D3" t="n">
+        <v>-0.25</v>
+      </c>
+      <c r="E3" t="n">
         <v>0.25</v>
       </c>
-      <c r="E3" t="n">
-        <v>-0.25</v>
-      </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>left</t>
+          <t>right</t>
         </is>
       </c>
     </row>
@@ -5354,23 +5354,23 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>0.017</v>
+        <v>0.05</v>
       </c>
       <c r="C4" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D4" t="n">
         <v>0.25</v>
       </c>
       <c r="E4" t="n">
-        <v>0.25</v>
+        <v>-0.25</v>
       </c>
       <c r="F4" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>right</t>
+          <t>left</t>
         </is>
       </c>
     </row>
@@ -5379,23 +5379,23 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>0.017</v>
+        <v>0.05</v>
       </c>
       <c r="C5" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D5" t="n">
-        <v>-0.25</v>
+        <v>0.25</v>
       </c>
       <c r="E5" t="n">
         <v>0.25</v>
       </c>
       <c r="F5" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>left</t>
+          <t>right</t>
         </is>
       </c>
     </row>
@@ -5404,16 +5404,16 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>0.017</v>
+        <v>0.05</v>
       </c>
       <c r="C6" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D6" t="n">
-        <v>0</v>
+        <v>-0.25</v>
       </c>
       <c r="E6" t="n">
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="F6" t="n">
         <v>1</v>
@@ -5429,23 +5429,23 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>0.017</v>
+        <v>0.029</v>
       </c>
       <c r="C7" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D7" t="n">
-        <v>0.25</v>
+        <v>-0.25</v>
       </c>
       <c r="E7" t="n">
         <v>0.25</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>left</t>
+          <t>right</t>
         </is>
       </c>
     </row>
@@ -5454,7 +5454,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>0.05</v>
+        <v>0.029</v>
       </c>
       <c r="C8" t="n">
         <v>3</v>
@@ -5466,11 +5466,11 @@
         <v>-0.25</v>
       </c>
       <c r="F8" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>right</t>
+          <t>left</t>
         </is>
       </c>
     </row>
@@ -5482,20 +5482,20 @@
         <v>0.017</v>
       </c>
       <c r="C9" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D9" t="n">
-        <v>0</v>
+        <v>-0.25</v>
       </c>
       <c r="E9" t="n">
-        <v>0</v>
+        <v>-0.25</v>
       </c>
       <c r="F9" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>left</t>
+          <t>right</t>
         </is>
       </c>
     </row>
@@ -5504,10 +5504,10 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>0.05</v>
+        <v>0.029</v>
       </c>
       <c r="C10" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D10" t="n">
         <v>0.25</v>
@@ -5516,11 +5516,11 @@
         <v>0.25</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>left</t>
+          <t>right</t>
         </is>
       </c>
     </row>
@@ -5529,16 +5529,16 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>0.05</v>
+        <v>0.017</v>
       </c>
       <c r="C11" t="n">
         <v>3</v>
       </c>
       <c r="D11" t="n">
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="E11" t="n">
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="F11" t="n">
         <v>1</v>
@@ -5554,10 +5554,10 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>0.029</v>
+        <v>0.017</v>
       </c>
       <c r="C12" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D12" t="n">
         <v>0</v>
@@ -5566,11 +5566,11 @@
         <v>0</v>
       </c>
       <c r="F12" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>left</t>
+          <t>right</t>
         </is>
       </c>
     </row>
@@ -5591,11 +5591,11 @@
         <v>-0.25</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>left</t>
+          <t>right</t>
         </is>
       </c>
     </row>
@@ -5607,20 +5607,20 @@
         <v>0.017</v>
       </c>
       <c r="C14" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D14" t="n">
-        <v>-0.25</v>
+        <v>0</v>
       </c>
       <c r="E14" t="n">
-        <v>-0.25</v>
+        <v>0</v>
       </c>
       <c r="F14" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>left</t>
+          <t>right</t>
         </is>
       </c>
     </row>
@@ -5632,13 +5632,13 @@
         <v>0.05</v>
       </c>
       <c r="C15" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D15" t="n">
-        <v>0</v>
+        <v>-0.25</v>
       </c>
       <c r="E15" t="n">
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="F15" t="n">
         <v>0</v>
@@ -5654,23 +5654,23 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>0.05</v>
+        <v>0.017</v>
       </c>
       <c r="C16" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D16" t="n">
         <v>-0.25</v>
       </c>
       <c r="E16" t="n">
-        <v>0.25</v>
+        <v>-0.25</v>
       </c>
       <c r="F16" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>right</t>
+          <t>left</t>
         </is>
       </c>
     </row>
@@ -5679,23 +5679,23 @@
         <v>15</v>
       </c>
       <c r="B17" t="n">
-        <v>0.05</v>
+        <v>0.029</v>
       </c>
       <c r="C17" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D17" t="n">
         <v>0.25</v>
       </c>
       <c r="E17" t="n">
-        <v>-0.25</v>
+        <v>0.25</v>
       </c>
       <c r="F17" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>left</t>
+          <t>right</t>
         </is>
       </c>
     </row>
@@ -5704,16 +5704,16 @@
         <v>16</v>
       </c>
       <c r="B18" t="n">
-        <v>0.05</v>
+        <v>0.029</v>
       </c>
       <c r="C18" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D18" t="n">
-        <v>-0.25</v>
+        <v>0</v>
       </c>
       <c r="E18" t="n">
-        <v>-0.25</v>
+        <v>0</v>
       </c>
       <c r="F18" t="n">
         <v>0</v>
@@ -5729,16 +5729,16 @@
         <v>17</v>
       </c>
       <c r="B19" t="n">
-        <v>0.029</v>
+        <v>0.05</v>
       </c>
       <c r="C19" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D19" t="n">
+        <v>-0.25</v>
+      </c>
+      <c r="E19" t="n">
         <v>0.25</v>
-      </c>
-      <c r="E19" t="n">
-        <v>-0.25</v>
       </c>
       <c r="F19" t="n">
         <v>1</v>
@@ -5754,16 +5754,16 @@
         <v>18</v>
       </c>
       <c r="B20" t="n">
-        <v>0.05</v>
+        <v>0.017</v>
       </c>
       <c r="C20" t="n">
         <v>1</v>
       </c>
       <c r="D20" t="n">
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="E20" t="n">
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="F20" t="n">
         <v>1</v>
@@ -5779,23 +5779,23 @@
         <v>19</v>
       </c>
       <c r="B21" t="n">
-        <v>0.05</v>
+        <v>0.017</v>
       </c>
       <c r="C21" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D21" t="n">
-        <v>0</v>
+        <v>-0.25</v>
       </c>
       <c r="E21" t="n">
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="F21" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>left</t>
+          <t>right</t>
         </is>
       </c>
     </row>
@@ -5804,16 +5804,16 @@
         <v>20</v>
       </c>
       <c r="B22" t="n">
-        <v>0.05</v>
+        <v>0.029</v>
       </c>
       <c r="C22" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D22" t="n">
-        <v>0.25</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>-0.25</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
         <v>0</v>
@@ -5832,7 +5832,7 @@
         <v>0.017</v>
       </c>
       <c r="C23" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D23" t="n">
         <v>0.25</v>
@@ -5841,11 +5841,11 @@
         <v>0.25</v>
       </c>
       <c r="F23" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>right</t>
+          <t>left</t>
         </is>
       </c>
     </row>
@@ -5857,20 +5857,20 @@
         <v>0.05</v>
       </c>
       <c r="C24" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D24" t="n">
         <v>0.25</v>
       </c>
       <c r="E24" t="n">
-        <v>-0.25</v>
+        <v>0.25</v>
       </c>
       <c r="F24" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>right</t>
+          <t>left</t>
         </is>
       </c>
     </row>
@@ -5882,7 +5882,7 @@
         <v>0.017</v>
       </c>
       <c r="C25" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D25" t="n">
         <v>0.25</v>
@@ -5907,7 +5907,7 @@
         <v>0.017</v>
       </c>
       <c r="C26" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D26" t="n">
         <v>0</v>
@@ -5938,14 +5938,14 @@
         <v>-0.25</v>
       </c>
       <c r="E27" t="n">
-        <v>-0.25</v>
+        <v>0.25</v>
       </c>
       <c r="F27" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G27" t="inlineStr">
         <is>
-          <t>left</t>
+          <t>right</t>
         </is>
       </c>
     </row>
@@ -5954,10 +5954,10 @@
         <v>26</v>
       </c>
       <c r="B28" t="n">
-        <v>0.029</v>
+        <v>0.05</v>
       </c>
       <c r="C28" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D28" t="n">
         <v>-0.25</v>
@@ -5979,16 +5979,16 @@
         <v>27</v>
       </c>
       <c r="B29" t="n">
-        <v>0.029</v>
+        <v>0.05</v>
       </c>
       <c r="C29" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D29" t="n">
+        <v>-0.25</v>
+      </c>
+      <c r="E29" t="n">
         <v>0.25</v>
-      </c>
-      <c r="E29" t="n">
-        <v>-0.25</v>
       </c>
       <c r="F29" t="n">
         <v>1</v>
@@ -6007,13 +6007,13 @@
         <v>0.029</v>
       </c>
       <c r="C30" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D30" t="n">
-        <v>0.25</v>
+        <v>0</v>
       </c>
       <c r="E30" t="n">
-        <v>-0.25</v>
+        <v>0</v>
       </c>
       <c r="F30" t="n">
         <v>0</v>
@@ -6029,16 +6029,16 @@
         <v>29</v>
       </c>
       <c r="B31" t="n">
-        <v>0.05</v>
+        <v>0.017</v>
       </c>
       <c r="C31" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D31" t="n">
+        <v>0.25</v>
+      </c>
+      <c r="E31" t="n">
         <v>-0.25</v>
-      </c>
-      <c r="E31" t="n">
-        <v>0.25</v>
       </c>
       <c r="F31" t="n">
         <v>1</v>
@@ -6105,16 +6105,16 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>0.029</v>
+        <v>0.017</v>
       </c>
       <c r="C2" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D2" t="n">
-        <v>-0.25</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>0.25</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
         <v>1</v>
@@ -6130,23 +6130,23 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>0.029</v>
+        <v>0.017</v>
       </c>
       <c r="C3" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D3" t="n">
-        <v>0.25</v>
+        <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>-0.25</v>
+        <v>0</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>left</t>
+          <t>right</t>
         </is>
       </c>
     </row>
@@ -6155,23 +6155,23 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>0.017</v>
+        <v>0.029</v>
       </c>
       <c r="C4" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D4" t="n">
+        <v>0.25</v>
+      </c>
+      <c r="E4" t="n">
         <v>-0.25</v>
       </c>
-      <c r="E4" t="n">
-        <v>0.25</v>
-      </c>
       <c r="F4" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>right</t>
+          <t>left</t>
         </is>
       </c>
     </row>
@@ -6183,7 +6183,7 @@
         <v>0.05</v>
       </c>
       <c r="C5" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D5" t="n">
         <v>0.25</v>
@@ -6205,10 +6205,10 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>0.029</v>
+        <v>0.05</v>
       </c>
       <c r="C6" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D6" t="n">
         <v>0.25</v>
@@ -6217,11 +6217,11 @@
         <v>0.25</v>
       </c>
       <c r="F6" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>left</t>
+          <t>right</t>
         </is>
       </c>
     </row>
@@ -6230,7 +6230,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>0.05</v>
+        <v>0.017</v>
       </c>
       <c r="C7" t="n">
         <v>2</v>
@@ -6280,16 +6280,16 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>0.029</v>
+        <v>0.05</v>
       </c>
       <c r="C9" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D9" t="n">
-        <v>-0.25</v>
+        <v>0</v>
       </c>
       <c r="E9" t="n">
-        <v>0.25</v>
+        <v>0</v>
       </c>
       <c r="F9" t="n">
         <v>1</v>
@@ -6305,23 +6305,23 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>0.029</v>
+        <v>0.05</v>
       </c>
       <c r="C10" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D10" t="n">
         <v>0.25</v>
       </c>
       <c r="E10" t="n">
-        <v>0.25</v>
+        <v>-0.25</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>left</t>
+          <t>right</t>
         </is>
       </c>
     </row>
@@ -6330,23 +6330,23 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>0.05</v>
+        <v>0.017</v>
       </c>
       <c r="C11" t="n">
         <v>3</v>
       </c>
       <c r="D11" t="n">
-        <v>-0.25</v>
+        <v>0.25</v>
       </c>
       <c r="E11" t="n">
         <v>0.25</v>
       </c>
       <c r="F11" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>right</t>
+          <t>left</t>
         </is>
       </c>
     </row>
@@ -6361,17 +6361,17 @@
         <v>1</v>
       </c>
       <c r="D12" t="n">
-        <v>0</v>
+        <v>-0.25</v>
       </c>
       <c r="E12" t="n">
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="F12" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>right</t>
+          <t>left</t>
         </is>
       </c>
     </row>
@@ -6380,23 +6380,23 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>0.017</v>
+        <v>0.029</v>
       </c>
       <c r="C13" t="n">
         <v>3</v>
       </c>
       <c r="D13" t="n">
-        <v>0.25</v>
+        <v>-0.25</v>
       </c>
       <c r="E13" t="n">
         <v>0.25</v>
       </c>
       <c r="F13" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>right</t>
+          <t>left</t>
         </is>
       </c>
     </row>
@@ -6405,13 +6405,13 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>0.017</v>
+        <v>0.029</v>
       </c>
       <c r="C14" t="n">
         <v>1</v>
       </c>
       <c r="D14" t="n">
-        <v>-0.25</v>
+        <v>0.25</v>
       </c>
       <c r="E14" t="n">
         <v>0.25</v>
@@ -6430,23 +6430,23 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>0.017</v>
+        <v>0.029</v>
       </c>
       <c r="C15" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D15" t="n">
-        <v>-0.25</v>
+        <v>0</v>
       </c>
       <c r="E15" t="n">
-        <v>0.25</v>
+        <v>0</v>
       </c>
       <c r="F15" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>right</t>
+          <t>left</t>
         </is>
       </c>
     </row>
@@ -6458,20 +6458,20 @@
         <v>0.05</v>
       </c>
       <c r="C16" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D16" t="n">
         <v>0.25</v>
       </c>
       <c r="E16" t="n">
-        <v>-0.25</v>
+        <v>0.25</v>
       </c>
       <c r="F16" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>right</t>
+          <t>left</t>
         </is>
       </c>
     </row>
@@ -6480,23 +6480,23 @@
         <v>15</v>
       </c>
       <c r="B17" t="n">
-        <v>0.017</v>
+        <v>0.029</v>
       </c>
       <c r="C17" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D17" t="n">
-        <v>0.25</v>
+        <v>0</v>
       </c>
       <c r="E17" t="n">
-        <v>0.25</v>
+        <v>0</v>
       </c>
       <c r="F17" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>left</t>
+          <t>right</t>
         </is>
       </c>
     </row>
@@ -6508,20 +6508,20 @@
         <v>0.029</v>
       </c>
       <c r="C18" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D18" t="n">
         <v>-0.25</v>
       </c>
       <c r="E18" t="n">
-        <v>0.25</v>
+        <v>-0.25</v>
       </c>
       <c r="F18" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>left</t>
+          <t>right</t>
         </is>
       </c>
     </row>
@@ -6533,20 +6533,20 @@
         <v>0.029</v>
       </c>
       <c r="C19" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D19" t="n">
         <v>0.25</v>
       </c>
       <c r="E19" t="n">
-        <v>0.25</v>
+        <v>-0.25</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>left</t>
+          <t>right</t>
         </is>
       </c>
     </row>
@@ -6558,7 +6558,7 @@
         <v>0.017</v>
       </c>
       <c r="C20" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D20" t="n">
         <v>0.25</v>
@@ -6583,10 +6583,10 @@
         <v>0.05</v>
       </c>
       <c r="C21" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D21" t="n">
-        <v>0.25</v>
+        <v>-0.25</v>
       </c>
       <c r="E21" t="n">
         <v>-0.25</v>
@@ -6608,13 +6608,13 @@
         <v>0.029</v>
       </c>
       <c r="C22" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D22" t="n">
-        <v>-0.25</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>-0.25</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
         <v>1</v>
@@ -6630,23 +6630,23 @@
         <v>21</v>
       </c>
       <c r="B23" t="n">
-        <v>0.017</v>
+        <v>0.029</v>
       </c>
       <c r="C23" t="n">
         <v>1</v>
       </c>
       <c r="D23" t="n">
-        <v>-0.25</v>
+        <v>0.25</v>
       </c>
       <c r="E23" t="n">
-        <v>-0.25</v>
+        <v>0.25</v>
       </c>
       <c r="F23" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>left</t>
+          <t>right</t>
         </is>
       </c>
     </row>
@@ -6655,13 +6655,13 @@
         <v>22</v>
       </c>
       <c r="B24" t="n">
-        <v>0.029</v>
+        <v>0.05</v>
       </c>
       <c r="C24" t="n">
         <v>2</v>
       </c>
       <c r="D24" t="n">
-        <v>-0.25</v>
+        <v>0.25</v>
       </c>
       <c r="E24" t="n">
         <v>0.25</v>
@@ -6680,23 +6680,23 @@
         <v>23</v>
       </c>
       <c r="B25" t="n">
-        <v>0.05</v>
+        <v>0.029</v>
       </c>
       <c r="C25" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>-0.25</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G25" t="inlineStr">
         <is>
-          <t>left</t>
+          <t>right</t>
         </is>
       </c>
     </row>
@@ -6705,16 +6705,16 @@
         <v>24</v>
       </c>
       <c r="B26" t="n">
-        <v>0.029</v>
+        <v>0.017</v>
       </c>
       <c r="C26" t="n">
         <v>2</v>
       </c>
       <c r="D26" t="n">
+        <v>0.25</v>
+      </c>
+      <c r="E26" t="n">
         <v>-0.25</v>
-      </c>
-      <c r="E26" t="n">
-        <v>0.25</v>
       </c>
       <c r="F26" t="n">
         <v>0</v>
@@ -6730,16 +6730,16 @@
         <v>25</v>
       </c>
       <c r="B27" t="n">
-        <v>0.017</v>
+        <v>0.05</v>
       </c>
       <c r="C27" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D27" t="n">
+        <v>0.25</v>
+      </c>
+      <c r="E27" t="n">
         <v>-0.25</v>
-      </c>
-      <c r="E27" t="n">
-        <v>0.25</v>
       </c>
       <c r="F27" t="n">
         <v>1</v>
@@ -6755,23 +6755,23 @@
         <v>26</v>
       </c>
       <c r="B28" t="n">
-        <v>0.017</v>
+        <v>0.029</v>
       </c>
       <c r="C28" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D28" t="n">
         <v>-0.25</v>
       </c>
       <c r="E28" t="n">
-        <v>-0.25</v>
+        <v>0.25</v>
       </c>
       <c r="F28" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G28" t="inlineStr">
         <is>
-          <t>right</t>
+          <t>left</t>
         </is>
       </c>
     </row>
@@ -6780,16 +6780,16 @@
         <v>27</v>
       </c>
       <c r="B29" t="n">
-        <v>0.05</v>
+        <v>0.017</v>
       </c>
       <c r="C29" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D29" t="n">
         <v>0.25</v>
       </c>
       <c r="E29" t="n">
-        <v>0.25</v>
+        <v>-0.25</v>
       </c>
       <c r="F29" t="n">
         <v>1</v>
@@ -6808,7 +6808,7 @@
         <v>0.05</v>
       </c>
       <c r="C30" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D30" t="n">
         <v>-0.25</v>
@@ -6839,14 +6839,14 @@
         <v>-0.25</v>
       </c>
       <c r="E31" t="n">
-        <v>-0.25</v>
+        <v>0.25</v>
       </c>
       <c r="F31" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G31" t="inlineStr">
         <is>
-          <t>right</t>
+          <t>left</t>
         </is>
       </c>
     </row>
@@ -6896,11 +6896,11 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>6.5</v>
+        <v>6</v>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>go_stimuli\puppy_10.jpg</t>
+          <t>go_stimuli\puppy_23.jpeg</t>
         </is>
       </c>
       <c r="D2" t="n">
@@ -6921,7 +6921,7 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>go_stimuli\puppy_22.jpeg</t>
+          <t>go_stimuli\puppy_24.jpeg</t>
         </is>
       </c>
       <c r="D3" t="n">
@@ -6938,11 +6938,11 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>4</v>
+        <v>6.5</v>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>go_stimuli\puppy_8.jpg</t>
+          <t>go_stimuli\puppy_15.jpeg</t>
         </is>
       </c>
       <c r="D4" t="n">
@@ -6959,11 +6959,11 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>5</v>
+        <v>4.5</v>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>go_stimuli\puppy_18.jpeg</t>
+          <t>go_stimuli\puppy_7.jpg</t>
         </is>
       </c>
       <c r="D5" t="n">
@@ -6980,11 +6980,11 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>4</v>
+        <v>6.5</v>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>go_stimuli\puppy_1.jpg</t>
+          <t>go_stimuli\puppy_21.jpeg</t>
         </is>
       </c>
       <c r="D6" t="n">
@@ -7001,11 +7001,11 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>go_stimuli\puppy_21.jpeg</t>
+          <t>go_stimuli\puppy_11.jpeg</t>
         </is>
       </c>
       <c r="D7" t="n">
@@ -7026,7 +7026,7 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>go_stimuli\puppy_24.jpeg</t>
+          <t>go_stimuli\puppy_22.jpeg</t>
         </is>
       </c>
       <c r="D8" t="n">
@@ -7043,11 +7043,11 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>6.5</v>
+        <v>5.5</v>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>go_stimuli\puppy_17.jpeg</t>
+          <t>go_stimuli\puppy_6.jpg</t>
         </is>
       </c>
       <c r="D9" t="n">
@@ -7064,11 +7064,11 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>go_stimuli\puppy_12.jpeg</t>
+          <t>go_stimuli\puppy_13.jpg</t>
         </is>
       </c>
       <c r="D10" t="n">
@@ -7085,11 +7085,11 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>5.5</v>
+        <v>4.5</v>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>go_stimuli\puppy_5.jpg</t>
+          <t>go_stimuli\puppy_1.jpg</t>
         </is>
       </c>
       <c r="D11" t="n">
@@ -7110,7 +7110,7 @@
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>go_stimuli\puppy_30.jpg</t>
+          <t>go_stimuli\puppy_4.jpg</t>
         </is>
       </c>
       <c r="D12" t="n">
@@ -7127,11 +7127,11 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>go_stimuli\puppy_29.jpg</t>
+          <t>go_stimuli\puppy_3.jpg</t>
         </is>
       </c>
       <c r="D13" t="n">
@@ -7148,11 +7148,11 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>4</v>
+        <v>5.5</v>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>go_stimuli\puppy_25.jpeg</t>
+          <t>go_stimuli\puppy_30.jpg</t>
         </is>
       </c>
       <c r="D14" t="n">
@@ -7173,7 +7173,7 @@
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>go_stimuli\puppy_20.jpeg</t>
+          <t>go_stimuli\puppy_17.jpeg</t>
         </is>
       </c>
       <c r="D15" t="n">
@@ -7190,11 +7190,11 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>4.5</v>
+        <v>5</v>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>go_stimuli\puppy_16.jpeg</t>
+          <t>go_stimuli\puppy_5.jpg</t>
         </is>
       </c>
       <c r="D16" t="n">
@@ -7211,11 +7211,11 @@
         <v>15</v>
       </c>
       <c r="B17" t="n">
-        <v>4</v>
+        <v>4.5</v>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>go_stimuli\puppy_14.jpeg</t>
+          <t>go_stimuli\puppy_16.jpeg</t>
         </is>
       </c>
       <c r="D17" t="n">
@@ -7232,11 +7232,11 @@
         <v>16</v>
       </c>
       <c r="B18" t="n">
-        <v>5.5</v>
+        <v>4</v>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>go_stimuli\puppy_19.jpeg</t>
+          <t>go_stimuli\puppy_9.jpg</t>
         </is>
       </c>
       <c r="D18" t="n">
@@ -7257,7 +7257,7 @@
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>go_stimuli\puppy_9.jpg</t>
+          <t>go_stimuli\puppy_26.jpeg</t>
         </is>
       </c>
       <c r="D19" t="n">
@@ -7274,11 +7274,11 @@
         <v>18</v>
       </c>
       <c r="B20" t="n">
-        <v>5.5</v>
+        <v>6.5</v>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>go_stimuli\puppy_7.jpg</t>
+          <t>go_stimuli\puppy_18.jpeg</t>
         </is>
       </c>
       <c r="D20" t="n">
@@ -7295,11 +7295,11 @@
         <v>19</v>
       </c>
       <c r="B21" t="n">
-        <v>5</v>
+        <v>6.5</v>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>go_stimuli\puppy_2.jpg</t>
+          <t>go_stimuli\puppy_28.jpg</t>
         </is>
       </c>
       <c r="D21" t="n">
@@ -7357,19 +7357,19 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>6.5</v>
+        <v>5</v>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>no_go_stimuli\spider_25.jpg</t>
+          <t>go_stimuli\puppy_2.jpg</t>
         </is>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>space</t>
         </is>
       </c>
     </row>
@@ -7378,11 +7378,11 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>5</v>
+        <v>6.5</v>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>go_stimuli\puppy_12.jpeg</t>
+          <t>go_stimuli\puppy_6.jpg</t>
         </is>
       </c>
       <c r="D3" t="n">
@@ -7399,11 +7399,11 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>6</v>
+        <v>6.5</v>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>go_stimuli\puppy_14.jpeg</t>
+          <t>go_stimuli\puppy_8.jpg</t>
         </is>
       </c>
       <c r="D4" t="n">
@@ -7420,19 +7420,19 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>no_go_stimuli\spider_8.jpeg</t>
+          <t>go_stimuli\puppy_20.jpeg</t>
         </is>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>space</t>
         </is>
       </c>
     </row>
@@ -7441,19 +7441,19 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>6.5</v>
+        <v>5</v>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>go_stimuli\puppy_11.jpeg</t>
+          <t>no_go_stimuli\spider_26.jpg</t>
         </is>
       </c>
       <c r="D6" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>space</t>
+          <t>None</t>
         </is>
       </c>
     </row>
@@ -7466,7 +7466,7 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>no_go_stimuli\spider_1.jpeg</t>
+          <t>no_go_stimuli\spider_7.jpeg</t>
         </is>
       </c>
       <c r="D7" t="n">
@@ -7483,11 +7483,11 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>5.5</v>
+        <v>6</v>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>no_go_stimuli\spider_6.jpeg</t>
+          <t>no_go_stimuli\spider_3.jpeg</t>
         </is>
       </c>
       <c r="D8" t="n">
@@ -7504,19 +7504,19 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>4</v>
+        <v>5.5</v>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>no_go_stimuli\spider_11.jpeg</t>
+          <t>go_stimuli\puppy_9.jpg</t>
         </is>
       </c>
       <c r="D9" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>space</t>
         </is>
       </c>
     </row>
@@ -7525,11 +7525,11 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>4.5</v>
+        <v>5</v>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>no_go_stimuli\spider_13.jpeg</t>
+          <t>no_go_stimuli\spider_10.jpeg</t>
         </is>
       </c>
       <c r="D10" t="n">
@@ -7546,11 +7546,11 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>5.5</v>
+        <v>5</v>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>go_stimuli\puppy_17.jpeg</t>
+          <t>go_stimuli\puppy_28.jpg</t>
         </is>
       </c>
       <c r="D11" t="n">
@@ -7567,19 +7567,19 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>5</v>
+        <v>4.5</v>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>go_stimuli\puppy_10.jpg</t>
+          <t>no_go_stimuli\spider_9.jpeg</t>
         </is>
       </c>
       <c r="D12" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>space</t>
+          <t>None</t>
         </is>
       </c>
     </row>
@@ -7588,11 +7588,11 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>6</v>
+        <v>6.5</v>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>no_go_stimuli\spider_19.jpg</t>
+          <t>no_go_stimuli\spider_24.jpeg</t>
         </is>
       </c>
       <c r="D13" t="n">
@@ -7609,11 +7609,11 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>no_go_stimuli\spider_10.jpeg</t>
+          <t>no_go_stimuli\spider_25.jpg</t>
         </is>
       </c>
       <c r="D14" t="n">
@@ -7630,19 +7630,19 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>5.5</v>
+        <v>4</v>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>no_go_stimuli\spider_7.jpeg</t>
+          <t>go_stimuli\puppy_1.jpg</t>
         </is>
       </c>
       <c r="D15" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>space</t>
         </is>
       </c>
     </row>
@@ -7651,19 +7651,19 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>go_stimuli\puppy_7.jpg</t>
+          <t>no_go_stimuli\spider_4.jpeg</t>
         </is>
       </c>
       <c r="D16" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>space</t>
+          <t>None</t>
         </is>
       </c>
     </row>
@@ -7672,19 +7672,19 @@
         <v>15</v>
       </c>
       <c r="B17" t="n">
-        <v>5.5</v>
+        <v>4.5</v>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>go_stimuli\puppy_15.jpeg</t>
+          <t>no_go_stimuli\spider_11.jpeg</t>
         </is>
       </c>
       <c r="D17" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>space</t>
+          <t>None</t>
         </is>
       </c>
     </row>
@@ -7693,11 +7693,11 @@
         <v>16</v>
       </c>
       <c r="B18" t="n">
-        <v>5.5</v>
+        <v>6.5</v>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>go_stimuli\puppy_16.jpeg</t>
+          <t>go_stimuli\puppy_25.jpeg</t>
         </is>
       </c>
       <c r="D18" t="n">
@@ -7714,11 +7714,11 @@
         <v>17</v>
       </c>
       <c r="B19" t="n">
-        <v>5</v>
+        <v>5.5</v>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>no_go_stimuli\spider_9.jpeg</t>
+          <t>no_go_stimuli\spider_22.jpg</t>
         </is>
       </c>
       <c r="D19" t="n">
@@ -7735,11 +7735,11 @@
         <v>18</v>
       </c>
       <c r="B20" t="n">
-        <v>5.5</v>
+        <v>5</v>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>go_stimuli\puppy_23.jpeg</t>
+          <t>go_stimuli\puppy_22.jpeg</t>
         </is>
       </c>
       <c r="D20" t="n">
@@ -7756,11 +7756,11 @@
         <v>19</v>
       </c>
       <c r="B21" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>go_stimuli\puppy_26.jpeg</t>
+          <t>go_stimuli\puppy_30.jpg</t>
         </is>
       </c>
       <c r="D21" t="n">
@@ -7821,14 +7821,14 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>left</t>
+          <t>right</t>
         </is>
       </c>
     </row>
@@ -7837,10 +7837,10 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C3" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D3" t="n">
         <v>1</v>
@@ -7856,10 +7856,10 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C4" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
@@ -7875,10 +7875,10 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="C5" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
         <v>0</v>
@@ -7894,17 +7894,17 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="C6" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D6" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>right</t>
+          <t>left</t>
         </is>
       </c>
     </row>
@@ -7913,17 +7913,17 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C7" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>right</t>
+          <t>left</t>
         </is>
       </c>
     </row>
@@ -7932,17 +7932,17 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>left</t>
+          <t>right</t>
         </is>
       </c>
     </row>
@@ -7951,10 +7951,10 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="C9" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D9" t="n">
         <v>0</v>
@@ -7970,10 +7970,10 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
         <v>1</v>
@@ -7989,10 +7989,10 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="C11" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D11" t="n">
         <v>0</v>
@@ -8008,10 +8008,10 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C12" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D12" t="n">
         <v>1</v>
@@ -8030,14 +8030,14 @@
         <v>1</v>
       </c>
       <c r="C13" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>right</t>
+          <t>left</t>
         </is>
       </c>
     </row>
@@ -8046,17 +8046,17 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="C14" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D14" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>left</t>
+          <t>right</t>
         </is>
       </c>
     </row>
@@ -8065,17 +8065,17 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="C15" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D15" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>right</t>
+          <t>left</t>
         </is>
       </c>
     </row>
@@ -8084,10 +8084,10 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C16" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
         <v>0</v>
@@ -8103,17 +8103,17 @@
         <v>15</v>
       </c>
       <c r="B17" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="C17" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D17" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>left</t>
+          <t>right</t>
         </is>
       </c>
     </row>
@@ -8125,14 +8125,14 @@
         <v>0</v>
       </c>
       <c r="C18" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D18" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>left</t>
+          <t>right</t>
         </is>
       </c>
     </row>
@@ -8144,7 +8144,7 @@
         <v>8</v>
       </c>
       <c r="C19" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D19" t="n">
         <v>0</v>
@@ -8160,17 +8160,17 @@
         <v>18</v>
       </c>
       <c r="B20" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="C20" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D20" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>right</t>
+          <t>left</t>
         </is>
       </c>
     </row>
@@ -8179,10 +8179,10 @@
         <v>19</v>
       </c>
       <c r="B21" t="n">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="C21" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D21" t="n">
         <v>0</v>
@@ -8239,17 +8239,17 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="C2" t="n">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>left</t>
+          <t>right</t>
         </is>
       </c>
     </row>
@@ -8258,10 +8258,10 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="C3" t="n">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="D3" t="n">
         <v>1</v>
@@ -8277,17 +8277,17 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C4" t="n">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="D4" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>right</t>
+          <t>left</t>
         </is>
       </c>
     </row>
@@ -8296,17 +8296,17 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C5" t="n">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="D5" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>right</t>
+          <t>left</t>
         </is>
       </c>
     </row>
@@ -8315,17 +8315,17 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="C6" t="n">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="D6" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>left</t>
+          <t>right</t>
         </is>
       </c>
     </row>
@@ -8334,17 +8334,17 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="C7" t="n">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>left</t>
+          <t>right</t>
         </is>
       </c>
     </row>
@@ -8353,10 +8353,10 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C8" t="n">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="D8" t="n">
         <v>0</v>
@@ -8372,17 +8372,17 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="C9" t="n">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="D9" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>right</t>
+          <t>left</t>
         </is>
       </c>
     </row>
@@ -8391,17 +8391,17 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C10" t="n">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="D10" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>right</t>
+          <t>left</t>
         </is>
       </c>
     </row>
@@ -8410,17 +8410,17 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C11" t="n">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="D11" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>right</t>
+          <t>left</t>
         </is>
       </c>
     </row>
@@ -8429,10 +8429,10 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="C12" t="n">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="D12" t="n">
         <v>1</v>
@@ -8448,17 +8448,17 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="D13" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>right</t>
+          <t>left</t>
         </is>
       </c>
     </row>
@@ -8467,10 +8467,10 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C14" t="n">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="D14" t="n">
         <v>0</v>
@@ -8486,10 +8486,10 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="C15" t="n">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="D15" t="n">
         <v>0</v>
@@ -8505,17 +8505,17 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="C16" t="n">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>left</t>
+          <t>right</t>
         </is>
       </c>
     </row>
@@ -8524,17 +8524,17 @@
         <v>15</v>
       </c>
       <c r="B17" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="C17" t="n">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="D17" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>left</t>
+          <t>right</t>
         </is>
       </c>
     </row>
@@ -8546,14 +8546,14 @@
         <v>1</v>
       </c>
       <c r="C18" t="n">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="D18" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>left</t>
+          <t>right</t>
         </is>
       </c>
     </row>
@@ -8562,10 +8562,10 @@
         <v>17</v>
       </c>
       <c r="B19" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C19" t="n">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="D19" t="n">
         <v>0</v>
@@ -8581,10 +8581,10 @@
         <v>18</v>
       </c>
       <c r="B20" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C20" t="n">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="D20" t="n">
         <v>0</v>
@@ -8600,10 +8600,10 @@
         <v>19</v>
       </c>
       <c r="B21" t="n">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="C21" t="n">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="D21" t="n">
         <v>0</v>
@@ -8660,10 +8660,10 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="D2" t="n">
         <v>0</v>
@@ -8679,17 +8679,17 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>left</t>
+          <t>right</t>
         </is>
       </c>
     </row>
@@ -8698,17 +8698,17 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>left</t>
+          <t>right</t>
         </is>
       </c>
     </row>
@@ -8720,14 +8720,14 @@
         <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="D5" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>right</t>
+          <t>left</t>
         </is>
       </c>
     </row>
@@ -8736,10 +8736,10 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
+        <v>4</v>
+      </c>
+      <c r="C6" t="n">
         <v>6</v>
-      </c>
-      <c r="C6" t="n">
-        <v>0</v>
       </c>
       <c r="D6" t="n">
         <v>0</v>
@@ -8755,10 +8755,10 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
+        <v>1</v>
+      </c>
+      <c r="C7" t="n">
         <v>6</v>
-      </c>
-      <c r="C7" t="n">
-        <v>0</v>
       </c>
       <c r="D7" t="n">
         <v>0</v>
@@ -8774,10 +8774,10 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="D8" t="n">
         <v>1</v>
@@ -8793,10 +8793,10 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="C9" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="D9" t="n">
         <v>0</v>
@@ -8815,7 +8815,7 @@
         <v>2</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="D10" t="n">
         <v>0</v>
@@ -8831,17 +8831,17 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C11" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="D11" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>right</t>
+          <t>left</t>
         </is>
       </c>
     </row>
@@ -8850,17 +8850,17 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="C12" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="D12" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>right</t>
+          <t>left</t>
         </is>
       </c>
     </row>
@@ -8869,10 +8869,10 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="D13" t="n">
         <v>1</v>
@@ -8888,10 +8888,10 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="C14" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="D14" t="n">
         <v>1</v>
@@ -8907,10 +8907,10 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C15" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="D15" t="n">
         <v>0</v>
@@ -8926,17 +8926,17 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>left</t>
+          <t>right</t>
         </is>
       </c>
     </row>
@@ -8945,17 +8945,17 @@
         <v>15</v>
       </c>
       <c r="B17" t="n">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="C17" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="D17" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>right</t>
+          <t>left</t>
         </is>
       </c>
     </row>
@@ -8964,17 +8964,17 @@
         <v>16</v>
       </c>
       <c r="B18" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="C18" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="D18" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>right</t>
+          <t>left</t>
         </is>
       </c>
     </row>
@@ -8983,17 +8983,17 @@
         <v>17</v>
       </c>
       <c r="B19" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>left</t>
+          <t>right</t>
         </is>
       </c>
     </row>
@@ -9002,17 +9002,17 @@
         <v>18</v>
       </c>
       <c r="B20" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C20" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="D20" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>left</t>
+          <t>right</t>
         </is>
       </c>
     </row>
@@ -9021,10 +9021,10 @@
         <v>19</v>
       </c>
       <c r="B21" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="C21" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="D21" t="n">
         <v>0</v>
@@ -9076,7 +9076,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
@@ -9092,14 +9092,14 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>left</t>
+          <t>right</t>
         </is>
       </c>
     </row>
@@ -9108,7 +9108,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
         <v>1</v>
@@ -9124,7 +9124,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="C5" t="n">
         <v>0</v>
@@ -9140,7 +9140,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C6" t="n">
         <v>0</v>
@@ -9156,14 +9156,14 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>left</t>
+          <t>right</t>
         </is>
       </c>
     </row>
@@ -9172,14 +9172,14 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>right</t>
+          <t>left</t>
         </is>
       </c>
     </row>
@@ -9188,14 +9188,14 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="C9" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>right</t>
+          <t>left</t>
         </is>
       </c>
     </row>
@@ -9204,7 +9204,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C10" t="n">
         <v>0</v>
@@ -9220,7 +9220,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C11" t="n">
         <v>0</v>
@@ -9236,14 +9236,14 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="C12" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>right</t>
+          <t>left</t>
         </is>
       </c>
     </row>
@@ -9252,14 +9252,14 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>left</t>
+          <t>right</t>
         </is>
       </c>
     </row>
@@ -9268,14 +9268,14 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C14" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>right</t>
+          <t>left</t>
         </is>
       </c>
     </row>
@@ -9284,14 +9284,14 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="C15" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>left</t>
+          <t>right</t>
         </is>
       </c>
     </row>
@@ -9300,7 +9300,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="C16" t="n">
         <v>1</v>
@@ -9316,7 +9316,7 @@
         <v>15</v>
       </c>
       <c r="B17" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="C17" t="n">
         <v>0</v>
@@ -9332,7 +9332,7 @@
         <v>16</v>
       </c>
       <c r="B18" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C18" t="n">
         <v>0</v>
@@ -9348,7 +9348,7 @@
         <v>17</v>
       </c>
       <c r="B19" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C19" t="n">
         <v>1</v>
@@ -9364,7 +9364,7 @@
         <v>18</v>
       </c>
       <c r="B20" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C20" t="n">
         <v>0</v>
@@ -9380,7 +9380,7 @@
         <v>19</v>
       </c>
       <c r="B21" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C21" t="n">
         <v>1</v>
@@ -9432,7 +9432,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
@@ -9448,14 +9448,14 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>left</t>
+          <t>right</t>
         </is>
       </c>
     </row>
@@ -9464,7 +9464,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C4" t="n">
         <v>1</v>
@@ -9480,7 +9480,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
         <v>0</v>
@@ -9496,7 +9496,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="C6" t="n">
         <v>0</v>
@@ -9512,7 +9512,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="C7" t="n">
         <v>0</v>
@@ -9528,14 +9528,14 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>right</t>
+          <t>left</t>
         </is>
       </c>
     </row>
@@ -9544,14 +9544,14 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="C9" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>right</t>
+          <t>left</t>
         </is>
       </c>
     </row>
@@ -9560,14 +9560,14 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="C10" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>right</t>
+          <t>left</t>
         </is>
       </c>
     </row>
@@ -9576,14 +9576,14 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C11" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>left</t>
+          <t>right</t>
         </is>
       </c>
     </row>
@@ -9592,7 +9592,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="C12" t="n">
         <v>0</v>
@@ -9608,14 +9608,14 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C13" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>right</t>
+          <t>left</t>
         </is>
       </c>
     </row>
@@ -9624,7 +9624,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C14" t="n">
         <v>0</v>
@@ -9640,14 +9640,14 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C15" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>left</t>
+          <t>right</t>
         </is>
       </c>
     </row>
@@ -9656,7 +9656,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="C16" t="n">
         <v>0</v>
@@ -9675,11 +9675,11 @@
         <v>4</v>
       </c>
       <c r="C17" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>left</t>
+          <t>right</t>
         </is>
       </c>
     </row>
@@ -9688,14 +9688,14 @@
         <v>16</v>
       </c>
       <c r="B18" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="C18" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>left</t>
+          <t>right</t>
         </is>
       </c>
     </row>
@@ -9704,14 +9704,14 @@
         <v>17</v>
       </c>
       <c r="B19" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="C19" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>right</t>
+          <t>left</t>
         </is>
       </c>
     </row>
@@ -9720,7 +9720,7 @@
         <v>18</v>
       </c>
       <c r="B20" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="C20" t="n">
         <v>1</v>
@@ -9736,7 +9736,7 @@
         <v>19</v>
       </c>
       <c r="B21" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="C21" t="n">
         <v>1</v>

--- a/participants/participant_44/participant_44_conditions.xlsx
+++ b/participants/participant_44/participant_44_conditions.xlsx
@@ -7,29 +7,29 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="go_stims-1651168788470268" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet name="GNG_stims-16511687884864688" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet name="go_stims-1651168788488522" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet name="GNG_stims-16511687885020905" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet name="ZB-match_0-16511687887473655" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet name="ZB-match_1-16511687889557023" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet name="ZB-match_6-16511687890541265" sheetId="7" state="visible" r:id="rId7"/>
-    <sheet name="OB-16511687894708748" sheetId="8" state="visible" r:id="rId8"/>
-    <sheet name="OB-16511687895888684" sheetId="9" state="visible" r:id="rId9"/>
-    <sheet name="OB-16511687896532602" sheetId="10" state="visible" r:id="rId10"/>
-    <sheet name="TB-16511687902622168" sheetId="11" state="visible" r:id="rId11"/>
-    <sheet name="TB-16511687906133595" sheetId="12" state="visible" r:id="rId12"/>
-    <sheet name="TB-1651168790827463" sheetId="13" state="visible" r:id="rId13"/>
-    <sheet name="ZM_stims-16511687908504066" sheetId="14" state="visible" r:id="rId14"/>
-    <sheet name="MM_stims-1651168790863413" sheetId="15" state="visible" r:id="rId15"/>
-    <sheet name="ZM_stims-16511687908644133" sheetId="16" state="visible" r:id="rId16"/>
-    <sheet name="MM_stims-16511687908790789" sheetId="17" state="visible" r:id="rId17"/>
-    <sheet name="ZM_stims-16511687908800852" sheetId="18" state="visible" r:id="rId18"/>
-    <sheet name="MM_stims-16511687909010339" sheetId="19" state="visible" r:id="rId19"/>
-    <sheet name="SAT_stims-16511687909067614" sheetId="20" state="visible" r:id="rId20"/>
-    <sheet name="SAT_stims-16511687909327872" sheetId="21" state="visible" r:id="rId21"/>
-    <sheet name="vSAT_stims-1651168790948446" sheetId="22" state="visible" r:id="rId22"/>
-    <sheet name="vSAT_stims-16511687909793124" sheetId="23" state="visible" r:id="rId23"/>
+    <sheet name="go_stims-16512556133378444" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="GNG_stims-16512556133518429" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="go_stims-1651255613353846" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet name="GNG_stims-16512556133688464" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet name="ZB-match_4-1651255613659351" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet name="ZB-match_3-16512556139952965" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet name="ZB-match_0-16512556142200906" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet name="OB-1651255615261636" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet name="OB-16512556158187742" sheetId="9" state="visible" r:id="rId9"/>
+    <sheet name="OB-16512556162927752" sheetId="10" state="visible" r:id="rId10"/>
+    <sheet name="TB-16512556164257746" sheetId="11" state="visible" r:id="rId11"/>
+    <sheet name="TB-16512556165937736" sheetId="12" state="visible" r:id="rId12"/>
+    <sheet name="TB-16512556171717782" sheetId="13" state="visible" r:id="rId13"/>
+    <sheet name="ZM_stims-16512556172047749" sheetId="14" state="visible" r:id="rId14"/>
+    <sheet name="MM_stims-16512556172287743" sheetId="15" state="visible" r:id="rId15"/>
+    <sheet name="ZM_stims-16512556172307792" sheetId="16" state="visible" r:id="rId16"/>
+    <sheet name="MM_stims-16512556172447758" sheetId="17" state="visible" r:id="rId17"/>
+    <sheet name="ZM_stims-16512556172457752" sheetId="18" state="visible" r:id="rId18"/>
+    <sheet name="MM_stims-16512556172607734" sheetId="19" state="visible" r:id="rId19"/>
+    <sheet name="SAT_stims-16512556172667773" sheetId="20" state="visible" r:id="rId20"/>
+    <sheet name="SAT_stims-16512556172927768" sheetId="21" state="visible" r:id="rId21"/>
+    <sheet name="vSAT_stims-16512556173087745" sheetId="22" state="visible" r:id="rId22"/>
+    <sheet name="vSAT_stims-16512556173257737" sheetId="23" state="visible" r:id="rId23"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -486,7 +486,7 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>go_stimuli\puppy_10.jpg</t>
+          <t>go_stimuli\puppy_5.jpg</t>
         </is>
       </c>
       <c r="D2" t="n">
@@ -503,11 +503,11 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>4.5</v>
+        <v>6</v>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>go_stimuli\puppy_30.jpg</t>
+          <t>go_stimuli\puppy_22.jpeg</t>
         </is>
       </c>
       <c r="D3" t="n">
@@ -524,11 +524,11 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>4</v>
+        <v>5.5</v>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>go_stimuli\puppy_5.jpg</t>
+          <t>go_stimuli\puppy_3.jpg</t>
         </is>
       </c>
       <c r="D4" t="n">
@@ -545,11 +545,11 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>4.5</v>
+        <v>6.5</v>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>go_stimuli\puppy_24.jpeg</t>
+          <t>go_stimuli\puppy_6.jpg</t>
         </is>
       </c>
       <c r="D5" t="n">
@@ -566,11 +566,11 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>6.5</v>
+        <v>4</v>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>go_stimuli\puppy_1.jpg</t>
+          <t>go_stimuli\puppy_27.jpg</t>
         </is>
       </c>
       <c r="D6" t="n">
@@ -587,11 +587,11 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>6</v>
+        <v>5.5</v>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>go_stimuli\puppy_25.jpeg</t>
+          <t>go_stimuli\puppy_4.jpg</t>
         </is>
       </c>
       <c r="D7" t="n">
@@ -608,11 +608,11 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>4.5</v>
+        <v>5.5</v>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>go_stimuli\puppy_27.jpg</t>
+          <t>go_stimuli\puppy_23.jpeg</t>
         </is>
       </c>
       <c r="D8" t="n">
@@ -629,11 +629,11 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>4.5</v>
+        <v>5</v>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>go_stimuli\puppy_29.jpg</t>
+          <t>go_stimuli\puppy_13.jpg</t>
         </is>
       </c>
       <c r="D9" t="n">
@@ -650,11 +650,11 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>5.5</v>
+        <v>5</v>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>go_stimuli\puppy_4.jpg</t>
+          <t>go_stimuli\puppy_29.jpg</t>
         </is>
       </c>
       <c r="D10" t="n">
@@ -671,11 +671,11 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>6</v>
+        <v>5.5</v>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>go_stimuli\puppy_7.jpg</t>
+          <t>go_stimuli\puppy_21.jpeg</t>
         </is>
       </c>
       <c r="D11" t="n">
@@ -713,11 +713,11 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>4.5</v>
+        <v>5.5</v>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>go_stimuli\puppy_28.jpg</t>
+          <t>go_stimuli\puppy_15.jpeg</t>
         </is>
       </c>
       <c r="D13" t="n">
@@ -734,11 +734,11 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>5</v>
+        <v>4.5</v>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>go_stimuli\puppy_13.jpg</t>
+          <t>go_stimuli\puppy_7.jpg</t>
         </is>
       </c>
       <c r="D14" t="n">
@@ -759,7 +759,7 @@
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>go_stimuli\puppy_18.jpeg</t>
+          <t>go_stimuli\puppy_10.jpg</t>
         </is>
       </c>
       <c r="D15" t="n">
@@ -776,11 +776,11 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>4.5</v>
+        <v>6.5</v>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>go_stimuli\puppy_8.jpg</t>
+          <t>go_stimuli\puppy_9.jpg</t>
         </is>
       </c>
       <c r="D16" t="n">
@@ -797,11 +797,11 @@
         <v>15</v>
       </c>
       <c r="B17" t="n">
-        <v>5.5</v>
+        <v>4.5</v>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>go_stimuli\puppy_23.jpeg</t>
+          <t>go_stimuli\puppy_17.jpeg</t>
         </is>
       </c>
       <c r="D17" t="n">
@@ -818,11 +818,11 @@
         <v>16</v>
       </c>
       <c r="B18" t="n">
-        <v>6.5</v>
+        <v>4</v>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>go_stimuli\puppy_3.jpg</t>
+          <t>go_stimuli\puppy_30.jpg</t>
         </is>
       </c>
       <c r="D18" t="n">
@@ -839,11 +839,11 @@
         <v>17</v>
       </c>
       <c r="B19" t="n">
-        <v>4</v>
+        <v>5.5</v>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>go_stimuli\puppy_11.jpeg</t>
+          <t>go_stimuli\puppy_20.jpeg</t>
         </is>
       </c>
       <c r="D19" t="n">
@@ -860,11 +860,11 @@
         <v>18</v>
       </c>
       <c r="B20" t="n">
-        <v>5.5</v>
+        <v>4</v>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>go_stimuli\puppy_9.jpg</t>
+          <t>go_stimuli\puppy_2.jpg</t>
         </is>
       </c>
       <c r="D20" t="n">
@@ -881,11 +881,11 @@
         <v>19</v>
       </c>
       <c r="B21" t="n">
-        <v>6.5</v>
+        <v>5.5</v>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>go_stimuli\puppy_14.jpeg</t>
+          <t>go_stimuli\puppy_25.jpeg</t>
         </is>
       </c>
       <c r="D21" t="n">
@@ -938,7 +938,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
@@ -954,7 +954,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -970,14 +970,14 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>left</t>
+          <t>right</t>
         </is>
       </c>
     </row>
@@ -986,14 +986,14 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="C5" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>right</t>
+          <t>left</t>
         </is>
       </c>
     </row>
@@ -1002,7 +1002,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="C6" t="n">
         <v>0</v>
@@ -1018,14 +1018,14 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>left</t>
+          <t>right</t>
         </is>
       </c>
     </row>
@@ -1034,7 +1034,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="C8" t="n">
         <v>1</v>
@@ -1050,7 +1050,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="C9" t="n">
         <v>1</v>
@@ -1066,14 +1066,14 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C10" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>right</t>
+          <t>left</t>
         </is>
       </c>
     </row>
@@ -1082,14 +1082,14 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C11" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>right</t>
+          <t>left</t>
         </is>
       </c>
     </row>
@@ -1101,11 +1101,11 @@
         <v>7</v>
       </c>
       <c r="C12" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>right</t>
+          <t>left</t>
         </is>
       </c>
     </row>
@@ -1114,14 +1114,14 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>left</t>
+          <t>right</t>
         </is>
       </c>
     </row>
@@ -1130,14 +1130,14 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C14" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>left</t>
+          <t>right</t>
         </is>
       </c>
     </row>
@@ -1146,14 +1146,14 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="C15" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>right</t>
+          <t>left</t>
         </is>
       </c>
     </row>
@@ -1162,7 +1162,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C16" t="n">
         <v>0</v>
@@ -1178,14 +1178,14 @@
         <v>15</v>
       </c>
       <c r="B17" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C17" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>left</t>
+          <t>right</t>
         </is>
       </c>
     </row>
@@ -1194,14 +1194,14 @@
         <v>16</v>
       </c>
       <c r="B18" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C18" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>left</t>
+          <t>right</t>
         </is>
       </c>
     </row>
@@ -1210,7 +1210,7 @@
         <v>17</v>
       </c>
       <c r="B19" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C19" t="n">
         <v>0</v>
@@ -1229,11 +1229,11 @@
         <v>5</v>
       </c>
       <c r="C20" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>right</t>
+          <t>left</t>
         </is>
       </c>
     </row>
@@ -1242,14 +1242,14 @@
         <v>19</v>
       </c>
       <c r="B21" t="n">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C21" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>right</t>
+          <t>left</t>
         </is>
       </c>
     </row>
@@ -1294,7 +1294,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
@@ -1310,7 +1310,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -1342,14 +1342,14 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="C5" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>right</t>
+          <t>left</t>
         </is>
       </c>
     </row>
@@ -1358,14 +1358,14 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C6" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>left</t>
+          <t>right</t>
         </is>
       </c>
     </row>
@@ -1374,14 +1374,14 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>left</t>
+          <t>right</t>
         </is>
       </c>
     </row>
@@ -1393,11 +1393,11 @@
         <v>2</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>left</t>
+          <t>right</t>
         </is>
       </c>
     </row>
@@ -1422,14 +1422,14 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C10" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>right</t>
+          <t>left</t>
         </is>
       </c>
     </row>
@@ -1438,14 +1438,14 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="C11" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>right</t>
+          <t>left</t>
         </is>
       </c>
     </row>
@@ -1454,7 +1454,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C12" t="n">
         <v>1</v>
@@ -1470,14 +1470,14 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="C13" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>right</t>
+          <t>left</t>
         </is>
       </c>
     </row>
@@ -1486,7 +1486,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="C14" t="n">
         <v>0</v>
@@ -1502,7 +1502,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="C15" t="n">
         <v>0</v>
@@ -1518,7 +1518,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C16" t="n">
         <v>0</v>
@@ -1534,14 +1534,14 @@
         <v>15</v>
       </c>
       <c r="B17" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="C17" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>right</t>
+          <t>left</t>
         </is>
       </c>
     </row>
@@ -1550,7 +1550,7 @@
         <v>16</v>
       </c>
       <c r="B18" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C18" t="n">
         <v>1</v>
@@ -1566,14 +1566,14 @@
         <v>17</v>
       </c>
       <c r="B19" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>left</t>
+          <t>right</t>
         </is>
       </c>
     </row>
@@ -1582,14 +1582,14 @@
         <v>18</v>
       </c>
       <c r="B20" t="n">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="C20" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>left</t>
+          <t>right</t>
         </is>
       </c>
     </row>
@@ -1598,7 +1598,7 @@
         <v>19</v>
       </c>
       <c r="B21" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="C21" t="n">
         <v>1</v>
@@ -1650,7 +1650,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
@@ -1682,14 +1682,14 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>left</t>
+          <t>right</t>
         </is>
       </c>
     </row>
@@ -1698,14 +1698,14 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>left</t>
+          <t>right</t>
         </is>
       </c>
     </row>
@@ -1714,14 +1714,14 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C6" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>left</t>
+          <t>right</t>
         </is>
       </c>
     </row>
@@ -1730,7 +1730,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
         <v>0</v>
@@ -1746,7 +1746,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="C8" t="n">
         <v>0</v>
@@ -1762,14 +1762,14 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="C9" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>right</t>
+          <t>left</t>
         </is>
       </c>
     </row>
@@ -1778,14 +1778,14 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="C10" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>right</t>
+          <t>left</t>
         </is>
       </c>
     </row>
@@ -1794,14 +1794,14 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C11" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>right</t>
+          <t>left</t>
         </is>
       </c>
     </row>
@@ -1810,14 +1810,14 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C12" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>left</t>
+          <t>right</t>
         </is>
       </c>
     </row>
@@ -1826,7 +1826,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C13" t="n">
         <v>1</v>
@@ -1842,7 +1842,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="C14" t="n">
         <v>0</v>
@@ -1858,7 +1858,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C15" t="n">
         <v>1</v>
@@ -1874,14 +1874,14 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="C16" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>right</t>
+          <t>left</t>
         </is>
       </c>
     </row>
@@ -1890,14 +1890,14 @@
         <v>15</v>
       </c>
       <c r="B17" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="C17" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>right</t>
+          <t>left</t>
         </is>
       </c>
     </row>
@@ -1906,7 +1906,7 @@
         <v>16</v>
       </c>
       <c r="B18" t="n">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="C18" t="n">
         <v>1</v>
@@ -1922,14 +1922,14 @@
         <v>17</v>
       </c>
       <c r="B19" t="n">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>left</t>
+          <t>right</t>
         </is>
       </c>
     </row>
@@ -1938,7 +1938,7 @@
         <v>18</v>
       </c>
       <c r="B20" t="n">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="C20" t="n">
         <v>0</v>
@@ -1954,7 +1954,7 @@
         <v>19</v>
       </c>
       <c r="B21" t="n">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="C21" t="n">
         <v>0</v>
@@ -2006,7 +2006,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
@@ -2022,7 +2022,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -2054,7 +2054,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="C5" t="n">
         <v>0</v>
@@ -2070,14 +2070,14 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="C6" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>left</t>
+          <t>right</t>
         </is>
       </c>
     </row>
@@ -2086,14 +2086,14 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="C7" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>right</t>
+          <t>left</t>
         </is>
       </c>
     </row>
@@ -2102,7 +2102,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C8" t="n">
         <v>0</v>
@@ -2118,14 +2118,14 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="C9" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>left</t>
+          <t>right</t>
         </is>
       </c>
     </row>
@@ -2134,14 +2134,14 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>left</t>
+          <t>right</t>
         </is>
       </c>
     </row>
@@ -2150,14 +2150,14 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="C11" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>right</t>
+          <t>left</t>
         </is>
       </c>
     </row>
@@ -2166,7 +2166,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C12" t="n">
         <v>1</v>
@@ -2182,7 +2182,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="C13" t="n">
         <v>0</v>
@@ -2198,14 +2198,14 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C14" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>right</t>
+          <t>left</t>
         </is>
       </c>
     </row>
@@ -2214,14 +2214,14 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C15" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>right</t>
+          <t>left</t>
         </is>
       </c>
     </row>
@@ -2230,7 +2230,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C16" t="n">
         <v>1</v>
@@ -2249,11 +2249,11 @@
         <v>8</v>
       </c>
       <c r="C17" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>left</t>
+          <t>right</t>
         </is>
       </c>
     </row>
@@ -2262,7 +2262,7 @@
         <v>16</v>
       </c>
       <c r="B18" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C18" t="n">
         <v>1</v>
@@ -2278,14 +2278,14 @@
         <v>17</v>
       </c>
       <c r="B19" t="n">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>left</t>
+          <t>right</t>
         </is>
       </c>
     </row>
@@ -2294,14 +2294,14 @@
         <v>18</v>
       </c>
       <c r="B20" t="n">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C20" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>right</t>
+          <t>left</t>
         </is>
       </c>
     </row>
@@ -2310,7 +2310,7 @@
         <v>19</v>
       </c>
       <c r="B21" t="n">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="C21" t="n">
         <v>0</v>
@@ -2363,7 +2363,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>zero_move_stimuli\zero_move_6.jpg</t>
+          <t>zero_move_stimuli\zero_move_2.jpg</t>
         </is>
       </c>
       <c r="C2" t="n">
@@ -2381,7 +2381,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>zero_move_stimuli\zero_move_4.jpg</t>
+          <t>zero_move_stimuli\zero_move_1.jpg</t>
         </is>
       </c>
       <c r="C3" t="n">
@@ -2399,7 +2399,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>zero_move_stimuli\zero_move_2.jpg</t>
+          <t>zero_move_stimuli\zero_move_5.jpg</t>
         </is>
       </c>
       <c r="C4" t="n">
@@ -2417,7 +2417,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>zero_move_stimuli\zero_move_1.jpg</t>
+          <t>zero_move_stimuli\zero_move_3.jpg</t>
         </is>
       </c>
       <c r="C5" t="n">
@@ -2435,7 +2435,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>zero_move_stimuli\zero_move_5.jpg</t>
+          <t>zero_move_stimuli\zero_move_4.jpg</t>
         </is>
       </c>
       <c r="C6" t="n">
@@ -2453,7 +2453,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>zero_move_stimuli\zero_move_3.jpg</t>
+          <t>zero_move_stimuli\zero_move_6.jpg</t>
         </is>
       </c>
       <c r="C7" t="n">
@@ -2507,15 +2507,15 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>multi_move_stimuli\stim_two_move\stim_two_move_4.jpg</t>
+          <t>multi_move_stimuli\stim_not_two_move\stim_not_two_move_4.jpg</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>right</t>
+          <t>left</t>
         </is>
       </c>
     </row>
@@ -2525,15 +2525,15 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>multi_move_stimuli\stim_not_two_move\stim_not_two_move_2.jpg</t>
+          <t>multi_move_stimuli\stim_two_move\stim_two_move_6.jpg</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>left</t>
+          <t>right</t>
         </is>
       </c>
     </row>
@@ -2543,15 +2543,15 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>multi_move_stimuli\stim_not_two_move\stim_not_two_move_3.jpg</t>
+          <t>multi_move_stimuli\stim_two_move\stim_two_move_2.jpg</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>left</t>
+          <t>right</t>
         </is>
       </c>
     </row>
@@ -2561,7 +2561,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>multi_move_stimuli\stim_not_two_move\stim_not_two_move_5.jpg</t>
+          <t>multi_move_stimuli\stim_not_two_move\stim_not_two_move_2.jpg</t>
         </is>
       </c>
       <c r="C5" t="n">
@@ -2579,15 +2579,15 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>multi_move_stimuli\stim_two_move\stim_two_move_1.jpg</t>
+          <t>multi_move_stimuli\stim_not_two_move\stim_not_two_move_5.jpg</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>right</t>
+          <t>left</t>
         </is>
       </c>
     </row>
@@ -2597,7 +2597,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>multi_move_stimuli\stim_two_move\stim_two_move_2.jpg</t>
+          <t>multi_move_stimuli\stim_two_move\stim_two_move_3.jpg</t>
         </is>
       </c>
       <c r="C7" t="n">
@@ -2651,7 +2651,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>zero_move_stimuli\zero_move_3.jpg</t>
+          <t>zero_move_stimuli\zero_move_5.jpg</t>
         </is>
       </c>
       <c r="C2" t="n">
@@ -2687,7 +2687,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>zero_move_stimuli\zero_move_5.jpg</t>
+          <t>zero_move_stimuli\zero_move_1.jpg</t>
         </is>
       </c>
       <c r="C4" t="n">
@@ -2705,7 +2705,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>zero_move_stimuli\zero_move_2.jpg</t>
+          <t>zero_move_stimuli\zero_move_4.jpg</t>
         </is>
       </c>
       <c r="C5" t="n">
@@ -2723,7 +2723,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>zero_move_stimuli\zero_move_4.jpg</t>
+          <t>zero_move_stimuli\zero_move_3.jpg</t>
         </is>
       </c>
       <c r="C6" t="n">
@@ -2741,7 +2741,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>zero_move_stimuli\zero_move_1.jpg</t>
+          <t>zero_move_stimuli\zero_move_2.jpg</t>
         </is>
       </c>
       <c r="C7" t="n">
@@ -2795,15 +2795,15 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>multi_move_stimuli\stim_two_move\stim_two_move_6.jpg</t>
+          <t>multi_move_stimuli\stim_not_two_move\stim_not_two_move_5.jpg</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>right</t>
+          <t>left</t>
         </is>
       </c>
     </row>
@@ -2813,15 +2813,15 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>multi_move_stimuli\stim_not_two_move\stim_not_two_move_6.jpg</t>
+          <t>multi_move_stimuli\stim_two_move\stim_two_move_4.jpg</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>left</t>
+          <t>right</t>
         </is>
       </c>
     </row>
@@ -2831,7 +2831,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>multi_move_stimuli\stim_two_move\stim_two_move_4.jpg</t>
+          <t>multi_move_stimuli\stim_two_move\stim_two_move_6.jpg</t>
         </is>
       </c>
       <c r="C4" t="n">
@@ -2849,7 +2849,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>multi_move_stimuli\stim_not_two_move\stim_not_two_move_2.jpg</t>
+          <t>multi_move_stimuli\stim_not_two_move\stim_not_two_move_6.jpg</t>
         </is>
       </c>
       <c r="C5" t="n">
@@ -2885,7 +2885,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>multi_move_stimuli\stim_two_move\stim_two_move_3.jpg</t>
+          <t>multi_move_stimuli\stim_two_move\stim_two_move_5.jpg</t>
         </is>
       </c>
       <c r="C7" t="n">
@@ -2939,7 +2939,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>zero_move_stimuli\zero_move_3.jpg</t>
+          <t>zero_move_stimuli\zero_move_4.jpg</t>
         </is>
       </c>
       <c r="C2" t="n">
@@ -2957,7 +2957,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>zero_move_stimuli\zero_move_1.jpg</t>
+          <t>zero_move_stimuli\zero_move_2.jpg</t>
         </is>
       </c>
       <c r="C3" t="n">
@@ -2993,7 +2993,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>zero_move_stimuli\zero_move_4.jpg</t>
+          <t>zero_move_stimuli\zero_move_1.jpg</t>
         </is>
       </c>
       <c r="C5" t="n">
@@ -3011,7 +3011,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>zero_move_stimuli\zero_move_2.jpg</t>
+          <t>zero_move_stimuli\zero_move_3.jpg</t>
         </is>
       </c>
       <c r="C6" t="n">
@@ -3083,7 +3083,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>multi_move_stimuli\stim_not_two_move\stim_not_two_move_1.jpg</t>
+          <t>multi_move_stimuli\stim_not_two_move\stim_not_two_move_4.jpg</t>
         </is>
       </c>
       <c r="C2" t="n">
@@ -3101,7 +3101,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>multi_move_stimuli\stim_not_two_move\stim_not_two_move_6.jpg</t>
+          <t>multi_move_stimuli\stim_not_two_move\stim_not_two_move_2.jpg</t>
         </is>
       </c>
       <c r="C3" t="n">
@@ -3119,7 +3119,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>multi_move_stimuli\stim_two_move\stim_two_move_2.jpg</t>
+          <t>multi_move_stimuli\stim_two_move\stim_two_move_6.jpg</t>
         </is>
       </c>
       <c r="C4" t="n">
@@ -3173,7 +3173,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>multi_move_stimuli\stim_two_move\stim_two_move_1.jpg</t>
+          <t>multi_move_stimuli\stim_two_move\stim_two_move_3.jpg</t>
         </is>
       </c>
       <c r="C7" t="n">
@@ -3231,19 +3231,19 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>go_stimuli\puppy_12.jpeg</t>
+          <t>no_go_stimuli\spider_18.jpg</t>
         </is>
       </c>
       <c r="D2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>space</t>
+          <t>None</t>
         </is>
       </c>
     </row>
@@ -3252,19 +3252,19 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>5.5</v>
+        <v>4.5</v>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>no_go_stimuli\spider_3.jpeg</t>
+          <t>go_stimuli\puppy_10.jpg</t>
         </is>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>space</t>
         </is>
       </c>
     </row>
@@ -3273,19 +3273,19 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>6</v>
+        <v>4.5</v>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>go_stimuli\puppy_10.jpg</t>
+          <t>no_go_stimuli\spider_24.jpeg</t>
         </is>
       </c>
       <c r="D4" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>space</t>
+          <t>None</t>
         </is>
       </c>
     </row>
@@ -3298,15 +3298,15 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>no_go_stimuli\spider_8.jpeg</t>
+          <t>go_stimuli\puppy_12.jpeg</t>
         </is>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>space</t>
         </is>
       </c>
     </row>
@@ -3315,11 +3315,11 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>5.5</v>
+        <v>4.5</v>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>go_stimuli\puppy_13.jpg</t>
+          <t>go_stimuli\puppy_14.jpeg</t>
         </is>
       </c>
       <c r="D6" t="n">
@@ -3336,19 +3336,19 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>no_go_stimuli\spider_29.jpg</t>
+          <t>go_stimuli\puppy_23.jpeg</t>
         </is>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>space</t>
         </is>
       </c>
     </row>
@@ -3361,7 +3361,7 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>no_go_stimuli\spider_22.jpg</t>
+          <t>no_go_stimuli\spider_11.jpeg</t>
         </is>
       </c>
       <c r="D8" t="n">
@@ -3378,19 +3378,19 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>no_go_stimuli\spider_9.jpeg</t>
+          <t>go_stimuli\puppy_26.jpeg</t>
         </is>
       </c>
       <c r="D9" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>space</t>
         </is>
       </c>
     </row>
@@ -3399,11 +3399,11 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>4.5</v>
+        <v>5</v>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>no_go_stimuli\spider_18.jpg</t>
+          <t>no_go_stimuli\spider_13.jpeg</t>
         </is>
       </c>
       <c r="D10" t="n">
@@ -3420,11 +3420,11 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>5</v>
+        <v>5.5</v>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>no_go_stimuli\spider_30.jpg</t>
+          <t>no_go_stimuli\spider_3.jpeg</t>
         </is>
       </c>
       <c r="D11" t="n">
@@ -3441,11 +3441,11 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>no_go_stimuli\spider_7.jpeg</t>
+          <t>no_go_stimuli\spider_5.jpeg</t>
         </is>
       </c>
       <c r="D12" t="n">
@@ -3462,11 +3462,11 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>go_stimuli\puppy_1.jpg</t>
+          <t>go_stimuli\puppy_22.jpeg</t>
         </is>
       </c>
       <c r="D13" t="n">
@@ -3483,19 +3483,19 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>go_stimuli\puppy_5.jpg</t>
+          <t>no_go_stimuli\spider_29.jpg</t>
         </is>
       </c>
       <c r="D14" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>space</t>
+          <t>None</t>
         </is>
       </c>
     </row>
@@ -3508,7 +3508,7 @@
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>go_stimuli\puppy_9.jpg</t>
+          <t>go_stimuli\puppy_11.jpeg</t>
         </is>
       </c>
       <c r="D15" t="n">
@@ -3525,19 +3525,19 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>5.5</v>
+        <v>4</v>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>go_stimuli\puppy_27.jpg</t>
+          <t>no_go_stimuli\spider_25.jpg</t>
         </is>
       </c>
       <c r="D16" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>space</t>
+          <t>None</t>
         </is>
       </c>
     </row>
@@ -3546,11 +3546,11 @@
         <v>15</v>
       </c>
       <c r="B17" t="n">
-        <v>4</v>
+        <v>4.5</v>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>no_go_stimuli\spider_28.jpg</t>
+          <t>no_go_stimuli\spider_1.jpeg</t>
         </is>
       </c>
       <c r="D17" t="n">
@@ -3567,11 +3567,11 @@
         <v>16</v>
       </c>
       <c r="B18" t="n">
-        <v>5</v>
+        <v>6.5</v>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>go_stimuli\puppy_23.jpeg</t>
+          <t>go_stimuli\puppy_9.jpg</t>
         </is>
       </c>
       <c r="D18" t="n">
@@ -3588,19 +3588,19 @@
         <v>17</v>
       </c>
       <c r="B19" t="n">
-        <v>5</v>
+        <v>6.5</v>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>no_go_stimuli\spider_17.jpeg</t>
+          <t>go_stimuli\puppy_27.jpg</t>
         </is>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>space</t>
         </is>
       </c>
     </row>
@@ -3613,15 +3613,15 @@
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>go_stimuli\puppy_28.jpg</t>
+          <t>no_go_stimuli\spider_9.jpeg</t>
         </is>
       </c>
       <c r="D20" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>space</t>
+          <t>None</t>
         </is>
       </c>
     </row>
@@ -3630,11 +3630,11 @@
         <v>19</v>
       </c>
       <c r="B21" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>go_stimuli\puppy_8.jpg</t>
+          <t>go_stimuli\puppy_15.jpeg</t>
         </is>
       </c>
       <c r="D21" t="n">
@@ -3730,7 +3730,7 @@
         <v>0.017</v>
       </c>
       <c r="C3" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
@@ -3752,10 +3752,10 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>0.05</v>
+        <v>0.029</v>
       </c>
       <c r="C4" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
@@ -3789,11 +3789,11 @@
         <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>right</t>
+          <t>left</t>
         </is>
       </c>
     </row>
@@ -3802,10 +3802,10 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>0.029</v>
+        <v>0.017</v>
       </c>
       <c r="C6" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D6" t="n">
         <v>0</v>
@@ -3814,11 +3814,11 @@
         <v>0</v>
       </c>
       <c r="F6" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>right</t>
+          <t>left</t>
         </is>
       </c>
     </row>
@@ -3827,10 +3827,10 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>0.05</v>
+        <v>0.017</v>
       </c>
       <c r="C7" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D7" t="n">
         <v>0</v>
@@ -3839,11 +3839,11 @@
         <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>left</t>
+          <t>right</t>
         </is>
       </c>
     </row>
@@ -3852,10 +3852,10 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>0.029</v>
+        <v>0.017</v>
       </c>
       <c r="C8" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D8" t="n">
         <v>0</v>
@@ -3864,11 +3864,11 @@
         <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>left</t>
+          <t>right</t>
         </is>
       </c>
     </row>
@@ -3877,7 +3877,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>0.029</v>
+        <v>0.017</v>
       </c>
       <c r="C9" t="n">
         <v>2</v>
@@ -3902,10 +3902,10 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>0.029</v>
+        <v>0.05</v>
       </c>
       <c r="C10" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D10" t="n">
         <v>0</v>
@@ -3952,7 +3952,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>0.05</v>
+        <v>0.017</v>
       </c>
       <c r="C12" t="n">
         <v>1</v>
@@ -3964,11 +3964,11 @@
         <v>0</v>
       </c>
       <c r="F12" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>left</t>
+          <t>right</t>
         </is>
       </c>
     </row>
@@ -3977,10 +3977,10 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>0.05</v>
+        <v>0.017</v>
       </c>
       <c r="C13" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D13" t="n">
         <v>0</v>
@@ -4014,11 +4014,11 @@
         <v>0</v>
       </c>
       <c r="F14" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>right</t>
+          <t>left</t>
         </is>
       </c>
     </row>
@@ -4027,10 +4027,10 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>0.017</v>
+        <v>0.029</v>
       </c>
       <c r="C15" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D15" t="n">
         <v>0</v>
@@ -4039,11 +4039,11 @@
         <v>0</v>
       </c>
       <c r="F15" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>right</t>
+          <t>left</t>
         </is>
       </c>
     </row>
@@ -4052,7 +4052,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>0.017</v>
+        <v>0.05</v>
       </c>
       <c r="C16" t="n">
         <v>2</v>
@@ -4077,7 +4077,7 @@
         <v>15</v>
       </c>
       <c r="B17" t="n">
-        <v>0.017</v>
+        <v>0.05</v>
       </c>
       <c r="C17" t="n">
         <v>3</v>
@@ -4089,11 +4089,11 @@
         <v>0</v>
       </c>
       <c r="F17" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>right</t>
+          <t>left</t>
         </is>
       </c>
     </row>
@@ -4102,10 +4102,10 @@
         <v>16</v>
       </c>
       <c r="B18" t="n">
-        <v>0.029</v>
+        <v>0.017</v>
       </c>
       <c r="C18" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D18" t="n">
         <v>0</v>
@@ -4114,11 +4114,11 @@
         <v>0</v>
       </c>
       <c r="F18" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>right</t>
+          <t>left</t>
         </is>
       </c>
     </row>
@@ -4127,7 +4127,7 @@
         <v>17</v>
       </c>
       <c r="B19" t="n">
-        <v>0.029</v>
+        <v>0.05</v>
       </c>
       <c r="C19" t="n">
         <v>2</v>
@@ -4152,10 +4152,10 @@
         <v>18</v>
       </c>
       <c r="B20" t="n">
-        <v>0.05</v>
+        <v>0.029</v>
       </c>
       <c r="C20" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D20" t="n">
         <v>0</v>
@@ -4164,11 +4164,11 @@
         <v>0</v>
       </c>
       <c r="F20" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>right</t>
+          <t>left</t>
         </is>
       </c>
     </row>
@@ -4177,7 +4177,7 @@
         <v>19</v>
       </c>
       <c r="B21" t="n">
-        <v>0.05</v>
+        <v>0.029</v>
       </c>
       <c r="C21" t="n">
         <v>2</v>
@@ -4205,7 +4205,7 @@
         <v>0.029</v>
       </c>
       <c r="C22" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D22" t="n">
         <v>0</v>
@@ -4214,11 +4214,11 @@
         <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>left</t>
+          <t>right</t>
         </is>
       </c>
     </row>
@@ -4227,10 +4227,10 @@
         <v>21</v>
       </c>
       <c r="B23" t="n">
-        <v>0.017</v>
+        <v>0.05</v>
       </c>
       <c r="C23" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D23" t="n">
         <v>0</v>
@@ -4252,7 +4252,7 @@
         <v>22</v>
       </c>
       <c r="B24" t="n">
-        <v>0.05</v>
+        <v>0.017</v>
       </c>
       <c r="C24" t="n">
         <v>3</v>
@@ -4264,11 +4264,11 @@
         <v>0</v>
       </c>
       <c r="F24" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>left</t>
+          <t>right</t>
         </is>
       </c>
     </row>
@@ -4280,7 +4280,7 @@
         <v>0.05</v>
       </c>
       <c r="C25" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D25" t="n">
         <v>0</v>
@@ -4305,7 +4305,7 @@
         <v>0.05</v>
       </c>
       <c r="C26" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D26" t="n">
         <v>0</v>
@@ -4330,7 +4330,7 @@
         <v>0.029</v>
       </c>
       <c r="C27" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D27" t="n">
         <v>0</v>
@@ -4339,11 +4339,11 @@
         <v>0</v>
       </c>
       <c r="F27" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G27" t="inlineStr">
         <is>
-          <t>left</t>
+          <t>right</t>
         </is>
       </c>
     </row>
@@ -4352,10 +4352,10 @@
         <v>26</v>
       </c>
       <c r="B28" t="n">
-        <v>0.029</v>
+        <v>0.05</v>
       </c>
       <c r="C28" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D28" t="n">
         <v>0</v>
@@ -4380,7 +4380,7 @@
         <v>0.05</v>
       </c>
       <c r="C29" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D29" t="n">
         <v>0</v>
@@ -4389,11 +4389,11 @@
         <v>0</v>
       </c>
       <c r="F29" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G29" t="inlineStr">
         <is>
-          <t>left</t>
+          <t>right</t>
         </is>
       </c>
     </row>
@@ -4405,7 +4405,7 @@
         <v>0.017</v>
       </c>
       <c r="C30" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D30" t="n">
         <v>0</v>
@@ -4414,11 +4414,11 @@
         <v>0</v>
       </c>
       <c r="F30" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G30" t="inlineStr">
         <is>
-          <t>right</t>
+          <t>left</t>
         </is>
       </c>
     </row>
@@ -4427,10 +4427,10 @@
         <v>29</v>
       </c>
       <c r="B31" t="n">
-        <v>0.05</v>
+        <v>0.029</v>
       </c>
       <c r="C31" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D31" t="n">
         <v>0</v>
@@ -4439,11 +4439,11 @@
         <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G31" t="inlineStr">
         <is>
-          <t>left</t>
+          <t>right</t>
         </is>
       </c>
     </row>
@@ -4503,10 +4503,10 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>0.05</v>
+        <v>0.017</v>
       </c>
       <c r="C2" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D2" t="n">
         <v>0</v>
@@ -4515,11 +4515,11 @@
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>left</t>
+          <t>right</t>
         </is>
       </c>
     </row>
@@ -4531,7 +4531,7 @@
         <v>0.05</v>
       </c>
       <c r="C3" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
@@ -4540,11 +4540,11 @@
         <v>0</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>left</t>
+          <t>right</t>
         </is>
       </c>
     </row>
@@ -4553,7 +4553,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>0.017</v>
+        <v>0.05</v>
       </c>
       <c r="C4" t="n">
         <v>2</v>
@@ -4565,11 +4565,11 @@
         <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>left</t>
+          <t>right</t>
         </is>
       </c>
     </row>
@@ -4578,7 +4578,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>0.017</v>
+        <v>0.029</v>
       </c>
       <c r="C5" t="n">
         <v>1</v>
@@ -4606,7 +4606,7 @@
         <v>0.017</v>
       </c>
       <c r="C6" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D6" t="n">
         <v>0</v>
@@ -4615,11 +4615,11 @@
         <v>0</v>
       </c>
       <c r="F6" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>right</t>
+          <t>left</t>
         </is>
       </c>
     </row>
@@ -4628,10 +4628,10 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>0.029</v>
+        <v>0.017</v>
       </c>
       <c r="C7" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D7" t="n">
         <v>0</v>
@@ -4640,11 +4640,11 @@
         <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>right</t>
+          <t>left</t>
         </is>
       </c>
     </row>
@@ -4653,10 +4653,10 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>0.029</v>
+        <v>0.05</v>
       </c>
       <c r="C8" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D8" t="n">
         <v>0</v>
@@ -4665,11 +4665,11 @@
         <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>left</t>
+          <t>right</t>
         </is>
       </c>
     </row>
@@ -4678,10 +4678,10 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>0.029</v>
+        <v>0.05</v>
       </c>
       <c r="C9" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D9" t="n">
         <v>0</v>
@@ -4690,11 +4690,11 @@
         <v>0</v>
       </c>
       <c r="F9" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>right</t>
+          <t>left</t>
         </is>
       </c>
     </row>
@@ -4728,7 +4728,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>0.029</v>
+        <v>0.05</v>
       </c>
       <c r="C11" t="n">
         <v>2</v>
@@ -4765,11 +4765,11 @@
         <v>0</v>
       </c>
       <c r="F12" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>left</t>
+          <t>right</t>
         </is>
       </c>
     </row>
@@ -4781,7 +4781,7 @@
         <v>0.05</v>
       </c>
       <c r="C13" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D13" t="n">
         <v>0</v>
@@ -4790,11 +4790,11 @@
         <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>left</t>
+          <t>right</t>
         </is>
       </c>
     </row>
@@ -4803,10 +4803,10 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>0.05</v>
+        <v>0.017</v>
       </c>
       <c r="C14" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D14" t="n">
         <v>0</v>
@@ -4815,11 +4815,11 @@
         <v>0</v>
       </c>
       <c r="F14" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>right</t>
+          <t>left</t>
         </is>
       </c>
     </row>
@@ -4831,7 +4831,7 @@
         <v>0.05</v>
       </c>
       <c r="C15" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D15" t="n">
         <v>0</v>
@@ -4856,7 +4856,7 @@
         <v>0.017</v>
       </c>
       <c r="C16" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D16" t="n">
         <v>0</v>
@@ -4940,11 +4940,11 @@
         <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>left</t>
+          <t>right</t>
         </is>
       </c>
     </row>
@@ -4953,10 +4953,10 @@
         <v>18</v>
       </c>
       <c r="B20" t="n">
-        <v>0.017</v>
+        <v>0.029</v>
       </c>
       <c r="C20" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D20" t="n">
         <v>0</v>
@@ -4965,11 +4965,11 @@
         <v>0</v>
       </c>
       <c r="F20" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>left</t>
+          <t>right</t>
         </is>
       </c>
     </row>
@@ -4978,10 +4978,10 @@
         <v>19</v>
       </c>
       <c r="B21" t="n">
-        <v>0.017</v>
+        <v>0.05</v>
       </c>
       <c r="C21" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D21" t="n">
         <v>0</v>
@@ -5003,10 +5003,10 @@
         <v>20</v>
       </c>
       <c r="B22" t="n">
-        <v>0.05</v>
+        <v>0.017</v>
       </c>
       <c r="C22" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D22" t="n">
         <v>0</v>
@@ -5015,11 +5015,11 @@
         <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>left</t>
+          <t>right</t>
         </is>
       </c>
     </row>
@@ -5028,7 +5028,7 @@
         <v>21</v>
       </c>
       <c r="B23" t="n">
-        <v>0.029</v>
+        <v>0.017</v>
       </c>
       <c r="C23" t="n">
         <v>3</v>
@@ -5040,11 +5040,11 @@
         <v>0</v>
       </c>
       <c r="F23" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>right</t>
+          <t>left</t>
         </is>
       </c>
     </row>
@@ -5056,7 +5056,7 @@
         <v>0.029</v>
       </c>
       <c r="C24" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D24" t="n">
         <v>0</v>
@@ -5065,11 +5065,11 @@
         <v>0</v>
       </c>
       <c r="F24" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>left</t>
+          <t>right</t>
         </is>
       </c>
     </row>
@@ -5078,10 +5078,10 @@
         <v>23</v>
       </c>
       <c r="B25" t="n">
-        <v>0.017</v>
+        <v>0.05</v>
       </c>
       <c r="C25" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D25" t="n">
         <v>0</v>
@@ -5103,10 +5103,10 @@
         <v>24</v>
       </c>
       <c r="B26" t="n">
-        <v>0.029</v>
+        <v>0.017</v>
       </c>
       <c r="C26" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D26" t="n">
         <v>0</v>
@@ -5115,11 +5115,11 @@
         <v>0</v>
       </c>
       <c r="F26" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G26" t="inlineStr">
         <is>
-          <t>right</t>
+          <t>left</t>
         </is>
       </c>
     </row>
@@ -5131,7 +5131,7 @@
         <v>0.029</v>
       </c>
       <c r="C27" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D27" t="n">
         <v>0</v>
@@ -5153,7 +5153,7 @@
         <v>26</v>
       </c>
       <c r="B28" t="n">
-        <v>0.029</v>
+        <v>0.017</v>
       </c>
       <c r="C28" t="n">
         <v>3</v>
@@ -5181,7 +5181,7 @@
         <v>0.017</v>
       </c>
       <c r="C29" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D29" t="n">
         <v>0</v>
@@ -5190,11 +5190,11 @@
         <v>0</v>
       </c>
       <c r="F29" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G29" t="inlineStr">
         <is>
-          <t>left</t>
+          <t>right</t>
         </is>
       </c>
     </row>
@@ -5203,10 +5203,10 @@
         <v>28</v>
       </c>
       <c r="B30" t="n">
-        <v>0.05</v>
+        <v>0.017</v>
       </c>
       <c r="C30" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D30" t="n">
         <v>0</v>
@@ -5215,11 +5215,11 @@
         <v>0</v>
       </c>
       <c r="F30" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G30" t="inlineStr">
         <is>
-          <t>left</t>
+          <t>right</t>
         </is>
       </c>
     </row>
@@ -5240,11 +5240,11 @@
         <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G31" t="inlineStr">
         <is>
-          <t>left</t>
+          <t>right</t>
         </is>
       </c>
     </row>
@@ -5304,23 +5304,23 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>0.017</v>
+        <v>0.029</v>
       </c>
       <c r="C2" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="F2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>right</t>
+          <t>left</t>
         </is>
       </c>
     </row>
@@ -5329,16 +5329,16 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>0.029</v>
+        <v>0.017</v>
       </c>
       <c r="C3" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D3" t="n">
-        <v>-0.25</v>
+        <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>0.25</v>
+        <v>0</v>
       </c>
       <c r="F3" t="n">
         <v>1</v>
@@ -5354,10 +5354,10 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>0.05</v>
+        <v>0.017</v>
       </c>
       <c r="C4" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D4" t="n">
         <v>0.25</v>
@@ -5379,16 +5379,16 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>0.05</v>
+        <v>0.017</v>
       </c>
       <c r="C5" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D5" t="n">
         <v>0.25</v>
       </c>
       <c r="E5" t="n">
-        <v>0.25</v>
+        <v>-0.25</v>
       </c>
       <c r="F5" t="n">
         <v>1</v>
@@ -5404,10 +5404,10 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>0.05</v>
+        <v>0.017</v>
       </c>
       <c r="C6" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D6" t="n">
         <v>-0.25</v>
@@ -5432,20 +5432,20 @@
         <v>0.029</v>
       </c>
       <c r="C7" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D7" t="n">
-        <v>-0.25</v>
+        <v>0.25</v>
       </c>
       <c r="E7" t="n">
         <v>0.25</v>
       </c>
       <c r="F7" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>right</t>
+          <t>left</t>
         </is>
       </c>
     </row>
@@ -5454,16 +5454,16 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>0.029</v>
+        <v>0.017</v>
       </c>
       <c r="C8" t="n">
         <v>3</v>
       </c>
       <c r="D8" t="n">
-        <v>0.25</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>-0.25</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
         <v>0</v>
@@ -5488,14 +5488,14 @@
         <v>-0.25</v>
       </c>
       <c r="E9" t="n">
-        <v>-0.25</v>
+        <v>0.25</v>
       </c>
       <c r="F9" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>right</t>
+          <t>left</t>
         </is>
       </c>
     </row>
@@ -5507,13 +5507,13 @@
         <v>0.029</v>
       </c>
       <c r="C10" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D10" t="n">
-        <v>0.25</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>0.25</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
         <v>1</v>
@@ -5529,23 +5529,23 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>0.017</v>
+        <v>0.029</v>
       </c>
       <c r="C11" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D11" t="n">
-        <v>0.25</v>
+        <v>-0.25</v>
       </c>
       <c r="E11" t="n">
-        <v>0.25</v>
+        <v>-0.25</v>
       </c>
       <c r="F11" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>right</t>
+          <t>left</t>
         </is>
       </c>
     </row>
@@ -5554,23 +5554,23 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>0.017</v>
+        <v>0.05</v>
       </c>
       <c r="C12" t="n">
         <v>3</v>
       </c>
       <c r="D12" t="n">
-        <v>0</v>
+        <v>-0.25</v>
       </c>
       <c r="E12" t="n">
-        <v>0</v>
+        <v>-0.25</v>
       </c>
       <c r="F12" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>right</t>
+          <t>left</t>
         </is>
       </c>
     </row>
@@ -5579,16 +5579,16 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>0.029</v>
+        <v>0.017</v>
       </c>
       <c r="C13" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D13" t="n">
-        <v>-0.25</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>-0.25</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
         <v>1</v>
@@ -5604,10 +5604,10 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>0.017</v>
+        <v>0.05</v>
       </c>
       <c r="C14" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D14" t="n">
         <v>0</v>
@@ -5616,11 +5616,11 @@
         <v>0</v>
       </c>
       <c r="F14" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>right</t>
+          <t>left</t>
         </is>
       </c>
     </row>
@@ -5629,16 +5629,16 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>0.05</v>
+        <v>0.017</v>
       </c>
       <c r="C15" t="n">
         <v>1</v>
       </c>
       <c r="D15" t="n">
-        <v>-0.25</v>
+        <v>0</v>
       </c>
       <c r="E15" t="n">
-        <v>0.25</v>
+        <v>0</v>
       </c>
       <c r="F15" t="n">
         <v>0</v>
@@ -5660,10 +5660,10 @@
         <v>3</v>
       </c>
       <c r="D16" t="n">
-        <v>-0.25</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>-0.25</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
         <v>0</v>
@@ -5682,20 +5682,20 @@
         <v>0.029</v>
       </c>
       <c r="C17" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D17" t="n">
         <v>0.25</v>
       </c>
       <c r="E17" t="n">
-        <v>0.25</v>
+        <v>-0.25</v>
       </c>
       <c r="F17" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>right</t>
+          <t>left</t>
         </is>
       </c>
     </row>
@@ -5707,20 +5707,20 @@
         <v>0.029</v>
       </c>
       <c r="C18" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D18" t="n">
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="E18" t="n">
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="F18" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>left</t>
+          <t>right</t>
         </is>
       </c>
     </row>
@@ -5729,10 +5729,10 @@
         <v>17</v>
       </c>
       <c r="B19" t="n">
-        <v>0.05</v>
+        <v>0.017</v>
       </c>
       <c r="C19" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D19" t="n">
         <v>-0.25</v>
@@ -5741,11 +5741,11 @@
         <v>0.25</v>
       </c>
       <c r="F19" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>right</t>
+          <t>left</t>
         </is>
       </c>
     </row>
@@ -5754,23 +5754,23 @@
         <v>18</v>
       </c>
       <c r="B20" t="n">
-        <v>0.017</v>
+        <v>0.029</v>
       </c>
       <c r="C20" t="n">
         <v>1</v>
       </c>
       <c r="D20" t="n">
-        <v>0.25</v>
+        <v>-0.25</v>
       </c>
       <c r="E20" t="n">
-        <v>0.25</v>
+        <v>-0.25</v>
       </c>
       <c r="F20" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>right</t>
+          <t>left</t>
         </is>
       </c>
     </row>
@@ -5779,7 +5779,7 @@
         <v>19</v>
       </c>
       <c r="B21" t="n">
-        <v>0.017</v>
+        <v>0.029</v>
       </c>
       <c r="C21" t="n">
         <v>3</v>
@@ -5788,7 +5788,7 @@
         <v>-0.25</v>
       </c>
       <c r="E21" t="n">
-        <v>0.25</v>
+        <v>-0.25</v>
       </c>
       <c r="F21" t="n">
         <v>1</v>
@@ -5804,16 +5804,16 @@
         <v>20</v>
       </c>
       <c r="B22" t="n">
-        <v>0.029</v>
+        <v>0.05</v>
       </c>
       <c r="C22" t="n">
         <v>2</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>-0.25</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>-0.25</v>
       </c>
       <c r="F22" t="n">
         <v>0</v>
@@ -5835,17 +5835,17 @@
         <v>3</v>
       </c>
       <c r="D23" t="n">
-        <v>0.25</v>
+        <v>-0.25</v>
       </c>
       <c r="E23" t="n">
         <v>0.25</v>
       </c>
       <c r="F23" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>left</t>
+          <t>right</t>
         </is>
       </c>
     </row>
@@ -5854,23 +5854,23 @@
         <v>22</v>
       </c>
       <c r="B24" t="n">
-        <v>0.05</v>
+        <v>0.017</v>
       </c>
       <c r="C24" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D24" t="n">
-        <v>0.25</v>
+        <v>-0.25</v>
       </c>
       <c r="E24" t="n">
         <v>0.25</v>
       </c>
       <c r="F24" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>left</t>
+          <t>right</t>
         </is>
       </c>
     </row>
@@ -5879,16 +5879,16 @@
         <v>23</v>
       </c>
       <c r="B25" t="n">
-        <v>0.017</v>
+        <v>0.05</v>
       </c>
       <c r="C25" t="n">
         <v>3</v>
       </c>
       <c r="D25" t="n">
-        <v>0.25</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>-0.25</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
         <v>0</v>
@@ -5904,23 +5904,23 @@
         <v>24</v>
       </c>
       <c r="B26" t="n">
-        <v>0.017</v>
+        <v>0.05</v>
       </c>
       <c r="C26" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D26" t="n">
-        <v>0</v>
+        <v>-0.25</v>
       </c>
       <c r="E26" t="n">
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="F26" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G26" t="inlineStr">
         <is>
-          <t>left</t>
+          <t>right</t>
         </is>
       </c>
     </row>
@@ -5929,13 +5929,13 @@
         <v>25</v>
       </c>
       <c r="B27" t="n">
-        <v>0.017</v>
+        <v>0.029</v>
       </c>
       <c r="C27" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D27" t="n">
-        <v>-0.25</v>
+        <v>0.25</v>
       </c>
       <c r="E27" t="n">
         <v>0.25</v>
@@ -5954,16 +5954,16 @@
         <v>26</v>
       </c>
       <c r="B28" t="n">
-        <v>0.05</v>
+        <v>0.017</v>
       </c>
       <c r="C28" t="n">
         <v>2</v>
       </c>
       <c r="D28" t="n">
-        <v>-0.25</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>0.25</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
         <v>1</v>
@@ -5979,23 +5979,23 @@
         <v>27</v>
       </c>
       <c r="B29" t="n">
-        <v>0.05</v>
+        <v>0.017</v>
       </c>
       <c r="C29" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D29" t="n">
-        <v>-0.25</v>
+        <v>0.25</v>
       </c>
       <c r="E29" t="n">
         <v>0.25</v>
       </c>
       <c r="F29" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G29" t="inlineStr">
         <is>
-          <t>right</t>
+          <t>left</t>
         </is>
       </c>
     </row>
@@ -6004,23 +6004,23 @@
         <v>28</v>
       </c>
       <c r="B30" t="n">
-        <v>0.029</v>
+        <v>0.05</v>
       </c>
       <c r="C30" t="n">
         <v>1</v>
       </c>
       <c r="D30" t="n">
-        <v>0</v>
+        <v>-0.25</v>
       </c>
       <c r="E30" t="n">
-        <v>0</v>
+        <v>-0.25</v>
       </c>
       <c r="F30" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G30" t="inlineStr">
         <is>
-          <t>left</t>
+          <t>right</t>
         </is>
       </c>
     </row>
@@ -6029,13 +6029,13 @@
         <v>29</v>
       </c>
       <c r="B31" t="n">
-        <v>0.017</v>
+        <v>0.029</v>
       </c>
       <c r="C31" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D31" t="n">
-        <v>0.25</v>
+        <v>-0.25</v>
       </c>
       <c r="E31" t="n">
         <v>-0.25</v>
@@ -6108,20 +6108,20 @@
         <v>0.017</v>
       </c>
       <c r="C2" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>-0.25</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="F2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>right</t>
+          <t>left</t>
         </is>
       </c>
     </row>
@@ -6133,13 +6133,13 @@
         <v>0.017</v>
       </c>
       <c r="C3" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="E3" t="n">
-        <v>0</v>
+        <v>-0.25</v>
       </c>
       <c r="F3" t="n">
         <v>1</v>
@@ -6161,7 +6161,7 @@
         <v>2</v>
       </c>
       <c r="D4" t="n">
-        <v>0.25</v>
+        <v>-0.25</v>
       </c>
       <c r="E4" t="n">
         <v>-0.25</v>
@@ -6180,10 +6180,10 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>0.05</v>
+        <v>0.029</v>
       </c>
       <c r="C5" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D5" t="n">
         <v>0.25</v>
@@ -6192,11 +6192,11 @@
         <v>0.25</v>
       </c>
       <c r="F5" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>right</t>
+          <t>left</t>
         </is>
       </c>
     </row>
@@ -6211,17 +6211,17 @@
         <v>3</v>
       </c>
       <c r="D6" t="n">
-        <v>0.25</v>
+        <v>-0.25</v>
       </c>
       <c r="E6" t="n">
-        <v>0.25</v>
+        <v>-0.25</v>
       </c>
       <c r="F6" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>right</t>
+          <t>left</t>
         </is>
       </c>
     </row>
@@ -6236,17 +6236,17 @@
         <v>2</v>
       </c>
       <c r="D7" t="n">
+        <v>-0.25</v>
+      </c>
+      <c r="E7" t="n">
         <v>0.25</v>
       </c>
-      <c r="E7" t="n">
-        <v>-0.25</v>
-      </c>
       <c r="F7" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>right</t>
+          <t>left</t>
         </is>
       </c>
     </row>
@@ -6255,10 +6255,10 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>0.017</v>
+        <v>0.029</v>
       </c>
       <c r="C8" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D8" t="n">
         <v>-0.25</v>
@@ -6267,11 +6267,11 @@
         <v>0.25</v>
       </c>
       <c r="F8" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>left</t>
+          <t>right</t>
         </is>
       </c>
     </row>
@@ -6280,23 +6280,23 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>0.05</v>
+        <v>0.029</v>
       </c>
       <c r="C9" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D9" t="n">
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="E9" t="n">
-        <v>0</v>
+        <v>-0.25</v>
       </c>
       <c r="F9" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>right</t>
+          <t>left</t>
         </is>
       </c>
     </row>
@@ -6305,16 +6305,16 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>0.05</v>
+        <v>0.029</v>
       </c>
       <c r="C10" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D10" t="n">
         <v>0.25</v>
       </c>
       <c r="E10" t="n">
-        <v>-0.25</v>
+        <v>0.25</v>
       </c>
       <c r="F10" t="n">
         <v>1</v>
@@ -6330,23 +6330,23 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>0.017</v>
+        <v>0.029</v>
       </c>
       <c r="C11" t="n">
         <v>3</v>
       </c>
       <c r="D11" t="n">
-        <v>0.25</v>
+        <v>-0.25</v>
       </c>
       <c r="E11" t="n">
-        <v>0.25</v>
+        <v>-0.25</v>
       </c>
       <c r="F11" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>left</t>
+          <t>right</t>
         </is>
       </c>
     </row>
@@ -6355,23 +6355,23 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>0.029</v>
+        <v>0.017</v>
       </c>
       <c r="C12" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D12" t="n">
         <v>-0.25</v>
       </c>
       <c r="E12" t="n">
-        <v>0.25</v>
+        <v>-0.25</v>
       </c>
       <c r="F12" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>left</t>
+          <t>right</t>
         </is>
       </c>
     </row>
@@ -6380,23 +6380,23 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>0.029</v>
+        <v>0.05</v>
       </c>
       <c r="C13" t="n">
         <v>3</v>
       </c>
       <c r="D13" t="n">
-        <v>-0.25</v>
+        <v>0.25</v>
       </c>
       <c r="E13" t="n">
         <v>0.25</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>left</t>
+          <t>right</t>
         </is>
       </c>
     </row>
@@ -6408,13 +6408,13 @@
         <v>0.029</v>
       </c>
       <c r="C14" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D14" t="n">
-        <v>0.25</v>
+        <v>-0.25</v>
       </c>
       <c r="E14" t="n">
-        <v>0.25</v>
+        <v>-0.25</v>
       </c>
       <c r="F14" t="n">
         <v>0</v>
@@ -6430,16 +6430,16 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>0.029</v>
+        <v>0.05</v>
       </c>
       <c r="C15" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D15" t="n">
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="E15" t="n">
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="F15" t="n">
         <v>0</v>
@@ -6455,16 +6455,16 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>0.05</v>
+        <v>0.017</v>
       </c>
       <c r="C16" t="n">
         <v>3</v>
       </c>
       <c r="D16" t="n">
-        <v>0.25</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>0.25</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
         <v>0</v>
@@ -6480,23 +6480,23 @@
         <v>15</v>
       </c>
       <c r="B17" t="n">
-        <v>0.029</v>
+        <v>0.017</v>
       </c>
       <c r="C17" t="n">
         <v>1</v>
       </c>
       <c r="D17" t="n">
-        <v>0</v>
+        <v>-0.25</v>
       </c>
       <c r="E17" t="n">
-        <v>0</v>
+        <v>-0.25</v>
       </c>
       <c r="F17" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>right</t>
+          <t>left</t>
         </is>
       </c>
     </row>
@@ -6505,23 +6505,23 @@
         <v>16</v>
       </c>
       <c r="B18" t="n">
-        <v>0.029</v>
+        <v>0.05</v>
       </c>
       <c r="C18" t="n">
         <v>2</v>
       </c>
       <c r="D18" t="n">
-        <v>-0.25</v>
+        <v>0.25</v>
       </c>
       <c r="E18" t="n">
         <v>-0.25</v>
       </c>
       <c r="F18" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>right</t>
+          <t>left</t>
         </is>
       </c>
     </row>
@@ -6530,13 +6530,13 @@
         <v>17</v>
       </c>
       <c r="B19" t="n">
-        <v>0.029</v>
+        <v>0.017</v>
       </c>
       <c r="C19" t="n">
         <v>2</v>
       </c>
       <c r="D19" t="n">
-        <v>0.25</v>
+        <v>-0.25</v>
       </c>
       <c r="E19" t="n">
         <v>-0.25</v>
@@ -6555,13 +6555,13 @@
         <v>18</v>
       </c>
       <c r="B20" t="n">
-        <v>0.017</v>
+        <v>0.05</v>
       </c>
       <c r="C20" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D20" t="n">
-        <v>0.25</v>
+        <v>-0.25</v>
       </c>
       <c r="E20" t="n">
         <v>-0.25</v>
@@ -6580,23 +6580,23 @@
         <v>19</v>
       </c>
       <c r="B21" t="n">
-        <v>0.05</v>
+        <v>0.029</v>
       </c>
       <c r="C21" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D21" t="n">
         <v>-0.25</v>
       </c>
       <c r="E21" t="n">
-        <v>-0.25</v>
+        <v>0.25</v>
       </c>
       <c r="F21" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>left</t>
+          <t>right</t>
         </is>
       </c>
     </row>
@@ -6611,17 +6611,17 @@
         <v>3</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>-0.25</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="F22" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>right</t>
+          <t>left</t>
         </is>
       </c>
     </row>
@@ -6630,23 +6630,23 @@
         <v>21</v>
       </c>
       <c r="B23" t="n">
-        <v>0.029</v>
+        <v>0.05</v>
       </c>
       <c r="C23" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D23" t="n">
-        <v>0.25</v>
+        <v>0</v>
       </c>
       <c r="E23" t="n">
-        <v>0.25</v>
+        <v>0</v>
       </c>
       <c r="F23" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>right</t>
+          <t>left</t>
         </is>
       </c>
     </row>
@@ -6655,7 +6655,7 @@
         <v>22</v>
       </c>
       <c r="B24" t="n">
-        <v>0.05</v>
+        <v>0.017</v>
       </c>
       <c r="C24" t="n">
         <v>2</v>
@@ -6680,23 +6680,23 @@
         <v>23</v>
       </c>
       <c r="B25" t="n">
-        <v>0.029</v>
+        <v>0.05</v>
       </c>
       <c r="C25" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D25" t="n">
-        <v>0.25</v>
+        <v>-0.25</v>
       </c>
       <c r="E25" t="n">
         <v>-0.25</v>
       </c>
       <c r="F25" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G25" t="inlineStr">
         <is>
-          <t>right</t>
+          <t>left</t>
         </is>
       </c>
     </row>
@@ -6705,23 +6705,23 @@
         <v>24</v>
       </c>
       <c r="B26" t="n">
-        <v>0.017</v>
+        <v>0.029</v>
       </c>
       <c r="C26" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D26" t="n">
+        <v>-0.25</v>
+      </c>
+      <c r="E26" t="n">
         <v>0.25</v>
       </c>
-      <c r="E26" t="n">
-        <v>-0.25</v>
-      </c>
       <c r="F26" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G26" t="inlineStr">
         <is>
-          <t>left</t>
+          <t>right</t>
         </is>
       </c>
     </row>
@@ -6733,20 +6733,20 @@
         <v>0.05</v>
       </c>
       <c r="C27" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D27" t="n">
+        <v>-0.25</v>
+      </c>
+      <c r="E27" t="n">
         <v>0.25</v>
       </c>
-      <c r="E27" t="n">
-        <v>-0.25</v>
-      </c>
       <c r="F27" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G27" t="inlineStr">
         <is>
-          <t>right</t>
+          <t>left</t>
         </is>
       </c>
     </row>
@@ -6755,23 +6755,23 @@
         <v>26</v>
       </c>
       <c r="B28" t="n">
-        <v>0.029</v>
+        <v>0.05</v>
       </c>
       <c r="C28" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D28" t="n">
-        <v>-0.25</v>
+        <v>0.25</v>
       </c>
       <c r="E28" t="n">
         <v>0.25</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G28" t="inlineStr">
         <is>
-          <t>left</t>
+          <t>right</t>
         </is>
       </c>
     </row>
@@ -6780,23 +6780,23 @@
         <v>27</v>
       </c>
       <c r="B29" t="n">
-        <v>0.017</v>
+        <v>0.029</v>
       </c>
       <c r="C29" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D29" t="n">
+        <v>-0.25</v>
+      </c>
+      <c r="E29" t="n">
         <v>0.25</v>
       </c>
-      <c r="E29" t="n">
-        <v>-0.25</v>
-      </c>
       <c r="F29" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G29" t="inlineStr">
         <is>
-          <t>right</t>
+          <t>left</t>
         </is>
       </c>
     </row>
@@ -6808,20 +6808,20 @@
         <v>0.05</v>
       </c>
       <c r="C30" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D30" t="n">
-        <v>-0.25</v>
+        <v>0.25</v>
       </c>
       <c r="E30" t="n">
-        <v>-0.25</v>
+        <v>0.25</v>
       </c>
       <c r="F30" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G30" t="inlineStr">
         <is>
-          <t>left</t>
+          <t>right</t>
         </is>
       </c>
     </row>
@@ -6833,7 +6833,7 @@
         <v>0.029</v>
       </c>
       <c r="C31" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D31" t="n">
         <v>-0.25</v>
@@ -6896,11 +6896,11 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>go_stimuli\puppy_23.jpeg</t>
+          <t>go_stimuli\puppy_17.jpeg</t>
         </is>
       </c>
       <c r="D2" t="n">
@@ -6917,11 +6917,11 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>6.5</v>
+        <v>4</v>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>go_stimuli\puppy_24.jpeg</t>
+          <t>go_stimuli\puppy_20.jpeg</t>
         </is>
       </c>
       <c r="D3" t="n">
@@ -6938,11 +6938,11 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>6.5</v>
+        <v>4.5</v>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>go_stimuli\puppy_15.jpeg</t>
+          <t>go_stimuli\puppy_29.jpg</t>
         </is>
       </c>
       <c r="D4" t="n">
@@ -6959,7 +6959,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>4.5</v>
+        <v>5.5</v>
       </c>
       <c r="C5" t="inlineStr">
         <is>
@@ -6980,11 +6980,11 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>6.5</v>
+        <v>5.5</v>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>go_stimuli\puppy_21.jpeg</t>
+          <t>go_stimuli\puppy_16.jpeg</t>
         </is>
       </c>
       <c r="D6" t="n">
@@ -7001,11 +7001,11 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>5</v>
+        <v>4.5</v>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>go_stimuli\puppy_11.jpeg</t>
+          <t>go_stimuli\puppy_13.jpg</t>
         </is>
       </c>
       <c r="D7" t="n">
@@ -7022,11 +7022,11 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>4.5</v>
+        <v>4</v>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>go_stimuli\puppy_22.jpeg</t>
+          <t>go_stimuli\puppy_10.jpg</t>
         </is>
       </c>
       <c r="D8" t="n">
@@ -7043,11 +7043,11 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>5.5</v>
+        <v>4</v>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>go_stimuli\puppy_6.jpg</t>
+          <t>go_stimuli\puppy_22.jpeg</t>
         </is>
       </c>
       <c r="D9" t="n">
@@ -7064,11 +7064,11 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>6</v>
+        <v>6.5</v>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>go_stimuli\puppy_13.jpg</t>
+          <t>go_stimuli\puppy_21.jpeg</t>
         </is>
       </c>
       <c r="D10" t="n">
@@ -7085,11 +7085,11 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>4.5</v>
+        <v>5.5</v>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>go_stimuli\puppy_1.jpg</t>
+          <t>go_stimuli\puppy_4.jpg</t>
         </is>
       </c>
       <c r="D11" t="n">
@@ -7106,11 +7106,11 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>go_stimuli\puppy_4.jpg</t>
+          <t>go_stimuli\puppy_27.jpg</t>
         </is>
       </c>
       <c r="D12" t="n">
@@ -7127,11 +7127,11 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>go_stimuli\puppy_3.jpg</t>
+          <t>go_stimuli\puppy_9.jpg</t>
         </is>
       </c>
       <c r="D13" t="n">
@@ -7148,11 +7148,11 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>5.5</v>
+        <v>6</v>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>go_stimuli\puppy_30.jpg</t>
+          <t>go_stimuli\puppy_1.jpg</t>
         </is>
       </c>
       <c r="D14" t="n">
@@ -7169,11 +7169,11 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>go_stimuli\puppy_17.jpeg</t>
+          <t>go_stimuli\puppy_6.jpg</t>
         </is>
       </c>
       <c r="D15" t="n">
@@ -7190,11 +7190,11 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>5</v>
+        <v>6.5</v>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>go_stimuli\puppy_5.jpg</t>
+          <t>go_stimuli\puppy_19.jpeg</t>
         </is>
       </c>
       <c r="D16" t="n">
@@ -7211,11 +7211,11 @@
         <v>15</v>
       </c>
       <c r="B17" t="n">
-        <v>4.5</v>
+        <v>6</v>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>go_stimuli\puppy_16.jpeg</t>
+          <t>go_stimuli\puppy_8.jpg</t>
         </is>
       </c>
       <c r="D17" t="n">
@@ -7232,11 +7232,11 @@
         <v>16</v>
       </c>
       <c r="B18" t="n">
-        <v>4</v>
+        <v>4.5</v>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>go_stimuli\puppy_9.jpg</t>
+          <t>go_stimuli\puppy_26.jpeg</t>
         </is>
       </c>
       <c r="D18" t="n">
@@ -7253,11 +7253,11 @@
         <v>17</v>
       </c>
       <c r="B19" t="n">
-        <v>5.5</v>
+        <v>6.5</v>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>go_stimuli\puppy_26.jpeg</t>
+          <t>go_stimuli\puppy_2.jpg</t>
         </is>
       </c>
       <c r="D19" t="n">
@@ -7278,7 +7278,7 @@
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>go_stimuli\puppy_18.jpeg</t>
+          <t>go_stimuli\puppy_28.jpg</t>
         </is>
       </c>
       <c r="D20" t="n">
@@ -7295,11 +7295,11 @@
         <v>19</v>
       </c>
       <c r="B21" t="n">
-        <v>6.5</v>
+        <v>4.5</v>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>go_stimuli\puppy_28.jpg</t>
+          <t>go_stimuli\puppy_24.jpeg</t>
         </is>
       </c>
       <c r="D21" t="n">
@@ -7361,15 +7361,15 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>go_stimuli\puppy_2.jpg</t>
+          <t>no_go_stimuli\spider_1.jpeg</t>
         </is>
       </c>
       <c r="D2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>space</t>
+          <t>None</t>
         </is>
       </c>
     </row>
@@ -7378,19 +7378,19 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>6.5</v>
+        <v>6</v>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>go_stimuli\puppy_6.jpg</t>
+          <t>no_go_stimuli\spider_10.jpeg</t>
         </is>
       </c>
       <c r="D3" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>space</t>
+          <t>None</t>
         </is>
       </c>
     </row>
@@ -7399,19 +7399,19 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>6.5</v>
+        <v>5</v>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>go_stimuli\puppy_8.jpg</t>
+          <t>no_go_stimuli\spider_20.jpg</t>
         </is>
       </c>
       <c r="D4" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>space</t>
+          <t>None</t>
         </is>
       </c>
     </row>
@@ -7420,11 +7420,11 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>4</v>
+        <v>4.5</v>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>go_stimuli\puppy_20.jpeg</t>
+          <t>go_stimuli\puppy_25.jpeg</t>
         </is>
       </c>
       <c r="D5" t="n">
@@ -7445,7 +7445,7 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>no_go_stimuli\spider_26.jpg</t>
+          <t>no_go_stimuli\spider_16.jpeg</t>
         </is>
       </c>
       <c r="D6" t="n">
@@ -7462,11 +7462,11 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>5</v>
+        <v>6.5</v>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>no_go_stimuli\spider_7.jpeg</t>
+          <t>no_go_stimuli\spider_13.jpeg</t>
         </is>
       </c>
       <c r="D7" t="n">
@@ -7483,19 +7483,19 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>6</v>
+        <v>6.5</v>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>no_go_stimuli\spider_3.jpeg</t>
+          <t>go_stimuli\puppy_2.jpg</t>
         </is>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>space</t>
         </is>
       </c>
     </row>
@@ -7504,19 +7504,19 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>5.5</v>
+        <v>4.5</v>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>go_stimuli\puppy_9.jpg</t>
+          <t>no_go_stimuli\spider_26.jpg</t>
         </is>
       </c>
       <c r="D9" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>space</t>
+          <t>None</t>
         </is>
       </c>
     </row>
@@ -7525,19 +7525,19 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>5</v>
+        <v>5.5</v>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>no_go_stimuli\spider_10.jpeg</t>
+          <t>go_stimuli\puppy_28.jpg</t>
         </is>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>space</t>
         </is>
       </c>
     </row>
@@ -7546,11 +7546,11 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>5</v>
+        <v>5.5</v>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>go_stimuli\puppy_28.jpg</t>
+          <t>go_stimuli\puppy_3.jpg</t>
         </is>
       </c>
       <c r="D11" t="n">
@@ -7567,19 +7567,19 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>4.5</v>
+        <v>5</v>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>no_go_stimuli\spider_9.jpeg</t>
+          <t>go_stimuli\puppy_17.jpeg</t>
         </is>
       </c>
       <c r="D12" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>space</t>
         </is>
       </c>
     </row>
@@ -7588,19 +7588,19 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>6.5</v>
+        <v>5.5</v>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>no_go_stimuli\spider_24.jpeg</t>
+          <t>go_stimuli\puppy_21.jpeg</t>
         </is>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>space</t>
         </is>
       </c>
     </row>
@@ -7609,11 +7609,11 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>no_go_stimuli\spider_25.jpg</t>
+          <t>no_go_stimuli\spider_17.jpeg</t>
         </is>
       </c>
       <c r="D14" t="n">
@@ -7630,11 +7630,11 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>4</v>
+        <v>6.5</v>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>go_stimuli\puppy_1.jpg</t>
+          <t>go_stimuli\puppy_24.jpeg</t>
         </is>
       </c>
       <c r="D15" t="n">
@@ -7651,19 +7651,19 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>5</v>
+        <v>4.5</v>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>no_go_stimuli\spider_4.jpeg</t>
+          <t>go_stimuli\puppy_29.jpg</t>
         </is>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>space</t>
         </is>
       </c>
     </row>
@@ -7676,7 +7676,7 @@
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>no_go_stimuli\spider_11.jpeg</t>
+          <t>no_go_stimuli\spider_29.jpg</t>
         </is>
       </c>
       <c r="D17" t="n">
@@ -7693,11 +7693,11 @@
         <v>16</v>
       </c>
       <c r="B18" t="n">
-        <v>6.5</v>
+        <v>6</v>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>go_stimuli\puppy_25.jpeg</t>
+          <t>go_stimuli\puppy_5.jpg</t>
         </is>
       </c>
       <c r="D18" t="n">
@@ -7714,19 +7714,19 @@
         <v>17</v>
       </c>
       <c r="B19" t="n">
-        <v>5.5</v>
+        <v>4</v>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>no_go_stimuli\spider_22.jpg</t>
+          <t>go_stimuli\puppy_26.jpeg</t>
         </is>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>space</t>
         </is>
       </c>
     </row>
@@ -7735,19 +7735,19 @@
         <v>18</v>
       </c>
       <c r="B20" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>go_stimuli\puppy_22.jpeg</t>
+          <t>no_go_stimuli\spider_6.jpeg</t>
         </is>
       </c>
       <c r="D20" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>space</t>
+          <t>None</t>
         </is>
       </c>
     </row>
@@ -7756,19 +7756,19 @@
         <v>19</v>
       </c>
       <c r="B21" t="n">
-        <v>5</v>
+        <v>4.5</v>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>go_stimuli\puppy_30.jpg</t>
+          <t>no_go_stimuli\spider_2.jpeg</t>
         </is>
       </c>
       <c r="D21" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>space</t>
+          <t>None</t>
         </is>
       </c>
     </row>
@@ -7818,10 +7818,10 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="D2" t="n">
         <v>1</v>
@@ -7837,17 +7837,17 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="D3" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>right</t>
+          <t>left</t>
         </is>
       </c>
     </row>
@@ -7856,10 +7856,10 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
@@ -7875,17 +7875,17 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>left</t>
+          <t>right</t>
         </is>
       </c>
     </row>
@@ -7894,10 +7894,10 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C6" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="D6" t="n">
         <v>0</v>
@@ -7913,10 +7913,10 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
+        <v>6</v>
+      </c>
+      <c r="C7" t="n">
         <v>4</v>
-      </c>
-      <c r="C7" t="n">
-        <v>0</v>
       </c>
       <c r="D7" t="n">
         <v>0</v>
@@ -7932,17 +7932,17 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="D8" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>right</t>
+          <t>left</t>
         </is>
       </c>
     </row>
@@ -7951,10 +7951,10 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="C9" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="D9" t="n">
         <v>0</v>
@@ -7970,17 +7970,17 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="D10" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>right</t>
+          <t>left</t>
         </is>
       </c>
     </row>
@@ -7989,10 +7989,10 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C11" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="D11" t="n">
         <v>0</v>
@@ -8008,10 +8008,10 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="C12" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="D12" t="n">
         <v>1</v>
@@ -8027,17 +8027,17 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>left</t>
+          <t>right</t>
         </is>
       </c>
     </row>
@@ -8046,10 +8046,10 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="C14" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="D14" t="n">
         <v>1</v>
@@ -8065,10 +8065,10 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="C15" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="D15" t="n">
         <v>0</v>
@@ -8084,17 +8084,17 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>left</t>
+          <t>right</t>
         </is>
       </c>
     </row>
@@ -8103,17 +8103,17 @@
         <v>15</v>
       </c>
       <c r="B17" t="n">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="C17" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="D17" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>right</t>
+          <t>left</t>
         </is>
       </c>
     </row>
@@ -8122,17 +8122,17 @@
         <v>16</v>
       </c>
       <c r="B18" t="n">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="C18" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="D18" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>right</t>
+          <t>left</t>
         </is>
       </c>
     </row>
@@ -8141,17 +8141,17 @@
         <v>17</v>
       </c>
       <c r="B19" t="n">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>left</t>
+          <t>right</t>
         </is>
       </c>
     </row>
@@ -8160,10 +8160,10 @@
         <v>18</v>
       </c>
       <c r="B20" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="C20" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="D20" t="n">
         <v>0</v>
@@ -8182,14 +8182,14 @@
         <v>4</v>
       </c>
       <c r="C21" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="D21" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>left</t>
+          <t>right</t>
         </is>
       </c>
     </row>
@@ -8239,10 +8239,10 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C2" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D2" t="n">
         <v>1</v>
@@ -8258,17 +8258,17 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="C3" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D3" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>right</t>
+          <t>left</t>
         </is>
       </c>
     </row>
@@ -8277,17 +8277,17 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="C4" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>left</t>
+          <t>right</t>
         </is>
       </c>
     </row>
@@ -8296,10 +8296,10 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="C5" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D5" t="n">
         <v>0</v>
@@ -8315,17 +8315,17 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="C6" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D6" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>right</t>
+          <t>left</t>
         </is>
       </c>
     </row>
@@ -8334,17 +8334,17 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C7" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D7" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>right</t>
+          <t>left</t>
         </is>
       </c>
     </row>
@@ -8353,17 +8353,17 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="C8" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>left</t>
+          <t>right</t>
         </is>
       </c>
     </row>
@@ -8372,10 +8372,10 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="C9" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D9" t="n">
         <v>0</v>
@@ -8391,17 +8391,17 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="C10" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>left</t>
+          <t>right</t>
         </is>
       </c>
     </row>
@@ -8410,17 +8410,17 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C11" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D11" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>left</t>
+          <t>right</t>
         </is>
       </c>
     </row>
@@ -8429,17 +8429,17 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C12" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D12" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>right</t>
+          <t>left</t>
         </is>
       </c>
     </row>
@@ -8448,10 +8448,10 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="C13" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D13" t="n">
         <v>0</v>
@@ -8467,10 +8467,10 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="C14" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D14" t="n">
         <v>0</v>
@@ -8486,10 +8486,10 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="C15" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D15" t="n">
         <v>0</v>
@@ -8505,17 +8505,17 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="C16" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D16" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>right</t>
+          <t>left</t>
         </is>
       </c>
     </row>
@@ -8524,10 +8524,10 @@
         <v>15</v>
       </c>
       <c r="B17" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C17" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D17" t="n">
         <v>1</v>
@@ -8543,17 +8543,17 @@
         <v>16</v>
       </c>
       <c r="B18" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C18" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D18" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>right</t>
+          <t>left</t>
         </is>
       </c>
     </row>
@@ -8562,10 +8562,10 @@
         <v>17</v>
       </c>
       <c r="B19" t="n">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C19" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D19" t="n">
         <v>0</v>
@@ -8584,14 +8584,14 @@
         <v>3</v>
       </c>
       <c r="C20" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D20" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>left</t>
+          <t>right</t>
         </is>
       </c>
     </row>
@@ -8600,17 +8600,17 @@
         <v>19</v>
       </c>
       <c r="B21" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C21" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D21" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>left</t>
+          <t>right</t>
         </is>
       </c>
     </row>
@@ -8660,10 +8660,10 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="C2" t="n">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
         <v>0</v>
@@ -8679,17 +8679,17 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C3" t="n">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>right</t>
+          <t>left</t>
         </is>
       </c>
     </row>
@@ -8698,17 +8698,17 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="C4" t="n">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>right</t>
+          <t>left</t>
         </is>
       </c>
     </row>
@@ -8720,14 +8720,14 @@
         <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>left</t>
+          <t>right</t>
         </is>
       </c>
     </row>
@@ -8736,17 +8736,17 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="C6" t="n">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="D6" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>left</t>
+          <t>right</t>
         </is>
       </c>
     </row>
@@ -8755,10 +8755,10 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C7" t="n">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
         <v>0</v>
@@ -8774,17 +8774,17 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C8" t="n">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>right</t>
+          <t>left</t>
         </is>
       </c>
     </row>
@@ -8793,17 +8793,17 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="C9" t="n">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="D9" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>left</t>
+          <t>right</t>
         </is>
       </c>
     </row>
@@ -8812,17 +8812,17 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>left</t>
+          <t>right</t>
         </is>
       </c>
     </row>
@@ -8831,17 +8831,17 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C11" t="n">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>left</t>
+          <t>right</t>
         </is>
       </c>
     </row>
@@ -8850,17 +8850,17 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="C12" t="n">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="D12" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>left</t>
+          <t>right</t>
         </is>
       </c>
     </row>
@@ -8869,17 +8869,17 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C13" t="n">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>right</t>
+          <t>left</t>
         </is>
       </c>
     </row>
@@ -8888,17 +8888,17 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="C14" t="n">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="D14" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>right</t>
+          <t>left</t>
         </is>
       </c>
     </row>
@@ -8907,17 +8907,17 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="C15" t="n">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="D15" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>left</t>
+          <t>right</t>
         </is>
       </c>
     </row>
@@ -8926,10 +8926,10 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
         <v>1</v>
@@ -8945,10 +8945,10 @@
         <v>15</v>
       </c>
       <c r="B17" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C17" t="n">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="D17" t="n">
         <v>0</v>
@@ -8967,7 +8967,7 @@
         <v>2</v>
       </c>
       <c r="C18" t="n">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="D18" t="n">
         <v>0</v>
@@ -8983,17 +8983,17 @@
         <v>17</v>
       </c>
       <c r="B19" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C19" t="n">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>right</t>
+          <t>left</t>
         </is>
       </c>
     </row>
@@ -9002,17 +9002,17 @@
         <v>18</v>
       </c>
       <c r="B20" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="C20" t="n">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="D20" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>right</t>
+          <t>left</t>
         </is>
       </c>
     </row>
@@ -9021,10 +9021,10 @@
         <v>19</v>
       </c>
       <c r="B21" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C21" t="n">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="D21" t="n">
         <v>0</v>
@@ -9076,7 +9076,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
@@ -9092,7 +9092,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="C3" t="n">
         <v>1</v>
@@ -9108,14 +9108,14 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="C4" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>right</t>
+          <t>left</t>
         </is>
       </c>
     </row>
@@ -9124,7 +9124,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="C5" t="n">
         <v>0</v>
@@ -9140,7 +9140,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="C6" t="n">
         <v>0</v>
@@ -9156,7 +9156,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="C7" t="n">
         <v>1</v>
@@ -9172,14 +9172,14 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>left</t>
+          <t>right</t>
         </is>
       </c>
     </row>
@@ -9188,7 +9188,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C9" t="n">
         <v>0</v>
@@ -9204,7 +9204,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
         <v>0</v>
@@ -9220,14 +9220,14 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="C11" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>left</t>
+          <t>right</t>
         </is>
       </c>
     </row>
@@ -9252,14 +9252,14 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="C13" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>right</t>
+          <t>left</t>
         </is>
       </c>
     </row>
@@ -9268,7 +9268,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="C14" t="n">
         <v>0</v>
@@ -9284,7 +9284,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="C15" t="n">
         <v>1</v>
@@ -9300,7 +9300,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="C16" t="n">
         <v>1</v>
@@ -9316,7 +9316,7 @@
         <v>15</v>
       </c>
       <c r="B17" t="n">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="C17" t="n">
         <v>0</v>
@@ -9332,7 +9332,7 @@
         <v>16</v>
       </c>
       <c r="B18" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="C18" t="n">
         <v>0</v>
@@ -9348,14 +9348,14 @@
         <v>17</v>
       </c>
       <c r="B19" t="n">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="C19" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>right</t>
+          <t>left</t>
         </is>
       </c>
     </row>
@@ -9364,14 +9364,14 @@
         <v>18</v>
       </c>
       <c r="B20" t="n">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C20" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>left</t>
+          <t>right</t>
         </is>
       </c>
     </row>
@@ -9380,7 +9380,7 @@
         <v>19</v>
       </c>
       <c r="B21" t="n">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C21" t="n">
         <v>1</v>
@@ -9432,7 +9432,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
@@ -9448,14 +9448,14 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="C3" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>right</t>
+          <t>left</t>
         </is>
       </c>
     </row>
@@ -9464,14 +9464,14 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="C4" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>right</t>
+          <t>left</t>
         </is>
       </c>
     </row>
@@ -9480,14 +9480,14 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>left</t>
+          <t>right</t>
         </is>
       </c>
     </row>
@@ -9496,7 +9496,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C6" t="n">
         <v>0</v>
@@ -9512,14 +9512,14 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>left</t>
+          <t>right</t>
         </is>
       </c>
     </row>
@@ -9528,7 +9528,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C8" t="n">
         <v>0</v>
@@ -9544,14 +9544,14 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="C9" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>left</t>
+          <t>right</t>
         </is>
       </c>
     </row>
@@ -9560,14 +9560,14 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>left</t>
+          <t>right</t>
         </is>
       </c>
     </row>
@@ -9576,14 +9576,14 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C11" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>right</t>
+          <t>left</t>
         </is>
       </c>
     </row>
@@ -9592,7 +9592,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="C12" t="n">
         <v>0</v>
@@ -9608,7 +9608,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="C13" t="n">
         <v>0</v>
@@ -9624,7 +9624,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="C14" t="n">
         <v>0</v>
@@ -9640,7 +9640,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="C15" t="n">
         <v>1</v>
@@ -9656,14 +9656,14 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>left</t>
+          <t>right</t>
         </is>
       </c>
     </row>
@@ -9675,11 +9675,11 @@
         <v>4</v>
       </c>
       <c r="C17" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>right</t>
+          <t>left</t>
         </is>
       </c>
     </row>
@@ -9704,14 +9704,14 @@
         <v>17</v>
       </c>
       <c r="B19" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>left</t>
+          <t>right</t>
         </is>
       </c>
     </row>
@@ -9720,14 +9720,14 @@
         <v>18</v>
       </c>
       <c r="B20" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="C20" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>right</t>
+          <t>left</t>
         </is>
       </c>
     </row>
@@ -9736,14 +9736,14 @@
         <v>19</v>
       </c>
       <c r="B21" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="C21" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>right</t>
+          <t>left</t>
         </is>
       </c>
     </row>

--- a/participants/participant_44/participant_44_conditions.xlsx
+++ b/participants/participant_44/participant_44_conditions.xlsx
@@ -7,29 +7,29 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="go_stims-16512556133378444" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet name="GNG_stims-16512556133518429" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet name="go_stims-1651255613353846" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet name="GNG_stims-16512556133688464" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet name="ZB-match_4-1651255613659351" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet name="ZB-match_3-16512556139952965" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet name="ZB-match_0-16512556142200906" sheetId="7" state="visible" r:id="rId7"/>
-    <sheet name="OB-1651255615261636" sheetId="8" state="visible" r:id="rId8"/>
-    <sheet name="OB-16512556158187742" sheetId="9" state="visible" r:id="rId9"/>
-    <sheet name="OB-16512556162927752" sheetId="10" state="visible" r:id="rId10"/>
-    <sheet name="TB-16512556164257746" sheetId="11" state="visible" r:id="rId11"/>
-    <sheet name="TB-16512556165937736" sheetId="12" state="visible" r:id="rId12"/>
-    <sheet name="TB-16512556171717782" sheetId="13" state="visible" r:id="rId13"/>
-    <sheet name="ZM_stims-16512556172047749" sheetId="14" state="visible" r:id="rId14"/>
-    <sheet name="MM_stims-16512556172287743" sheetId="15" state="visible" r:id="rId15"/>
-    <sheet name="ZM_stims-16512556172307792" sheetId="16" state="visible" r:id="rId16"/>
-    <sheet name="MM_stims-16512556172447758" sheetId="17" state="visible" r:id="rId17"/>
-    <sheet name="ZM_stims-16512556172457752" sheetId="18" state="visible" r:id="rId18"/>
-    <sheet name="MM_stims-16512556172607734" sheetId="19" state="visible" r:id="rId19"/>
-    <sheet name="SAT_stims-16512556172667773" sheetId="20" state="visible" r:id="rId20"/>
-    <sheet name="SAT_stims-16512556172927768" sheetId="21" state="visible" r:id="rId21"/>
-    <sheet name="vSAT_stims-16512556173087745" sheetId="22" state="visible" r:id="rId22"/>
-    <sheet name="vSAT_stims-16512556173257737" sheetId="23" state="visible" r:id="rId23"/>
+    <sheet name="ZB-match_6-1651589035779485" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="ZB-match_8-1651589035826366" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="ZB-match_0-16515890359616363" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet name="OB-16515890361044407" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet name="OB-1651589036300285" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet name="OB-1651589036399074" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet name="TB-1651589036445949" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet name="TB-16515890370116181" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet name="TB-16515890386728728" sheetId="9" state="visible" r:id="rId9"/>
+    <sheet name="ZM_stims-16515890386885605" sheetId="10" state="visible" r:id="rId10"/>
+    <sheet name="MM_stims-16515890387041273" sheetId="11" state="visible" r:id="rId11"/>
+    <sheet name="ZM_stims-16515890387041273" sheetId="12" state="visible" r:id="rId12"/>
+    <sheet name="MM_stims-1651589038719717" sheetId="13" state="visible" r:id="rId13"/>
+    <sheet name="ZM_stims-1651589038719717" sheetId="14" state="visible" r:id="rId14"/>
+    <sheet name="MM_stims-1651589038735342" sheetId="15" state="visible" r:id="rId15"/>
+    <sheet name="go_stims-1651589038735342" sheetId="16" state="visible" r:id="rId16"/>
+    <sheet name="GNG_stims-16515890387509677" sheetId="17" state="visible" r:id="rId17"/>
+    <sheet name="go_stims-16515890387509677" sheetId="18" state="visible" r:id="rId18"/>
+    <sheet name="GNG_stims-1651589038766591" sheetId="19" state="visible" r:id="rId19"/>
+    <sheet name="SAT_stims-1651589038766591" sheetId="20" state="visible" r:id="rId20"/>
+    <sheet name="SAT_stims-16515890387822154" sheetId="21" state="visible" r:id="rId21"/>
+    <sheet name="vSAT_stims-1651589038797844" sheetId="22" state="visible" r:id="rId22"/>
+    <sheet name="vSAT_stims-16515890388134685" sheetId="23" state="visible" r:id="rId23"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -458,12 +458,12 @@
     <row r="1">
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>inter_stim_interval</t>
+          <t>num_stim</t>
         </is>
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
-          <t>GNG_stim</t>
+          <t>match_num</t>
         </is>
       </c>
       <c r="D1" s="1" t="inlineStr">
@@ -482,19 +482,17 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>4.5</v>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>go_stimuli\puppy_5.jpg</t>
-        </is>
+        <v>0</v>
+      </c>
+      <c r="C2" t="n">
+        <v>6</v>
       </c>
       <c r="D2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>space</t>
+          <t>left</t>
         </is>
       </c>
     </row>
@@ -503,19 +501,17 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
+        <v>7</v>
+      </c>
+      <c r="C3" t="n">
         <v>6</v>
       </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>go_stimuli\puppy_22.jpeg</t>
-        </is>
-      </c>
       <c r="D3" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>space</t>
+          <t>left</t>
         </is>
       </c>
     </row>
@@ -524,19 +520,17 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>5.5</v>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>go_stimuli\puppy_3.jpg</t>
-        </is>
+        <v>3</v>
+      </c>
+      <c r="C4" t="n">
+        <v>6</v>
       </c>
       <c r="D4" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>space</t>
+          <t>left</t>
         </is>
       </c>
     </row>
@@ -545,19 +539,17 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>6.5</v>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>go_stimuli\puppy_6.jpg</t>
-        </is>
+        <v>5</v>
+      </c>
+      <c r="C5" t="n">
+        <v>6</v>
       </c>
       <c r="D5" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>space</t>
+          <t>left</t>
         </is>
       </c>
     </row>
@@ -566,19 +558,17 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>4</v>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>go_stimuli\puppy_27.jpg</t>
-        </is>
+        <v>6</v>
+      </c>
+      <c r="C6" t="n">
+        <v>6</v>
       </c>
       <c r="D6" t="n">
         <v>1</v>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>space</t>
+          <t>right</t>
         </is>
       </c>
     </row>
@@ -587,19 +577,17 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>5.5</v>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>go_stimuli\puppy_4.jpg</t>
-        </is>
+        <v>2</v>
+      </c>
+      <c r="C7" t="n">
+        <v>6</v>
       </c>
       <c r="D7" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>space</t>
+          <t>left</t>
         </is>
       </c>
     </row>
@@ -608,19 +596,17 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>5.5</v>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>go_stimuli\puppy_23.jpeg</t>
-        </is>
+        <v>8</v>
+      </c>
+      <c r="C8" t="n">
+        <v>6</v>
       </c>
       <c r="D8" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>space</t>
+          <t>left</t>
         </is>
       </c>
     </row>
@@ -629,19 +615,17 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>5</v>
-      </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>go_stimuli\puppy_13.jpg</t>
-        </is>
+        <v>1</v>
+      </c>
+      <c r="C9" t="n">
+        <v>6</v>
       </c>
       <c r="D9" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>space</t>
+          <t>left</t>
         </is>
       </c>
     </row>
@@ -650,19 +634,17 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>5</v>
-      </c>
-      <c r="C10" t="inlineStr">
-        <is>
-          <t>go_stimuli\puppy_29.jpg</t>
-        </is>
+        <v>6</v>
+      </c>
+      <c r="C10" t="n">
+        <v>6</v>
       </c>
       <c r="D10" t="n">
         <v>1</v>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>space</t>
+          <t>right</t>
         </is>
       </c>
     </row>
@@ -671,19 +653,17 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>5.5</v>
-      </c>
-      <c r="C11" t="inlineStr">
-        <is>
-          <t>go_stimuli\puppy_21.jpeg</t>
-        </is>
+        <v>5</v>
+      </c>
+      <c r="C11" t="n">
+        <v>6</v>
       </c>
       <c r="D11" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>space</t>
+          <t>left</t>
         </is>
       </c>
     </row>
@@ -692,19 +672,17 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>5</v>
-      </c>
-      <c r="C12" t="inlineStr">
-        <is>
-          <t>go_stimuli\puppy_19.jpeg</t>
-        </is>
+        <v>6</v>
+      </c>
+      <c r="C12" t="n">
+        <v>6</v>
       </c>
       <c r="D12" t="n">
         <v>1</v>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>space</t>
+          <t>right</t>
         </is>
       </c>
     </row>
@@ -713,19 +691,17 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>5.5</v>
-      </c>
-      <c r="C13" t="inlineStr">
-        <is>
-          <t>go_stimuli\puppy_15.jpeg</t>
-        </is>
+        <v>6</v>
+      </c>
+      <c r="C13" t="n">
+        <v>6</v>
       </c>
       <c r="D13" t="n">
         <v>1</v>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>space</t>
+          <t>right</t>
         </is>
       </c>
     </row>
@@ -734,19 +710,17 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>4.5</v>
-      </c>
-      <c r="C14" t="inlineStr">
-        <is>
-          <t>go_stimuli\puppy_7.jpg</t>
-        </is>
+        <v>5</v>
+      </c>
+      <c r="C14" t="n">
+        <v>6</v>
       </c>
       <c r="D14" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>space</t>
+          <t>left</t>
         </is>
       </c>
     </row>
@@ -755,19 +729,17 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>4.5</v>
-      </c>
-      <c r="C15" t="inlineStr">
-        <is>
-          <t>go_stimuli\puppy_10.jpg</t>
-        </is>
+        <v>9</v>
+      </c>
+      <c r="C15" t="n">
+        <v>6</v>
       </c>
       <c r="D15" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>space</t>
+          <t>left</t>
         </is>
       </c>
     </row>
@@ -776,19 +748,17 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>6.5</v>
-      </c>
-      <c r="C16" t="inlineStr">
-        <is>
-          <t>go_stimuli\puppy_9.jpg</t>
-        </is>
+        <v>6</v>
+      </c>
+      <c r="C16" t="n">
+        <v>6</v>
       </c>
       <c r="D16" t="n">
         <v>1</v>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>space</t>
+          <t>right</t>
         </is>
       </c>
     </row>
@@ -797,19 +767,17 @@
         <v>15</v>
       </c>
       <c r="B17" t="n">
-        <v>4.5</v>
-      </c>
-      <c r="C17" t="inlineStr">
-        <is>
-          <t>go_stimuli\puppy_17.jpeg</t>
-        </is>
+        <v>5</v>
+      </c>
+      <c r="C17" t="n">
+        <v>6</v>
       </c>
       <c r="D17" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>space</t>
+          <t>left</t>
         </is>
       </c>
     </row>
@@ -818,19 +786,17 @@
         <v>16</v>
       </c>
       <c r="B18" t="n">
-        <v>4</v>
-      </c>
-      <c r="C18" t="inlineStr">
-        <is>
-          <t>go_stimuli\puppy_30.jpg</t>
-        </is>
+        <v>6</v>
+      </c>
+      <c r="C18" t="n">
+        <v>6</v>
       </c>
       <c r="D18" t="n">
         <v>1</v>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>space</t>
+          <t>right</t>
         </is>
       </c>
     </row>
@@ -839,19 +805,17 @@
         <v>17</v>
       </c>
       <c r="B19" t="n">
-        <v>5.5</v>
-      </c>
-      <c r="C19" t="inlineStr">
-        <is>
-          <t>go_stimuli\puppy_20.jpeg</t>
-        </is>
+        <v>9</v>
+      </c>
+      <c r="C19" t="n">
+        <v>6</v>
       </c>
       <c r="D19" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>space</t>
+          <t>left</t>
         </is>
       </c>
     </row>
@@ -860,19 +824,17 @@
         <v>18</v>
       </c>
       <c r="B20" t="n">
-        <v>4</v>
-      </c>
-      <c r="C20" t="inlineStr">
-        <is>
-          <t>go_stimuli\puppy_2.jpg</t>
-        </is>
+        <v>6</v>
+      </c>
+      <c r="C20" t="n">
+        <v>6</v>
       </c>
       <c r="D20" t="n">
         <v>1</v>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>space</t>
+          <t>right</t>
         </is>
       </c>
     </row>
@@ -881,19 +843,17 @@
         <v>19</v>
       </c>
       <c r="B21" t="n">
-        <v>5.5</v>
-      </c>
-      <c r="C21" t="inlineStr">
-        <is>
-          <t>go_stimuli\puppy_25.jpeg</t>
-        </is>
+        <v>6</v>
+      </c>
+      <c r="C21" t="n">
+        <v>6</v>
       </c>
       <c r="D21" t="n">
         <v>1</v>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>space</t>
+          <t>right</t>
         </is>
       </c>
     </row>
@@ -908,7 +868,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D21"/>
+  <dimension ref="A1:D7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -919,7 +879,7 @@
     <row r="1">
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>num_stim</t>
+          <t>image_stim</t>
         </is>
       </c>
       <c r="C1" s="1" t="inlineStr">
@@ -937,8 +897,10 @@
       <c r="A2" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="B2" t="n">
-        <v>1</v>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>zero_move_stimuli\zero_move_6.jpg</t>
+        </is>
       </c>
       <c r="C2" t="n">
         <v>0</v>
@@ -953,8 +915,10 @@
       <c r="A3" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="B3" t="n">
-        <v>5</v>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>zero_move_stimuli\zero_move_3.jpg</t>
+        </is>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -969,15 +933,17 @@
       <c r="A4" s="1" t="n">
         <v>2</v>
       </c>
-      <c r="B4" t="n">
-        <v>5</v>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>zero_move_stimuli\zero_move_1.jpg</t>
+        </is>
       </c>
       <c r="C4" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>right</t>
+          <t>left</t>
         </is>
       </c>
     </row>
@@ -985,8 +951,10 @@
       <c r="A5" s="1" t="n">
         <v>3</v>
       </c>
-      <c r="B5" t="n">
-        <v>9</v>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>zero_move_stimuli\zero_move_4.jpg</t>
+        </is>
       </c>
       <c r="C5" t="n">
         <v>0</v>
@@ -1001,8 +969,10 @@
       <c r="A6" s="1" t="n">
         <v>4</v>
       </c>
-      <c r="B6" t="n">
-        <v>1</v>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>zero_move_stimuli\zero_move_2.jpg</t>
+        </is>
       </c>
       <c r="C6" t="n">
         <v>0</v>
@@ -1017,237 +987,15 @@
       <c r="A7" s="1" t="n">
         <v>5</v>
       </c>
-      <c r="B7" t="n">
-        <v>1</v>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>zero_move_stimuli\zero_move_5.jpg</t>
+        </is>
       </c>
       <c r="C7" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D7" t="inlineStr">
-        <is>
-          <t>right</t>
-        </is>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="1" t="n">
-        <v>6</v>
-      </c>
-      <c r="B8" t="n">
-        <v>1</v>
-      </c>
-      <c r="C8" t="n">
-        <v>1</v>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>right</t>
-        </is>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="1" t="n">
-        <v>7</v>
-      </c>
-      <c r="B9" t="n">
-        <v>1</v>
-      </c>
-      <c r="C9" t="n">
-        <v>1</v>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>right</t>
-        </is>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" s="1" t="n">
-        <v>8</v>
-      </c>
-      <c r="B10" t="n">
-        <v>8</v>
-      </c>
-      <c r="C10" t="n">
-        <v>0</v>
-      </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>left</t>
-        </is>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" s="1" t="n">
-        <v>9</v>
-      </c>
-      <c r="B11" t="n">
-        <v>5</v>
-      </c>
-      <c r="C11" t="n">
-        <v>0</v>
-      </c>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>left</t>
-        </is>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" s="1" t="n">
-        <v>10</v>
-      </c>
-      <c r="B12" t="n">
-        <v>7</v>
-      </c>
-      <c r="C12" t="n">
-        <v>0</v>
-      </c>
-      <c r="D12" t="inlineStr">
-        <is>
-          <t>left</t>
-        </is>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" s="1" t="n">
-        <v>11</v>
-      </c>
-      <c r="B13" t="n">
-        <v>7</v>
-      </c>
-      <c r="C13" t="n">
-        <v>1</v>
-      </c>
-      <c r="D13" t="inlineStr">
-        <is>
-          <t>right</t>
-        </is>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" s="1" t="n">
-        <v>12</v>
-      </c>
-      <c r="B14" t="n">
-        <v>7</v>
-      </c>
-      <c r="C14" t="n">
-        <v>1</v>
-      </c>
-      <c r="D14" t="inlineStr">
-        <is>
-          <t>right</t>
-        </is>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" s="1" t="n">
-        <v>13</v>
-      </c>
-      <c r="B15" t="n">
-        <v>0</v>
-      </c>
-      <c r="C15" t="n">
-        <v>0</v>
-      </c>
-      <c r="D15" t="inlineStr">
-        <is>
-          <t>left</t>
-        </is>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" s="1" t="n">
-        <v>14</v>
-      </c>
-      <c r="B16" t="n">
-        <v>3</v>
-      </c>
-      <c r="C16" t="n">
-        <v>0</v>
-      </c>
-      <c r="D16" t="inlineStr">
-        <is>
-          <t>left</t>
-        </is>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" s="1" t="n">
-        <v>15</v>
-      </c>
-      <c r="B17" t="n">
-        <v>3</v>
-      </c>
-      <c r="C17" t="n">
-        <v>1</v>
-      </c>
-      <c r="D17" t="inlineStr">
-        <is>
-          <t>right</t>
-        </is>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" s="1" t="n">
-        <v>16</v>
-      </c>
-      <c r="B18" t="n">
-        <v>3</v>
-      </c>
-      <c r="C18" t="n">
-        <v>1</v>
-      </c>
-      <c r="D18" t="inlineStr">
-        <is>
-          <t>right</t>
-        </is>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" s="1" t="n">
-        <v>17</v>
-      </c>
-      <c r="B19" t="n">
-        <v>4</v>
-      </c>
-      <c r="C19" t="n">
-        <v>0</v>
-      </c>
-      <c r="D19" t="inlineStr">
-        <is>
-          <t>left</t>
-        </is>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" s="1" t="n">
-        <v>18</v>
-      </c>
-      <c r="B20" t="n">
-        <v>5</v>
-      </c>
-      <c r="C20" t="n">
-        <v>0</v>
-      </c>
-      <c r="D20" t="inlineStr">
-        <is>
-          <t>left</t>
-        </is>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" s="1" t="n">
-        <v>19</v>
-      </c>
-      <c r="B21" t="n">
-        <v>8</v>
-      </c>
-      <c r="C21" t="n">
-        <v>0</v>
-      </c>
-      <c r="D21" t="inlineStr">
         <is>
           <t>left</t>
         </is>
@@ -1264,7 +1012,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D21"/>
+  <dimension ref="A1:D7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1275,7 +1023,7 @@
     <row r="1">
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>num_stim</t>
+          <t>image_stim</t>
         </is>
       </c>
       <c r="C1" s="1" t="inlineStr">
@@ -1293,15 +1041,17 @@
       <c r="A2" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="B2" t="n">
-        <v>7</v>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>multi_move_stimuli\stim_two_move\stim_two_move_4.jpg</t>
+        </is>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>left</t>
+          <t>right</t>
         </is>
       </c>
     </row>
@@ -1309,8 +1059,10 @@
       <c r="A3" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="B3" t="n">
-        <v>1</v>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>multi_move_stimuli\stim_not_two_move\stim_not_two_move_2.jpg</t>
+        </is>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -1325,15 +1077,17 @@
       <c r="A4" s="1" t="n">
         <v>2</v>
       </c>
-      <c r="B4" t="n">
-        <v>2</v>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>multi_move_stimuli\stim_two_move\stim_two_move_2.jpg</t>
+        </is>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>left</t>
+          <t>right</t>
         </is>
       </c>
     </row>
@@ -1341,15 +1095,17 @@
       <c r="A5" s="1" t="n">
         <v>3</v>
       </c>
-      <c r="B5" t="n">
-        <v>5</v>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>multi_move_stimuli\stim_two_move\stim_two_move_1.jpg</t>
+        </is>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>left</t>
+          <t>right</t>
         </is>
       </c>
     </row>
@@ -1357,15 +1113,17 @@
       <c r="A6" s="1" t="n">
         <v>4</v>
       </c>
-      <c r="B6" t="n">
-        <v>2</v>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>multi_move_stimuli\stim_not_two_move\stim_not_two_move_6.jpg</t>
+        </is>
       </c>
       <c r="C6" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>right</t>
+          <t>left</t>
         </is>
       </c>
     </row>
@@ -1373,239 +1131,17 @@
       <c r="A7" s="1" t="n">
         <v>5</v>
       </c>
-      <c r="B7" t="n">
-        <v>5</v>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>multi_move_stimuli\stim_not_two_move\stim_not_two_move_4.jpg</t>
+        </is>
       </c>
       <c r="C7" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>right</t>
-        </is>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="1" t="n">
-        <v>6</v>
-      </c>
-      <c r="B8" t="n">
-        <v>2</v>
-      </c>
-      <c r="C8" t="n">
-        <v>1</v>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>right</t>
-        </is>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="1" t="n">
-        <v>7</v>
-      </c>
-      <c r="B9" t="n">
-        <v>0</v>
-      </c>
-      <c r="C9" t="n">
-        <v>0</v>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>left</t>
-        </is>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" s="1" t="n">
-        <v>8</v>
-      </c>
-      <c r="B10" t="n">
-        <v>4</v>
-      </c>
-      <c r="C10" t="n">
-        <v>0</v>
-      </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>left</t>
-        </is>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" s="1" t="n">
-        <v>9</v>
-      </c>
-      <c r="B11" t="n">
-        <v>4</v>
-      </c>
-      <c r="C11" t="n">
-        <v>0</v>
-      </c>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>left</t>
-        </is>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" s="1" t="n">
-        <v>10</v>
-      </c>
-      <c r="B12" t="n">
-        <v>4</v>
-      </c>
-      <c r="C12" t="n">
-        <v>1</v>
-      </c>
-      <c r="D12" t="inlineStr">
-        <is>
-          <t>right</t>
-        </is>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" s="1" t="n">
-        <v>11</v>
-      </c>
-      <c r="B13" t="n">
-        <v>2</v>
-      </c>
-      <c r="C13" t="n">
-        <v>0</v>
-      </c>
-      <c r="D13" t="inlineStr">
-        <is>
-          <t>left</t>
-        </is>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" s="1" t="n">
-        <v>12</v>
-      </c>
-      <c r="B14" t="n">
-        <v>1</v>
-      </c>
-      <c r="C14" t="n">
-        <v>0</v>
-      </c>
-      <c r="D14" t="inlineStr">
-        <is>
-          <t>left</t>
-        </is>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" s="1" t="n">
-        <v>13</v>
-      </c>
-      <c r="B15" t="n">
-        <v>9</v>
-      </c>
-      <c r="C15" t="n">
-        <v>0</v>
-      </c>
-      <c r="D15" t="inlineStr">
-        <is>
-          <t>left</t>
-        </is>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" s="1" t="n">
-        <v>14</v>
-      </c>
-      <c r="B16" t="n">
-        <v>4</v>
-      </c>
-      <c r="C16" t="n">
-        <v>0</v>
-      </c>
-      <c r="D16" t="inlineStr">
-        <is>
-          <t>left</t>
-        </is>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" s="1" t="n">
-        <v>15</v>
-      </c>
-      <c r="B17" t="n">
-        <v>5</v>
-      </c>
-      <c r="C17" t="n">
-        <v>0</v>
-      </c>
-      <c r="D17" t="inlineStr">
-        <is>
-          <t>left</t>
-        </is>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" s="1" t="n">
-        <v>16</v>
-      </c>
-      <c r="B18" t="n">
-        <v>4</v>
-      </c>
-      <c r="C18" t="n">
-        <v>1</v>
-      </c>
-      <c r="D18" t="inlineStr">
-        <is>
-          <t>right</t>
-        </is>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" s="1" t="n">
-        <v>17</v>
-      </c>
-      <c r="B19" t="n">
-        <v>5</v>
-      </c>
-      <c r="C19" t="n">
-        <v>1</v>
-      </c>
-      <c r="D19" t="inlineStr">
-        <is>
-          <t>right</t>
-        </is>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" s="1" t="n">
-        <v>18</v>
-      </c>
-      <c r="B20" t="n">
-        <v>4</v>
-      </c>
-      <c r="C20" t="n">
-        <v>1</v>
-      </c>
-      <c r="D20" t="inlineStr">
-        <is>
-          <t>right</t>
-        </is>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" s="1" t="n">
-        <v>19</v>
-      </c>
-      <c r="B21" t="n">
-        <v>5</v>
-      </c>
-      <c r="C21" t="n">
-        <v>1</v>
-      </c>
-      <c r="D21" t="inlineStr">
-        <is>
-          <t>right</t>
+          <t>left</t>
         </is>
       </c>
     </row>
@@ -1620,7 +1156,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D21"/>
+  <dimension ref="A1:D7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1631,7 +1167,7 @@
     <row r="1">
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>num_stim</t>
+          <t>image_stim</t>
         </is>
       </c>
       <c r="C1" s="1" t="inlineStr">
@@ -1649,8 +1185,10 @@
       <c r="A2" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="B2" t="n">
-        <v>4</v>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>zero_move_stimuli\zero_move_6.jpg</t>
+        </is>
       </c>
       <c r="C2" t="n">
         <v>0</v>
@@ -1665,8 +1203,10 @@
       <c r="A3" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="B3" t="n">
-        <v>8</v>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>zero_move_stimuli\zero_move_1.jpg</t>
+        </is>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -1681,15 +1221,17 @@
       <c r="A4" s="1" t="n">
         <v>2</v>
       </c>
-      <c r="B4" t="n">
-        <v>4</v>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>zero_move_stimuli\zero_move_5.jpg</t>
+        </is>
       </c>
       <c r="C4" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>right</t>
+          <t>left</t>
         </is>
       </c>
     </row>
@@ -1697,15 +1239,17 @@
       <c r="A5" s="1" t="n">
         <v>3</v>
       </c>
-      <c r="B5" t="n">
-        <v>8</v>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>zero_move_stimuli\zero_move_4.jpg</t>
+        </is>
       </c>
       <c r="C5" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>right</t>
+          <t>left</t>
         </is>
       </c>
     </row>
@@ -1713,15 +1257,17 @@
       <c r="A6" s="1" t="n">
         <v>4</v>
       </c>
-      <c r="B6" t="n">
-        <v>4</v>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>zero_move_stimuli\zero_move_2.jpg</t>
+        </is>
       </c>
       <c r="C6" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>right</t>
+          <t>left</t>
         </is>
       </c>
     </row>
@@ -1729,237 +1275,15 @@
       <c r="A7" s="1" t="n">
         <v>5</v>
       </c>
-      <c r="B7" t="n">
-        <v>0</v>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>zero_move_stimuli\zero_move_3.jpg</t>
+        </is>
       </c>
       <c r="C7" t="n">
         <v>0</v>
       </c>
       <c r="D7" t="inlineStr">
-        <is>
-          <t>left</t>
-        </is>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="1" t="n">
-        <v>6</v>
-      </c>
-      <c r="B8" t="n">
-        <v>5</v>
-      </c>
-      <c r="C8" t="n">
-        <v>0</v>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>left</t>
-        </is>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="1" t="n">
-        <v>7</v>
-      </c>
-      <c r="B9" t="n">
-        <v>9</v>
-      </c>
-      <c r="C9" t="n">
-        <v>0</v>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>left</t>
-        </is>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" s="1" t="n">
-        <v>8</v>
-      </c>
-      <c r="B10" t="n">
-        <v>6</v>
-      </c>
-      <c r="C10" t="n">
-        <v>0</v>
-      </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>left</t>
-        </is>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" s="1" t="n">
-        <v>9</v>
-      </c>
-      <c r="B11" t="n">
-        <v>4</v>
-      </c>
-      <c r="C11" t="n">
-        <v>0</v>
-      </c>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>left</t>
-        </is>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" s="1" t="n">
-        <v>10</v>
-      </c>
-      <c r="B12" t="n">
-        <v>6</v>
-      </c>
-      <c r="C12" t="n">
-        <v>1</v>
-      </c>
-      <c r="D12" t="inlineStr">
-        <is>
-          <t>right</t>
-        </is>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" s="1" t="n">
-        <v>11</v>
-      </c>
-      <c r="B13" t="n">
-        <v>4</v>
-      </c>
-      <c r="C13" t="n">
-        <v>1</v>
-      </c>
-      <c r="D13" t="inlineStr">
-        <is>
-          <t>right</t>
-        </is>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" s="1" t="n">
-        <v>12</v>
-      </c>
-      <c r="B14" t="n">
-        <v>4</v>
-      </c>
-      <c r="C14" t="n">
-        <v>0</v>
-      </c>
-      <c r="D14" t="inlineStr">
-        <is>
-          <t>left</t>
-        </is>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" s="1" t="n">
-        <v>13</v>
-      </c>
-      <c r="B15" t="n">
-        <v>4</v>
-      </c>
-      <c r="C15" t="n">
-        <v>1</v>
-      </c>
-      <c r="D15" t="inlineStr">
-        <is>
-          <t>right</t>
-        </is>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" s="1" t="n">
-        <v>14</v>
-      </c>
-      <c r="B16" t="n">
-        <v>1</v>
-      </c>
-      <c r="C16" t="n">
-        <v>0</v>
-      </c>
-      <c r="D16" t="inlineStr">
-        <is>
-          <t>left</t>
-        </is>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" s="1" t="n">
-        <v>15</v>
-      </c>
-      <c r="B17" t="n">
-        <v>5</v>
-      </c>
-      <c r="C17" t="n">
-        <v>0</v>
-      </c>
-      <c r="D17" t="inlineStr">
-        <is>
-          <t>left</t>
-        </is>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" s="1" t="n">
-        <v>16</v>
-      </c>
-      <c r="B18" t="n">
-        <v>1</v>
-      </c>
-      <c r="C18" t="n">
-        <v>1</v>
-      </c>
-      <c r="D18" t="inlineStr">
-        <is>
-          <t>right</t>
-        </is>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" s="1" t="n">
-        <v>17</v>
-      </c>
-      <c r="B19" t="n">
-        <v>5</v>
-      </c>
-      <c r="C19" t="n">
-        <v>1</v>
-      </c>
-      <c r="D19" t="inlineStr">
-        <is>
-          <t>right</t>
-        </is>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" s="1" t="n">
-        <v>18</v>
-      </c>
-      <c r="B20" t="n">
-        <v>3</v>
-      </c>
-      <c r="C20" t="n">
-        <v>0</v>
-      </c>
-      <c r="D20" t="inlineStr">
-        <is>
-          <t>left</t>
-        </is>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" s="1" t="n">
-        <v>19</v>
-      </c>
-      <c r="B21" t="n">
-        <v>8</v>
-      </c>
-      <c r="C21" t="n">
-        <v>0</v>
-      </c>
-      <c r="D21" t="inlineStr">
         <is>
           <t>left</t>
         </is>
@@ -1976,7 +1300,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D21"/>
+  <dimension ref="A1:D7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1987,7 +1311,7 @@
     <row r="1">
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>num_stim</t>
+          <t>image_stim</t>
         </is>
       </c>
       <c r="C1" s="1" t="inlineStr">
@@ -2005,15 +1329,17 @@
       <c r="A2" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="B2" t="n">
-        <v>0</v>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>multi_move_stimuli\stim_two_move\stim_two_move_2.jpg</t>
+        </is>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>left</t>
+          <t>right</t>
         </is>
       </c>
     </row>
@@ -2021,15 +1347,17 @@
       <c r="A3" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="B3" t="n">
-        <v>2</v>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>multi_move_stimuli\stim_two_move\stim_two_move_1.jpg</t>
+        </is>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>left</t>
+          <t>right</t>
         </is>
       </c>
     </row>
@@ -2037,8 +1365,10 @@
       <c r="A4" s="1" t="n">
         <v>2</v>
       </c>
-      <c r="B4" t="n">
-        <v>9</v>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>multi_move_stimuli\stim_not_two_move\stim_not_two_move_1.jpg</t>
+        </is>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -2053,15 +1383,17 @@
       <c r="A5" s="1" t="n">
         <v>3</v>
       </c>
-      <c r="B5" t="n">
-        <v>3</v>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>multi_move_stimuli\stim_two_move\stim_two_move_4.jpg</t>
+        </is>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>left</t>
+          <t>right</t>
         </is>
       </c>
     </row>
@@ -2069,15 +1401,17 @@
       <c r="A6" s="1" t="n">
         <v>4</v>
       </c>
-      <c r="B6" t="n">
-        <v>9</v>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>multi_move_stimuli\stim_not_two_move\stim_not_two_move_5.jpg</t>
+        </is>
       </c>
       <c r="C6" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>right</t>
+          <t>left</t>
         </is>
       </c>
     </row>
@@ -2085,237 +1419,15 @@
       <c r="A7" s="1" t="n">
         <v>5</v>
       </c>
-      <c r="B7" t="n">
-        <v>8</v>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>multi_move_stimuli\stim_not_two_move\stim_not_two_move_2.jpg</t>
+        </is>
       </c>
       <c r="C7" t="n">
         <v>0</v>
       </c>
       <c r="D7" t="inlineStr">
-        <is>
-          <t>left</t>
-        </is>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="1" t="n">
-        <v>6</v>
-      </c>
-      <c r="B8" t="n">
-        <v>6</v>
-      </c>
-      <c r="C8" t="n">
-        <v>0</v>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>left</t>
-        </is>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="1" t="n">
-        <v>7</v>
-      </c>
-      <c r="B9" t="n">
-        <v>8</v>
-      </c>
-      <c r="C9" t="n">
-        <v>1</v>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>right</t>
-        </is>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" s="1" t="n">
-        <v>8</v>
-      </c>
-      <c r="B10" t="n">
-        <v>6</v>
-      </c>
-      <c r="C10" t="n">
-        <v>1</v>
-      </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>right</t>
-        </is>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" s="1" t="n">
-        <v>9</v>
-      </c>
-      <c r="B11" t="n">
-        <v>7</v>
-      </c>
-      <c r="C11" t="n">
-        <v>0</v>
-      </c>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>left</t>
-        </is>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" s="1" t="n">
-        <v>10</v>
-      </c>
-      <c r="B12" t="n">
-        <v>6</v>
-      </c>
-      <c r="C12" t="n">
-        <v>1</v>
-      </c>
-      <c r="D12" t="inlineStr">
-        <is>
-          <t>right</t>
-        </is>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" s="1" t="n">
-        <v>11</v>
-      </c>
-      <c r="B13" t="n">
-        <v>3</v>
-      </c>
-      <c r="C13" t="n">
-        <v>0</v>
-      </c>
-      <c r="D13" t="inlineStr">
-        <is>
-          <t>left</t>
-        </is>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" s="1" t="n">
-        <v>12</v>
-      </c>
-      <c r="B14" t="n">
-        <v>7</v>
-      </c>
-      <c r="C14" t="n">
-        <v>0</v>
-      </c>
-      <c r="D14" t="inlineStr">
-        <is>
-          <t>left</t>
-        </is>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" s="1" t="n">
-        <v>13</v>
-      </c>
-      <c r="B15" t="n">
-        <v>8</v>
-      </c>
-      <c r="C15" t="n">
-        <v>0</v>
-      </c>
-      <c r="D15" t="inlineStr">
-        <is>
-          <t>left</t>
-        </is>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" s="1" t="n">
-        <v>14</v>
-      </c>
-      <c r="B16" t="n">
-        <v>7</v>
-      </c>
-      <c r="C16" t="n">
-        <v>1</v>
-      </c>
-      <c r="D16" t="inlineStr">
-        <is>
-          <t>right</t>
-        </is>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" s="1" t="n">
-        <v>15</v>
-      </c>
-      <c r="B17" t="n">
-        <v>8</v>
-      </c>
-      <c r="C17" t="n">
-        <v>1</v>
-      </c>
-      <c r="D17" t="inlineStr">
-        <is>
-          <t>right</t>
-        </is>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" s="1" t="n">
-        <v>16</v>
-      </c>
-      <c r="B18" t="n">
-        <v>7</v>
-      </c>
-      <c r="C18" t="n">
-        <v>1</v>
-      </c>
-      <c r="D18" t="inlineStr">
-        <is>
-          <t>right</t>
-        </is>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" s="1" t="n">
-        <v>17</v>
-      </c>
-      <c r="B19" t="n">
-        <v>8</v>
-      </c>
-      <c r="C19" t="n">
-        <v>1</v>
-      </c>
-      <c r="D19" t="inlineStr">
-        <is>
-          <t>right</t>
-        </is>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" s="1" t="n">
-        <v>18</v>
-      </c>
-      <c r="B20" t="n">
-        <v>8</v>
-      </c>
-      <c r="C20" t="n">
-        <v>0</v>
-      </c>
-      <c r="D20" t="inlineStr">
-        <is>
-          <t>left</t>
-        </is>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" s="1" t="n">
-        <v>19</v>
-      </c>
-      <c r="B21" t="n">
-        <v>9</v>
-      </c>
-      <c r="C21" t="n">
-        <v>0</v>
-      </c>
-      <c r="D21" t="inlineStr">
         <is>
           <t>left</t>
         </is>
@@ -2381,7 +1493,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>zero_move_stimuli\zero_move_1.jpg</t>
+          <t>zero_move_stimuli\zero_move_3.jpg</t>
         </is>
       </c>
       <c r="C3" t="n">
@@ -2399,7 +1511,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>zero_move_stimuli\zero_move_5.jpg</t>
+          <t>zero_move_stimuli\zero_move_4.jpg</t>
         </is>
       </c>
       <c r="C4" t="n">
@@ -2417,7 +1529,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>zero_move_stimuli\zero_move_3.jpg</t>
+          <t>zero_move_stimuli\zero_move_1.jpg</t>
         </is>
       </c>
       <c r="C5" t="n">
@@ -2435,7 +1547,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>zero_move_stimuli\zero_move_4.jpg</t>
+          <t>zero_move_stimuli\zero_move_6.jpg</t>
         </is>
       </c>
       <c r="C6" t="n">
@@ -2453,7 +1565,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>zero_move_stimuli\zero_move_6.jpg</t>
+          <t>zero_move_stimuli\zero_move_5.jpg</t>
         </is>
       </c>
       <c r="C7" t="n">
@@ -2507,7 +1619,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>multi_move_stimuli\stim_not_two_move\stim_not_two_move_4.jpg</t>
+          <t>multi_move_stimuli\stim_not_two_move\stim_not_two_move_2.jpg</t>
         </is>
       </c>
       <c r="C2" t="n">
@@ -2561,15 +1673,15 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>multi_move_stimuli\stim_not_two_move\stim_not_two_move_2.jpg</t>
+          <t>multi_move_stimuli\stim_two_move\stim_two_move_5.jpg</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>left</t>
+          <t>right</t>
         </is>
       </c>
     </row>
@@ -2579,7 +1691,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>multi_move_stimuli\stim_not_two_move\stim_not_two_move_5.jpg</t>
+          <t>multi_move_stimuli\stim_not_two_move\stim_not_two_move_6.jpg</t>
         </is>
       </c>
       <c r="C6" t="n">
@@ -2597,15 +1709,15 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>multi_move_stimuli\stim_two_move\stim_two_move_3.jpg</t>
+          <t>multi_move_stimuli\stim_not_two_move\stim_not_two_move_3.jpg</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>right</t>
+          <t>left</t>
         </is>
       </c>
     </row>
@@ -2620,7 +1732,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D7"/>
+  <dimension ref="A1:E21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2631,15 +1743,20 @@
     <row r="1">
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>image_stim</t>
+          <t>inter_stim_interval</t>
         </is>
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
+          <t>GNG_stim</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
           <t>match</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="E1" s="1" t="inlineStr">
         <is>
           <t>corr_key</t>
         </is>
@@ -2649,17 +1766,20 @@
       <c r="A2" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>zero_move_stimuli\zero_move_5.jpg</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>0</v>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>left</t>
+      <c r="B2" t="n">
+        <v>4</v>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>go_stimuli\puppy_6.jpg</t>
+        </is>
+      </c>
+      <c r="D2" t="n">
+        <v>1</v>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>space</t>
         </is>
       </c>
     </row>
@@ -2667,17 +1787,20 @@
       <c r="A3" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>zero_move_stimuli\zero_move_6.jpg</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>0</v>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>left</t>
+      <c r="B3" t="n">
+        <v>4</v>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>go_stimuli\puppy_21.jpeg</t>
+        </is>
+      </c>
+      <c r="D3" t="n">
+        <v>1</v>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>space</t>
         </is>
       </c>
     </row>
@@ -2685,17 +1808,20 @@
       <c r="A4" s="1" t="n">
         <v>2</v>
       </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>zero_move_stimuli\zero_move_1.jpg</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>0</v>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>left</t>
+      <c r="B4" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>go_stimuli\puppy_5.jpg</t>
+        </is>
+      </c>
+      <c r="D4" t="n">
+        <v>1</v>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>space</t>
         </is>
       </c>
     </row>
@@ -2703,17 +1829,20 @@
       <c r="A5" s="1" t="n">
         <v>3</v>
       </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>zero_move_stimuli\zero_move_4.jpg</t>
-        </is>
-      </c>
-      <c r="C5" t="n">
-        <v>0</v>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>left</t>
+      <c r="B5" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>go_stimuli\puppy_19.jpeg</t>
+        </is>
+      </c>
+      <c r="D5" t="n">
+        <v>1</v>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>space</t>
         </is>
       </c>
     </row>
@@ -2721,17 +1850,20 @@
       <c r="A6" s="1" t="n">
         <v>4</v>
       </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>zero_move_stimuli\zero_move_3.jpg</t>
-        </is>
-      </c>
-      <c r="C6" t="n">
-        <v>0</v>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>left</t>
+      <c r="B6" t="n">
+        <v>6</v>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>go_stimuli\puppy_24.jpeg</t>
+        </is>
+      </c>
+      <c r="D6" t="n">
+        <v>1</v>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>space</t>
         </is>
       </c>
     </row>
@@ -2739,17 +1871,314 @@
       <c r="A7" s="1" t="n">
         <v>5</v>
       </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>zero_move_stimuli\zero_move_2.jpg</t>
-        </is>
-      </c>
-      <c r="C7" t="n">
-        <v>0</v>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>left</t>
+      <c r="B7" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>go_stimuli\puppy_12.jpeg</t>
+        </is>
+      </c>
+      <c r="D7" t="n">
+        <v>1</v>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>space</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="n">
+        <v>6</v>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>go_stimuli\puppy_29.jpg</t>
+        </is>
+      </c>
+      <c r="D8" t="n">
+        <v>1</v>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>space</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="n">
+        <v>6</v>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>go_stimuli\puppy_7.jpg</t>
+        </is>
+      </c>
+      <c r="D9" t="n">
+        <v>1</v>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>space</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>go_stimuli\puppy_18.jpeg</t>
+        </is>
+      </c>
+      <c r="D10" t="n">
+        <v>1</v>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>space</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>go_stimuli\puppy_13.jpg</t>
+        </is>
+      </c>
+      <c r="D11" t="n">
+        <v>1</v>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>space</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="n">
+        <v>4</v>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>go_stimuli\puppy_15.jpeg</t>
+        </is>
+      </c>
+      <c r="D12" t="n">
+        <v>1</v>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>space</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>go_stimuli\puppy_23.jpeg</t>
+        </is>
+      </c>
+      <c r="D13" t="n">
+        <v>1</v>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>space</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="n">
+        <v>6</v>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>go_stimuli\puppy_16.jpeg</t>
+        </is>
+      </c>
+      <c r="D14" t="n">
+        <v>1</v>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>space</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>go_stimuli\puppy_27.jpg</t>
+        </is>
+      </c>
+      <c r="D15" t="n">
+        <v>1</v>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>space</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>go_stimuli\puppy_25.jpeg</t>
+        </is>
+      </c>
+      <c r="D16" t="n">
+        <v>1</v>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>space</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="1" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>go_stimuli\puppy_9.jpg</t>
+        </is>
+      </c>
+      <c r="D17" t="n">
+        <v>1</v>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>space</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>go_stimuli\puppy_2.jpg</t>
+        </is>
+      </c>
+      <c r="D18" t="n">
+        <v>1</v>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>space</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="1" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="n">
+        <v>5</v>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>go_stimuli\puppy_28.jpg</t>
+        </is>
+      </c>
+      <c r="D19" t="n">
+        <v>1</v>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>space</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="1" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="n">
+        <v>5</v>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>go_stimuli\puppy_10.jpg</t>
+        </is>
+      </c>
+      <c r="D20" t="n">
+        <v>1</v>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>space</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="1" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>go_stimuli\puppy_20.jpeg</t>
+        </is>
+      </c>
+      <c r="D21" t="n">
+        <v>1</v>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>space</t>
         </is>
       </c>
     </row>
@@ -2764,7 +2193,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D7"/>
+  <dimension ref="A1:E21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2775,15 +2204,20 @@
     <row r="1">
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>image_stim</t>
+          <t>inter_stim_inverval</t>
         </is>
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
+          <t>GNG_stim</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
           <t>match</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="E1" s="1" t="inlineStr">
         <is>
           <t>corr_key</t>
         </is>
@@ -2793,17 +2227,20 @@
       <c r="A2" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>multi_move_stimuli\stim_not_two_move\stim_not_two_move_5.jpg</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>0</v>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>left</t>
+      <c r="B2" t="n">
+        <v>5</v>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>no_go_stimuli\spider_3.jpeg</t>
+        </is>
+      </c>
+      <c r="D2" t="n">
+        <v>0</v>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>None</t>
         </is>
       </c>
     </row>
@@ -2811,17 +2248,20 @@
       <c r="A3" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>multi_move_stimuli\stim_two_move\stim_two_move_4.jpg</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>1</v>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>right</t>
+      <c r="B3" t="n">
+        <v>4</v>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>no_go_stimuli\spider_24.jpeg</t>
+        </is>
+      </c>
+      <c r="D3" t="n">
+        <v>0</v>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>None</t>
         </is>
       </c>
     </row>
@@ -2829,17 +2269,20 @@
       <c r="A4" s="1" t="n">
         <v>2</v>
       </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>multi_move_stimuli\stim_two_move\stim_two_move_6.jpg</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>1</v>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>right</t>
+      <c r="B4" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>no_go_stimuli\spider_18.jpg</t>
+        </is>
+      </c>
+      <c r="D4" t="n">
+        <v>0</v>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>None</t>
         </is>
       </c>
     </row>
@@ -2847,17 +2290,20 @@
       <c r="A5" s="1" t="n">
         <v>3</v>
       </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>multi_move_stimuli\stim_not_two_move\stim_not_two_move_6.jpg</t>
-        </is>
-      </c>
-      <c r="C5" t="n">
-        <v>0</v>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>left</t>
+      <c r="B5" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>no_go_stimuli\spider_11.jpeg</t>
+        </is>
+      </c>
+      <c r="D5" t="n">
+        <v>0</v>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>None</t>
         </is>
       </c>
     </row>
@@ -2865,17 +2311,20 @@
       <c r="A6" s="1" t="n">
         <v>4</v>
       </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>multi_move_stimuli\stim_not_two_move\stim_not_two_move_4.jpg</t>
-        </is>
-      </c>
-      <c r="C6" t="n">
-        <v>0</v>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>left</t>
+      <c r="B6" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>go_stimuli\puppy_20.jpeg</t>
+        </is>
+      </c>
+      <c r="D6" t="n">
+        <v>1</v>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>space</t>
         </is>
       </c>
     </row>
@@ -2883,17 +2332,314 @@
       <c r="A7" s="1" t="n">
         <v>5</v>
       </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>multi_move_stimuli\stim_two_move\stim_two_move_5.jpg</t>
-        </is>
-      </c>
-      <c r="C7" t="n">
-        <v>1</v>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>right</t>
+      <c r="B7" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>no_go_stimuli\spider_13.jpeg</t>
+        </is>
+      </c>
+      <c r="D7" t="n">
+        <v>0</v>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>go_stimuli\puppy_6.jpg</t>
+        </is>
+      </c>
+      <c r="D8" t="n">
+        <v>1</v>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>space</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>no_go_stimuli\spider_2.jpeg</t>
+        </is>
+      </c>
+      <c r="D9" t="n">
+        <v>0</v>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="n">
+        <v>6</v>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>go_stimuli\puppy_4.jpg</t>
+        </is>
+      </c>
+      <c r="D10" t="n">
+        <v>1</v>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>space</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>go_stimuli\puppy_24.jpeg</t>
+        </is>
+      </c>
+      <c r="D11" t="n">
+        <v>1</v>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>space</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="n">
+        <v>5</v>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>go_stimuli\puppy_14.jpeg</t>
+        </is>
+      </c>
+      <c r="D12" t="n">
+        <v>1</v>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>space</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="n">
+        <v>6</v>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>go_stimuli\puppy_23.jpeg</t>
+        </is>
+      </c>
+      <c r="D13" t="n">
+        <v>1</v>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>space</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="n">
+        <v>6</v>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>go_stimuli\puppy_5.jpg</t>
+        </is>
+      </c>
+      <c r="D14" t="n">
+        <v>1</v>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>space</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="n">
+        <v>4</v>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>no_go_stimuli\spider_23.jpg</t>
+        </is>
+      </c>
+      <c r="D15" t="n">
+        <v>0</v>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="n">
+        <v>5</v>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>go_stimuli\puppy_27.jpg</t>
+        </is>
+      </c>
+      <c r="D16" t="n">
+        <v>1</v>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>space</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="1" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>no_go_stimuli\spider_10.jpeg</t>
+        </is>
+      </c>
+      <c r="D17" t="n">
+        <v>0</v>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>no_go_stimuli\spider_21.jpg</t>
+        </is>
+      </c>
+      <c r="D18" t="n">
+        <v>0</v>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="1" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="n">
+        <v>6</v>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>go_stimuli\puppy_10.jpg</t>
+        </is>
+      </c>
+      <c r="D19" t="n">
+        <v>1</v>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>space</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="1" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="n">
+        <v>4</v>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>no_go_stimuli\spider_4.jpeg</t>
+        </is>
+      </c>
+      <c r="D20" t="n">
+        <v>0</v>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="1" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="n">
+        <v>4</v>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>go_stimuli\puppy_12.jpeg</t>
+        </is>
+      </c>
+      <c r="D21" t="n">
+        <v>1</v>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>space</t>
         </is>
       </c>
     </row>
@@ -2908,7 +2654,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D7"/>
+  <dimension ref="A1:E21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2919,15 +2665,20 @@
     <row r="1">
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>image_stim</t>
+          <t>inter_stim_interval</t>
         </is>
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
+          <t>GNG_stim</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
           <t>match</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="E1" s="1" t="inlineStr">
         <is>
           <t>corr_key</t>
         </is>
@@ -2937,17 +2688,20 @@
       <c r="A2" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>zero_move_stimuli\zero_move_4.jpg</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>0</v>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>left</t>
+      <c r="B2" t="n">
+        <v>4</v>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>go_stimuli\puppy_26.jpeg</t>
+        </is>
+      </c>
+      <c r="D2" t="n">
+        <v>1</v>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>space</t>
         </is>
       </c>
     </row>
@@ -2955,17 +2709,20 @@
       <c r="A3" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>zero_move_stimuli\zero_move_2.jpg</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>0</v>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>left</t>
+      <c r="B3" t="n">
+        <v>5</v>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>go_stimuli\puppy_19.jpeg</t>
+        </is>
+      </c>
+      <c r="D3" t="n">
+        <v>1</v>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>space</t>
         </is>
       </c>
     </row>
@@ -2973,17 +2730,20 @@
       <c r="A4" s="1" t="n">
         <v>2</v>
       </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>zero_move_stimuli\zero_move_5.jpg</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>0</v>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>left</t>
+      <c r="B4" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>go_stimuli\puppy_17.jpeg</t>
+        </is>
+      </c>
+      <c r="D4" t="n">
+        <v>1</v>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>space</t>
         </is>
       </c>
     </row>
@@ -2991,17 +2751,20 @@
       <c r="A5" s="1" t="n">
         <v>3</v>
       </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>zero_move_stimuli\zero_move_1.jpg</t>
-        </is>
-      </c>
-      <c r="C5" t="n">
-        <v>0</v>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>left</t>
+      <c r="B5" t="n">
+        <v>5</v>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>go_stimuli\puppy_18.jpeg</t>
+        </is>
+      </c>
+      <c r="D5" t="n">
+        <v>1</v>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>space</t>
         </is>
       </c>
     </row>
@@ -3009,17 +2772,20 @@
       <c r="A6" s="1" t="n">
         <v>4</v>
       </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>zero_move_stimuli\zero_move_3.jpg</t>
-        </is>
-      </c>
-      <c r="C6" t="n">
-        <v>0</v>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>left</t>
+      <c r="B6" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>go_stimuli\puppy_9.jpg</t>
+        </is>
+      </c>
+      <c r="D6" t="n">
+        <v>1</v>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>space</t>
         </is>
       </c>
     </row>
@@ -3027,17 +2793,314 @@
       <c r="A7" s="1" t="n">
         <v>5</v>
       </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>zero_move_stimuli\zero_move_6.jpg</t>
-        </is>
-      </c>
-      <c r="C7" t="n">
-        <v>0</v>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>left</t>
+      <c r="B7" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>go_stimuli\puppy_14.jpeg</t>
+        </is>
+      </c>
+      <c r="D7" t="n">
+        <v>1</v>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>space</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="n">
+        <v>6</v>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>go_stimuli\puppy_30.jpg</t>
+        </is>
+      </c>
+      <c r="D8" t="n">
+        <v>1</v>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>space</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>go_stimuli\puppy_4.jpg</t>
+        </is>
+      </c>
+      <c r="D9" t="n">
+        <v>1</v>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>space</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="n">
+        <v>4</v>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>go_stimuli\puppy_8.jpg</t>
+        </is>
+      </c>
+      <c r="D10" t="n">
+        <v>1</v>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>space</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>go_stimuli\puppy_16.jpeg</t>
+        </is>
+      </c>
+      <c r="D11" t="n">
+        <v>1</v>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>space</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>go_stimuli\puppy_22.jpeg</t>
+        </is>
+      </c>
+      <c r="D12" t="n">
+        <v>1</v>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>space</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="n">
+        <v>5</v>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>go_stimuli\puppy_28.jpg</t>
+        </is>
+      </c>
+      <c r="D13" t="n">
+        <v>1</v>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>space</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="n">
+        <v>4</v>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>go_stimuli\puppy_12.jpeg</t>
+        </is>
+      </c>
+      <c r="D14" t="n">
+        <v>1</v>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>space</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="n">
+        <v>6</v>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>go_stimuli\puppy_10.jpg</t>
+        </is>
+      </c>
+      <c r="D15" t="n">
+        <v>1</v>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>space</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="n">
+        <v>6</v>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>go_stimuli\puppy_27.jpg</t>
+        </is>
+      </c>
+      <c r="D16" t="n">
+        <v>1</v>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>space</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="1" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="n">
+        <v>4</v>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>go_stimuli\puppy_3.jpg</t>
+        </is>
+      </c>
+      <c r="D17" t="n">
+        <v>1</v>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>space</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>go_stimuli\puppy_20.jpeg</t>
+        </is>
+      </c>
+      <c r="D18" t="n">
+        <v>1</v>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>space</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="1" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="n">
+        <v>6</v>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>go_stimuli\puppy_7.jpg</t>
+        </is>
+      </c>
+      <c r="D19" t="n">
+        <v>1</v>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>space</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="1" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>go_stimuli\puppy_2.jpg</t>
+        </is>
+      </c>
+      <c r="D20" t="n">
+        <v>1</v>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>space</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="1" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="n">
+        <v>4</v>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>go_stimuli\puppy_15.jpeg</t>
+        </is>
+      </c>
+      <c r="D21" t="n">
+        <v>1</v>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>space</t>
         </is>
       </c>
     </row>
@@ -3052,7 +3115,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D7"/>
+  <dimension ref="A1:E21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3063,15 +3126,20 @@
     <row r="1">
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>image_stim</t>
+          <t>inter_stim_inverval</t>
         </is>
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
+          <t>GNG_stim</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
           <t>match</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="E1" s="1" t="inlineStr">
         <is>
           <t>corr_key</t>
         </is>
@@ -3081,17 +3149,20 @@
       <c r="A2" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>multi_move_stimuli\stim_not_two_move\stim_not_two_move_4.jpg</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>0</v>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>left</t>
+      <c r="B2" t="n">
+        <v>4</v>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>go_stimuli\puppy_24.jpeg</t>
+        </is>
+      </c>
+      <c r="D2" t="n">
+        <v>1</v>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>space</t>
         </is>
       </c>
     </row>
@@ -3099,17 +3170,20 @@
       <c r="A3" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>multi_move_stimuli\stim_not_two_move\stim_not_two_move_2.jpg</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>0</v>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>left</t>
+      <c r="B3" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>no_go_stimuli\spider_18.jpg</t>
+        </is>
+      </c>
+      <c r="D3" t="n">
+        <v>0</v>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>None</t>
         </is>
       </c>
     </row>
@@ -3117,17 +3191,20 @@
       <c r="A4" s="1" t="n">
         <v>2</v>
       </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>multi_move_stimuli\stim_two_move\stim_two_move_6.jpg</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>1</v>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>right</t>
+      <c r="B4" t="n">
+        <v>6</v>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>go_stimuli\puppy_9.jpg</t>
+        </is>
+      </c>
+      <c r="D4" t="n">
+        <v>1</v>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>space</t>
         </is>
       </c>
     </row>
@@ -3135,17 +3212,20 @@
       <c r="A5" s="1" t="n">
         <v>3</v>
       </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>multi_move_stimuli\stim_two_move\stim_two_move_5.jpg</t>
-        </is>
-      </c>
-      <c r="C5" t="n">
-        <v>1</v>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>right</t>
+      <c r="B5" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>no_go_stimuli\spider_29.jpg</t>
+        </is>
+      </c>
+      <c r="D5" t="n">
+        <v>0</v>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>None</t>
         </is>
       </c>
     </row>
@@ -3153,17 +3233,20 @@
       <c r="A6" s="1" t="n">
         <v>4</v>
       </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>multi_move_stimuli\stim_not_two_move\stim_not_two_move_5.jpg</t>
-        </is>
-      </c>
-      <c r="C6" t="n">
-        <v>0</v>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>left</t>
+      <c r="B6" t="n">
+        <v>5</v>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>go_stimuli\puppy_15.jpeg</t>
+        </is>
+      </c>
+      <c r="D6" t="n">
+        <v>1</v>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>space</t>
         </is>
       </c>
     </row>
@@ -3171,17 +3254,314 @@
       <c r="A7" s="1" t="n">
         <v>5</v>
       </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>multi_move_stimuli\stim_two_move\stim_two_move_3.jpg</t>
-        </is>
-      </c>
-      <c r="C7" t="n">
-        <v>1</v>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>right</t>
+      <c r="B7" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>no_go_stimuli\spider_1.jpeg</t>
+        </is>
+      </c>
+      <c r="D7" t="n">
+        <v>0</v>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="n">
+        <v>4</v>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>go_stimuli\puppy_27.jpg</t>
+        </is>
+      </c>
+      <c r="D8" t="n">
+        <v>1</v>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>space</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>go_stimuli\puppy_2.jpg</t>
+        </is>
+      </c>
+      <c r="D9" t="n">
+        <v>1</v>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>space</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="n">
+        <v>6</v>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>no_go_stimuli\spider_8.jpeg</t>
+        </is>
+      </c>
+      <c r="D10" t="n">
+        <v>0</v>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>no_go_stimuli\spider_3.jpeg</t>
+        </is>
+      </c>
+      <c r="D11" t="n">
+        <v>0</v>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>go_stimuli\puppy_10.jpg</t>
+        </is>
+      </c>
+      <c r="D12" t="n">
+        <v>1</v>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>space</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="n">
+        <v>5</v>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>go_stimuli\puppy_23.jpeg</t>
+        </is>
+      </c>
+      <c r="D13" t="n">
+        <v>1</v>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>space</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>no_go_stimuli\spider_25.jpg</t>
+        </is>
+      </c>
+      <c r="D14" t="n">
+        <v>0</v>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="n">
+        <v>4</v>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>no_go_stimuli\spider_9.jpeg</t>
+        </is>
+      </c>
+      <c r="D15" t="n">
+        <v>0</v>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="n">
+        <v>6</v>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>no_go_stimuli\spider_2.jpeg</t>
+        </is>
+      </c>
+      <c r="D16" t="n">
+        <v>0</v>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="1" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="n">
+        <v>4</v>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>go_stimuli\puppy_5.jpg</t>
+        </is>
+      </c>
+      <c r="D17" t="n">
+        <v>1</v>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>space</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>go_stimuli\puppy_3.jpg</t>
+        </is>
+      </c>
+      <c r="D18" t="n">
+        <v>1</v>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>space</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="1" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>no_go_stimuli\spider_19.jpg</t>
+        </is>
+      </c>
+      <c r="D19" t="n">
+        <v>0</v>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="1" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="n">
+        <v>4</v>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>go_stimuli\puppy_6.jpg</t>
+        </is>
+      </c>
+      <c r="D20" t="n">
+        <v>1</v>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>space</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="1" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>no_go_stimuli\spider_27.jpeg</t>
+        </is>
+      </c>
+      <c r="D21" t="n">
+        <v>0</v>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>None</t>
         </is>
       </c>
     </row>
@@ -3207,12 +3587,12 @@
     <row r="1">
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>inter_stim_inverval</t>
+          <t>num_stim</t>
         </is>
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
-          <t>GNG_stim</t>
+          <t>match_num</t>
         </is>
       </c>
       <c r="D1" s="1" t="inlineStr">
@@ -3231,19 +3611,17 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>5</v>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>no_go_stimuli\spider_18.jpg</t>
-        </is>
+        <v>4</v>
+      </c>
+      <c r="C2" t="n">
+        <v>8</v>
       </c>
       <c r="D2" t="n">
         <v>0</v>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>left</t>
         </is>
       </c>
     </row>
@@ -3252,19 +3630,17 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>4.5</v>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>go_stimuli\puppy_10.jpg</t>
-        </is>
+        <v>8</v>
+      </c>
+      <c r="C3" t="n">
+        <v>8</v>
       </c>
       <c r="D3" t="n">
         <v>1</v>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>space</t>
+          <t>right</t>
         </is>
       </c>
     </row>
@@ -3273,19 +3649,17 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>4.5</v>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>no_go_stimuli\spider_24.jpeg</t>
-        </is>
+        <v>9</v>
+      </c>
+      <c r="C4" t="n">
+        <v>8</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>left</t>
         </is>
       </c>
     </row>
@@ -3294,19 +3668,17 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>4.5</v>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>go_stimuli\puppy_12.jpeg</t>
-        </is>
+        <v>9</v>
+      </c>
+      <c r="C5" t="n">
+        <v>8</v>
       </c>
       <c r="D5" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>space</t>
+          <t>left</t>
         </is>
       </c>
     </row>
@@ -3315,19 +3687,17 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>4.5</v>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>go_stimuli\puppy_14.jpeg</t>
-        </is>
+        <v>4</v>
+      </c>
+      <c r="C6" t="n">
+        <v>8</v>
       </c>
       <c r="D6" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>space</t>
+          <t>left</t>
         </is>
       </c>
     </row>
@@ -3336,19 +3706,17 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>5</v>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>go_stimuli\puppy_23.jpeg</t>
-        </is>
+        <v>3</v>
+      </c>
+      <c r="C7" t="n">
+        <v>8</v>
       </c>
       <c r="D7" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>space</t>
+          <t>left</t>
         </is>
       </c>
     </row>
@@ -3357,19 +3725,17 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>6</v>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>no_go_stimuli\spider_11.jpeg</t>
-        </is>
+        <v>8</v>
+      </c>
+      <c r="C8" t="n">
+        <v>8</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>right</t>
         </is>
       </c>
     </row>
@@ -3378,19 +3744,17 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>4</v>
-      </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>go_stimuli\puppy_26.jpeg</t>
-        </is>
+        <v>1</v>
+      </c>
+      <c r="C9" t="n">
+        <v>8</v>
       </c>
       <c r="D9" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>space</t>
+          <t>left</t>
         </is>
       </c>
     </row>
@@ -3401,17 +3765,15 @@
       <c r="B10" t="n">
         <v>5</v>
       </c>
-      <c r="C10" t="inlineStr">
-        <is>
-          <t>no_go_stimuli\spider_13.jpeg</t>
-        </is>
+      <c r="C10" t="n">
+        <v>8</v>
       </c>
       <c r="D10" t="n">
         <v>0</v>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>left</t>
         </is>
       </c>
     </row>
@@ -3420,19 +3782,17 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>5.5</v>
-      </c>
-      <c r="C11" t="inlineStr">
-        <is>
-          <t>no_go_stimuli\spider_3.jpeg</t>
-        </is>
+        <v>8</v>
+      </c>
+      <c r="C11" t="n">
+        <v>8</v>
       </c>
       <c r="D11" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>right</t>
         </is>
       </c>
     </row>
@@ -3441,19 +3801,17 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>5</v>
-      </c>
-      <c r="C12" t="inlineStr">
-        <is>
-          <t>no_go_stimuli\spider_5.jpeg</t>
-        </is>
+        <v>7</v>
+      </c>
+      <c r="C12" t="n">
+        <v>8</v>
       </c>
       <c r="D12" t="n">
         <v>0</v>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>left</t>
         </is>
       </c>
     </row>
@@ -3462,19 +3820,17 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>5</v>
-      </c>
-      <c r="C13" t="inlineStr">
-        <is>
-          <t>go_stimuli\puppy_22.jpeg</t>
-        </is>
+        <v>2</v>
+      </c>
+      <c r="C13" t="n">
+        <v>8</v>
       </c>
       <c r="D13" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>space</t>
+          <t>left</t>
         </is>
       </c>
     </row>
@@ -3483,19 +3839,17 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>4</v>
-      </c>
-      <c r="C14" t="inlineStr">
-        <is>
-          <t>no_go_stimuli\spider_29.jpg</t>
-        </is>
+        <v>8</v>
+      </c>
+      <c r="C14" t="n">
+        <v>8</v>
       </c>
       <c r="D14" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>right</t>
         </is>
       </c>
     </row>
@@ -3504,19 +3858,17 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>6.5</v>
-      </c>
-      <c r="C15" t="inlineStr">
-        <is>
-          <t>go_stimuli\puppy_11.jpeg</t>
-        </is>
+        <v>4</v>
+      </c>
+      <c r="C15" t="n">
+        <v>8</v>
       </c>
       <c r="D15" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>space</t>
+          <t>left</t>
         </is>
       </c>
     </row>
@@ -3525,19 +3877,17 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>4</v>
-      </c>
-      <c r="C16" t="inlineStr">
-        <is>
-          <t>no_go_stimuli\spider_25.jpg</t>
-        </is>
+        <v>8</v>
+      </c>
+      <c r="C16" t="n">
+        <v>8</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>right</t>
         </is>
       </c>
     </row>
@@ -3546,19 +3896,17 @@
         <v>15</v>
       </c>
       <c r="B17" t="n">
-        <v>4.5</v>
-      </c>
-      <c r="C17" t="inlineStr">
-        <is>
-          <t>no_go_stimuli\spider_1.jpeg</t>
-        </is>
+        <v>4</v>
+      </c>
+      <c r="C17" t="n">
+        <v>8</v>
       </c>
       <c r="D17" t="n">
         <v>0</v>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>left</t>
         </is>
       </c>
     </row>
@@ -3567,19 +3915,17 @@
         <v>16</v>
       </c>
       <c r="B18" t="n">
-        <v>6.5</v>
-      </c>
-      <c r="C18" t="inlineStr">
-        <is>
-          <t>go_stimuli\puppy_9.jpg</t>
-        </is>
+        <v>8</v>
+      </c>
+      <c r="C18" t="n">
+        <v>8</v>
       </c>
       <c r="D18" t="n">
         <v>1</v>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>space</t>
+          <t>right</t>
         </is>
       </c>
     </row>
@@ -3588,19 +3934,17 @@
         <v>17</v>
       </c>
       <c r="B19" t="n">
-        <v>6.5</v>
-      </c>
-      <c r="C19" t="inlineStr">
-        <is>
-          <t>go_stimuli\puppy_27.jpg</t>
-        </is>
+        <v>4</v>
+      </c>
+      <c r="C19" t="n">
+        <v>8</v>
       </c>
       <c r="D19" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>space</t>
+          <t>left</t>
         </is>
       </c>
     </row>
@@ -3609,19 +3953,17 @@
         <v>18</v>
       </c>
       <c r="B20" t="n">
-        <v>6</v>
-      </c>
-      <c r="C20" t="inlineStr">
-        <is>
-          <t>no_go_stimuli\spider_9.jpeg</t>
-        </is>
+        <v>8</v>
+      </c>
+      <c r="C20" t="n">
+        <v>8</v>
       </c>
       <c r="D20" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>right</t>
         </is>
       </c>
     </row>
@@ -3630,19 +3972,17 @@
         <v>19</v>
       </c>
       <c r="B21" t="n">
-        <v>5</v>
-      </c>
-      <c r="C21" t="inlineStr">
-        <is>
-          <t>go_stimuli\puppy_15.jpeg</t>
-        </is>
+        <v>8</v>
+      </c>
+      <c r="C21" t="n">
+        <v>8</v>
       </c>
       <c r="D21" t="n">
         <v>1</v>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>space</t>
+          <t>right</t>
         </is>
       </c>
     </row>
@@ -3705,7 +4045,7 @@
         <v>0.05</v>
       </c>
       <c r="C2" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D2" t="n">
         <v>0</v>
@@ -3714,11 +4054,11 @@
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>right</t>
+          <t>left</t>
         </is>
       </c>
     </row>
@@ -3727,7 +4067,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>0.017</v>
+        <v>0.05</v>
       </c>
       <c r="C3" t="n">
         <v>2</v>
@@ -3739,11 +4079,11 @@
         <v>0</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>left</t>
+          <t>right</t>
         </is>
       </c>
     </row>
@@ -3752,7 +4092,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>0.029</v>
+        <v>0.05</v>
       </c>
       <c r="C4" t="n">
         <v>1</v>
@@ -3764,11 +4104,11 @@
         <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>right</t>
+          <t>left</t>
         </is>
       </c>
     </row>
@@ -3777,10 +4117,10 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>0.029</v>
+        <v>0.05</v>
       </c>
       <c r="C5" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D5" t="n">
         <v>0</v>
@@ -3789,11 +4129,11 @@
         <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>left</t>
+          <t>right</t>
         </is>
       </c>
     </row>
@@ -3802,10 +4142,10 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>0.017</v>
+        <v>0.029</v>
       </c>
       <c r="C6" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D6" t="n">
         <v>0</v>
@@ -3827,10 +4167,10 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>0.017</v>
+        <v>0.05</v>
       </c>
       <c r="C7" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D7" t="n">
         <v>0</v>
@@ -3852,10 +4192,10 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>0.017</v>
+        <v>0.05</v>
       </c>
       <c r="C8" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D8" t="n">
         <v>0</v>
@@ -3864,11 +4204,11 @@
         <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>right</t>
+          <t>left</t>
         </is>
       </c>
     </row>
@@ -3877,7 +4217,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>0.017</v>
+        <v>0.05</v>
       </c>
       <c r="C9" t="n">
         <v>2</v>
@@ -3902,7 +4242,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>0.05</v>
+        <v>0.017</v>
       </c>
       <c r="C10" t="n">
         <v>1</v>
@@ -3930,7 +4270,7 @@
         <v>0.05</v>
       </c>
       <c r="C11" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D11" t="n">
         <v>0</v>
@@ -3939,11 +4279,11 @@
         <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>left</t>
+          <t>right</t>
         </is>
       </c>
     </row>
@@ -3952,7 +4292,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>0.017</v>
+        <v>0.029</v>
       </c>
       <c r="C12" t="n">
         <v>1</v>
@@ -3964,11 +4304,11 @@
         <v>0</v>
       </c>
       <c r="F12" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>right</t>
+          <t>left</t>
         </is>
       </c>
     </row>
@@ -3977,10 +4317,10 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>0.017</v>
+        <v>0.05</v>
       </c>
       <c r="C13" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D13" t="n">
         <v>0</v>
@@ -4002,10 +4342,10 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>0.05</v>
+        <v>0.017</v>
       </c>
       <c r="C14" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D14" t="n">
         <v>0</v>
@@ -4027,10 +4367,10 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>0.029</v>
+        <v>0.017</v>
       </c>
       <c r="C15" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D15" t="n">
         <v>0</v>
@@ -4052,7 +4392,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>0.05</v>
+        <v>0.029</v>
       </c>
       <c r="C16" t="n">
         <v>2</v>
@@ -4077,10 +4417,10 @@
         <v>15</v>
       </c>
       <c r="B17" t="n">
-        <v>0.05</v>
+        <v>0.029</v>
       </c>
       <c r="C17" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D17" t="n">
         <v>0</v>
@@ -4089,11 +4429,11 @@
         <v>0</v>
       </c>
       <c r="F17" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>left</t>
+          <t>right</t>
         </is>
       </c>
     </row>
@@ -4102,10 +4442,10 @@
         <v>16</v>
       </c>
       <c r="B18" t="n">
-        <v>0.017</v>
+        <v>0.029</v>
       </c>
       <c r="C18" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D18" t="n">
         <v>0</v>
@@ -4127,10 +4467,10 @@
         <v>17</v>
       </c>
       <c r="B19" t="n">
-        <v>0.05</v>
+        <v>0.029</v>
       </c>
       <c r="C19" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D19" t="n">
         <v>0</v>
@@ -4139,11 +4479,11 @@
         <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>right</t>
+          <t>left</t>
         </is>
       </c>
     </row>
@@ -4155,7 +4495,7 @@
         <v>0.029</v>
       </c>
       <c r="C20" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D20" t="n">
         <v>0</v>
@@ -4164,11 +4504,11 @@
         <v>0</v>
       </c>
       <c r="F20" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>left</t>
+          <t>right</t>
         </is>
       </c>
     </row>
@@ -4177,10 +4517,10 @@
         <v>19</v>
       </c>
       <c r="B21" t="n">
-        <v>0.029</v>
+        <v>0.05</v>
       </c>
       <c r="C21" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D21" t="n">
         <v>0</v>
@@ -4214,11 +4554,11 @@
         <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>right</t>
+          <t>left</t>
         </is>
       </c>
     </row>
@@ -4227,7 +4567,7 @@
         <v>21</v>
       </c>
       <c r="B23" t="n">
-        <v>0.05</v>
+        <v>0.017</v>
       </c>
       <c r="C23" t="n">
         <v>1</v>
@@ -4239,11 +4579,11 @@
         <v>0</v>
       </c>
       <c r="F23" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>left</t>
+          <t>right</t>
         </is>
       </c>
     </row>
@@ -4289,11 +4629,11 @@
         <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G25" t="inlineStr">
         <is>
-          <t>right</t>
+          <t>left</t>
         </is>
       </c>
     </row>
@@ -4305,7 +4645,7 @@
         <v>0.05</v>
       </c>
       <c r="C26" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D26" t="n">
         <v>0</v>
@@ -4314,11 +4654,11 @@
         <v>0</v>
       </c>
       <c r="F26" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G26" t="inlineStr">
         <is>
-          <t>right</t>
+          <t>left</t>
         </is>
       </c>
     </row>
@@ -4327,10 +4667,10 @@
         <v>25</v>
       </c>
       <c r="B27" t="n">
-        <v>0.029</v>
+        <v>0.017</v>
       </c>
       <c r="C27" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D27" t="n">
         <v>0</v>
@@ -4339,11 +4679,11 @@
         <v>0</v>
       </c>
       <c r="F27" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G27" t="inlineStr">
         <is>
-          <t>right</t>
+          <t>left</t>
         </is>
       </c>
     </row>
@@ -4355,7 +4695,7 @@
         <v>0.05</v>
       </c>
       <c r="C28" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D28" t="n">
         <v>0</v>
@@ -4377,10 +4717,10 @@
         <v>27</v>
       </c>
       <c r="B29" t="n">
-        <v>0.05</v>
+        <v>0.017</v>
       </c>
       <c r="C29" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D29" t="n">
         <v>0</v>
@@ -4402,10 +4742,10 @@
         <v>28</v>
       </c>
       <c r="B30" t="n">
-        <v>0.017</v>
+        <v>0.029</v>
       </c>
       <c r="C30" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D30" t="n">
         <v>0</v>
@@ -4427,10 +4767,10 @@
         <v>29</v>
       </c>
       <c r="B31" t="n">
-        <v>0.029</v>
+        <v>0.017</v>
       </c>
       <c r="C31" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D31" t="n">
         <v>0</v>
@@ -4503,10 +4843,10 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>0.017</v>
+        <v>0.029</v>
       </c>
       <c r="C2" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D2" t="n">
         <v>0</v>
@@ -4528,10 +4868,10 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>0.05</v>
+        <v>0.029</v>
       </c>
       <c r="C3" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
@@ -4553,10 +4893,10 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>0.05</v>
+        <v>0.017</v>
       </c>
       <c r="C4" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
@@ -4565,11 +4905,11 @@
         <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>right</t>
+          <t>left</t>
         </is>
       </c>
     </row>
@@ -4581,7 +4921,7 @@
         <v>0.029</v>
       </c>
       <c r="C5" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D5" t="n">
         <v>0</v>
@@ -4590,11 +4930,11 @@
         <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>right</t>
+          <t>left</t>
         </is>
       </c>
     </row>
@@ -4603,10 +4943,10 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>0.017</v>
+        <v>0.05</v>
       </c>
       <c r="C6" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D6" t="n">
         <v>0</v>
@@ -4628,7 +4968,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>0.017</v>
+        <v>0.029</v>
       </c>
       <c r="C7" t="n">
         <v>3</v>
@@ -4640,11 +4980,11 @@
         <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>left</t>
+          <t>right</t>
         </is>
       </c>
     </row>
@@ -4656,7 +4996,7 @@
         <v>0.05</v>
       </c>
       <c r="C8" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D8" t="n">
         <v>0</v>
@@ -4678,10 +5018,10 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>0.05</v>
+        <v>0.029</v>
       </c>
       <c r="C9" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D9" t="n">
         <v>0</v>
@@ -4703,7 +5043,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>0.029</v>
+        <v>0.017</v>
       </c>
       <c r="C10" t="n">
         <v>1</v>
@@ -4715,11 +5055,11 @@
         <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>left</t>
+          <t>right</t>
         </is>
       </c>
     </row>
@@ -4728,10 +5068,10 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>0.05</v>
+        <v>0.017</v>
       </c>
       <c r="C11" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D11" t="n">
         <v>0</v>
@@ -4740,11 +5080,11 @@
         <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>right</t>
+          <t>left</t>
         </is>
       </c>
     </row>
@@ -4756,7 +5096,7 @@
         <v>0.017</v>
       </c>
       <c r="C12" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D12" t="n">
         <v>0</v>
@@ -4765,11 +5105,11 @@
         <v>0</v>
       </c>
       <c r="F12" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>right</t>
+          <t>left</t>
         </is>
       </c>
     </row>
@@ -4790,11 +5130,11 @@
         <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>right</t>
+          <t>left</t>
         </is>
       </c>
     </row>
@@ -4828,10 +5168,10 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>0.05</v>
+        <v>0.017</v>
       </c>
       <c r="C15" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D15" t="n">
         <v>0</v>
@@ -4840,11 +5180,11 @@
         <v>0</v>
       </c>
       <c r="F15" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>left</t>
+          <t>right</t>
         </is>
       </c>
     </row>
@@ -4853,10 +5193,10 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>0.017</v>
+        <v>0.029</v>
       </c>
       <c r="C16" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D16" t="n">
         <v>0</v>
@@ -4865,11 +5205,11 @@
         <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>right</t>
+          <t>left</t>
         </is>
       </c>
     </row>
@@ -4903,10 +5243,10 @@
         <v>16</v>
       </c>
       <c r="B18" t="n">
-        <v>0.017</v>
+        <v>0.05</v>
       </c>
       <c r="C18" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D18" t="n">
         <v>0</v>
@@ -4940,11 +5280,11 @@
         <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>right</t>
+          <t>left</t>
         </is>
       </c>
     </row>
@@ -4956,7 +5296,7 @@
         <v>0.029</v>
       </c>
       <c r="C20" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D20" t="n">
         <v>0</v>
@@ -4978,10 +5318,10 @@
         <v>19</v>
       </c>
       <c r="B21" t="n">
-        <v>0.05</v>
+        <v>0.017</v>
       </c>
       <c r="C21" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D21" t="n">
         <v>0</v>
@@ -4990,11 +5330,11 @@
         <v>0</v>
       </c>
       <c r="F21" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>left</t>
+          <t>right</t>
         </is>
       </c>
     </row>
@@ -5003,7 +5343,7 @@
         <v>20</v>
       </c>
       <c r="B22" t="n">
-        <v>0.017</v>
+        <v>0.05</v>
       </c>
       <c r="C22" t="n">
         <v>1</v>
@@ -5028,10 +5368,10 @@
         <v>21</v>
       </c>
       <c r="B23" t="n">
-        <v>0.017</v>
+        <v>0.05</v>
       </c>
       <c r="C23" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D23" t="n">
         <v>0</v>
@@ -5040,11 +5380,11 @@
         <v>0</v>
       </c>
       <c r="F23" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>left</t>
+          <t>right</t>
         </is>
       </c>
     </row>
@@ -5053,10 +5393,10 @@
         <v>22</v>
       </c>
       <c r="B24" t="n">
-        <v>0.029</v>
+        <v>0.017</v>
       </c>
       <c r="C24" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D24" t="n">
         <v>0</v>
@@ -5078,10 +5418,10 @@
         <v>23</v>
       </c>
       <c r="B25" t="n">
-        <v>0.05</v>
+        <v>0.029</v>
       </c>
       <c r="C25" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D25" t="n">
         <v>0</v>
@@ -5106,7 +5446,7 @@
         <v>0.017</v>
       </c>
       <c r="C26" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D26" t="n">
         <v>0</v>
@@ -5128,7 +5468,7 @@
         <v>25</v>
       </c>
       <c r="B27" t="n">
-        <v>0.029</v>
+        <v>0.05</v>
       </c>
       <c r="C27" t="n">
         <v>2</v>
@@ -5140,11 +5480,11 @@
         <v>0</v>
       </c>
       <c r="F27" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G27" t="inlineStr">
         <is>
-          <t>right</t>
+          <t>left</t>
         </is>
       </c>
     </row>
@@ -5153,7 +5493,7 @@
         <v>26</v>
       </c>
       <c r="B28" t="n">
-        <v>0.017</v>
+        <v>0.05</v>
       </c>
       <c r="C28" t="n">
         <v>3</v>
@@ -5165,11 +5505,11 @@
         <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G28" t="inlineStr">
         <is>
-          <t>left</t>
+          <t>right</t>
         </is>
       </c>
     </row>
@@ -5178,10 +5518,10 @@
         <v>27</v>
       </c>
       <c r="B29" t="n">
-        <v>0.017</v>
+        <v>0.029</v>
       </c>
       <c r="C29" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D29" t="n">
         <v>0</v>
@@ -5190,11 +5530,11 @@
         <v>0</v>
       </c>
       <c r="F29" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G29" t="inlineStr">
         <is>
-          <t>right</t>
+          <t>left</t>
         </is>
       </c>
     </row>
@@ -5203,7 +5543,7 @@
         <v>28</v>
       </c>
       <c r="B30" t="n">
-        <v>0.017</v>
+        <v>0.05</v>
       </c>
       <c r="C30" t="n">
         <v>3</v>
@@ -5228,7 +5568,7 @@
         <v>29</v>
       </c>
       <c r="B31" t="n">
-        <v>0.029</v>
+        <v>0.017</v>
       </c>
       <c r="C31" t="n">
         <v>1</v>
@@ -5240,11 +5580,11 @@
         <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G31" t="inlineStr">
         <is>
-          <t>right</t>
+          <t>left</t>
         </is>
       </c>
     </row>
@@ -5304,16 +5644,16 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>0.029</v>
+        <v>0.017</v>
       </c>
       <c r="C2" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D2" t="n">
-        <v>0.25</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>0.25</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
@@ -5329,23 +5669,23 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>0.017</v>
+        <v>0.029</v>
       </c>
       <c r="C3" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="E3" t="n">
-        <v>0</v>
+        <v>-0.25</v>
       </c>
       <c r="F3" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>right</t>
+          <t>left</t>
         </is>
       </c>
     </row>
@@ -5357,13 +5697,13 @@
         <v>0.017</v>
       </c>
       <c r="C4" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D4" t="n">
+        <v>-0.25</v>
+      </c>
+      <c r="E4" t="n">
         <v>0.25</v>
-      </c>
-      <c r="E4" t="n">
-        <v>-0.25</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -5379,23 +5719,23 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>0.017</v>
+        <v>0.05</v>
       </c>
       <c r="C5" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D5" t="n">
         <v>0.25</v>
       </c>
       <c r="E5" t="n">
-        <v>-0.25</v>
+        <v>0.25</v>
       </c>
       <c r="F5" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>right</t>
+          <t>left</t>
         </is>
       </c>
     </row>
@@ -5404,16 +5744,16 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>0.017</v>
+        <v>0.05</v>
       </c>
       <c r="C6" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D6" t="n">
         <v>-0.25</v>
       </c>
       <c r="E6" t="n">
-        <v>0.25</v>
+        <v>-0.25</v>
       </c>
       <c r="F6" t="n">
         <v>1</v>
@@ -5438,14 +5778,14 @@
         <v>0.25</v>
       </c>
       <c r="E7" t="n">
-        <v>0.25</v>
+        <v>-0.25</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>left</t>
+          <t>right</t>
         </is>
       </c>
     </row>
@@ -5454,7 +5794,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>0.017</v>
+        <v>0.05</v>
       </c>
       <c r="C8" t="n">
         <v>3</v>
@@ -5466,11 +5806,11 @@
         <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>left</t>
+          <t>right</t>
         </is>
       </c>
     </row>
@@ -5479,23 +5819,23 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>0.017</v>
+        <v>0.029</v>
       </c>
       <c r="C9" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D9" t="n">
-        <v>-0.25</v>
+        <v>0.25</v>
       </c>
       <c r="E9" t="n">
         <v>0.25</v>
       </c>
       <c r="F9" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>left</t>
+          <t>right</t>
         </is>
       </c>
     </row>
@@ -5504,23 +5844,23 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>0.029</v>
+        <v>0.05</v>
       </c>
       <c r="C10" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>-0.25</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="F10" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>right</t>
+          <t>left</t>
         </is>
       </c>
     </row>
@@ -5538,14 +5878,14 @@
         <v>-0.25</v>
       </c>
       <c r="E11" t="n">
-        <v>-0.25</v>
+        <v>0.25</v>
       </c>
       <c r="F11" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>left</t>
+          <t>right</t>
         </is>
       </c>
     </row>
@@ -5554,7 +5894,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>0.05</v>
+        <v>0.029</v>
       </c>
       <c r="C12" t="n">
         <v>3</v>
@@ -5563,14 +5903,14 @@
         <v>-0.25</v>
       </c>
       <c r="E12" t="n">
-        <v>-0.25</v>
+        <v>0.25</v>
       </c>
       <c r="F12" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>left</t>
+          <t>right</t>
         </is>
       </c>
     </row>
@@ -5579,7 +5919,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>0.017</v>
+        <v>0.029</v>
       </c>
       <c r="C13" t="n">
         <v>1</v>
@@ -5591,11 +5931,11 @@
         <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>right</t>
+          <t>left</t>
         </is>
       </c>
     </row>
@@ -5607,13 +5947,13 @@
         <v>0.05</v>
       </c>
       <c r="C14" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D14" t="n">
-        <v>0</v>
+        <v>-0.25</v>
       </c>
       <c r="E14" t="n">
-        <v>0</v>
+        <v>-0.25</v>
       </c>
       <c r="F14" t="n">
         <v>0</v>
@@ -5629,10 +5969,10 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>0.017</v>
+        <v>0.05</v>
       </c>
       <c r="C15" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D15" t="n">
         <v>0</v>
@@ -5654,23 +5994,23 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>0.017</v>
+        <v>0.029</v>
       </c>
       <c r="C16" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>-0.25</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>left</t>
+          <t>right</t>
         </is>
       </c>
     </row>
@@ -5679,13 +6019,13 @@
         <v>15</v>
       </c>
       <c r="B17" t="n">
-        <v>0.029</v>
+        <v>0.017</v>
       </c>
       <c r="C17" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D17" t="n">
-        <v>0.25</v>
+        <v>-0.25</v>
       </c>
       <c r="E17" t="n">
         <v>-0.25</v>
@@ -5704,7 +6044,7 @@
         <v>16</v>
       </c>
       <c r="B18" t="n">
-        <v>0.029</v>
+        <v>0.017</v>
       </c>
       <c r="C18" t="n">
         <v>2</v>
@@ -5716,11 +6056,11 @@
         <v>0.25</v>
       </c>
       <c r="F18" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>right</t>
+          <t>left</t>
         </is>
       </c>
     </row>
@@ -5732,20 +6072,20 @@
         <v>0.017</v>
       </c>
       <c r="C19" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D19" t="n">
+        <v>0.25</v>
+      </c>
+      <c r="E19" t="n">
         <v>-0.25</v>
       </c>
-      <c r="E19" t="n">
-        <v>0.25</v>
-      </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>left</t>
+          <t>right</t>
         </is>
       </c>
     </row>
@@ -5757,7 +6097,7 @@
         <v>0.029</v>
       </c>
       <c r="C20" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D20" t="n">
         <v>-0.25</v>
@@ -5766,11 +6106,11 @@
         <v>-0.25</v>
       </c>
       <c r="F20" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>left</t>
+          <t>right</t>
         </is>
       </c>
     </row>
@@ -5779,23 +6119,23 @@
         <v>19</v>
       </c>
       <c r="B21" t="n">
-        <v>0.029</v>
+        <v>0.05</v>
       </c>
       <c r="C21" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D21" t="n">
-        <v>-0.25</v>
+        <v>0</v>
       </c>
       <c r="E21" t="n">
-        <v>-0.25</v>
+        <v>0</v>
       </c>
       <c r="F21" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>right</t>
+          <t>left</t>
         </is>
       </c>
     </row>
@@ -5816,11 +6156,11 @@
         <v>-0.25</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>left</t>
+          <t>right</t>
         </is>
       </c>
     </row>
@@ -5829,23 +6169,23 @@
         <v>21</v>
       </c>
       <c r="B23" t="n">
-        <v>0.017</v>
+        <v>0.05</v>
       </c>
       <c r="C23" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D23" t="n">
         <v>-0.25</v>
       </c>
       <c r="E23" t="n">
-        <v>0.25</v>
+        <v>-0.25</v>
       </c>
       <c r="F23" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>right</t>
+          <t>left</t>
         </is>
       </c>
     </row>
@@ -5854,23 +6194,23 @@
         <v>22</v>
       </c>
       <c r="B24" t="n">
-        <v>0.017</v>
+        <v>0.029</v>
       </c>
       <c r="C24" t="n">
         <v>2</v>
       </c>
       <c r="D24" t="n">
-        <v>-0.25</v>
+        <v>0.25</v>
       </c>
       <c r="E24" t="n">
         <v>0.25</v>
       </c>
       <c r="F24" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>right</t>
+          <t>left</t>
         </is>
       </c>
     </row>
@@ -5882,7 +6222,7 @@
         <v>0.05</v>
       </c>
       <c r="C25" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D25" t="n">
         <v>0</v>
@@ -5904,13 +6244,13 @@
         <v>24</v>
       </c>
       <c r="B26" t="n">
-        <v>0.05</v>
+        <v>0.017</v>
       </c>
       <c r="C26" t="n">
         <v>3</v>
       </c>
       <c r="D26" t="n">
-        <v>-0.25</v>
+        <v>0.25</v>
       </c>
       <c r="E26" t="n">
         <v>0.25</v>
@@ -5954,10 +6294,10 @@
         <v>26</v>
       </c>
       <c r="B28" t="n">
-        <v>0.017</v>
+        <v>0.05</v>
       </c>
       <c r="C28" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D28" t="n">
         <v>0</v>
@@ -5985,10 +6325,10 @@
         <v>2</v>
       </c>
       <c r="D29" t="n">
-        <v>0.25</v>
+        <v>0</v>
       </c>
       <c r="E29" t="n">
-        <v>0.25</v>
+        <v>0</v>
       </c>
       <c r="F29" t="n">
         <v>0</v>
@@ -6004,10 +6344,10 @@
         <v>28</v>
       </c>
       <c r="B30" t="n">
-        <v>0.05</v>
+        <v>0.029</v>
       </c>
       <c r="C30" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D30" t="n">
         <v>-0.25</v>
@@ -6029,10 +6369,10 @@
         <v>29</v>
       </c>
       <c r="B31" t="n">
-        <v>0.029</v>
+        <v>0.017</v>
       </c>
       <c r="C31" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D31" t="n">
         <v>-0.25</v>
@@ -6111,7 +6451,7 @@
         <v>3</v>
       </c>
       <c r="D2" t="n">
-        <v>-0.25</v>
+        <v>0.25</v>
       </c>
       <c r="E2" t="n">
         <v>0.25</v>
@@ -6130,16 +6470,16 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>0.017</v>
+        <v>0.029</v>
       </c>
       <c r="C3" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D3" t="n">
-        <v>0.25</v>
+        <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>-0.25</v>
+        <v>0</v>
       </c>
       <c r="F3" t="n">
         <v>1</v>
@@ -6158,20 +6498,20 @@
         <v>0.029</v>
       </c>
       <c r="C4" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D4" t="n">
-        <v>-0.25</v>
+        <v>0.25</v>
       </c>
       <c r="E4" t="n">
-        <v>-0.25</v>
+        <v>0.25</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>left</t>
+          <t>right</t>
         </is>
       </c>
     </row>
@@ -6180,13 +6520,13 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>0.029</v>
+        <v>0.017</v>
       </c>
       <c r="C5" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D5" t="n">
-        <v>0.25</v>
+        <v>-0.25</v>
       </c>
       <c r="E5" t="n">
         <v>0.25</v>
@@ -6205,23 +6545,23 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>0.05</v>
+        <v>0.017</v>
       </c>
       <c r="C6" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D6" t="n">
-        <v>-0.25</v>
+        <v>0</v>
       </c>
       <c r="E6" t="n">
-        <v>-0.25</v>
+        <v>0</v>
       </c>
       <c r="F6" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>left</t>
+          <t>right</t>
         </is>
       </c>
     </row>
@@ -6230,7 +6570,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>0.017</v>
+        <v>0.05</v>
       </c>
       <c r="C7" t="n">
         <v>2</v>
@@ -6239,7 +6579,7 @@
         <v>-0.25</v>
       </c>
       <c r="E7" t="n">
-        <v>0.25</v>
+        <v>-0.25</v>
       </c>
       <c r="F7" t="n">
         <v>0</v>
@@ -6255,16 +6595,16 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>0.029</v>
+        <v>0.05</v>
       </c>
       <c r="C8" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D8" t="n">
-        <v>-0.25</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>0.25</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
         <v>1</v>
@@ -6280,23 +6620,23 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>0.029</v>
+        <v>0.017</v>
       </c>
       <c r="C9" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D9" t="n">
-        <v>0.25</v>
+        <v>0</v>
       </c>
       <c r="E9" t="n">
-        <v>-0.25</v>
+        <v>0</v>
       </c>
       <c r="F9" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>left</t>
+          <t>right</t>
         </is>
       </c>
     </row>
@@ -6308,20 +6648,20 @@
         <v>0.029</v>
       </c>
       <c r="C10" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D10" t="n">
-        <v>0.25</v>
+        <v>-0.25</v>
       </c>
       <c r="E10" t="n">
-        <v>0.25</v>
+        <v>-0.25</v>
       </c>
       <c r="F10" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>right</t>
+          <t>left</t>
         </is>
       </c>
     </row>
@@ -6336,17 +6676,17 @@
         <v>3</v>
       </c>
       <c r="D11" t="n">
-        <v>-0.25</v>
+        <v>0</v>
       </c>
       <c r="E11" t="n">
-        <v>-0.25</v>
+        <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>right</t>
+          <t>left</t>
         </is>
       </c>
     </row>
@@ -6355,23 +6695,23 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>0.017</v>
+        <v>0.05</v>
       </c>
       <c r="C12" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D12" t="n">
-        <v>-0.25</v>
+        <v>0.25</v>
       </c>
       <c r="E12" t="n">
         <v>-0.25</v>
       </c>
       <c r="F12" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>right</t>
+          <t>left</t>
         </is>
       </c>
     </row>
@@ -6383,20 +6723,20 @@
         <v>0.05</v>
       </c>
       <c r="C13" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D13" t="n">
         <v>0.25</v>
       </c>
       <c r="E13" t="n">
-        <v>0.25</v>
+        <v>-0.25</v>
       </c>
       <c r="F13" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>right</t>
+          <t>left</t>
         </is>
       </c>
     </row>
@@ -6405,13 +6745,13 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>0.029</v>
+        <v>0.05</v>
       </c>
       <c r="C14" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D14" t="n">
-        <v>-0.25</v>
+        <v>0.25</v>
       </c>
       <c r="E14" t="n">
         <v>-0.25</v>
@@ -6430,7 +6770,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>0.05</v>
+        <v>0.017</v>
       </c>
       <c r="C15" t="n">
         <v>1</v>
@@ -6439,7 +6779,7 @@
         <v>0.25</v>
       </c>
       <c r="E15" t="n">
-        <v>0.25</v>
+        <v>-0.25</v>
       </c>
       <c r="F15" t="n">
         <v>0</v>
@@ -6455,10 +6795,10 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>0.017</v>
+        <v>0.029</v>
       </c>
       <c r="C16" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D16" t="n">
         <v>0</v>
@@ -6480,7 +6820,7 @@
         <v>15</v>
       </c>
       <c r="B17" t="n">
-        <v>0.017</v>
+        <v>0.05</v>
       </c>
       <c r="C17" t="n">
         <v>1</v>
@@ -6505,13 +6845,13 @@
         <v>16</v>
       </c>
       <c r="B18" t="n">
-        <v>0.05</v>
+        <v>0.017</v>
       </c>
       <c r="C18" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D18" t="n">
-        <v>0.25</v>
+        <v>-0.25</v>
       </c>
       <c r="E18" t="n">
         <v>-0.25</v>
@@ -6533,13 +6873,13 @@
         <v>0.017</v>
       </c>
       <c r="C19" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D19" t="n">
         <v>-0.25</v>
       </c>
       <c r="E19" t="n">
-        <v>-0.25</v>
+        <v>0.25</v>
       </c>
       <c r="F19" t="n">
         <v>1</v>
@@ -6555,23 +6895,23 @@
         <v>18</v>
       </c>
       <c r="B20" t="n">
-        <v>0.05</v>
+        <v>0.029</v>
       </c>
       <c r="C20" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D20" t="n">
-        <v>-0.25</v>
+        <v>0</v>
       </c>
       <c r="E20" t="n">
-        <v>-0.25</v>
+        <v>0</v>
       </c>
       <c r="F20" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>right</t>
+          <t>left</t>
         </is>
       </c>
     </row>
@@ -6583,13 +6923,13 @@
         <v>0.029</v>
       </c>
       <c r="C21" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D21" t="n">
+        <v>0.25</v>
+      </c>
+      <c r="E21" t="n">
         <v>-0.25</v>
-      </c>
-      <c r="E21" t="n">
-        <v>0.25</v>
       </c>
       <c r="F21" t="n">
         <v>1</v>
@@ -6617,11 +6957,11 @@
         <v>0.25</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>left</t>
+          <t>right</t>
         </is>
       </c>
     </row>
@@ -6655,13 +6995,13 @@
         <v>22</v>
       </c>
       <c r="B24" t="n">
-        <v>0.017</v>
+        <v>0.05</v>
       </c>
       <c r="C24" t="n">
         <v>2</v>
       </c>
       <c r="D24" t="n">
-        <v>0.25</v>
+        <v>-0.25</v>
       </c>
       <c r="E24" t="n">
         <v>0.25</v>
@@ -6680,10 +7020,10 @@
         <v>23</v>
       </c>
       <c r="B25" t="n">
-        <v>0.05</v>
+        <v>0.017</v>
       </c>
       <c r="C25" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D25" t="n">
         <v>-0.25</v>
@@ -6705,23 +7045,23 @@
         <v>24</v>
       </c>
       <c r="B26" t="n">
-        <v>0.029</v>
+        <v>0.05</v>
       </c>
       <c r="C26" t="n">
         <v>1</v>
       </c>
       <c r="D26" t="n">
+        <v>0.25</v>
+      </c>
+      <c r="E26" t="n">
         <v>-0.25</v>
       </c>
-      <c r="E26" t="n">
-        <v>0.25</v>
-      </c>
       <c r="F26" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G26" t="inlineStr">
         <is>
-          <t>right</t>
+          <t>left</t>
         </is>
       </c>
     </row>
@@ -6736,10 +7076,10 @@
         <v>3</v>
       </c>
       <c r="D27" t="n">
-        <v>-0.25</v>
+        <v>0</v>
       </c>
       <c r="E27" t="n">
-        <v>0.25</v>
+        <v>0</v>
       </c>
       <c r="F27" t="n">
         <v>0</v>
@@ -6755,23 +7095,23 @@
         <v>26</v>
       </c>
       <c r="B28" t="n">
-        <v>0.05</v>
+        <v>0.017</v>
       </c>
       <c r="C28" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D28" t="n">
-        <v>0.25</v>
+        <v>-0.25</v>
       </c>
       <c r="E28" t="n">
         <v>0.25</v>
       </c>
       <c r="F28" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G28" t="inlineStr">
         <is>
-          <t>right</t>
+          <t>left</t>
         </is>
       </c>
     </row>
@@ -6780,16 +7120,16 @@
         <v>27</v>
       </c>
       <c r="B29" t="n">
-        <v>0.029</v>
+        <v>0.05</v>
       </c>
       <c r="C29" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D29" t="n">
         <v>-0.25</v>
       </c>
       <c r="E29" t="n">
-        <v>0.25</v>
+        <v>-0.25</v>
       </c>
       <c r="F29" t="n">
         <v>0</v>
@@ -6805,23 +7145,23 @@
         <v>28</v>
       </c>
       <c r="B30" t="n">
-        <v>0.05</v>
+        <v>0.029</v>
       </c>
       <c r="C30" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D30" t="n">
-        <v>0.25</v>
+        <v>0</v>
       </c>
       <c r="E30" t="n">
-        <v>0.25</v>
+        <v>0</v>
       </c>
       <c r="F30" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G30" t="inlineStr">
         <is>
-          <t>right</t>
+          <t>left</t>
         </is>
       </c>
     </row>
@@ -6833,20 +7173,20 @@
         <v>0.029</v>
       </c>
       <c r="C31" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D31" t="n">
-        <v>-0.25</v>
+        <v>0.25</v>
       </c>
       <c r="E31" t="n">
         <v>0.25</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G31" t="inlineStr">
         <is>
-          <t>left</t>
+          <t>right</t>
         </is>
       </c>
     </row>
@@ -6872,12 +7212,12 @@
     <row r="1">
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>inter_stim_interval</t>
+          <t>num_stim</t>
         </is>
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
-          <t>GNG_stim</t>
+          <t>match_num</t>
         </is>
       </c>
       <c r="D1" s="1" t="inlineStr">
@@ -6896,19 +7236,17 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>4</v>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>go_stimuli\puppy_17.jpeg</t>
-        </is>
+        <v>0</v>
+      </c>
+      <c r="C2" t="n">
+        <v>0</v>
       </c>
       <c r="D2" t="n">
         <v>1</v>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>space</t>
+          <t>right</t>
         </is>
       </c>
     </row>
@@ -6917,19 +7255,17 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>4</v>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>go_stimuli\puppy_20.jpeg</t>
-        </is>
+        <v>0</v>
+      </c>
+      <c r="C3" t="n">
+        <v>0</v>
       </c>
       <c r="D3" t="n">
         <v>1</v>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>space</t>
+          <t>right</t>
         </is>
       </c>
     </row>
@@ -6938,19 +7274,17 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>4.5</v>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>go_stimuli\puppy_29.jpg</t>
-        </is>
+        <v>1</v>
+      </c>
+      <c r="C4" t="n">
+        <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>space</t>
+          <t>left</t>
         </is>
       </c>
     </row>
@@ -6959,19 +7293,17 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>5.5</v>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>go_stimuli\puppy_7.jpg</t>
-        </is>
+        <v>8</v>
+      </c>
+      <c r="C5" t="n">
+        <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>space</t>
+          <t>left</t>
         </is>
       </c>
     </row>
@@ -6980,19 +7312,17 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>5.5</v>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>go_stimuli\puppy_16.jpeg</t>
-        </is>
+        <v>0</v>
+      </c>
+      <c r="C6" t="n">
+        <v>0</v>
       </c>
       <c r="D6" t="n">
         <v>1</v>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>space</t>
+          <t>right</t>
         </is>
       </c>
     </row>
@@ -7001,19 +7331,17 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>4.5</v>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>go_stimuli\puppy_13.jpg</t>
-        </is>
+        <v>0</v>
+      </c>
+      <c r="C7" t="n">
+        <v>0</v>
       </c>
       <c r="D7" t="n">
         <v>1</v>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>space</t>
+          <t>right</t>
         </is>
       </c>
     </row>
@@ -7022,19 +7350,17 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>4</v>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>go_stimuli\puppy_10.jpg</t>
-        </is>
+        <v>2</v>
+      </c>
+      <c r="C8" t="n">
+        <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>space</t>
+          <t>left</t>
         </is>
       </c>
     </row>
@@ -7043,19 +7369,17 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>4</v>
-      </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>go_stimuli\puppy_22.jpeg</t>
-        </is>
+        <v>9</v>
+      </c>
+      <c r="C9" t="n">
+        <v>0</v>
       </c>
       <c r="D9" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>space</t>
+          <t>left</t>
         </is>
       </c>
     </row>
@@ -7064,19 +7388,17 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>6.5</v>
-      </c>
-      <c r="C10" t="inlineStr">
-        <is>
-          <t>go_stimuli\puppy_21.jpeg</t>
-        </is>
+        <v>7</v>
+      </c>
+      <c r="C10" t="n">
+        <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>space</t>
+          <t>left</t>
         </is>
       </c>
     </row>
@@ -7085,19 +7407,17 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>5.5</v>
-      </c>
-      <c r="C11" t="inlineStr">
-        <is>
-          <t>go_stimuli\puppy_4.jpg</t>
-        </is>
+        <v>2</v>
+      </c>
+      <c r="C11" t="n">
+        <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>space</t>
+          <t>left</t>
         </is>
       </c>
     </row>
@@ -7106,19 +7426,17 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>5</v>
-      </c>
-      <c r="C12" t="inlineStr">
-        <is>
-          <t>go_stimuli\puppy_27.jpg</t>
-        </is>
+        <v>0</v>
+      </c>
+      <c r="C12" t="n">
+        <v>0</v>
       </c>
       <c r="D12" t="n">
         <v>1</v>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>space</t>
+          <t>right</t>
         </is>
       </c>
     </row>
@@ -7127,19 +7445,17 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>4</v>
-      </c>
-      <c r="C13" t="inlineStr">
-        <is>
-          <t>go_stimuli\puppy_9.jpg</t>
-        </is>
+        <v>0</v>
+      </c>
+      <c r="C13" t="n">
+        <v>0</v>
       </c>
       <c r="D13" t="n">
         <v>1</v>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>space</t>
+          <t>right</t>
         </is>
       </c>
     </row>
@@ -7148,19 +7464,17 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>6</v>
-      </c>
-      <c r="C14" t="inlineStr">
-        <is>
-          <t>go_stimuli\puppy_1.jpg</t>
-        </is>
+        <v>9</v>
+      </c>
+      <c r="C14" t="n">
+        <v>0</v>
       </c>
       <c r="D14" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>space</t>
+          <t>left</t>
         </is>
       </c>
     </row>
@@ -7169,19 +7483,17 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>4</v>
-      </c>
-      <c r="C15" t="inlineStr">
-        <is>
-          <t>go_stimuli\puppy_6.jpg</t>
-        </is>
+        <v>0</v>
+      </c>
+      <c r="C15" t="n">
+        <v>0</v>
       </c>
       <c r="D15" t="n">
         <v>1</v>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>space</t>
+          <t>right</t>
         </is>
       </c>
     </row>
@@ -7190,19 +7502,17 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>6.5</v>
-      </c>
-      <c r="C16" t="inlineStr">
-        <is>
-          <t>go_stimuli\puppy_19.jpeg</t>
-        </is>
+        <v>3</v>
+      </c>
+      <c r="C16" t="n">
+        <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>space</t>
+          <t>left</t>
         </is>
       </c>
     </row>
@@ -7211,19 +7521,17 @@
         <v>15</v>
       </c>
       <c r="B17" t="n">
-        <v>6</v>
-      </c>
-      <c r="C17" t="inlineStr">
-        <is>
-          <t>go_stimuli\puppy_8.jpg</t>
-        </is>
+        <v>4</v>
+      </c>
+      <c r="C17" t="n">
+        <v>0</v>
       </c>
       <c r="D17" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>space</t>
+          <t>left</t>
         </is>
       </c>
     </row>
@@ -7232,19 +7540,17 @@
         <v>16</v>
       </c>
       <c r="B18" t="n">
-        <v>4.5</v>
-      </c>
-      <c r="C18" t="inlineStr">
-        <is>
-          <t>go_stimuli\puppy_26.jpeg</t>
-        </is>
+        <v>3</v>
+      </c>
+      <c r="C18" t="n">
+        <v>0</v>
       </c>
       <c r="D18" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>space</t>
+          <t>left</t>
         </is>
       </c>
     </row>
@@ -7253,19 +7559,17 @@
         <v>17</v>
       </c>
       <c r="B19" t="n">
-        <v>6.5</v>
-      </c>
-      <c r="C19" t="inlineStr">
-        <is>
-          <t>go_stimuli\puppy_2.jpg</t>
-        </is>
+        <v>6</v>
+      </c>
+      <c r="C19" t="n">
+        <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>space</t>
+          <t>left</t>
         </is>
       </c>
     </row>
@@ -7274,19 +7578,17 @@
         <v>18</v>
       </c>
       <c r="B20" t="n">
-        <v>6.5</v>
-      </c>
-      <c r="C20" t="inlineStr">
-        <is>
-          <t>go_stimuli\puppy_28.jpg</t>
-        </is>
+        <v>2</v>
+      </c>
+      <c r="C20" t="n">
+        <v>0</v>
       </c>
       <c r="D20" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>space</t>
+          <t>left</t>
         </is>
       </c>
     </row>
@@ -7295,19 +7597,17 @@
         <v>19</v>
       </c>
       <c r="B21" t="n">
-        <v>4.5</v>
-      </c>
-      <c r="C21" t="inlineStr">
-        <is>
-          <t>go_stimuli\puppy_24.jpeg</t>
-        </is>
+        <v>0</v>
+      </c>
+      <c r="C21" t="n">
+        <v>0</v>
       </c>
       <c r="D21" t="n">
         <v>1</v>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>space</t>
+          <t>right</t>
         </is>
       </c>
     </row>
@@ -7322,7 +7622,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E21"/>
+  <dimension ref="A1:D21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -7333,20 +7633,15 @@
     <row r="1">
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>inter_stim_inverval</t>
+          <t>num_stim</t>
         </is>
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
-          <t>GNG_stim</t>
+          <t>match</t>
         </is>
       </c>
       <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>match</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
         <is>
           <t>corr_key</t>
         </is>
@@ -7357,19 +7652,14 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>5</v>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>no_go_stimuli\spider_1.jpeg</t>
-        </is>
-      </c>
-      <c r="D2" t="n">
-        <v>0</v>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>None</t>
+        <v>3</v>
+      </c>
+      <c r="C2" t="n">
+        <v>0</v>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>left</t>
         </is>
       </c>
     </row>
@@ -7378,19 +7668,14 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>6</v>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>no_go_stimuli\spider_10.jpeg</t>
-        </is>
-      </c>
-      <c r="D3" t="n">
-        <v>0</v>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>None</t>
+        <v>3</v>
+      </c>
+      <c r="C3" t="n">
+        <v>1</v>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>right</t>
         </is>
       </c>
     </row>
@@ -7399,19 +7684,14 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>5</v>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>no_go_stimuli\spider_20.jpg</t>
-        </is>
-      </c>
-      <c r="D4" t="n">
-        <v>0</v>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>None</t>
+        <v>7</v>
+      </c>
+      <c r="C4" t="n">
+        <v>0</v>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>left</t>
         </is>
       </c>
     </row>
@@ -7420,19 +7700,14 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>4.5</v>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>go_stimuli\puppy_25.jpeg</t>
-        </is>
-      </c>
-      <c r="D5" t="n">
-        <v>1</v>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>space</t>
+        <v>5</v>
+      </c>
+      <c r="C5" t="n">
+        <v>0</v>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>left</t>
         </is>
       </c>
     </row>
@@ -7443,17 +7718,12 @@
       <c r="B6" t="n">
         <v>5</v>
       </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>no_go_stimuli\spider_16.jpeg</t>
-        </is>
-      </c>
-      <c r="D6" t="n">
-        <v>0</v>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>None</t>
+      <c r="C6" t="n">
+        <v>1</v>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>right</t>
         </is>
       </c>
     </row>
@@ -7462,19 +7732,14 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>6.5</v>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>no_go_stimuli\spider_13.jpeg</t>
-        </is>
-      </c>
-      <c r="D7" t="n">
-        <v>0</v>
-      </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>None</t>
+        <v>5</v>
+      </c>
+      <c r="C7" t="n">
+        <v>1</v>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>right</t>
         </is>
       </c>
     </row>
@@ -7483,19 +7748,14 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>6.5</v>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>go_stimuli\puppy_2.jpg</t>
-        </is>
-      </c>
-      <c r="D8" t="n">
-        <v>1</v>
-      </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>space</t>
+        <v>3</v>
+      </c>
+      <c r="C8" t="n">
+        <v>0</v>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>left</t>
         </is>
       </c>
     </row>
@@ -7504,19 +7764,14 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>4.5</v>
-      </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>no_go_stimuli\spider_26.jpg</t>
-        </is>
-      </c>
-      <c r="D9" t="n">
-        <v>0</v>
-      </c>
-      <c r="E9" t="inlineStr">
-        <is>
-          <t>None</t>
+        <v>4</v>
+      </c>
+      <c r="C9" t="n">
+        <v>0</v>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>left</t>
         </is>
       </c>
     </row>
@@ -7525,19 +7780,14 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>5.5</v>
-      </c>
-      <c r="C10" t="inlineStr">
-        <is>
-          <t>go_stimuli\puppy_28.jpg</t>
-        </is>
-      </c>
-      <c r="D10" t="n">
-        <v>1</v>
-      </c>
-      <c r="E10" t="inlineStr">
-        <is>
-          <t>space</t>
+        <v>4</v>
+      </c>
+      <c r="C10" t="n">
+        <v>1</v>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>right</t>
         </is>
       </c>
     </row>
@@ -7546,19 +7796,14 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>5.5</v>
-      </c>
-      <c r="C11" t="inlineStr">
-        <is>
-          <t>go_stimuli\puppy_3.jpg</t>
-        </is>
-      </c>
-      <c r="D11" t="n">
-        <v>1</v>
-      </c>
-      <c r="E11" t="inlineStr">
-        <is>
-          <t>space</t>
+        <v>8</v>
+      </c>
+      <c r="C11" t="n">
+        <v>0</v>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>left</t>
         </is>
       </c>
     </row>
@@ -7567,19 +7812,14 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>5</v>
-      </c>
-      <c r="C12" t="inlineStr">
-        <is>
-          <t>go_stimuli\puppy_17.jpeg</t>
-        </is>
-      </c>
-      <c r="D12" t="n">
-        <v>1</v>
-      </c>
-      <c r="E12" t="inlineStr">
-        <is>
-          <t>space</t>
+        <v>8</v>
+      </c>
+      <c r="C12" t="n">
+        <v>1</v>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>right</t>
         </is>
       </c>
     </row>
@@ -7588,19 +7828,14 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>5.5</v>
-      </c>
-      <c r="C13" t="inlineStr">
-        <is>
-          <t>go_stimuli\puppy_21.jpeg</t>
-        </is>
-      </c>
-      <c r="D13" t="n">
-        <v>1</v>
-      </c>
-      <c r="E13" t="inlineStr">
-        <is>
-          <t>space</t>
+        <v>3</v>
+      </c>
+      <c r="C13" t="n">
+        <v>0</v>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>left</t>
         </is>
       </c>
     </row>
@@ -7609,19 +7844,14 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>4</v>
-      </c>
-      <c r="C14" t="inlineStr">
-        <is>
-          <t>no_go_stimuli\spider_17.jpeg</t>
-        </is>
-      </c>
-      <c r="D14" t="n">
-        <v>0</v>
-      </c>
-      <c r="E14" t="inlineStr">
-        <is>
-          <t>None</t>
+        <v>7</v>
+      </c>
+      <c r="C14" t="n">
+        <v>0</v>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>left</t>
         </is>
       </c>
     </row>
@@ -7630,19 +7860,14 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>6.5</v>
-      </c>
-      <c r="C15" t="inlineStr">
-        <is>
-          <t>go_stimuli\puppy_24.jpeg</t>
-        </is>
-      </c>
-      <c r="D15" t="n">
-        <v>1</v>
-      </c>
-      <c r="E15" t="inlineStr">
-        <is>
-          <t>space</t>
+        <v>7</v>
+      </c>
+      <c r="C15" t="n">
+        <v>1</v>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>right</t>
         </is>
       </c>
     </row>
@@ -7651,19 +7876,14 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>4.5</v>
-      </c>
-      <c r="C16" t="inlineStr">
-        <is>
-          <t>go_stimuli\puppy_29.jpg</t>
-        </is>
-      </c>
-      <c r="D16" t="n">
-        <v>1</v>
-      </c>
-      <c r="E16" t="inlineStr">
-        <is>
-          <t>space</t>
+        <v>5</v>
+      </c>
+      <c r="C16" t="n">
+        <v>0</v>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>left</t>
         </is>
       </c>
     </row>
@@ -7672,19 +7892,14 @@
         <v>15</v>
       </c>
       <c r="B17" t="n">
-        <v>4.5</v>
-      </c>
-      <c r="C17" t="inlineStr">
-        <is>
-          <t>no_go_stimuli\spider_29.jpg</t>
-        </is>
-      </c>
-      <c r="D17" t="n">
-        <v>0</v>
-      </c>
-      <c r="E17" t="inlineStr">
-        <is>
-          <t>None</t>
+        <v>5</v>
+      </c>
+      <c r="C17" t="n">
+        <v>1</v>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>right</t>
         </is>
       </c>
     </row>
@@ -7693,19 +7908,14 @@
         <v>16</v>
       </c>
       <c r="B18" t="n">
-        <v>6</v>
-      </c>
-      <c r="C18" t="inlineStr">
-        <is>
-          <t>go_stimuli\puppy_5.jpg</t>
-        </is>
-      </c>
-      <c r="D18" t="n">
-        <v>1</v>
-      </c>
-      <c r="E18" t="inlineStr">
-        <is>
-          <t>space</t>
+        <v>5</v>
+      </c>
+      <c r="C18" t="n">
+        <v>1</v>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>right</t>
         </is>
       </c>
     </row>
@@ -7714,19 +7924,14 @@
         <v>17</v>
       </c>
       <c r="B19" t="n">
-        <v>4</v>
-      </c>
-      <c r="C19" t="inlineStr">
-        <is>
-          <t>go_stimuli\puppy_26.jpeg</t>
-        </is>
-      </c>
-      <c r="D19" t="n">
-        <v>1</v>
-      </c>
-      <c r="E19" t="inlineStr">
-        <is>
-          <t>space</t>
+        <v>3</v>
+      </c>
+      <c r="C19" t="n">
+        <v>0</v>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>left</t>
         </is>
       </c>
     </row>
@@ -7735,19 +7940,14 @@
         <v>18</v>
       </c>
       <c r="B20" t="n">
-        <v>6</v>
-      </c>
-      <c r="C20" t="inlineStr">
-        <is>
-          <t>no_go_stimuli\spider_6.jpeg</t>
-        </is>
-      </c>
-      <c r="D20" t="n">
-        <v>0</v>
-      </c>
-      <c r="E20" t="inlineStr">
-        <is>
-          <t>None</t>
+        <v>8</v>
+      </c>
+      <c r="C20" t="n">
+        <v>0</v>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>left</t>
         </is>
       </c>
     </row>
@@ -7756,19 +7956,14 @@
         <v>19</v>
       </c>
       <c r="B21" t="n">
-        <v>4.5</v>
-      </c>
-      <c r="C21" t="inlineStr">
-        <is>
-          <t>no_go_stimuli\spider_2.jpeg</t>
-        </is>
-      </c>
-      <c r="D21" t="n">
-        <v>0</v>
-      </c>
-      <c r="E21" t="inlineStr">
-        <is>
-          <t>None</t>
+        <v>0</v>
+      </c>
+      <c r="C21" t="n">
+        <v>0</v>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>left</t>
         </is>
       </c>
     </row>
@@ -7783,7 +7978,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E21"/>
+  <dimension ref="A1:D21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -7799,15 +7994,10 @@
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
-          <t>match_num</t>
+          <t>match</t>
         </is>
       </c>
       <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>match</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
         <is>
           <t>corr_key</t>
         </is>
@@ -7818,17 +8008,14 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="C2" t="n">
-        <v>4</v>
-      </c>
-      <c r="D2" t="n">
-        <v>1</v>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>right</t>
+        <v>0</v>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>left</t>
         </is>
       </c>
     </row>
@@ -7837,17 +8024,14 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="C3" t="n">
-        <v>4</v>
-      </c>
-      <c r="D3" t="n">
-        <v>0</v>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>left</t>
+        <v>1</v>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>right</t>
         </is>
       </c>
     </row>
@@ -7856,17 +8040,14 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="C4" t="n">
-        <v>4</v>
-      </c>
-      <c r="D4" t="n">
-        <v>0</v>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>left</t>
+        <v>1</v>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>right</t>
         </is>
       </c>
     </row>
@@ -7875,15 +8056,12 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="C5" t="n">
-        <v>4</v>
-      </c>
-      <c r="D5" t="n">
-        <v>1</v>
-      </c>
-      <c r="E5" t="inlineStr">
+        <v>1</v>
+      </c>
+      <c r="D5" t="inlineStr">
         <is>
           <t>right</t>
         </is>
@@ -7894,15 +8072,12 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C6" t="n">
-        <v>4</v>
-      </c>
-      <c r="D6" t="n">
-        <v>0</v>
-      </c>
-      <c r="E6" t="inlineStr">
+        <v>0</v>
+      </c>
+      <c r="D6" t="inlineStr">
         <is>
           <t>left</t>
         </is>
@@ -7913,15 +8088,12 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C7" t="n">
-        <v>4</v>
-      </c>
-      <c r="D7" t="n">
-        <v>0</v>
-      </c>
-      <c r="E7" t="inlineStr">
+        <v>0</v>
+      </c>
+      <c r="D7" t="inlineStr">
         <is>
           <t>left</t>
         </is>
@@ -7932,15 +8104,12 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C8" t="n">
-        <v>4</v>
-      </c>
-      <c r="D8" t="n">
-        <v>0</v>
-      </c>
-      <c r="E8" t="inlineStr">
+        <v>0</v>
+      </c>
+      <c r="D8" t="inlineStr">
         <is>
           <t>left</t>
         </is>
@@ -7951,15 +8120,12 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="C9" t="n">
-        <v>4</v>
-      </c>
-      <c r="D9" t="n">
-        <v>0</v>
-      </c>
-      <c r="E9" t="inlineStr">
+        <v>0</v>
+      </c>
+      <c r="D9" t="inlineStr">
         <is>
           <t>left</t>
         </is>
@@ -7970,17 +8136,14 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C10" t="n">
-        <v>4</v>
-      </c>
-      <c r="D10" t="n">
-        <v>0</v>
-      </c>
-      <c r="E10" t="inlineStr">
-        <is>
-          <t>left</t>
+        <v>1</v>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>right</t>
         </is>
       </c>
     </row>
@@ -7989,15 +8152,12 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="C11" t="n">
-        <v>4</v>
-      </c>
-      <c r="D11" t="n">
-        <v>0</v>
-      </c>
-      <c r="E11" t="inlineStr">
+        <v>0</v>
+      </c>
+      <c r="D11" t="inlineStr">
         <is>
           <t>left</t>
         </is>
@@ -8008,17 +8168,14 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="C12" t="n">
-        <v>4</v>
-      </c>
-      <c r="D12" t="n">
-        <v>1</v>
-      </c>
-      <c r="E12" t="inlineStr">
-        <is>
-          <t>right</t>
+        <v>0</v>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>left</t>
         </is>
       </c>
     </row>
@@ -8027,17 +8184,14 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>4</v>
-      </c>
-      <c r="D13" t="n">
-        <v>1</v>
-      </c>
-      <c r="E13" t="inlineStr">
-        <is>
-          <t>right</t>
+        <v>0</v>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>left</t>
         </is>
       </c>
     </row>
@@ -8046,15 +8200,12 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="C14" t="n">
-        <v>4</v>
-      </c>
-      <c r="D14" t="n">
-        <v>1</v>
-      </c>
-      <c r="E14" t="inlineStr">
+        <v>1</v>
+      </c>
+      <c r="D14" t="inlineStr">
         <is>
           <t>right</t>
         </is>
@@ -8065,17 +8216,14 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="C15" t="n">
-        <v>4</v>
-      </c>
-      <c r="D15" t="n">
-        <v>0</v>
-      </c>
-      <c r="E15" t="inlineStr">
-        <is>
-          <t>left</t>
+        <v>1</v>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>right</t>
         </is>
       </c>
     </row>
@@ -8084,17 +8232,14 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="C16" t="n">
-        <v>4</v>
-      </c>
-      <c r="D16" t="n">
-        <v>1</v>
-      </c>
-      <c r="E16" t="inlineStr">
-        <is>
-          <t>right</t>
+        <v>0</v>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>left</t>
         </is>
       </c>
     </row>
@@ -8106,12 +8251,9 @@
         <v>8</v>
       </c>
       <c r="C17" t="n">
-        <v>4</v>
-      </c>
-      <c r="D17" t="n">
-        <v>0</v>
-      </c>
-      <c r="E17" t="inlineStr">
+        <v>0</v>
+      </c>
+      <c r="D17" t="inlineStr">
         <is>
           <t>left</t>
         </is>
@@ -8122,15 +8264,12 @@
         <v>16</v>
       </c>
       <c r="B18" t="n">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="C18" t="n">
-        <v>4</v>
-      </c>
-      <c r="D18" t="n">
-        <v>0</v>
-      </c>
-      <c r="E18" t="inlineStr">
+        <v>0</v>
+      </c>
+      <c r="D18" t="inlineStr">
         <is>
           <t>left</t>
         </is>
@@ -8141,15 +8280,12 @@
         <v>17</v>
       </c>
       <c r="B19" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="C19" t="n">
-        <v>4</v>
-      </c>
-      <c r="D19" t="n">
-        <v>1</v>
-      </c>
-      <c r="E19" t="inlineStr">
+        <v>1</v>
+      </c>
+      <c r="D19" t="inlineStr">
         <is>
           <t>right</t>
         </is>
@@ -8160,17 +8296,14 @@
         <v>18</v>
       </c>
       <c r="B20" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="C20" t="n">
-        <v>4</v>
-      </c>
-      <c r="D20" t="n">
-        <v>0</v>
-      </c>
-      <c r="E20" t="inlineStr">
-        <is>
-          <t>left</t>
+        <v>1</v>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>right</t>
         </is>
       </c>
     </row>
@@ -8179,17 +8312,14 @@
         <v>19</v>
       </c>
       <c r="B21" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="C21" t="n">
-        <v>4</v>
-      </c>
-      <c r="D21" t="n">
-        <v>1</v>
-      </c>
-      <c r="E21" t="inlineStr">
-        <is>
-          <t>right</t>
+        <v>0</v>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>left</t>
         </is>
       </c>
     </row>
@@ -8204,7 +8334,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E21"/>
+  <dimension ref="A1:D21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -8220,15 +8350,10 @@
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
-          <t>match_num</t>
+          <t>match</t>
         </is>
       </c>
       <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>match</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
         <is>
           <t>corr_key</t>
         </is>
@@ -8239,17 +8364,14 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>3</v>
-      </c>
-      <c r="D2" t="n">
-        <v>1</v>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>right</t>
+        <v>0</v>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>left</t>
         </is>
       </c>
     </row>
@@ -8258,15 +8380,12 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="C3" t="n">
-        <v>3</v>
-      </c>
-      <c r="D3" t="n">
-        <v>0</v>
-      </c>
-      <c r="E3" t="inlineStr">
+        <v>0</v>
+      </c>
+      <c r="D3" t="inlineStr">
         <is>
           <t>left</t>
         </is>
@@ -8277,17 +8396,14 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C4" t="n">
-        <v>3</v>
-      </c>
-      <c r="D4" t="n">
-        <v>1</v>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>right</t>
+        <v>0</v>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>left</t>
         </is>
       </c>
     </row>
@@ -8296,15 +8412,12 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="C5" t="n">
-        <v>3</v>
-      </c>
-      <c r="D5" t="n">
-        <v>0</v>
-      </c>
-      <c r="E5" t="inlineStr">
+        <v>0</v>
+      </c>
+      <c r="D5" t="inlineStr">
         <is>
           <t>left</t>
         </is>
@@ -8315,15 +8428,12 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="C6" t="n">
-        <v>3</v>
-      </c>
-      <c r="D6" t="n">
-        <v>0</v>
-      </c>
-      <c r="E6" t="inlineStr">
+        <v>0</v>
+      </c>
+      <c r="D6" t="inlineStr">
         <is>
           <t>left</t>
         </is>
@@ -8337,14 +8447,11 @@
         <v>2</v>
       </c>
       <c r="C7" t="n">
-        <v>3</v>
-      </c>
-      <c r="D7" t="n">
-        <v>0</v>
-      </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>left</t>
+        <v>1</v>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>right</t>
         </is>
       </c>
     </row>
@@ -8353,15 +8460,12 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C8" t="n">
-        <v>3</v>
-      </c>
-      <c r="D8" t="n">
-        <v>1</v>
-      </c>
-      <c r="E8" t="inlineStr">
+        <v>1</v>
+      </c>
+      <c r="D8" t="inlineStr">
         <is>
           <t>right</t>
         </is>
@@ -8372,15 +8476,12 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="C9" t="n">
-        <v>3</v>
-      </c>
-      <c r="D9" t="n">
-        <v>0</v>
-      </c>
-      <c r="E9" t="inlineStr">
+        <v>0</v>
+      </c>
+      <c r="D9" t="inlineStr">
         <is>
           <t>left</t>
         </is>
@@ -8391,17 +8492,14 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="C10" t="n">
-        <v>3</v>
-      </c>
-      <c r="D10" t="n">
-        <v>1</v>
-      </c>
-      <c r="E10" t="inlineStr">
-        <is>
-          <t>right</t>
+        <v>0</v>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>left</t>
         </is>
       </c>
     </row>
@@ -8410,17 +8508,14 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C11" t="n">
-        <v>3</v>
-      </c>
-      <c r="D11" t="n">
-        <v>1</v>
-      </c>
-      <c r="E11" t="inlineStr">
-        <is>
-          <t>right</t>
+        <v>0</v>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>left</t>
         </is>
       </c>
     </row>
@@ -8429,17 +8524,14 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C12" t="n">
-        <v>3</v>
-      </c>
-      <c r="D12" t="n">
-        <v>0</v>
-      </c>
-      <c r="E12" t="inlineStr">
-        <is>
-          <t>left</t>
+        <v>1</v>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>right</t>
         </is>
       </c>
     </row>
@@ -8448,15 +8540,12 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>3</v>
-      </c>
-      <c r="D13" t="n">
-        <v>0</v>
-      </c>
-      <c r="E13" t="inlineStr">
+        <v>0</v>
+      </c>
+      <c r="D13" t="inlineStr">
         <is>
           <t>left</t>
         </is>
@@ -8467,15 +8556,12 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="C14" t="n">
-        <v>3</v>
-      </c>
-      <c r="D14" t="n">
-        <v>0</v>
-      </c>
-      <c r="E14" t="inlineStr">
+        <v>0</v>
+      </c>
+      <c r="D14" t="inlineStr">
         <is>
           <t>left</t>
         </is>
@@ -8486,15 +8572,12 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C15" t="n">
-        <v>3</v>
-      </c>
-      <c r="D15" t="n">
-        <v>0</v>
-      </c>
-      <c r="E15" t="inlineStr">
+        <v>0</v>
+      </c>
+      <c r="D15" t="inlineStr">
         <is>
           <t>left</t>
         </is>
@@ -8505,17 +8588,14 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C16" t="n">
-        <v>3</v>
-      </c>
-      <c r="D16" t="n">
-        <v>0</v>
-      </c>
-      <c r="E16" t="inlineStr">
-        <is>
-          <t>left</t>
+        <v>1</v>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>right</t>
         </is>
       </c>
     </row>
@@ -8524,15 +8604,12 @@
         <v>15</v>
       </c>
       <c r="B17" t="n">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="C17" t="n">
-        <v>3</v>
-      </c>
-      <c r="D17" t="n">
-        <v>1</v>
-      </c>
-      <c r="E17" t="inlineStr">
+        <v>1</v>
+      </c>
+      <c r="D17" t="inlineStr">
         <is>
           <t>right</t>
         </is>
@@ -8543,17 +8620,14 @@
         <v>16</v>
       </c>
       <c r="B18" t="n">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="C18" t="n">
-        <v>3</v>
-      </c>
-      <c r="D18" t="n">
-        <v>0</v>
-      </c>
-      <c r="E18" t="inlineStr">
-        <is>
-          <t>left</t>
+        <v>1</v>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>right</t>
         </is>
       </c>
     </row>
@@ -8565,14 +8639,11 @@
         <v>8</v>
       </c>
       <c r="C19" t="n">
-        <v>3</v>
-      </c>
-      <c r="D19" t="n">
-        <v>0</v>
-      </c>
-      <c r="E19" t="inlineStr">
-        <is>
-          <t>left</t>
+        <v>1</v>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>right</t>
         </is>
       </c>
     </row>
@@ -8581,17 +8652,14 @@
         <v>18</v>
       </c>
       <c r="B20" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="C20" t="n">
-        <v>3</v>
-      </c>
-      <c r="D20" t="n">
-        <v>1</v>
-      </c>
-      <c r="E20" t="inlineStr">
-        <is>
-          <t>right</t>
+        <v>0</v>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>left</t>
         </is>
       </c>
     </row>
@@ -8600,15 +8668,12 @@
         <v>19</v>
       </c>
       <c r="B21" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="C21" t="n">
-        <v>3</v>
-      </c>
-      <c r="D21" t="n">
-        <v>1</v>
-      </c>
-      <c r="E21" t="inlineStr">
+        <v>1</v>
+      </c>
+      <c r="D21" t="inlineStr">
         <is>
           <t>right</t>
         </is>
@@ -8625,7 +8690,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E21"/>
+  <dimension ref="A1:D21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -8641,15 +8706,10 @@
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
-          <t>match_num</t>
+          <t>match</t>
         </is>
       </c>
       <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>match</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
         <is>
           <t>corr_key</t>
         </is>
@@ -8660,15 +8720,12 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
       </c>
-      <c r="D2" t="n">
-        <v>0</v>
-      </c>
-      <c r="E2" t="inlineStr">
+      <c r="D2" t="inlineStr">
         <is>
           <t>left</t>
         </is>
@@ -8679,15 +8736,12 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
       </c>
-      <c r="D3" t="n">
-        <v>0</v>
-      </c>
-      <c r="E3" t="inlineStr">
+      <c r="D3" t="inlineStr">
         <is>
           <t>left</t>
         </is>
@@ -8703,10 +8757,7 @@
       <c r="C4" t="n">
         <v>0</v>
       </c>
-      <c r="D4" t="n">
-        <v>0</v>
-      </c>
-      <c r="E4" t="inlineStr">
+      <c r="D4" t="inlineStr">
         <is>
           <t>left</t>
         </is>
@@ -8717,17 +8768,14 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="C5" t="n">
         <v>0</v>
       </c>
-      <c r="D5" t="n">
-        <v>1</v>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>right</t>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>left</t>
         </is>
       </c>
     </row>
@@ -8736,15 +8784,12 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C6" t="n">
-        <v>0</v>
-      </c>
-      <c r="D6" t="n">
-        <v>1</v>
-      </c>
-      <c r="E6" t="inlineStr">
+        <v>1</v>
+      </c>
+      <c r="D6" t="inlineStr">
         <is>
           <t>right</t>
         </is>
@@ -8755,15 +8800,12 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="C7" t="n">
         <v>0</v>
       </c>
-      <c r="D7" t="n">
-        <v>0</v>
-      </c>
-      <c r="E7" t="inlineStr">
+      <c r="D7" t="inlineStr">
         <is>
           <t>left</t>
         </is>
@@ -8774,17 +8816,14 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
-      </c>
-      <c r="D8" t="n">
-        <v>0</v>
-      </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>left</t>
+        <v>1</v>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>right</t>
         </is>
       </c>
     </row>
@@ -8793,15 +8832,12 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="C9" t="n">
-        <v>0</v>
-      </c>
-      <c r="D9" t="n">
-        <v>1</v>
-      </c>
-      <c r="E9" t="inlineStr">
+        <v>1</v>
+      </c>
+      <c r="D9" t="inlineStr">
         <is>
           <t>right</t>
         </is>
@@ -8812,17 +8848,14 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="C10" t="n">
         <v>0</v>
       </c>
-      <c r="D10" t="n">
-        <v>1</v>
-      </c>
-      <c r="E10" t="inlineStr">
-        <is>
-          <t>right</t>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>left</t>
         </is>
       </c>
     </row>
@@ -8831,17 +8864,14 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="C11" t="n">
         <v>0</v>
       </c>
-      <c r="D11" t="n">
-        <v>1</v>
-      </c>
-      <c r="E11" t="inlineStr">
-        <is>
-          <t>right</t>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>left</t>
         </is>
       </c>
     </row>
@@ -8850,15 +8880,12 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="C12" t="n">
-        <v>0</v>
-      </c>
-      <c r="D12" t="n">
-        <v>1</v>
-      </c>
-      <c r="E12" t="inlineStr">
+        <v>1</v>
+      </c>
+      <c r="D12" t="inlineStr">
         <is>
           <t>right</t>
         </is>
@@ -8872,14 +8899,11 @@
         <v>7</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
-      </c>
-      <c r="D13" t="n">
-        <v>0</v>
-      </c>
-      <c r="E13" t="inlineStr">
-        <is>
-          <t>left</t>
+        <v>1</v>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>right</t>
         </is>
       </c>
     </row>
@@ -8888,15 +8912,12 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="C14" t="n">
         <v>0</v>
       </c>
-      <c r="D14" t="n">
-        <v>0</v>
-      </c>
-      <c r="E14" t="inlineStr">
+      <c r="D14" t="inlineStr">
         <is>
           <t>left</t>
         </is>
@@ -8907,17 +8928,14 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="C15" t="n">
         <v>0</v>
       </c>
-      <c r="D15" t="n">
-        <v>1</v>
-      </c>
-      <c r="E15" t="inlineStr">
-        <is>
-          <t>right</t>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>left</t>
         </is>
       </c>
     </row>
@@ -8931,12 +8949,9 @@
       <c r="C16" t="n">
         <v>0</v>
       </c>
-      <c r="D16" t="n">
-        <v>1</v>
-      </c>
-      <c r="E16" t="inlineStr">
-        <is>
-          <t>right</t>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>left</t>
         </is>
       </c>
     </row>
@@ -8948,14 +8963,11 @@
         <v>8</v>
       </c>
       <c r="C17" t="n">
-        <v>0</v>
-      </c>
-      <c r="D17" t="n">
-        <v>0</v>
-      </c>
-      <c r="E17" t="inlineStr">
-        <is>
-          <t>left</t>
+        <v>1</v>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>right</t>
         </is>
       </c>
     </row>
@@ -8964,17 +8976,14 @@
         <v>16</v>
       </c>
       <c r="B18" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="C18" t="n">
-        <v>0</v>
-      </c>
-      <c r="D18" t="n">
-        <v>0</v>
-      </c>
-      <c r="E18" t="inlineStr">
-        <is>
-          <t>left</t>
+        <v>1</v>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>right</t>
         </is>
       </c>
     </row>
@@ -8983,15 +8992,12 @@
         <v>17</v>
       </c>
       <c r="B19" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="C19" t="n">
         <v>0</v>
       </c>
-      <c r="D19" t="n">
-        <v>0</v>
-      </c>
-      <c r="E19" t="inlineStr">
+      <c r="D19" t="inlineStr">
         <is>
           <t>left</t>
         </is>
@@ -9002,17 +9008,14 @@
         <v>18</v>
       </c>
       <c r="B20" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="C20" t="n">
-        <v>0</v>
-      </c>
-      <c r="D20" t="n">
-        <v>0</v>
-      </c>
-      <c r="E20" t="inlineStr">
-        <is>
-          <t>left</t>
+        <v>1</v>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>right</t>
         </is>
       </c>
     </row>
@@ -9021,15 +9024,12 @@
         <v>19</v>
       </c>
       <c r="B21" t="n">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="C21" t="n">
         <v>0</v>
       </c>
-      <c r="D21" t="n">
-        <v>0</v>
-      </c>
-      <c r="E21" t="inlineStr">
+      <c r="D21" t="inlineStr">
         <is>
           <t>left</t>
         </is>
@@ -9076,7 +9076,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
@@ -9092,14 +9092,14 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C3" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>right</t>
+          <t>left</t>
         </is>
       </c>
     </row>
@@ -9108,7 +9108,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -9140,14 +9140,14 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C6" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>left</t>
+          <t>right</t>
         </is>
       </c>
     </row>
@@ -9156,14 +9156,14 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="C7" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>right</t>
+          <t>left</t>
         </is>
       </c>
     </row>
@@ -9172,14 +9172,14 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C8" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>right</t>
+          <t>left</t>
         </is>
       </c>
     </row>
@@ -9188,14 +9188,14 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C9" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>left</t>
+          <t>right</t>
         </is>
       </c>
     </row>
@@ -9220,7 +9220,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="C11" t="n">
         <v>1</v>
@@ -9236,14 +9236,14 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="C12" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>left</t>
+          <t>right</t>
         </is>
       </c>
     </row>
@@ -9252,14 +9252,14 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>left</t>
+          <t>right</t>
         </is>
       </c>
     </row>
@@ -9268,7 +9268,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="C14" t="n">
         <v>0</v>
@@ -9284,14 +9284,14 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C15" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>right</t>
+          <t>left</t>
         </is>
       </c>
     </row>
@@ -9300,14 +9300,14 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="C16" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>right</t>
+          <t>left</t>
         </is>
       </c>
     </row>
@@ -9316,14 +9316,14 @@
         <v>15</v>
       </c>
       <c r="B17" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="C17" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>left</t>
+          <t>right</t>
         </is>
       </c>
     </row>
@@ -9332,7 +9332,7 @@
         <v>16</v>
       </c>
       <c r="B18" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C18" t="n">
         <v>0</v>
@@ -9348,14 +9348,14 @@
         <v>17</v>
       </c>
       <c r="B19" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>left</t>
+          <t>right</t>
         </is>
       </c>
     </row>
@@ -9364,14 +9364,14 @@
         <v>18</v>
       </c>
       <c r="B20" t="n">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="C20" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>right</t>
+          <t>left</t>
         </is>
       </c>
     </row>
@@ -9380,7 +9380,7 @@
         <v>19</v>
       </c>
       <c r="B21" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C21" t="n">
         <v>1</v>
@@ -9432,7 +9432,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
@@ -9448,7 +9448,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -9464,7 +9464,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -9480,14 +9480,14 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>right</t>
+          <t>left</t>
         </is>
       </c>
     </row>
@@ -9496,14 +9496,14 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="C6" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>left</t>
+          <t>right</t>
         </is>
       </c>
     </row>
@@ -9512,14 +9512,14 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="C7" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>right</t>
+          <t>left</t>
         </is>
       </c>
     </row>
@@ -9528,14 +9528,14 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>left</t>
+          <t>right</t>
         </is>
       </c>
     </row>
@@ -9544,7 +9544,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="C9" t="n">
         <v>1</v>
@@ -9560,14 +9560,14 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="C10" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>right</t>
+          <t>left</t>
         </is>
       </c>
     </row>
@@ -9576,14 +9576,14 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C11" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>left</t>
+          <t>right</t>
         </is>
       </c>
     </row>
@@ -9592,7 +9592,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C12" t="n">
         <v>0</v>
@@ -9608,7 +9608,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C13" t="n">
         <v>0</v>
@@ -9624,7 +9624,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C14" t="n">
         <v>0</v>
@@ -9640,7 +9640,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C15" t="n">
         <v>1</v>
@@ -9656,14 +9656,14 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C16" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>right</t>
+          <t>left</t>
         </is>
       </c>
     </row>
@@ -9672,14 +9672,14 @@
         <v>15</v>
       </c>
       <c r="B17" t="n">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="C17" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>left</t>
+          <t>right</t>
         </is>
       </c>
     </row>
@@ -9688,7 +9688,7 @@
         <v>16</v>
       </c>
       <c r="B18" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C18" t="n">
         <v>1</v>
@@ -9704,7 +9704,7 @@
         <v>17</v>
       </c>
       <c r="B19" t="n">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="C19" t="n">
         <v>1</v>
@@ -9720,7 +9720,7 @@
         <v>18</v>
       </c>
       <c r="B20" t="n">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="C20" t="n">
         <v>0</v>
@@ -9736,7 +9736,7 @@
         <v>19</v>
       </c>
       <c r="B21" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C21" t="n">
         <v>0</v>
